--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6A6E57-6855-424D-B948-921861DCE4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB6D4EE-562D-834F-91FE-8C3F1DEBBD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="760" windowWidth="26000" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="4280" yWindow="500" windowWidth="26000" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Cancer" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$EJ$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$EP$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="443">
   <si>
     <t>Yes</t>
   </si>
@@ -1340,6 +1340,36 @@
   </si>
   <si>
     <t>Other genes/syndromes</t>
+  </si>
+  <si>
+    <t>Caucasian (white), Black/African American, Native Hawaiian/Other Pacific Islander, American Indian/Alaskan Native, Asian, Other (please specify)</t>
+  </si>
+  <si>
+    <t>VitalStatus</t>
+  </si>
+  <si>
+    <t>Not answered</t>
+  </si>
+  <si>
+    <t>DOD</t>
+  </si>
+  <si>
+    <t>AreYouTheLegalGuardianOfThisPerson</t>
+  </si>
+  <si>
+    <t>sj.fanconitester1@yopmail.com</t>
+  </si>
+  <si>
+    <t>sj.fanconitester2@yopmail.com</t>
+  </si>
+  <si>
+    <t>RegistrationEmailAddress</t>
+  </si>
+  <si>
+    <t>ProxyEmailAddress</t>
+  </si>
+  <si>
+    <t>CalculatedAge</t>
   </si>
 </sst>
 </file>
@@ -1957,11 +1987,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:EJ18"/>
+  <dimension ref="A1:EP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BY2" sqref="BY2:BY13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1980,47 +2010,48 @@
     <col min="15" max="15" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="16" style="3" customWidth="1"/>
-    <col min="20" max="20" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.1640625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="12.83203125" style="3" customWidth="1"/>
+    <col min="18" max="20" width="13.33203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="16" style="3" customWidth="1"/>
+    <col min="22" max="22" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.1640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.83203125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="17.6640625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="19" style="3" customWidth="1"/>
-    <col min="28" max="28" width="13.5" style="3" customWidth="1"/>
-    <col min="29" max="29" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="33.33203125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="30.6640625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.5" style="3" customWidth="1"/>
-    <col min="38" max="38" width="18" style="3" customWidth="1"/>
-    <col min="39" max="39" width="12.5" style="3" customWidth="1"/>
-    <col min="40" max="40" width="16" style="3" customWidth="1"/>
-    <col min="41" max="41" width="16.5" style="3" customWidth="1"/>
-    <col min="42" max="42" width="7" style="3" customWidth="1"/>
-    <col min="43" max="43" width="12.6640625" style="3" customWidth="1"/>
-    <col min="44" max="44" width="10.83203125" style="3" customWidth="1"/>
-    <col min="45" max="45" width="28.6640625" style="3" customWidth="1"/>
-    <col min="46" max="46" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="36.5" style="3" customWidth="1"/>
-    <col min="48" max="48" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="58" width="20.33203125" style="3" customWidth="1"/>
-    <col min="59" max="59" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="20.1640625" style="3" customWidth="1"/>
-    <col min="63" max="113" width="20.83203125" style="3"/>
-    <col min="114" max="114" width="38.33203125" style="3" customWidth="1"/>
-    <col min="115" max="16384" width="20.83203125" style="3"/>
+    <col min="24" max="24" width="12.83203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="13.1640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8" style="3" customWidth="1"/>
+    <col min="28" max="28" width="22.83203125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="17.6640625" style="3" customWidth="1"/>
+    <col min="30" max="30" width="19" style="3" customWidth="1"/>
+    <col min="31" max="31" width="13.5" style="3" customWidth="1"/>
+    <col min="32" max="32" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="33.33203125" style="3" customWidth="1"/>
+    <col min="35" max="37" width="30.6640625" style="3" customWidth="1"/>
+    <col min="38" max="38" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.5" style="3" customWidth="1"/>
+    <col min="43" max="43" width="18" style="3" customWidth="1"/>
+    <col min="44" max="44" width="12.5" style="3" customWidth="1"/>
+    <col min="45" max="45" width="16" style="3" customWidth="1"/>
+    <col min="46" max="46" width="16.5" style="3" customWidth="1"/>
+    <col min="47" max="47" width="7" style="3" customWidth="1"/>
+    <col min="48" max="48" width="12.6640625" style="3" customWidth="1"/>
+    <col min="49" max="49" width="10.83203125" style="3" customWidth="1"/>
+    <col min="50" max="51" width="28.6640625" style="3" customWidth="1"/>
+    <col min="52" max="52" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="36.5" style="3" customWidth="1"/>
+    <col min="54" max="54" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="64" width="20.33203125" style="3" customWidth="1"/>
+    <col min="65" max="65" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="20.1640625" style="3" customWidth="1"/>
+    <col min="69" max="119" width="20.83203125" style="3"/>
+    <col min="120" max="120" width="38.33203125" style="3" customWidth="1"/>
+    <col min="121" max="16384" width="20.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:140" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:146" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>193</v>
       </c>
@@ -2075,374 +2106,392 @@
       <c r="R1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="X1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="X1" s="11" t="s">
+      <c r="Z1" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AJ1" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="AL1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AV1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AW1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AX1" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AY1" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="AZ1" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="AU1" s="16" t="s">
+      <c r="BA1" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="AV1" s="16" t="s">
+      <c r="BB1" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="16" t="s">
+      <c r="BC1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="16" t="s">
+      <c r="BD1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="16" t="s">
+      <c r="BE1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" s="16" t="s">
+      <c r="BF1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="16" t="s">
+      <c r="BG1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="BB1" s="16" t="s">
+      <c r="BH1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="16" t="s">
+      <c r="BI1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BD1" s="16" t="s">
+      <c r="BJ1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="BE1" s="16" t="s">
+      <c r="BK1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="BF1" s="16" t="s">
+      <c r="BL1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" s="13" t="s">
+      <c r="BM1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="BH1" s="13" t="s">
+      <c r="BN1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BO1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="BJ1" s="13" t="s">
+      <c r="BP1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="BK1" s="13" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="BL1" s="13" t="s">
+      <c r="BR1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="BM1" s="13" t="s">
+      <c r="BS1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BT1" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BU1" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BV1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BW1" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BX1" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BY1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="CA1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="CB1" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="BW1" s="13" t="s">
+      <c r="CC1" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="CD1" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="CE1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="CF1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CG1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="CB1" s="13" t="s">
+      <c r="CH1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="CC1" s="13" t="s">
+      <c r="CI1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="CD1" s="13" t="s">
+      <c r="CJ1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="CE1" s="13" t="s">
+      <c r="CK1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="CF1" s="13" t="s">
+      <c r="CL1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="CG1" s="13" t="s">
+      <c r="CM1" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CN1" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="CI1" s="13" t="s">
+      <c r="CO1" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="CJ1" s="13" t="s">
+      <c r="CP1" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CQ1" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="CL1" s="13" t="s">
+      <c r="CR1" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CS1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="CN1" s="13" t="s">
+      <c r="CT1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="CO1" s="13" t="s">
+      <c r="CU1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="CP1" s="13" t="s">
+      <c r="CV1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="CQ1" s="13" t="s">
+      <c r="CW1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="CR1" s="13" t="s">
+      <c r="CX1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="CS1" s="13" t="s">
+      <c r="CY1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="CT1" s="13" t="s">
+      <c r="CZ1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="CU1" s="13" t="s">
+      <c r="DA1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="CV1" s="13" t="s">
+      <c r="DB1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="CW1" s="13" t="s">
+      <c r="DC1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="CX1" s="13" t="s">
+      <c r="DD1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="CY1" s="13" t="s">
+      <c r="DE1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="CZ1" s="13" t="s">
+      <c r="DF1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="DA1" s="13" t="s">
+      <c r="DG1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="DB1" s="13" t="s">
+      <c r="DH1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="DC1" s="13" t="s">
+      <c r="DI1" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="DD1" s="13" t="s">
+      <c r="DJ1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="DE1" s="13" t="s">
+      <c r="DK1" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="DF1" s="13" t="s">
+      <c r="DL1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="DG1" s="13" t="s">
+      <c r="DM1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="DH1" s="13" t="s">
+      <c r="DN1" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="DI1" s="13" t="s">
+      <c r="DO1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="DJ1" s="13" t="s">
+      <c r="DP1" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="DK1" s="13" t="s">
+      <c r="DQ1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="DL1" s="13" t="s">
+      <c r="DR1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="DM1" s="13" t="s">
+      <c r="DS1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="DN1" s="13" t="s">
+      <c r="DT1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="DO1" s="13" t="s">
+      <c r="DU1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="DP1" s="13" t="s">
+      <c r="DV1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="DQ1" s="13" t="s">
+      <c r="DW1" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="DR1" s="13" t="s">
+      <c r="DX1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="DS1" s="17" t="s">
+      <c r="DY1" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="DT1" s="17" t="s">
+      <c r="DZ1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="DU1" s="17" t="s">
+      <c r="EA1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="DV1" s="17" t="s">
+      <c r="EB1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="DW1" s="17" t="s">
+      <c r="EC1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="DX1" s="17" t="s">
+      <c r="ED1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="DY1" s="17" t="s">
+      <c r="EE1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="DZ1" s="17" t="s">
+      <c r="EF1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="EA1" s="17" t="s">
+      <c r="EG1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="EB1" s="17" t="s">
+      <c r="EH1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="EC1" s="17" t="s">
+      <c r="EI1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="ED1" s="17" t="s">
+      <c r="EJ1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="EE1" s="17" t="s">
+      <c r="EK1" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="EF1" s="17" t="s">
+      <c r="EL1" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="EG1" s="17" t="s">
+      <c r="EM1" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="EH1" s="17" t="s">
+      <c r="EN1" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="EI1" s="17" t="s">
+      <c r="EO1" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="EJ1" s="17" t="s">
+      <c r="EP1" s="17" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="2" spans="1:140" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:146" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
@@ -2470,300 +2519,296 @@
       <c r="R2" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="22"/>
+      <c r="T2" s="22">
+        <v>76</v>
+      </c>
+      <c r="U2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="V2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="X2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="21" t="s">
+      <c r="Z2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="AB2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="AC2" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AD2" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AE2" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AF2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="21">
+      <c r="AG2" s="21">
         <v>28907</v>
       </c>
-      <c r="AE2" s="18" t="s">
+      <c r="AH2" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="AF2" s="18" t="s">
+      <c r="AI2" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="AG2" s="21">
+      <c r="AJ2" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH2" s="21">
+      <c r="AM2" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI2" s="21">
+      <c r="AN2" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ2" s="21">
+      <c r="AO2" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AK2" s="21" t="s">
+      <c r="AP2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AL2" s="21" t="s">
+      <c r="AQ2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AM2" s="21" t="s">
+      <c r="AR2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AS2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AO2" s="21" t="s">
+      <c r="AT2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AP2" s="21" t="s">
+      <c r="AU2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AQ2" s="21" t="s">
+      <c r="AV2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AR2" s="21" t="s">
+      <c r="AW2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AS2" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="21" t="s">
+      <c r="AX2" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="AY2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="AV2" s="21" t="s">
+      <c r="BB2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AW2" s="21" t="s">
+      <c r="BC2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AX2" s="21" t="s">
+      <c r="BD2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AY2" s="21" t="s">
+      <c r="BE2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="BF2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BA2" s="21" t="s">
+      <c r="BG2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BB2" s="21" t="s">
+      <c r="BH2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BC2" s="21" t="s">
+      <c r="BI2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BD2" s="21" t="s">
+      <c r="BJ2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BE2" s="21" t="s">
+      <c r="BK2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BF2" s="21" t="s">
+      <c r="BL2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="BG2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH2" s="21" t="s">
+      <c r="BM2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BJ2" s="21">
+      <c r="BP2" s="21">
         <v>91</v>
       </c>
-      <c r="BK2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="21" t="s">
+      <c r="BQ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BP2" s="21" t="s">
+      <c r="BV2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BQ2" s="23" t="s">
+      <c r="BW2" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="BR2" s="23" t="s">
+      <c r="BX2" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="BS2" s="21" t="s">
+      <c r="BY2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BT2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY2" s="21" t="s">
+      <c r="BZ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE2" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="BZ2" s="21" t="s">
+      <c r="CF2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CA2" s="21" t="s">
+      <c r="CG2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CB2" s="21" t="s">
+      <c r="CH2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CC2" s="21" t="s">
+      <c r="CI2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CD2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE2" s="21" t="s">
+      <c r="CJ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="CF2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="21" t="s">
+      <c r="CL2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CH2" s="21" t="s">
+      <c r="CN2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="CI2" s="21">
+      <c r="CO2" s="21">
         <v>1997</v>
       </c>
-      <c r="CK2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL2" s="21" t="s">
+      <c r="CQ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="CM2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="21" t="s">
+      <c r="CS2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CQ2" s="21">
+      <c r="CW2" s="21">
         <v>101</v>
       </c>
-      <c r="CR2" s="21" t="s">
+      <c r="CX2" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="CS2" s="21" t="s">
+      <c r="CY2" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="CT2" s="21" t="s">
+      <c r="CZ2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CU2" s="21" t="s">
+      <c r="DA2" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="CV2" s="21">
+      <c r="DB2" s="21">
         <v>1985</v>
       </c>
-      <c r="CX2" s="21" t="s">
+      <c r="DD2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="CY2" s="21" t="s">
+      <c r="DE2" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="CZ2" s="21" t="s">
+      <c r="DF2" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="DA2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB2" s="21" t="s">
+      <c r="DG2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH2" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="DC2" s="21" t="s">
+      <c r="DI2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DD2" s="21" t="s">
+      <c r="DJ2" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="DE2" s="21" t="s">
+      <c r="DK2" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DF2" s="21" t="s">
+      <c r="DL2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DG2" s="21" t="s">
+      <c r="DM2" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DH2" s="21">
+      <c r="DN2" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DI2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ2" s="21" t="s">
+      <c r="DO2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP2" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK2" s="21" t="s">
+      <c r="DQ2" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL2" s="21" t="s">
+      <c r="DR2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM2" s="21" t="s">
+      <c r="DS2" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN2" s="21" t="s">
+      <c r="DT2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO2" s="21" t="s">
+      <c r="DU2" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP2" s="21" t="s">
+      <c r="DV2" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ2" s="21" t="s">
+      <c r="DW2" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR2" s="21" t="s">
+      <c r="DX2" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DU2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DV2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DW2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DX2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DY2" s="21" t="s">
         <v>0</v>
       </c>
@@ -2782,26 +2827,44 @@
       <c r="ED2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EE2" s="27" t="s">
+      <c r="EE2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EG2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EH2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EI2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EJ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EK2" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ2" s="21" t="s">
+      <c r="EL2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP2" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:140" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:146" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>38</v>
       </c>
@@ -2829,231 +2892,219 @@
       <c r="R3" s="22" t="s">
         <v>419</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="V3" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="X3" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="X3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Z3" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB3" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AH3" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="AF3" s="18" t="s">
+      <c r="AI3" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="AG3" s="21">
+      <c r="AJ3" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH3" s="21">
+      <c r="AM3" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI3" s="21">
+      <c r="AN3" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ3" s="21">
+      <c r="AO3" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AK3" s="21" t="s">
+      <c r="AP3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AL3" s="21" t="s">
+      <c r="AQ3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AM3" s="21" t="s">
+      <c r="AR3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AN3" s="21" t="s">
+      <c r="AS3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AO3" s="21" t="s">
+      <c r="AT3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AP3" s="21" t="s">
+      <c r="AU3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AQ3" s="21" t="s">
+      <c r="AV3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AR3" s="21" t="s">
+      <c r="AW3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AS3" s="21" t="s">
+      <c r="AX3" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="AT3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="21" t="s">
+      <c r="AZ3" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="BI3" s="22" t="s">
+      <c r="BO3" s="22" t="s">
         <v>300</v>
       </c>
-      <c r="BK3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="21" t="s">
+      <c r="BQ3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="BP3" s="21" t="s">
+      <c r="BV3" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="BS3" s="21" t="s">
+      <c r="BY3" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="BT3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="21" t="s">
+      <c r="BZ3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="BZ3" s="21" t="s">
+      <c r="CF3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CA3" s="21" t="s">
+      <c r="CG3" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="CB3" s="21" t="s">
+      <c r="CH3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CC3" s="21" t="s">
+      <c r="CI3" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="CD3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="21" t="s">
+      <c r="CJ3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="CF3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="21" t="s">
+      <c r="CL3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CJ3" s="21">
+      <c r="CP3" s="21">
         <v>100</v>
       </c>
-      <c r="CK3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CL3" s="21" t="s">
+      <c r="CQ3" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CR3" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="CM3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CN3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="21" t="s">
+      <c r="CS3" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CP3" s="22" t="s">
+      <c r="CV3" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="CR3" s="21" t="s">
+      <c r="CX3" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="CS3" s="21" t="s">
+      <c r="CY3" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="CT3" s="21" t="s">
+      <c r="CZ3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CW3" s="21">
+      <c r="DC3" s="21">
         <v>102</v>
       </c>
-      <c r="CX3" s="21" t="s">
+      <c r="DD3" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="CY3" s="21" t="s">
+      <c r="DE3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="CZ3" s="21" t="s">
+      <c r="DF3" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="DA3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB3" s="21" t="s">
+      <c r="DG3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="DD3" s="21" t="s">
+      <c r="DJ3" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="DF3" s="21" t="s">
+      <c r="DL3" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="DG3" s="21" t="s">
+      <c r="DM3" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="DH3" s="21">
+      <c r="DN3" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DI3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DJ3" s="21" t="s">
+      <c r="DO3" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="DP3" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK3" s="21" t="s">
+      <c r="DQ3" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL3" s="21" t="s">
+      <c r="DR3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM3" s="21" t="s">
+      <c r="DS3" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN3" s="21" t="s">
+      <c r="DT3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO3" s="21" t="s">
+      <c r="DU3" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP3" s="21" t="s">
+      <c r="DV3" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ3" s="21" t="s">
+      <c r="DW3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR3" s="21" t="s">
+      <c r="DX3" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DU3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DV3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DW3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DX3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DY3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3072,26 +3123,44 @@
       <c r="ED3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EE3" s="27" t="s">
+      <c r="EE3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EG3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EH3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EI3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EJ3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EK3" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ3" s="21" t="s">
+      <c r="EL3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:140" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>38</v>
       </c>
@@ -3119,204 +3188,190 @@
       <c r="R4" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="S4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="T4" s="21" t="s">
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="V4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="X4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="X4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y4" s="21" t="s">
+      <c r="Z4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB4" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AH4" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="AF4" s="18" t="s">
+      <c r="AI4" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="AG4" s="21">
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH4" s="21">
+      <c r="AM4" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI4" s="21">
+      <c r="AN4" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ4" s="21">
+      <c r="AO4" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AK4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL4" s="21" t="s">
+      <c r="AP4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AS4" s="21" t="s">
+      <c r="AX4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AT4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="BK4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="21" t="s">
+      <c r="AZ4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="BP4" s="21" t="s">
+      <c r="BV4" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BS4" s="21" t="s">
+      <c r="BY4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="BT4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="21" t="s">
+      <c r="BZ4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="BZ4" s="21" t="s">
+      <c r="CF4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CA4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CB4" s="21" t="s">
+      <c r="CG4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CH4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CC4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CD4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="21" t="s">
+      <c r="CI4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CJ4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="CF4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="21" t="s">
+      <c r="CL4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="CK4" s="21" t="s">
+      <c r="CQ4" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="CL4" s="21" t="s">
+      <c r="CR4" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="CM4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CR4" s="21" t="s">
+      <c r="CS4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CX4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="CS4" s="21" t="s">
+      <c r="CY4" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="CT4" s="21" t="s">
+      <c r="CZ4" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="CX4" s="21" t="s">
+      <c r="DD4" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="CY4" s="21" t="s">
+      <c r="DE4" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="CZ4" s="21" t="s">
+      <c r="DF4" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="DA4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB4" s="21" t="s">
+      <c r="DG4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="DC4" s="21" t="s">
+      <c r="DI4" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DD4" s="23" t="s">
+      <c r="DJ4" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="DF4" s="21" t="s">
+      <c r="DL4" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="DG4" s="21" t="s">
+      <c r="DM4" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="DH4" s="21">
+      <c r="DN4" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DI4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="21" t="s">
+      <c r="DO4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP4" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK4" s="21" t="s">
+      <c r="DQ4" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL4" s="21" t="s">
+      <c r="DR4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM4" s="21" t="s">
+      <c r="DS4" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN4" s="21" t="s">
+      <c r="DT4" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO4" s="21" t="s">
+      <c r="DU4" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP4" s="21" t="s">
+      <c r="DV4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ4" s="21" t="s">
+      <c r="DW4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR4" s="21" t="s">
+      <c r="DX4" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DT4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DU4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DV4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DW4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DX4" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="DY4" s="21" t="s">
         <v>137</v>
       </c>
@@ -3335,26 +3390,44 @@
       <c r="ED4" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="EE4" s="27" t="s">
+      <c r="EE4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EF4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EG4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EH4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EK4" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EG4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EH4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI4" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ4" s="21" t="s">
+      <c r="EL4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EM4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EN4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EO4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EP4" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:140" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
@@ -3382,213 +3455,199 @@
       <c r="R5" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="T5" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="U5" s="21" t="s">
-        <v>329</v>
       </c>
       <c r="V5" s="21" t="s">
         <v>183</v>
       </c>
       <c r="W5" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y5" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="X5" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y5" s="21" t="s">
+      <c r="Z5" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB5" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="AE5" s="19" t="s">
+      <c r="AH5" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="AF5" s="19" t="s">
+      <c r="AI5" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="AG5" s="21">
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19"/>
+      <c r="AL5" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH5" s="21">
+      <c r="AM5" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI5" s="21">
+      <c r="AN5" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ5" s="21">
+      <c r="AO5" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AK5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT5" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="BK5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="21" t="s">
+      <c r="AP5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ5" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BM5" s="21" t="s">
+      <c r="BS5" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="BP5" s="21" t="s">
+      <c r="BV5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BS5" s="21" t="s">
+      <c r="BY5" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BT5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="21" t="s">
+      <c r="BZ5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="BZ5" s="21" t="s">
+      <c r="CF5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CA5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CB5" s="21" t="s">
+      <c r="CG5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CH5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CC5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CD5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="21" t="s">
+      <c r="CI5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CJ5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="CF5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="21" t="s">
+      <c r="CL5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="CK5" s="21" t="s">
+      <c r="CQ5" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="CL5" s="21" t="s">
+      <c r="CR5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="CM5" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CN5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="21" t="s">
+      <c r="CS5" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CP5" s="22" t="s">
+      <c r="CV5" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="CR5" s="21" t="s">
+      <c r="CX5" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="CS5" s="21" t="s">
+      <c r="CY5" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="CT5" s="21" t="s">
+      <c r="CZ5" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="CX5" s="21" t="s">
+      <c r="DD5" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="CY5" s="21" t="s">
+      <c r="DE5" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="CZ5" s="21" t="s">
+      <c r="DF5" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="DA5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB5" s="21" t="s">
+      <c r="DG5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="DD5" s="21" t="s">
+      <c r="DJ5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="DE5" s="21" t="s">
+      <c r="DK5" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="DF5" s="21" t="s">
+      <c r="DL5" s="21" t="s">
         <v>326</v>
       </c>
-      <c r="DG5" s="21" t="s">
+      <c r="DM5" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="DH5" s="21">
+      <c r="DN5" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DI5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="21" t="s">
+      <c r="DO5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK5" s="21" t="s">
+      <c r="DQ5" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL5" s="21" t="s">
+      <c r="DR5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM5" s="21" t="s">
+      <c r="DS5" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN5" s="21" t="s">
+      <c r="DT5" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO5" s="21" t="s">
+      <c r="DU5" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP5" s="21" t="s">
+      <c r="DV5" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ5" s="21" t="s">
+      <c r="DW5" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR5" s="21" t="s">
+      <c r="DX5" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="DT5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="DU5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="DV5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="DW5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="DX5" s="21" t="s">
-        <v>148</v>
-      </c>
       <c r="DY5" s="21" t="s">
         <v>148</v>
       </c>
@@ -3607,26 +3666,44 @@
       <c r="ED5" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="EE5" s="27" t="s">
+      <c r="EE5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EF5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EG5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EH5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EI5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EJ5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EK5" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="EG5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="EH5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="EI5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="EJ5" s="21" t="s">
+      <c r="EL5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EM5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EN5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EO5" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EP5" s="21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:140" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>38</v>
       </c>
@@ -3654,146 +3731,130 @@
       <c r="R6" s="22" t="s">
         <v>409</v>
       </c>
-      <c r="S6" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="T6" s="21" t="s">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="21" t="s">
         <v>148</v>
       </c>
       <c r="V6" s="21" t="s">
         <v>148</v>
       </c>
       <c r="X6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="AE6" s="18" t="s">
+      <c r="AH6" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AI6" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AL6" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH6" s="21">
+      <c r="AM6" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI6" s="21">
+      <c r="AN6" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ6" s="21">
+      <c r="AO6" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AK6" s="21" t="s">
+      <c r="AP6" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="AL6" s="21" t="s">
+      <c r="AQ6" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="AT6" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI6" s="24"/>
-      <c r="BK6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL6" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="BP6" s="21" t="s">
+      <c r="AZ6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO6" s="24"/>
+      <c r="BQ6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="BV6" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="BS6" s="21" t="s">
+      <c r="BY6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BT6" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY6" s="21" t="s">
+      <c r="BZ6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CE6" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="CF6" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CP6" s="24"/>
-      <c r="DA6" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="DB6" s="21" t="s">
+      <c r="CL6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV6" s="24"/>
+      <c r="DG6" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="DH6" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="DC6" s="21" t="s">
+      <c r="DI6" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="DD6" s="21" t="s">
+      <c r="DJ6" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="DE6" s="21" t="s">
+      <c r="DK6" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="DF6" s="21" t="s">
+      <c r="DL6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DG6" s="21" t="s">
+      <c r="DM6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DH6" s="21">
+      <c r="DN6" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DI6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DJ6" s="21" t="s">
+      <c r="DO6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="DP6" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK6" s="21" t="s">
+      <c r="DQ6" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL6" s="21" t="s">
+      <c r="DR6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM6" s="21" t="s">
+      <c r="DS6" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN6" s="21" t="s">
+      <c r="DT6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO6" s="21" t="s">
+      <c r="DU6" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP6" s="21" t="s">
+      <c r="DV6" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ6" s="21" t="s">
+      <c r="DW6" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR6" s="21" t="s">
+      <c r="DX6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DT6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DU6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DV6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DW6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DX6" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="DY6" s="21" t="s">
         <v>137</v>
       </c>
@@ -3812,26 +3873,44 @@
       <c r="ED6" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="EE6" s="27" t="s">
+      <c r="EE6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EF6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EG6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EH6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EK6" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EG6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EH6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI6" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ6" s="21" t="s">
+      <c r="EL6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EM6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EN6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EO6" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EP6" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:140" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
@@ -3859,161 +3938,147 @@
       <c r="R7" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="S7" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="T7" s="21" t="s">
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="21" t="s">
         <v>170</v>
       </c>
       <c r="V7" s="21" t="s">
         <v>170</v>
       </c>
       <c r="X7" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y7" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB7" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="AE7" s="18" t="s">
+      <c r="AH7" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="AF7" s="18" t="s">
+      <c r="AI7" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="AG7" s="21">
+      <c r="AJ7" s="18"/>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH7" s="21">
+      <c r="AM7" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI7" s="21">
+      <c r="AN7" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ7" s="21">
+      <c r="AO7" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AK7" s="21" t="s">
+      <c r="AP7" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="AL7" s="21" t="s">
+      <c r="AQ7" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="AT7" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG7" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BI7" s="24"/>
-      <c r="BK7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="21" t="s">
+      <c r="AZ7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO7" s="24"/>
+      <c r="BQ7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BM7" s="21" t="s">
+      <c r="BS7" s="21" t="s">
         <v>187</v>
       </c>
-      <c r="BN7" s="21" t="s">
+      <c r="BT7" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="BO7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="21" t="s">
+      <c r="BU7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BS7" s="21" t="s">
+      <c r="BY7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BT7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BV7" s="21" t="s">
+      <c r="BZ7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CB7" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="BY7" s="21" t="s">
+      <c r="CE7" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="CD7" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CF7" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CP7" s="24"/>
-      <c r="DA7" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DB7" s="21" t="s">
+      <c r="CJ7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CL7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV7" s="24"/>
+      <c r="DG7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH7" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="DC7" s="21" t="s">
+      <c r="DI7" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DD7" s="21" t="s">
+      <c r="DJ7" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="DF7" s="21" t="s">
+      <c r="DL7" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DG7" s="21" t="s">
+      <c r="DM7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DH7" s="21">
+      <c r="DN7" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DI7" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DJ7" s="21" t="s">
+      <c r="DO7" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="DP7" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK7" s="21" t="s">
+      <c r="DQ7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL7" s="21" t="s">
+      <c r="DR7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM7" s="21" t="s">
+      <c r="DS7" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN7" s="21" t="s">
+      <c r="DT7" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO7" s="21" t="s">
+      <c r="DU7" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP7" s="21" t="s">
+      <c r="DV7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ7" s="21" t="s">
+      <c r="DW7" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR7" s="21" t="s">
+      <c r="DX7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DU7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DV7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DW7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DX7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DY7" s="21" t="s">
         <v>0</v>
       </c>
@@ -4032,26 +4097,44 @@
       <c r="ED7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EE7" s="27" t="s">
+      <c r="EE7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ7" s="21" t="s">
+      <c r="EL7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:140" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
@@ -4079,149 +4162,135 @@
       <c r="R8" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="S8" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="T8" s="21" t="s">
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="V8" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="V8" s="21" t="s">
-        <v>148</v>
-      </c>
       <c r="X8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y8" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Z8" s="21" t="s">
+      <c r="AC8" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="AA8" s="21" t="s">
+      <c r="AD8" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="AB8" s="21" t="s">
+      <c r="AE8" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="AC8" s="21" t="s">
+      <c r="AF8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AD8" s="21">
+      <c r="AG8" s="21">
         <v>28907</v>
       </c>
-      <c r="AE8" s="18" t="s">
+      <c r="AH8" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="AF8" s="18" t="s">
+      <c r="AI8" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="AG8" s="21">
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH8" s="21">
+      <c r="AM8" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI8" s="21">
+      <c r="AN8" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ8" s="21">
+      <c r="AO8" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AK8" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL8" s="21" t="s">
+      <c r="AP8" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ8" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="AT8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BJ8" s="24"/>
-      <c r="BK8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BY8" s="21" t="s">
+      <c r="AZ8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP8" s="24"/>
+      <c r="BQ8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CE8" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="CF8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CP8" s="24"/>
-      <c r="DA8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DB8" s="21" t="s">
+      <c r="CL8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV8" s="24"/>
+      <c r="DG8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH8" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="DD8" s="21" t="s">
+      <c r="DJ8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DE8" s="21" t="s">
+      <c r="DK8" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="DF8" s="21" t="s">
+      <c r="DL8" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DG8" s="21" t="s">
+      <c r="DM8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DH8" s="21">
+      <c r="DN8" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DI8" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DJ8" s="21" t="s">
+      <c r="DO8" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="DP8" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK8" s="21" t="s">
+      <c r="DQ8" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL8" s="21" t="s">
+      <c r="DR8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM8" s="21" t="s">
+      <c r="DS8" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN8" s="21" t="s">
+      <c r="DT8" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO8" s="21" t="s">
+      <c r="DU8" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP8" s="21" t="s">
+      <c r="DV8" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ8" s="21" t="s">
+      <c r="DW8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR8" s="21" t="s">
+      <c r="DX8" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DU8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DV8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DW8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DX8" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DY8" s="21" t="s">
         <v>0</v>
       </c>
@@ -4240,26 +4309,44 @@
       <c r="ED8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EE8" s="27" t="s">
+      <c r="EE8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EG8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EH8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EI8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EJ8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EK8" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ8" s="21" t="s">
+      <c r="EL8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:140" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>38</v>
       </c>
@@ -4287,214 +4374,200 @@
       <c r="R9" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="V9" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="X9" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="X9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="21" t="s">
+      <c r="Z9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="AE9" s="18" t="s">
+      <c r="AH9" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="AF9" s="18" t="s">
+      <c r="AI9" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="AG9" s="21">
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH9" s="21">
+      <c r="AM9" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI9" s="21">
+      <c r="AN9" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ9" s="21">
+      <c r="AO9" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AK9" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL9" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="21" t="s">
+      <c r="AP9" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ9" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="AV9" s="21" t="s">
+      <c r="BB9" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AW9" s="21" t="s">
+      <c r="BC9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AX9" s="21" t="s">
+      <c r="BD9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AY9" s="21" t="s">
+      <c r="BE9" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AZ9" s="21" t="s">
+      <c r="BF9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BA9" s="21" t="s">
+      <c r="BG9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BB9" s="21" t="s">
+      <c r="BH9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BC9" s="21" t="s">
+      <c r="BI9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BD9" s="21" t="s">
+      <c r="BJ9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BE9" s="21" t="s">
+      <c r="BK9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BF9" s="21" t="s">
+      <c r="BL9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="BG9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="21" t="s">
+      <c r="BM9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BJ9" s="21">
+      <c r="BP9" s="21">
         <v>119</v>
       </c>
-      <c r="BK9" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="BT9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="21" t="s">
+      <c r="BQ9" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="BZ9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE9" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="BZ9" s="21" t="s">
+      <c r="CF9" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CA9" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CB9" s="21" t="s">
+      <c r="CG9" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CH9" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CC9" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CD9" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CF9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="21" t="s">
+      <c r="CI9" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CJ9" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CL9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CJ9" s="21">
+      <c r="CP9" s="21">
         <v>102</v>
       </c>
-      <c r="CK9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CL9" s="21" t="s">
+      <c r="CQ9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CR9" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="CM9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CN9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CP9" s="24"/>
-      <c r="CR9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DA9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DB9" s="21" t="s">
+      <c r="CS9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV9" s="24"/>
+      <c r="CX9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="DG9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH9" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="DC9" s="21" t="s">
+      <c r="DI9" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DD9" s="23" t="s">
+      <c r="DJ9" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="DF9" s="21" t="s">
+      <c r="DL9" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DG9" s="21" t="s">
+      <c r="DM9" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DH9" s="21">
+      <c r="DN9" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DI9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ9" s="21" t="s">
+      <c r="DO9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP9" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK9" s="21" t="s">
+      <c r="DQ9" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL9" s="21" t="s">
+      <c r="DR9" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM9" s="21" t="s">
+      <c r="DS9" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN9" s="21" t="s">
+      <c r="DT9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO9" s="21" t="s">
+      <c r="DU9" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP9" s="21" t="s">
+      <c r="DV9" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ9" s="21" t="s">
+      <c r="DW9" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR9" s="21" t="s">
+      <c r="DX9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DT9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DU9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DV9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DW9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DX9" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="DY9" s="21" t="s">
         <v>137</v>
       </c>
@@ -4513,26 +4586,44 @@
       <c r="ED9" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="EE9" s="27" t="s">
+      <c r="EE9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EF9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EG9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EH9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EK9" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EG9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EH9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI9" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ9" s="21" t="s">
+      <c r="EL9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EM9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EN9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EO9" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EP9" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:140" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:146" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>134</v>
       </c>
@@ -4575,295 +4666,281 @@
       <c r="R10" s="22" t="s">
         <v>411</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="26"/>
-      <c r="X10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="21" t="s">
+      <c r="X10" s="26"/>
+      <c r="Z10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="Z10" s="21" t="s">
+      <c r="AC10" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="AA10" s="21" t="s">
+      <c r="AD10" s="21" t="s">
         <v>200</v>
       </c>
-      <c r="AB10" s="21" t="s">
+      <c r="AE10" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="AC10" s="21" t="s">
+      <c r="AF10" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AD10" s="21">
+      <c r="AG10" s="21">
         <v>28907</v>
       </c>
-      <c r="AE10" s="19" t="s">
+      <c r="AH10" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="AF10" s="18" t="s">
+      <c r="AI10" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="AG10" s="21">
+      <c r="AJ10" s="18"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH10" s="21">
+      <c r="AM10" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI10" s="21">
+      <c r="AN10" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ10" s="21">
+      <c r="AO10" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AK10" s="21" t="s">
+      <c r="AP10" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AL10" s="21" t="s">
+      <c r="AQ10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AM10" s="21" t="s">
+      <c r="AR10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AN10" s="21" t="s">
+      <c r="AS10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AO10" s="21" t="s">
+      <c r="AT10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AP10" s="21" t="s">
+      <c r="AU10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AQ10" s="21" t="s">
+      <c r="AV10" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AR10" s="21" t="s">
+      <c r="AW10" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AS10" s="21" t="s">
+      <c r="AX10" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="AT10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="21" t="s">
+      <c r="AZ10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="AV10" s="21" t="s">
+      <c r="BB10" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AW10" s="21" t="s">
+      <c r="BC10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AX10" s="21" t="s">
+      <c r="BD10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="AY10" s="21" t="s">
+      <c r="BE10" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AZ10" s="21" t="s">
+      <c r="BF10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BA10" s="21" t="s">
+      <c r="BG10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BB10" s="21" t="s">
+      <c r="BH10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BC10" s="21" t="s">
+      <c r="BI10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BD10" s="21" t="s">
+      <c r="BJ10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BE10" s="21" t="s">
+      <c r="BK10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="BF10" s="21" t="s">
+      <c r="BL10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="BG10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="21" t="s">
+      <c r="BM10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="BI10" s="22" t="s">
+      <c r="BO10" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="BK10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="21" t="s">
+      <c r="BQ10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR10" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="BP10" s="21" t="s">
+      <c r="BV10" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BQ10" s="23" t="s">
+      <c r="BW10" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="BR10" s="23" t="s">
+      <c r="BX10" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="BS10" s="21" t="s">
+      <c r="BY10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="BT10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY10" s="21" t="s">
+      <c r="BZ10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE10" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="BZ10" s="21" t="s">
+      <c r="CF10" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="CA10" s="21" t="s">
+      <c r="CG10" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CB10" s="21" t="s">
+      <c r="CH10" s="21" t="s">
         <v>373</v>
       </c>
-      <c r="CC10" s="21" t="s">
+      <c r="CI10" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CD10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE10" s="21" t="s">
+      <c r="CJ10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK10" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="CF10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG10" s="21" t="s">
+      <c r="CL10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CH10" s="21" t="s">
+      <c r="CN10" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="CI10" s="21">
+      <c r="CO10" s="21">
         <v>1997</v>
       </c>
-      <c r="CK10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL10" s="21" t="s">
+      <c r="CQ10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CR10" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="CM10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO10" s="21" t="s">
+      <c r="CS10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CQ10" s="21">
+      <c r="CW10" s="21">
         <v>103</v>
       </c>
-      <c r="CR10" s="21" t="s">
+      <c r="CX10" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="CS10" s="21" t="s">
+      <c r="CY10" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="CT10" s="21" t="s">
+      <c r="CZ10" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CU10" s="21" t="s">
+      <c r="DA10" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="CV10" s="21">
+      <c r="DB10" s="21">
         <v>1985</v>
       </c>
-      <c r="CX10" s="21" t="s">
+      <c r="DD10" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="CY10" s="21" t="s">
+      <c r="DE10" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="CZ10" s="21" t="s">
+      <c r="DF10" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="DA10" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DB10" s="21" t="s">
+      <c r="DG10" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH10" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="DC10" s="21" t="s">
+      <c r="DI10" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DD10" s="21" t="s">
+      <c r="DJ10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="DE10" s="21" t="s">
+      <c r="DK10" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DF10" s="21" t="s">
+      <c r="DL10" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DG10" s="21" t="s">
+      <c r="DM10" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DH10" s="21">
+      <c r="DN10" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DI10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ10" s="21" t="s">
+      <c r="DO10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP10" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK10" s="21" t="s">
+      <c r="DQ10" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL10" s="21" t="s">
+      <c r="DR10" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM10" s="21" t="s">
+      <c r="DS10" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN10" s="21" t="s">
+      <c r="DT10" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO10" s="21" t="s">
+      <c r="DU10" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP10" s="21" t="s">
+      <c r="DV10" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ10" s="21" t="s">
+      <c r="DW10" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR10" s="21" t="s">
+      <c r="DX10" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DU10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DV10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DW10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DX10" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DY10" s="21" t="s">
         <v>0</v>
       </c>
@@ -4882,26 +4959,44 @@
       <c r="ED10" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EE10" s="27" t="s">
+      <c r="EE10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ10" s="21" t="s">
+      <c r="EL10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:140" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>134</v>
       </c>
@@ -4947,197 +5042,183 @@
       <c r="R11" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="X11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y11" s="21" t="s">
+      <c r="Z11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB11" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="AE11" s="18" t="s">
+      <c r="AH11" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="AF11" s="19" t="s">
+      <c r="AI11" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="AG11" s="21">
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH11" s="21">
+      <c r="AM11" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI11" s="21">
+      <c r="AN11" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ11" s="21">
+      <c r="AO11" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AK11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="BG11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="BI11" s="24"/>
-      <c r="BK11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL11" s="21" t="s">
+      <c r="AP11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AQ11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="BO11" s="24"/>
+      <c r="BQ11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR11" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="BP11" s="21" t="s">
+      <c r="BV11" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="BS11" s="21" t="s">
+      <c r="BY11" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="BT11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BU11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BY11" s="21" t="s">
+      <c r="BZ11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE11" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="BZ11" s="21" t="s">
+      <c r="CF11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CA11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CB11" s="21" t="s">
+      <c r="CG11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CH11" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CC11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CD11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE11" s="21" t="s">
+      <c r="CI11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CJ11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="CF11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="21" t="s">
+      <c r="CL11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="CK11" s="21" t="s">
+      <c r="CQ11" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="CL11" s="21" t="s">
+      <c r="CR11" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="CM11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CN11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CP11" s="24"/>
-      <c r="CR11" s="21" t="s">
+      <c r="CS11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CT11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV11" s="24"/>
+      <c r="CX11" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="CS11" s="21" t="s">
+      <c r="CY11" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="CT11" s="21" t="s">
+      <c r="CZ11" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="CX11" s="21" t="s">
+      <c r="DD11" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="CY11" s="21" t="s">
+      <c r="DE11" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="CZ11" s="21" t="s">
+      <c r="DF11" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="DA11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DB11" s="21" t="s">
+      <c r="DG11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DH11" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="DC11" s="21" t="s">
+      <c r="DI11" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="DD11" s="21" t="s">
+      <c r="DJ11" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="DF11" s="21" t="s">
+      <c r="DL11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DG11" s="21" t="s">
+      <c r="DM11" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DH11" s="21">
+      <c r="DN11" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DI11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ11" s="21" t="s">
+      <c r="DO11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP11" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK11" s="21" t="s">
+      <c r="DQ11" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL11" s="21" t="s">
+      <c r="DR11" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM11" s="21" t="s">
+      <c r="DS11" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN11" s="21" t="s">
+      <c r="DT11" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO11" s="21" t="s">
+      <c r="DU11" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP11" s="21" t="s">
+      <c r="DV11" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ11" s="21" t="s">
+      <c r="DW11" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR11" s="21" t="s">
+      <c r="DX11" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DT11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DU11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DV11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DW11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DX11" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="DY11" s="21" t="s">
         <v>137</v>
       </c>
@@ -5156,26 +5237,44 @@
       <c r="ED11" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="EE11" s="27" t="s">
+      <c r="EE11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EF11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EG11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EH11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EK11" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EG11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EH11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ11" s="21" t="s">
+      <c r="EL11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EM11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EN11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EO11" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EP11" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:140" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>134</v>
       </c>
@@ -5218,127 +5317,113 @@
       <c r="R12" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="X12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y12" s="21" t="s">
+      <c r="Z12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB12" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AH12" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="AF12" s="19" t="s">
+      <c r="AI12" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="AG12" s="21">
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH12" s="21">
+      <c r="AM12" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI12" s="21">
+      <c r="AN12" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ12" s="21">
+      <c r="AO12" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AK12" s="21" t="s">
+      <c r="AP12" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="AL12" s="21" t="s">
+      <c r="AQ12" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="AT12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BK12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BT12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BY12" s="21" t="s">
+      <c r="AZ12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BQ12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BZ12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CE12" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="CF12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CP12" s="24"/>
-      <c r="DA12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DB12" s="21" t="s">
+      <c r="CL12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="CV12" s="24"/>
+      <c r="DG12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="DH12" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="DC12" s="21" t="s">
+      <c r="DI12" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="DD12" s="21" t="s">
+      <c r="DJ12" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="DF12" s="21" t="s">
+      <c r="DL12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DG12" s="21" t="s">
+      <c r="DM12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DH12" s="21">
+      <c r="DN12" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DI12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ12" s="21" t="s">
+      <c r="DO12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DP12" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK12" s="21" t="s">
+      <c r="DQ12" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL12" s="21" t="s">
+      <c r="DR12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM12" s="21" t="s">
+      <c r="DS12" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN12" s="21" t="s">
+      <c r="DT12" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO12" s="21" t="s">
+      <c r="DU12" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP12" s="21" t="s">
+      <c r="DV12" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ12" s="21" t="s">
+      <c r="DW12" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR12" s="21" t="s">
+      <c r="DX12" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DT12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DU12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DV12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DW12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="DX12" s="21" t="s">
-        <v>137</v>
-      </c>
       <c r="DY12" s="21" t="s">
         <v>137</v>
       </c>
@@ -5357,26 +5442,44 @@
       <c r="ED12" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="EE12" s="27" t="s">
+      <c r="EE12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EF12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EG12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EH12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EI12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EJ12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EK12" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EG12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EH12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EI12" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="EJ12" s="21" t="s">
+      <c r="EL12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EM12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EN12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EO12" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="EP12" s="21" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:140" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>134</v>
       </c>
@@ -5419,114 +5522,100 @@
       <c r="R13" s="22" t="s">
         <v>299</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="X13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="21" t="s">
+      <c r="Z13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="AE13" s="19" t="s">
+      <c r="AH13" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="AF13" s="19" t="s">
+      <c r="AI13" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="AG13" s="21">
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AH13" s="21">
+      <c r="AM13" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AI13" s="21">
+      <c r="AN13" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AJ13" s="21">
+      <c r="AO13" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AK13" s="21" t="s">
+      <c r="AP13" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="AL13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT13" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BH13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY13" s="21" t="s">
+      <c r="AQ13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ13" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="BM13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CE13" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="BZ13" s="21" t="s">
+      <c r="CF13" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CA13" s="21" t="s">
+      <c r="CG13" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="CB13" s="21" t="s">
+      <c r="CH13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CC13" s="21" t="s">
+      <c r="CI13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CD13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE13" s="21" t="s">
+      <c r="CJ13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="DJ13" s="21" t="s">
+      <c r="DP13" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="DK13" s="21" t="s">
+      <c r="DQ13" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DL13" s="21" t="s">
+      <c r="DR13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DM13" s="21" t="s">
+      <c r="DS13" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DN13" s="21" t="s">
+      <c r="DT13" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DO13" s="21" t="s">
+      <c r="DU13" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="DP13" s="21" t="s">
+      <c r="DV13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DQ13" s="21" t="s">
+      <c r="DW13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="DR13" s="21" t="s">
+      <c r="DX13" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="DT13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="DU13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="DV13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="DW13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="DX13" s="21" t="s">
-        <v>148</v>
-      </c>
       <c r="DY13" s="21" t="s">
         <v>148</v>
       </c>
@@ -5545,101 +5634,129 @@
       <c r="ED13" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="EE13" s="27" t="s">
+      <c r="EE13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EF13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EG13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EH13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EI13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EJ13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EK13" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="EF13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="EG13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="EH13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="EI13" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="EJ13" s="21" t="s">
+      <c r="EL13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EM13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EN13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EO13" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="EP13" s="21" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:140" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:146" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="25" t="s">
         <v>388</v>
       </c>
-      <c r="AE14" s="19" t="s">
+      <c r="AH14" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="AF14" s="19" t="s">
+      <c r="AI14" s="19" t="s">
         <v>403</v>
       </c>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:140" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K15" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="AE15" s="19" t="s">
+      <c r="AH15" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="AF15" s="19" t="s">
+      <c r="AI15" s="19" t="s">
         <v>404</v>
       </c>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:140" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K16" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="AE16" s="19" t="s">
+      <c r="AH16" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="AF16" s="19" t="s">
+      <c r="AI16" s="19" t="s">
         <v>405</v>
       </c>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="11:32" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:37" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K17" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="AE17" s="19" t="s">
+      <c r="AH17" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="AF17" s="19" t="s">
+      <c r="AI17" s="19" t="s">
         <v>406</v>
       </c>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="11:32" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="11:37" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:EJ13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
+  <autoFilter ref="A1:EP13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AE7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
-    <hyperlink ref="AE4" r:id="rId2" xr:uid="{54A26098-2C02-B14A-A8B8-E895ACEFE8FC}"/>
-    <hyperlink ref="AF4" r:id="rId3" xr:uid="{19B8EC6B-4DE1-EF45-9AC5-07A97297CA08}"/>
-    <hyperlink ref="AE2" r:id="rId4" xr:uid="{CE9060F8-46A2-8E4A-9049-D259F5FF8833}"/>
-    <hyperlink ref="AF2" r:id="rId5" xr:uid="{9F426852-B12C-F246-BBD4-2DFF4046F17B}"/>
-    <hyperlink ref="AF7" r:id="rId6" xr:uid="{F867FCEE-CDE3-774C-AA60-18F374257445}"/>
-    <hyperlink ref="AE8" r:id="rId7" xr:uid="{FF13954F-3772-2244-8624-0759DAAA195B}"/>
-    <hyperlink ref="AF8" r:id="rId8" xr:uid="{DEA58592-D611-1446-A2DF-45ED1084017D}"/>
-    <hyperlink ref="AE5" r:id="rId9" xr:uid="{AE8E2947-9665-444E-BB61-535EF103703A}"/>
-    <hyperlink ref="AF5" r:id="rId10" xr:uid="{03D22372-21FE-6647-9FB7-E611341DF12C}"/>
-    <hyperlink ref="AE6" r:id="rId11" xr:uid="{38E74D40-B9B2-9F4F-A95C-07E96ED19969}"/>
-    <hyperlink ref="AE13" r:id="rId12" xr:uid="{A84CFFC5-66D9-2E4D-9EAF-A805310521D0}"/>
-    <hyperlink ref="AE12" r:id="rId13" xr:uid="{EE58DF3D-4E06-D242-A11C-C73725F63244}"/>
-    <hyperlink ref="AE9" r:id="rId14" xr:uid="{9561474B-13C0-5C45-A0AF-651803129C22}"/>
-    <hyperlink ref="AF9" r:id="rId15" xr:uid="{A1121A3E-E434-0D46-8060-8CC9554A173E}"/>
-    <hyperlink ref="AE10" r:id="rId16" xr:uid="{74DEEA39-9EE3-DA40-986A-18AB27D7AF3D}"/>
-    <hyperlink ref="AF10" r:id="rId17" xr:uid="{10D6E031-35FA-1A41-812A-AC8A67918A79}"/>
-    <hyperlink ref="AE11" r:id="rId18" xr:uid="{E72B4306-86EB-094D-A7D7-3CE674C9E99B}"/>
-    <hyperlink ref="AF11" r:id="rId19" xr:uid="{BBD42CF8-45B8-BC4C-8616-E5054108E74E}"/>
-    <hyperlink ref="AF12" r:id="rId20" xr:uid="{CB1028F2-6BEB-9845-BBBF-2CCF7E196D7E}"/>
-    <hyperlink ref="AF13" r:id="rId21" xr:uid="{38A05DA8-5083-B64C-9BB7-7515D994A102}"/>
-    <hyperlink ref="AE14:AE17" r:id="rId22" display="charmsparticipant12@yopmail.com" xr:uid="{F7B2D757-0C7A-4D43-8200-C0254FB3451B}"/>
-    <hyperlink ref="AE14" r:id="rId23" xr:uid="{00D2EC9C-C0B0-A94F-A0A4-8DCEB003125B}"/>
-    <hyperlink ref="AE15" r:id="rId24" xr:uid="{4B08829F-C727-1F4D-8585-8623FDC25445}"/>
-    <hyperlink ref="AE16" r:id="rId25" xr:uid="{D67C22F6-0FF5-2A43-9F6B-E465DA043CCB}"/>
-    <hyperlink ref="AE17" r:id="rId26" xr:uid="{39CD3A02-5AC2-A349-A912-CB63C565E8B1}"/>
-    <hyperlink ref="AF14:AF17" r:id="rId27" display="charmsparticipant12@yopmail.com" xr:uid="{0D113990-F28B-4045-82B3-3B329AB1A52B}"/>
+    <hyperlink ref="AH7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
+    <hyperlink ref="AH4" r:id="rId2" xr:uid="{54A26098-2C02-B14A-A8B8-E895ACEFE8FC}"/>
+    <hyperlink ref="AI4" r:id="rId3" xr:uid="{19B8EC6B-4DE1-EF45-9AC5-07A97297CA08}"/>
+    <hyperlink ref="AH2" r:id="rId4" xr:uid="{CE9060F8-46A2-8E4A-9049-D259F5FF8833}"/>
+    <hyperlink ref="AI2" r:id="rId5" xr:uid="{9F426852-B12C-F246-BBD4-2DFF4046F17B}"/>
+    <hyperlink ref="AI7" r:id="rId6" xr:uid="{F867FCEE-CDE3-774C-AA60-18F374257445}"/>
+    <hyperlink ref="AH8" r:id="rId7" xr:uid="{FF13954F-3772-2244-8624-0759DAAA195B}"/>
+    <hyperlink ref="AI8" r:id="rId8" xr:uid="{DEA58592-D611-1446-A2DF-45ED1084017D}"/>
+    <hyperlink ref="AH5" r:id="rId9" xr:uid="{AE8E2947-9665-444E-BB61-535EF103703A}"/>
+    <hyperlink ref="AI5" r:id="rId10" xr:uid="{03D22372-21FE-6647-9FB7-E611341DF12C}"/>
+    <hyperlink ref="AH6" r:id="rId11" xr:uid="{38E74D40-B9B2-9F4F-A95C-07E96ED19969}"/>
+    <hyperlink ref="AH13" r:id="rId12" xr:uid="{A84CFFC5-66D9-2E4D-9EAF-A805310521D0}"/>
+    <hyperlink ref="AH12" r:id="rId13" xr:uid="{EE58DF3D-4E06-D242-A11C-C73725F63244}"/>
+    <hyperlink ref="AH9" r:id="rId14" xr:uid="{9561474B-13C0-5C45-A0AF-651803129C22}"/>
+    <hyperlink ref="AI9" r:id="rId15" xr:uid="{A1121A3E-E434-0D46-8060-8CC9554A173E}"/>
+    <hyperlink ref="AH10" r:id="rId16" xr:uid="{74DEEA39-9EE3-DA40-986A-18AB27D7AF3D}"/>
+    <hyperlink ref="AI10" r:id="rId17" xr:uid="{10D6E031-35FA-1A41-812A-AC8A67918A79}"/>
+    <hyperlink ref="AH11" r:id="rId18" xr:uid="{E72B4306-86EB-094D-A7D7-3CE674C9E99B}"/>
+    <hyperlink ref="AI11" r:id="rId19" xr:uid="{BBD42CF8-45B8-BC4C-8616-E5054108E74E}"/>
+    <hyperlink ref="AI12" r:id="rId20" xr:uid="{CB1028F2-6BEB-9845-BBBF-2CCF7E196D7E}"/>
+    <hyperlink ref="AI13" r:id="rId21" xr:uid="{38A05DA8-5083-B64C-9BB7-7515D994A102}"/>
+    <hyperlink ref="AH14:AH17" r:id="rId22" display="charmsparticipant12@yopmail.com" xr:uid="{F7B2D757-0C7A-4D43-8200-C0254FB3451B}"/>
+    <hyperlink ref="AH14" r:id="rId23" xr:uid="{00D2EC9C-C0B0-A94F-A0A4-8DCEB003125B}"/>
+    <hyperlink ref="AH15" r:id="rId24" xr:uid="{4B08829F-C727-1F4D-8585-8623FDC25445}"/>
+    <hyperlink ref="AH16" r:id="rId25" xr:uid="{D67C22F6-0FF5-2A43-9F6B-E465DA043CCB}"/>
+    <hyperlink ref="AH17" r:id="rId26" xr:uid="{39CD3A02-5AC2-A349-A912-CB63C565E8B1}"/>
+    <hyperlink ref="AI14:AI17" r:id="rId27" display="charmsparticipant12@yopmail.com" xr:uid="{0D113990-F28B-4045-82B3-3B329AB1A52B}"/>
+    <hyperlink ref="AJ2" r:id="rId28" xr:uid="{E22D24ED-7C96-1446-A5F8-21D1507C6179}"/>
+    <hyperlink ref="AJ3" r:id="rId29" xr:uid="{70C65664-4427-354A-B785-E0B132A43F5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB6D4EE-562D-834F-91FE-8C3F1DEBBD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E2A62E-2815-344C-B861-01B8D3565E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="500" windowWidth="26000" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="4240" yWindow="760" windowWidth="26000" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
@@ -1989,9 +1989,9 @@
   </sheetPr>
   <dimension ref="A1:EP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2520,7 +2520,7 @@
         <v>269</v>
       </c>
       <c r="S2" s="22"/>
-      <c r="T2" s="22">
+      <c r="T2" s="21">
         <v>76</v>
       </c>
       <c r="U2" s="21" t="s">

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E2A62E-2815-344C-B861-01B8D3565E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6888A2-8E7B-8245-A041-13A541A451DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="760" windowWidth="26000" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="442">
   <si>
     <t>Yes</t>
   </si>
@@ -850,9 +850,6 @@
     <t>-- None --</t>
   </si>
   <si>
-    <t>04/21/1948</t>
-  </si>
-  <si>
     <t>SpecifyParticipationInOtherStudies</t>
   </si>
   <si>
@@ -940,9 +937,6 @@
     <t>Physician 4</t>
   </si>
   <si>
-    <t>04/21/1940</t>
-  </si>
-  <si>
     <t>12/11/2009</t>
   </si>
   <si>
@@ -1264,24 +1258,6 @@
     <t>charmsparticipant16@yopmail.com</t>
   </si>
   <si>
-    <t>04/30/1930</t>
-  </si>
-  <si>
-    <t>04/29/1935</t>
-  </si>
-  <si>
-    <t>04/26/1950</t>
-  </si>
-  <si>
-    <t>04/11/1940</t>
-  </si>
-  <si>
-    <t>04/27/1937</t>
-  </si>
-  <si>
-    <t>04/21/1935</t>
-  </si>
-  <si>
     <t>Fanconi-10</t>
   </si>
   <si>
@@ -1300,15 +1276,6 @@
     <t>Proxy-12</t>
   </si>
   <si>
-    <t>04/23/1920</t>
-  </si>
-  <si>
-    <t>04/21/1910</t>
-  </si>
-  <si>
-    <t>04/21/1925</t>
-  </si>
-  <si>
     <t>Other research fund at Study3</t>
   </si>
   <si>
@@ -1370,6 +1337,36 @@
   </si>
   <si>
     <t>CalculatedAge</t>
+  </si>
+  <si>
+    <t>01/23/1920</t>
+  </si>
+  <si>
+    <t>01/21/1910</t>
+  </si>
+  <si>
+    <t>01/21/1925</t>
+  </si>
+  <si>
+    <t>01/26/1950</t>
+  </si>
+  <si>
+    <t>01/11/1940</t>
+  </si>
+  <si>
+    <t>01/30/1930</t>
+  </si>
+  <si>
+    <t>01/29/1935</t>
+  </si>
+  <si>
+    <t>01/27/1937</t>
+  </si>
+  <si>
+    <t>01/21/1935</t>
+  </si>
+  <si>
+    <t>01/21/1940</t>
   </si>
 </sst>
 </file>
@@ -1989,9 +1986,9 @@
   </sheetPr>
   <dimension ref="A1:EP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2086,7 +2083,7 @@
         <v>141</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>143</v>
@@ -2107,10 +2104,10 @@
         <v>128</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>4</v>
@@ -2131,7 +2128,7 @@
         <v>198</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="AB1" s="7" t="s">
         <v>7</v>
@@ -2158,10 +2155,10 @@
         <v>39</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="AK1" s="12" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="AL1" s="14" t="s">
         <v>14</v>
@@ -2203,7 +2200,7 @@
         <v>191</v>
       </c>
       <c r="AY1" s="15" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="AZ1" s="16" t="s">
         <v>203</v>
@@ -2266,10 +2263,10 @@
         <v>207</v>
       </c>
       <c r="BT1" s="13" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="BU1" s="13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="BV1" s="13" t="s">
         <v>212</v>
@@ -2290,7 +2287,7 @@
         <v>214</v>
       </c>
       <c r="CB1" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="CC1" s="13" t="s">
         <v>188</v>
@@ -2395,7 +2392,7 @@
         <v>226</v>
       </c>
       <c r="DK1" s="13" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="DL1" s="13" t="s">
         <v>114</v>
@@ -2496,13 +2493,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>0</v>
@@ -2516,8 +2513,8 @@
       <c r="Q2" s="21">
         <v>21</v>
       </c>
-      <c r="R2" s="22" t="s">
-        <v>269</v>
+      <c r="R2" s="22">
+        <v>17553</v>
       </c>
       <c r="S2" s="22"/>
       <c r="T2" s="21">
@@ -2536,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="AB2" s="21" t="s">
         <v>22</v>
@@ -2557,13 +2554,13 @@
         <v>28907</v>
       </c>
       <c r="AH2" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AI2" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="AK2" s="19"/>
       <c r="AL2" s="21">
@@ -2603,7 +2600,7 @@
         <v>40</v>
       </c>
       <c r="AX2" s="21" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="AY2" s="21" t="s">
         <v>0</v>
@@ -2612,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="BA2" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="BB2" s="21" t="s">
         <v>37</v>
@@ -2681,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="CE2" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CF2" s="21" t="s">
         <v>75</v>
@@ -2846,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="EK2" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL2" s="21" t="s">
         <v>0</v>
@@ -2875,7 +2872,7 @@
         <v>136</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>137</v>
@@ -2890,7 +2887,7 @@
         <v>23</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
@@ -2916,7 +2913,7 @@
         <v>145</v>
       </c>
       <c r="AJ3" s="19" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="AK3" s="19"/>
       <c r="AL3" s="21">
@@ -2968,7 +2965,7 @@
         <v>149</v>
       </c>
       <c r="BO3" s="22" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BQ3" s="21" t="s">
         <v>0</v>
@@ -2989,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="CE3" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CF3" s="21" t="s">
         <v>75</v>
@@ -3034,7 +3031,7 @@
         <v>149</v>
       </c>
       <c r="CV3" s="22" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="CX3" s="21" t="s">
         <v>80</v>
@@ -3067,10 +3064,10 @@
         <v>160</v>
       </c>
       <c r="DL3" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="DM3" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="DN3" s="21">
         <v>3028976789</v>
@@ -3142,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="EK3" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL3" s="21" t="s">
         <v>0</v>
@@ -3171,7 +3168,7 @@
         <v>162</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>148</v>
@@ -3186,7 +3183,7 @@
         <v>21</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
@@ -3203,7 +3200,7 @@
         <v>137</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AH4" s="19" t="s">
         <v>147</v>
@@ -3262,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="CE4" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CF4" s="21" t="s">
         <v>75</v>
@@ -3316,7 +3313,7 @@
         <v>174</v>
       </c>
       <c r="DE4" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="DF4" s="21" t="s">
         <v>175</v>
@@ -3334,10 +3331,10 @@
         <v>178</v>
       </c>
       <c r="DL4" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="DM4" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="DN4" s="21">
         <v>3028976789</v>
@@ -3409,7 +3406,7 @@
         <v>137</v>
       </c>
       <c r="EK4" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL4" s="21" t="s">
         <v>137</v>
@@ -3438,7 +3435,7 @@
         <v>164</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>148</v>
@@ -3453,7 +3450,7 @@
         <v>21</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
@@ -3464,7 +3461,7 @@
         <v>183</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="X5" s="21" t="s">
         <v>183</v>
@@ -3535,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="CE5" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CF5" s="21" t="s">
         <v>75</v>
@@ -3577,7 +3574,7 @@
         <v>149</v>
       </c>
       <c r="CV5" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="CX5" s="21" t="s">
         <v>80</v>
@@ -3589,13 +3586,13 @@
         <v>173</v>
       </c>
       <c r="DD5" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="DE5" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="DF5" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="DG5" s="21" t="s">
         <v>0</v>
@@ -3607,13 +3604,13 @@
         <v>37</v>
       </c>
       <c r="DK5" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="DL5" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="DM5" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="DN5" s="21">
         <v>3028976789</v>
@@ -3685,7 +3682,7 @@
         <v>148</v>
       </c>
       <c r="EK5" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL5" s="21" t="s">
         <v>148</v>
@@ -3714,7 +3711,7 @@
         <v>180</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N6" s="21" t="s">
         <v>148</v>
@@ -3729,7 +3726,7 @@
         <v>26</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
@@ -3746,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AH6" s="18" t="s">
         <v>181</v>
@@ -3795,7 +3792,7 @@
         <v>148</v>
       </c>
       <c r="CE6" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CL6" s="21" t="s">
         <v>148</v>
@@ -3811,10 +3808,10 @@
         <v>177</v>
       </c>
       <c r="DJ6" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="DK6" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="DL6" s="21" t="s">
         <v>115</v>
@@ -3892,7 +3889,7 @@
         <v>137</v>
       </c>
       <c r="EK6" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL6" s="21" t="s">
         <v>137</v>
@@ -3915,13 +3912,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="N7" s="21" t="s">
         <v>137</v>
@@ -3936,7 +3933,7 @@
         <v>11</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -3956,10 +3953,10 @@
         <v>186</v>
       </c>
       <c r="AH7" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AI7" s="18" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18"/>
@@ -3998,7 +3995,7 @@
         <v>187</v>
       </c>
       <c r="BT7" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="BU7" s="21" t="s">
         <v>0</v>
@@ -4016,10 +4013,10 @@
         <v>137</v>
       </c>
       <c r="CB7" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="CE7" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CJ7" s="21" t="s">
         <v>137</v>
@@ -4038,7 +4035,7 @@
         <v>111</v>
       </c>
       <c r="DJ7" s="21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="DL7" s="21" t="s">
         <v>115</v>
@@ -4116,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="EK7" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL7" s="21" t="s">
         <v>0</v>
@@ -4139,13 +4136,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N8" s="21" t="s">
         <v>137</v>
@@ -4160,7 +4157,7 @@
         <v>30</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -4195,10 +4192,10 @@
         <v>28907</v>
       </c>
       <c r="AH8" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AI8" s="18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18"/>
@@ -4234,7 +4231,7 @@
         <v>137</v>
       </c>
       <c r="CE8" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CL8" s="21" t="s">
         <v>137</v>
@@ -4250,7 +4247,7 @@
         <v>48</v>
       </c>
       <c r="DK8" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="DL8" s="21" t="s">
         <v>115</v>
@@ -4328,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="EK8" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL8" s="21" t="s">
         <v>0</v>
@@ -4351,13 +4348,13 @@
         <v>38</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="N9" s="21" t="s">
         <v>0</v>
@@ -4372,7 +4369,7 @@
         <v>29</v>
       </c>
       <c r="R9" s="22" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
@@ -4389,13 +4386,13 @@
         <v>0</v>
       </c>
       <c r="AB9" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="AH9" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AI9" s="18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AJ9" s="18"/>
       <c r="AK9" s="18"/>
@@ -4421,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="BB9" s="21" t="s">
         <v>37</v>
@@ -4475,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="CE9" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CF9" s="21" t="s">
         <v>75</v>
@@ -4505,7 +4502,7 @@
         <v>137</v>
       </c>
       <c r="CR9" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="CS9" s="21" t="s">
         <v>137</v>
@@ -4605,7 +4602,7 @@
         <v>137</v>
       </c>
       <c r="EK9" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL9" s="21" t="s">
         <v>137</v>
@@ -4628,25 +4625,25 @@
         <v>134</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>0</v>
@@ -4664,7 +4661,7 @@
         <v>27</v>
       </c>
       <c r="R10" s="22" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -4694,10 +4691,10 @@
         <v>28907</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AI10" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18"/>
@@ -4744,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="BB10" s="21" t="s">
         <v>37</v>
@@ -4786,7 +4783,7 @@
         <v>149</v>
       </c>
       <c r="BO10" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="BQ10" s="21" t="s">
         <v>0</v>
@@ -4813,16 +4810,16 @@
         <v>0</v>
       </c>
       <c r="CE10" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CF10" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="CG10" s="21" t="s">
         <v>73</v>
       </c>
       <c r="CH10" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="CI10" s="21" t="s">
         <v>73</v>
@@ -4864,7 +4861,7 @@
         <v>103</v>
       </c>
       <c r="CX10" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="CY10" s="21" t="s">
         <v>82</v>
@@ -4978,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="EK10" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL10" s="21" t="s">
         <v>0</v>
@@ -5001,28 +4998,28 @@
         <v>134</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>136</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>48</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>137</v>
@@ -5040,7 +5037,7 @@
         <v>21</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -5054,10 +5051,10 @@
         <v>169</v>
       </c>
       <c r="AH11" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19"/>
@@ -5108,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="CE11" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CF11" s="21" t="s">
         <v>75</v>
@@ -5151,7 +5148,7 @@
       </c>
       <c r="CV11" s="24"/>
       <c r="CX11" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="CY11" s="21" t="s">
         <v>82</v>
@@ -5163,7 +5160,7 @@
         <v>174</v>
       </c>
       <c r="DE11" s="21" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="DF11" s="21" t="s">
         <v>175</v>
@@ -5175,7 +5172,7 @@
         <v>109</v>
       </c>
       <c r="DI11" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="DJ11" s="21" t="s">
         <v>178</v>
@@ -5256,7 +5253,7 @@
         <v>137</v>
       </c>
       <c r="EK11" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL11" s="21" t="s">
         <v>137</v>
@@ -5279,25 +5276,25 @@
         <v>134</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>162</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M12" s="21" t="s">
         <v>0</v>
@@ -5315,7 +5312,7 @@
         <v>30</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -5326,13 +5323,13 @@
         <v>137</v>
       </c>
       <c r="AB12" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AH12" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19"/>
@@ -5367,7 +5364,7 @@
         <v>137</v>
       </c>
       <c r="CE12" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CL12" s="21" t="s">
         <v>137</v>
@@ -5380,7 +5377,7 @@
         <v>109</v>
       </c>
       <c r="DI12" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="DJ12" s="21" t="s">
         <v>178</v>
@@ -5461,7 +5458,7 @@
         <v>137</v>
       </c>
       <c r="EK12" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL12" s="21" t="s">
         <v>137</v>
@@ -5484,22 +5481,22 @@
         <v>134</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>164</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>88</v>
@@ -5520,7 +5517,7 @@
         <v>21</v>
       </c>
       <c r="R13" s="22" t="s">
-        <v>299</v>
+        <v>441</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -5531,13 +5528,13 @@
         <v>0</v>
       </c>
       <c r="AB13" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AJ13" s="19"/>
       <c r="AK13" s="19"/>
@@ -5569,7 +5566,7 @@
         <v>148</v>
       </c>
       <c r="CE13" s="21" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="CF13" s="21" t="s">
         <v>75</v>
@@ -5653,7 +5650,7 @@
         <v>148</v>
       </c>
       <c r="EK13" s="27" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="EL13" s="21" t="s">
         <v>148</v>
@@ -5673,39 +5670,39 @@
     </row>
     <row r="14" spans="1:146" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="25" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AH14" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AJ14" s="19"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K15" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AH15" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AJ15" s="19"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K16" s="21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AH16" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AJ16" s="19"/>
       <c r="AK16" s="19"/>
@@ -5715,10 +5712,10 @@
         <v>142</v>
       </c>
       <c r="AH17" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="19"/>
@@ -5785,25 +5782,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>126</v>
@@ -5812,7 +5809,7 @@
         <v>127</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5820,7 +5817,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>60</v>
@@ -5849,10 +5846,10 @@
         <v>44</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>62</v>
@@ -5873,7 +5870,7 @@
         <v>1991</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5881,10 +5878,10 @@
         <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>132</v>
@@ -5905,7 +5902,7 @@
         <v>1992</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5913,19 +5910,19 @@
         <v>48</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" s="4">
         <v>3013454562</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>0</v>
@@ -5937,7 +5934,7 @@
         <v>1993</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5945,19 +5942,19 @@
         <v>48</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E6" s="4">
         <v>3013454562</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>0</v>
@@ -5969,7 +5966,7 @@
         <v>1994</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5977,19 +5974,19 @@
         <v>48</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" s="4">
         <v>3013454562</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>0</v>
@@ -6001,12 +5998,12 @@
         <v>1995</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I12" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6121,16 +6118,16 @@
         <v>137</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6138,7 +6135,7 @@
         <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>173</v>
@@ -6150,24 +6147,24 @@
         <v>137</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>79</v>
@@ -6181,24 +6178,24 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>78</v>
@@ -6214,24 +6211,24 @@
         <v>0</v>
       </c>
       <c r="H6" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>79</v>
@@ -6245,16 +6242,16 @@
         <v>137</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="K7" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>346</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6262,7 +6259,7 @@
         <v>190</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>173</v>
@@ -6274,24 +6271,24 @@
         <v>137</v>
       </c>
       <c r="H8" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>349</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>350</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>79</v>
@@ -6305,16 +6302,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>353</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6888A2-8E7B-8245-A041-13A541A451DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8656CF68-2071-6B48-A1DE-CD7E39F5E3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="760" windowWidth="26000" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>Other Test Race</t>
   </si>
   <si>
-    <t>April</t>
-  </si>
-  <si>
     <t>SpecifyParticipationInOtherStudies1</t>
   </si>
   <si>
@@ -1367,6 +1364,9 @@
   </si>
   <si>
     <t>01/21/1940</t>
+  </si>
+  <si>
+    <t>January</t>
   </si>
 </sst>
 </file>
@@ -1986,9 +1986,9 @@
   </sheetPr>
   <dimension ref="A1:EP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P2" sqref="P2:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2050,46 +2050,46 @@
   <sheetData>
     <row r="1" spans="1:146" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>1</v>
@@ -2101,13 +2101,13 @@
         <v>3</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>4</v>
@@ -2116,19 +2116,19 @@
         <v>5</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AB1" s="7" t="s">
         <v>7</v>
@@ -2155,10 +2155,10 @@
         <v>39</v>
       </c>
       <c r="AJ1" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="AK1" s="12" t="s">
         <v>429</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>430</v>
       </c>
       <c r="AL1" s="14" t="s">
         <v>14</v>
@@ -2197,295 +2197,295 @@
         <v>19</v>
       </c>
       <c r="AX1" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AY1" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AZ1" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="BA1" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="BB1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BD1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="BF1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="BK1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="BL1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="BA1" s="16" t="s">
+      <c r="BN1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="BR1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="BU1" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="BV1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="BX1" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="BY1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="CB1" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="CC1" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="CD1" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="CE1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="CF1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="CG1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="CJ1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="CK1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="CL1" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="CM1" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="CN1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="CO1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="CP1" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="CQ1" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="CR1" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS1" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="CT1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="CU1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="CV1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="CW1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="CX1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="CY1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="CZ1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="DA1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="DB1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="DC1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="DD1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="DE1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="DF1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="DG1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="DH1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="DI1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="DJ1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="DK1" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="DL1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="DM1" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="DO1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="DP1" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="DQ1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="DR1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="DS1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="DT1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="DU1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="DV1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="DW1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="DX1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="DY1" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="DZ1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="BB1" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="BD1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="BG1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="BH1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="BI1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="BJ1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="BK1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="BL1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="BM1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="BO1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="BQ1" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BR1" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="BS1" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="BT1" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="BU1" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="BV1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="BW1" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="BX1" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="BY1" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ1" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="CA1" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="CC1" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="CD1" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="CE1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="CF1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="CG1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="CH1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="CI1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="CJ1" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="CK1" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="CL1" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="CM1" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="CN1" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="CO1" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="CP1" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="CQ1" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="CR1" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="CS1" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="CT1" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="CU1" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="CV1" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="CW1" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="CX1" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="CY1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="CZ1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="DA1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="DB1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="DC1" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="DD1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="DE1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="DF1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="DG1" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="DH1" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="DI1" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="DJ1" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="DK1" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="DL1" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="DO1" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="DP1" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="DQ1" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="DR1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="DS1" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="DT1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="DU1" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="DV1" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="DW1" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="DX1" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="DY1" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="DZ1" s="17" t="s">
+      <c r="EA1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="EA1" s="17" t="s">
+      <c r="EB1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="EB1" s="17" t="s">
+      <c r="EC1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="EC1" s="17" t="s">
+      <c r="ED1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="ED1" s="17" t="s">
+      <c r="EE1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="EE1" s="17" t="s">
+      <c r="EF1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="EF1" s="17" t="s">
+      <c r="EG1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="EG1" s="17" t="s">
+      <c r="EH1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="EH1" s="17" t="s">
+      <c r="EI1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="EI1" s="17" t="s">
+      <c r="EJ1" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="EK1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="EJ1" s="17" t="s">
+      <c r="EL1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="EK1" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="EL1" s="17" t="s">
+      <c r="EM1" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="EM1" s="17" t="s">
+      <c r="EN1" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="EN1" s="17" t="s">
+      <c r="EO1" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="EO1" s="17" t="s">
+      <c r="EP1" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="EP1" s="17" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:146" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -2493,13 +2493,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>300</v>
-      </c>
       <c r="D2" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>0</v>
@@ -2508,7 +2508,7 @@
         <v>1948</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q2" s="21">
         <v>21</v>
@@ -2533,19 +2533,19 @@
         <v>0</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AB2" s="21" t="s">
         <v>22</v>
       </c>
       <c r="AC2" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD2" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AE2" s="21" t="s">
         <v>200</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>201</v>
       </c>
       <c r="AF2" s="21" t="s">
         <v>23</v>
@@ -2554,13 +2554,13 @@
         <v>28907</v>
       </c>
       <c r="AH2" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AI2" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK2" s="19"/>
       <c r="AL2" s="21">
@@ -2600,7 +2600,7 @@
         <v>40</v>
       </c>
       <c r="AX2" s="21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AY2" s="21" t="s">
         <v>0</v>
@@ -2609,46 +2609,46 @@
         <v>0</v>
       </c>
       <c r="BA2" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BB2" s="21" t="s">
         <v>37</v>
       </c>
       <c r="BC2" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BD2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE2" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BE2" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="BF2" s="21" t="s">
+      <c r="BG2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BG2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="BH2" s="21" t="s">
+      <c r="BI2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BI2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="BJ2" s="21" t="s">
+      <c r="BK2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BK2" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL2" s="21" t="s">
-        <v>59</v>
-      </c>
       <c r="BM2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN2" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BP2" s="21">
         <v>91</v>
@@ -2657,20 +2657,20 @@
         <v>0</v>
       </c>
       <c r="BR2" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="BV2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BV2" s="21" t="s">
+      <c r="BW2" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="BX2" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BW2" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="BX2" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="BY2" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="BZ2" s="21" t="s">
         <v>0</v>
       </c>
@@ -2678,34 +2678,34 @@
         <v>0</v>
       </c>
       <c r="CE2" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CF2" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CG2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="CH2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CH2" s="21" t="s">
-        <v>74</v>
-      </c>
       <c r="CI2" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CJ2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CK2" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CL2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CM2" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CN2" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CO2" s="21">
         <v>1997</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="CR2" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CS2" s="21" t="s">
         <v>0</v>
@@ -2723,55 +2723,55 @@
         <v>0</v>
       </c>
       <c r="CU2" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CW2" s="21">
         <v>101</v>
       </c>
       <c r="CX2" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CY2" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="CZ2" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="DA2" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="DB2" s="21">
         <v>1985</v>
       </c>
       <c r="DD2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="DE2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="DE2" s="21" t="s">
-        <v>89</v>
-      </c>
       <c r="DF2" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="DG2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="DH2" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DI2" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="DJ2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DJ2" s="21" t="s">
+      <c r="DK2" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="DK2" s="21" t="s">
-        <v>113</v>
-      </c>
       <c r="DL2" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DM2" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DN2" s="21">
         <v>3028976789</v>
@@ -2780,31 +2780,31 @@
         <v>0</v>
       </c>
       <c r="DP2" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ2" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR2" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS2" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS2" s="21" t="s">
+      <c r="DT2" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU2" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT2" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU2" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV2" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW2" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX2" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY2" s="21" t="s">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="EK2" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL2" s="21" t="s">
         <v>0</v>
@@ -2866,54 +2866,54 @@
         <v>38</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="D3" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O3" s="21">
         <v>1920</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q3" s="21">
         <v>23</v>
       </c>
       <c r="R3" s="22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
       <c r="U3" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="X3" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AH3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="AI3" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="X3" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="AH3" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI3" s="18" t="s">
-        <v>145</v>
-      </c>
       <c r="AJ3" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AK3" s="19"/>
       <c r="AL3" s="21">
@@ -2929,7 +2929,7 @@
         <v>3014524258</v>
       </c>
       <c r="AP3" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ3" s="21" t="s">
         <v>25</v>
@@ -2953,154 +2953,154 @@
         <v>40</v>
       </c>
       <c r="AX3" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AZ3" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BM3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN3" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="BO3" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="BQ3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="BO3" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="BQ3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="21" t="s">
+      <c r="BV3" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="BV3" s="21" t="s">
+      <c r="BY3" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="BY3" s="21" t="s">
+      <c r="BZ3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="CF3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG3" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="BZ3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="CF3" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="CG3" s="21" t="s">
-        <v>153</v>
-      </c>
       <c r="CH3" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CI3" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CJ3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CK3" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="CL3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CM3" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CP3" s="21">
         <v>100</v>
       </c>
       <c r="CQ3" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CR3" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CS3" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CT3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CU3" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="CV3" s="22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="CX3" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="CY3" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="CZ3" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="DC3" s="21">
         <v>102</v>
       </c>
       <c r="DD3" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE3" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="DE3" s="21" t="s">
+      <c r="DF3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DF3" s="21" t="s">
-        <v>156</v>
-      </c>
       <c r="DG3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="DH3" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="DJ3" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="DJ3" s="21" t="s">
-        <v>160</v>
-      </c>
       <c r="DL3" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="DM3" s="21" t="s">
         <v>324</v>
-      </c>
-      <c r="DM3" s="21" t="s">
-        <v>325</v>
       </c>
       <c r="DN3" s="21">
         <v>3028976789</v>
       </c>
       <c r="DO3" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DP3" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ3" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR3" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS3" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR3" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS3" s="21" t="s">
+      <c r="DT3" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU3" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT3" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU3" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV3" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW3" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX3" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY3" s="21" t="s">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="EK3" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL3" s="21" t="s">
         <v>0</v>
@@ -3162,51 +3162,51 @@
         <v>38</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>162</v>
-      </c>
       <c r="D4" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O4" s="21">
         <v>1910</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q4" s="21">
         <v>21</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
       <c r="U4" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X4" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AH4" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI4" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
@@ -3223,7 +3223,7 @@
         <v>3015567865</v>
       </c>
       <c r="AP4" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ4" s="21" t="s">
         <v>27</v>
@@ -3232,109 +3232,109 @@
         <v>27</v>
       </c>
       <c r="AZ4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BM4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN4" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BQ4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BR4" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="BV4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BY4" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="BV4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="BY4" s="21" t="s">
+      <c r="BZ4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="21" t="s">
+        <v>420</v>
+      </c>
+      <c r="CF4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG4" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="CI4" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="CJ4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK4" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="BZ4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="CF4" s="21" t="s">
+      <c r="CQ4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="CR4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CG4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CH4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="CI4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CJ4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="21" t="s">
+      <c r="CS4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="CX4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="CZ4" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="CL4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="21" t="s">
+      <c r="DD4" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="CQ4" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="CS4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CX4" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="CY4" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="CZ4" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="DD4" s="21" t="s">
+      <c r="DE4" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="DF4" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="DE4" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="DF4" s="21" t="s">
-        <v>175</v>
-      </c>
       <c r="DG4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="DH4" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DI4" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DJ4" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="DL4" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="DM4" s="21" t="s">
         <v>324</v>
-      </c>
-      <c r="DM4" s="21" t="s">
-        <v>325</v>
       </c>
       <c r="DN4" s="21">
         <v>3028976789</v>
@@ -3343,85 +3343,85 @@
         <v>0</v>
       </c>
       <c r="DP4" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ4" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR4" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS4" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR4" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS4" s="21" t="s">
+      <c r="DT4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU4" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT4" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU4" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV4" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW4" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX4" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DZ4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EA4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EB4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EC4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="ED4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EE4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EF4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EG4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EH4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EI4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EJ4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EK4" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EM4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EN4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EO4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EP4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -3429,57 +3429,57 @@
         <v>38</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>164</v>
-      </c>
       <c r="D5" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O5" s="21">
         <v>1925</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="21">
         <v>21</v>
       </c>
       <c r="R5" s="22" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="U5" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="X5" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Y5" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH5" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AI5" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AJ5" s="19"/>
       <c r="AK5" s="19"/>
@@ -3496,19 +3496,19 @@
         <v>3015567865</v>
       </c>
       <c r="AP5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AZ5" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BM5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BQ5" s="21" t="s">
         <v>0</v>
@@ -3517,14 +3517,14 @@
         <v>31</v>
       </c>
       <c r="BS5" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BV5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BY5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BY5" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="BZ5" s="21" t="s">
         <v>0</v>
       </c>
@@ -3532,85 +3532,85 @@
         <v>0</v>
       </c>
       <c r="CE5" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CF5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG5" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="CI5" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="CJ5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="CQ5" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="CR5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CG5" s="21" t="s">
+      <c r="CS5" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="CT5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="CH5" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="CI5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CJ5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="21" t="s">
+      <c r="CV5" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="CX5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY5" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="CZ5" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="CL5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="CQ5" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR5" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="CS5" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="CT5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="CV5" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="CX5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="CY5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="CZ5" s="21" t="s">
-        <v>173</v>
-      </c>
       <c r="DD5" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="DE5" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="DF5" s="21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="DG5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="DH5" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DJ5" s="21" t="s">
         <v>37</v>
       </c>
       <c r="DK5" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DL5" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="DM5" s="21" t="s">
         <v>324</v>
-      </c>
-      <c r="DM5" s="21" t="s">
-        <v>325</v>
       </c>
       <c r="DN5" s="21">
         <v>3028976789</v>
@@ -3619,85 +3619,85 @@
         <v>0</v>
       </c>
       <c r="DP5" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ5" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR5" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS5" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR5" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS5" s="21" t="s">
+      <c r="DT5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU5" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT5" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU5" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV5" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW5" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX5" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DZ5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EA5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EB5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EC5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="ED5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EE5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EG5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EH5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EI5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EJ5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EK5" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EM5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EN5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EO5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EP5" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -3705,51 +3705,51 @@
         <v>38</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>180</v>
-      </c>
       <c r="D6" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O6" s="21">
         <v>1950</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q6" s="21">
         <v>26</v>
       </c>
       <c r="R6" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AH6" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AI6" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL6" s="21">
         <v>3015774089</v>
@@ -3764,147 +3764,147 @@
         <v>3015774089</v>
       </c>
       <c r="AP6" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AQ6" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AZ6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BM6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BO6" s="24"/>
       <c r="BQ6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BR6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BV6" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BY6" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BZ6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CE6" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CL6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CV6" s="24"/>
       <c r="DG6" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DH6" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DI6" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="DJ6" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="DK6" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="DK6" s="21" t="s">
-        <v>356</v>
-      </c>
       <c r="DL6" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DM6" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DN6" s="21">
         <v>3028976789</v>
       </c>
       <c r="DO6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DP6" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ6" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR6" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS6" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR6" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS6" s="21" t="s">
+      <c r="DT6" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU6" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT6" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU6" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV6" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW6" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX6" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DZ6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EA6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EB6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EC6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="ED6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EE6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EF6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EG6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EH6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EI6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EJ6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EK6" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EM6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EN6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EO6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EP6" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -3912,51 +3912,51 @@
         <v>38</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>318</v>
-      </c>
       <c r="D7" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O7" s="21">
         <v>1940</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q7" s="21">
         <v>11</v>
       </c>
       <c r="R7" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
       <c r="U7" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X7" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Z7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB7" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH7" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AI7" s="18" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18"/>
@@ -3973,16 +3973,16 @@
         <v>3014524258</v>
       </c>
       <c r="AP7" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AQ7" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AZ7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BM7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BO7" s="24"/>
       <c r="BQ7" s="21" t="s">
@@ -3992,89 +3992,89 @@
         <v>31</v>
       </c>
       <c r="BS7" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BT7" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="BU7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BV7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BY7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BY7" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="BZ7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CA7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CB7" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CE7" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CJ7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CL7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CV7" s="24"/>
       <c r="DG7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DH7" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DI7" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DJ7" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="DL7" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DM7" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DN7" s="21">
         <v>3028976789</v>
       </c>
       <c r="DO7" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DP7" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ7" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR7" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS7" s="21" t="s">
+      <c r="DT7" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU7" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT7" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU7" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV7" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW7" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX7" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY7" s="21" t="s">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="EK7" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL7" s="21" t="s">
         <v>0</v>
@@ -4136,54 +4136,54 @@
         <v>38</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>320</v>
-      </c>
       <c r="D8" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O8" s="21">
         <v>1930</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q8" s="21">
         <v>30</v>
       </c>
       <c r="R8" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
       <c r="U8" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V8" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="AC8" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD8" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="AD8" s="21" t="s">
+      <c r="AE8" s="21" t="s">
         <v>200</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>201</v>
       </c>
       <c r="AF8" s="21" t="s">
         <v>23</v>
@@ -4192,10 +4192,10 @@
         <v>28907</v>
       </c>
       <c r="AH8" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AI8" s="18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18"/>
@@ -4212,81 +4212,81 @@
         <v>3015567865</v>
       </c>
       <c r="AP8" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ8" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AZ8" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BM8" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BP8" s="24"/>
       <c r="BQ8" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BZ8" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CE8" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CL8" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CV8" s="24"/>
       <c r="DG8" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DH8" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DJ8" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DK8" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="DL8" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DM8" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DN8" s="21">
         <v>3028976789</v>
       </c>
       <c r="DO8" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DP8" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ8" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR8" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS8" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR8" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS8" s="21" t="s">
+      <c r="DT8" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU8" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT8" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU8" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV8" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW8" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX8" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY8" s="21" t="s">
         <v>0</v>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="EK8" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL8" s="21" t="s">
         <v>0</v>
@@ -4348,13 +4348,13 @@
         <v>38</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>378</v>
-      </c>
       <c r="D9" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N9" s="21" t="s">
         <v>0</v>
@@ -4363,36 +4363,36 @@
         <v>1935</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q9" s="21">
         <v>29</v>
       </c>
       <c r="R9" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
       <c r="U9" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X9" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Z9" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AB9" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AH9" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AI9" s="18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AJ9" s="18"/>
       <c r="AK9" s="18"/>
@@ -4409,61 +4409,61 @@
         <v>3015567865</v>
       </c>
       <c r="AP9" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ9" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AZ9" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BA9" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BB9" s="21" t="s">
         <v>37</v>
       </c>
       <c r="BC9" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BD9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BE9" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="BF9" s="21" t="s">
+      <c r="BG9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BG9" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="BH9" s="21" t="s">
+      <c r="BI9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BI9" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="BJ9" s="21" t="s">
+      <c r="BK9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BK9" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL9" s="21" t="s">
-        <v>59</v>
-      </c>
       <c r="BM9" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN9" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BP9" s="21">
         <v>119</v>
       </c>
       <c r="BQ9" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BZ9" s="21" t="s">
         <v>0</v>
@@ -4472,65 +4472,65 @@
         <v>0</v>
       </c>
       <c r="CE9" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CF9" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CG9" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CH9" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CI9" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CJ9" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CL9" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CM9" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CP9" s="21">
         <v>102</v>
       </c>
       <c r="CQ9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CR9" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="CS9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CT9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CV9" s="24"/>
       <c r="CX9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DG9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DH9" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DI9" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DJ9" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="DL9" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DM9" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DN9" s="21">
         <v>3028976789</v>
@@ -4539,111 +4539,111 @@
         <v>0</v>
       </c>
       <c r="DP9" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ9" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS9" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR9" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS9" s="21" t="s">
+      <c r="DT9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU9" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT9" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU9" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV9" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW9" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX9" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DZ9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EA9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EB9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EC9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="ED9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EE9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EF9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EG9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EH9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EI9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EJ9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EK9" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EM9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EN9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EO9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EP9" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:146" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>416</v>
-      </c>
       <c r="H10" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>0</v>
@@ -4655,13 +4655,13 @@
         <v>1937</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q10" s="21">
         <v>27</v>
       </c>
       <c r="R10" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -4676,13 +4676,13 @@
         <v>22</v>
       </c>
       <c r="AC10" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD10" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="AD10" s="21" t="s">
+      <c r="AE10" s="21" t="s">
         <v>200</v>
-      </c>
-      <c r="AE10" s="21" t="s">
-        <v>201</v>
       </c>
       <c r="AF10" s="21" t="s">
         <v>23</v>
@@ -4691,10 +4691,10 @@
         <v>28907</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AI10" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18"/>
@@ -4735,74 +4735,74 @@
         <v>40</v>
       </c>
       <c r="AX10" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AZ10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BA10" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BB10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="BC10" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BD10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE10" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BF10" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BE10" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="BF10" s="21" t="s">
+      <c r="BG10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH10" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BG10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="BH10" s="21" t="s">
+      <c r="BI10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BJ10" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BI10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="BJ10" s="21" t="s">
+      <c r="BK10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL10" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BK10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="BL10" s="21" t="s">
-        <v>59</v>
-      </c>
       <c r="BM10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN10" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BO10" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BQ10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BR10" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BV10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BW10" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="BX10" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="BY10" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BW10" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="BX10" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="BY10" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="BZ10" s="21" t="s">
         <v>0</v>
       </c>
@@ -4810,34 +4810,34 @@
         <v>0</v>
       </c>
       <c r="CE10" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CF10" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="CG10" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="CH10" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="CG10" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="CH10" s="21" t="s">
-        <v>371</v>
-      </c>
       <c r="CI10" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CJ10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CK10" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CL10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CM10" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="CN10" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="CO10" s="21">
         <v>1997</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="CR10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="CS10" s="21" t="s">
         <v>0</v>
@@ -4855,55 +4855,55 @@
         <v>0</v>
       </c>
       <c r="CU10" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="CW10" s="21">
         <v>103</v>
       </c>
       <c r="CX10" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="CY10" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="CZ10" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="DA10" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="DB10" s="21">
         <v>1985</v>
       </c>
       <c r="DD10" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="DE10" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="DE10" s="21" t="s">
-        <v>89</v>
-      </c>
       <c r="DF10" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="DG10" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DH10" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DI10" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="DJ10" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DJ10" s="21" t="s">
+      <c r="DK10" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="DK10" s="21" t="s">
-        <v>113</v>
-      </c>
       <c r="DL10" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DM10" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DN10" s="21">
         <v>3028976789</v>
@@ -4912,31 +4912,31 @@
         <v>0</v>
       </c>
       <c r="DP10" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ10" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR10" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS10" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR10" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS10" s="21" t="s">
+      <c r="DT10" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU10" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT10" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU10" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV10" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW10" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX10" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY10" s="21" t="s">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="EK10" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL10" s="21" t="s">
         <v>0</v>
@@ -4995,66 +4995,66 @@
     </row>
     <row r="11" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>405</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>406</v>
-      </c>
       <c r="H11" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O11" s="21">
         <v>1935</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q11" s="21">
         <v>21</v>
       </c>
       <c r="R11" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
       <c r="U11" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB11" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AH11" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19"/>
@@ -5071,33 +5071,33 @@
         <v>3014524258</v>
       </c>
       <c r="AP11" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AQ11" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AZ11" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BM11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN11" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BO11" s="24"/>
       <c r="BQ11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BR11" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="BV11" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="BV11" s="21" t="s">
+      <c r="BY11" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="BY11" s="21" t="s">
-        <v>152</v>
-      </c>
       <c r="BZ11" s="21" t="s">
         <v>0</v>
       </c>
@@ -5105,83 +5105,83 @@
         <v>0</v>
       </c>
       <c r="CE11" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CF11" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="CG11" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="CH11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="CI11" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="CJ11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="CL11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="CQ11" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="CR11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CG11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CH11" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="CI11" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="CJ11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="CL11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="CQ11" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR11" s="21" t="s">
-        <v>76</v>
-      </c>
       <c r="CS11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CT11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CU11" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CV11" s="24"/>
       <c r="CX11" s="21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="CY11" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="CZ11" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="DD11" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="DD11" s="21" t="s">
+      <c r="DE11" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="DF11" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="DE11" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="DF11" s="21" t="s">
-        <v>175</v>
-      </c>
       <c r="DG11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="DH11" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DI11" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="DJ11" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="DL11" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DM11" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DN11" s="21">
         <v>3028976789</v>
@@ -5190,129 +5190,129 @@
         <v>0</v>
       </c>
       <c r="DP11" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS11" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR11" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS11" s="21" t="s">
+      <c r="DT11" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU11" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT11" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU11" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV11" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW11" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX11" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DZ11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EA11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EB11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EC11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="ED11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EE11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EF11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EG11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EH11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EI11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EJ11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EK11" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EM11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EN11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EO11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EP11" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M12" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O12" s="21">
         <v>1930</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q12" s="21">
         <v>30</v>
       </c>
       <c r="R12" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -5320,16 +5320,16 @@
         <v>20</v>
       </c>
       <c r="Z12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB12" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AH12" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19"/>
@@ -5346,47 +5346,47 @@
         <v>3014524258</v>
       </c>
       <c r="AP12" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ12" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AZ12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BM12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BQ12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BZ12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CE12" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CL12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="CV12" s="24"/>
       <c r="DG12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DH12" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="DI12" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="DJ12" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="DL12" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DM12" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DN12" s="21">
         <v>3028976789</v>
@@ -5395,146 +5395,146 @@
         <v>0</v>
       </c>
       <c r="DP12" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ12" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR12" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS12" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR12" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS12" s="21" t="s">
+      <c r="DT12" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU12" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT12" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU12" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV12" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW12" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX12" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="DZ12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EA12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EB12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EC12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="ED12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EE12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EF12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EG12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EH12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EI12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EJ12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EK12" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EM12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EN12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EO12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="EP12" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O13" s="21">
         <v>1940</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="21">
         <v>21</v>
       </c>
       <c r="R13" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
       <c r="U13" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z13" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AB13" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AJ13" s="19"/>
       <c r="AK13" s="19"/>
@@ -5551,171 +5551,171 @@
         <v>3014524258</v>
       </c>
       <c r="AP13" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AQ13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AZ13" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BM13" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="CE13" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="CF13" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="CG13" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="CH13" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="CI13" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="CJ13" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CK13" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="DP13" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="DQ13" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DR13" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DS13" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="DR13" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DS13" s="21" t="s">
+      <c r="DT13" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DU13" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="DT13" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DU13" s="21" t="s">
-        <v>125</v>
-      </c>
       <c r="DV13" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DW13" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="DX13" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="DY13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="DZ13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EA13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EB13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EC13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="ED13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EE13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EG13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EH13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EI13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EJ13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EK13" s="27" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="EL13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EM13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EN13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EO13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EP13" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:146" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AH14" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AJ14" s="19"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K15" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AH15" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AJ15" s="19"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K16" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AH16" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AJ16" s="19"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="11:37" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K17" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH17" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="19"/>
@@ -5782,34 +5782,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5817,16 +5817,16 @@
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" s="4">
         <v>3013454557</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>0</v>
@@ -5843,22 +5843,22 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="4">
         <v>3013454561</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>0</v>
@@ -5870,27 +5870,27 @@
         <v>1991</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="4">
         <v>3013454562</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -5902,27 +5902,27 @@
         <v>1992</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E5" s="4">
         <v>3013454562</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>0</v>
@@ -5934,27 +5934,27 @@
         <v>1993</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E6" s="4">
         <v>3013454562</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>0</v>
@@ -5966,27 +5966,27 @@
         <v>1994</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E7" s="4">
         <v>3013454562</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>0</v>
@@ -5998,12 +5998,12 @@
         <v>1995</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I12" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -6033,51 +6033,51 @@
   <sheetData>
     <row r="1" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2">
         <v>1965</v>
@@ -6087,27 +6087,27 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -6115,59 +6115,59 @@
         <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -6178,30 +6178,30 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="20">
         <v>1965</v>
@@ -6211,27 +6211,27 @@
         <v>0</v>
       </c>
       <c r="H6" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -6239,59 +6239,59 @@
         <v>90</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="K7" s="20" t="s">
         <v>344</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>348</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -6302,16 +6302,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>352</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/Resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB6D4EE-562D-834F-91FE-8C3F1DEBBD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5B58D-9188-D341-ABD0-7139A7806C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4280" yWindow="500" windowWidth="26000" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="4240" yWindow="760" windowWidth="26000" windowHeight="17600" activeTab="3" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
     <sheet name="OtherStudies" sheetId="3" r:id="rId2"/>
     <sheet name="Cancer" sheetId="6" r:id="rId3"/>
+    <sheet name="fanconiScreenerScenario" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$EP$13</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="491">
   <si>
     <t>Yes</t>
   </si>
@@ -1370,6 +1371,153 @@
   </si>
   <si>
     <t>CalculatedAge</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>Are you completing this form for someone else or for yourself?</t>
+  </si>
+  <si>
+    <t>I am completing this form for myself</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Middle Initial</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>What is your date of birth?</t>
+  </si>
+  <si>
+    <t>Date of birth month</t>
+  </si>
+  <si>
+    <t>Date of birth year</t>
+  </si>
+  <si>
+    <t>What was your sex assigned at birth?</t>
+  </si>
+  <si>
+    <t>Are you adopted?</t>
+  </si>
+  <si>
+    <t>In which country do you currently live?</t>
+  </si>
+  <si>
+    <t>Please provide the mailing address where study materials can be sent, as needed.</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>12-34 home address</t>
+  </si>
+  <si>
+    <t>Street 2 (optional)</t>
+  </si>
+  <si>
+    <t>Apt 600</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>State (Abbreviation)</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
+  </si>
+  <si>
+    <t>What is your email address?</t>
+  </si>
+  <si>
+    <t>Please confirm your email address</t>
+  </si>
+  <si>
+    <t>Home phone number</t>
+  </si>
+  <si>
+    <t>Cell phone number</t>
+  </si>
+  <si>
+    <t>Work phone number</t>
+  </si>
+  <si>
+    <t>What is your ethnicity?</t>
+  </si>
+  <si>
+    <t>What is your race? Please select all that apply.</t>
+  </si>
+  <si>
+    <t>Are you a participant in any other research study or registry group?  Please specify.</t>
+  </si>
+  <si>
+    <t>I am not involved in any other research study or registry group</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with the following conditions?  Select all that apply.  If you do not see the exact condition diagnosed, please select the closest answer.</t>
+  </si>
+  <si>
+    <t>Never diagnosed with any of these conditions</t>
+  </si>
+  <si>
+    <t>Have you ever been diagnosed with cancer?</t>
+  </si>
+  <si>
+    <t>Have you been diagnosed with a RASopathy such as Noonan syndrome, Noonan syndrome with multiple lentigines, Costello syndrome, cardiofaciocutaneous syndrome, Legius syndrome, capillary arteriovenous malformation syndrome, hereditary gingival fibromatosis or SYNGAP1 syndrome?</t>
+  </si>
+  <si>
+    <t>Have any of your biological relatives been diagnosed with a RASopathy?</t>
+  </si>
+  <si>
+    <t>Have you ever had genetic testing?</t>
+  </si>
+  <si>
+    <t>How did you hear about this study?  If a specific health care provider referred you to this study, please include their name in the corresponding text box.</t>
+  </si>
+  <si>
+    <t>How did you hear about this study?  If a specific health care provider referred you to this study, please include their name in the corresponding text box. Other reason</t>
+  </si>
+  <si>
+    <t>JUST TESTING</t>
+  </si>
+  <si>
+    <t>Have you or other family members ever participated in another study on RASopathies at another medical institution, university, government agency or other site?</t>
+  </si>
+  <si>
+    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox.</t>
+  </si>
+  <si>
+    <t>What are the main reasons for participating in this study?  Select all that apply.  Please elaborate on the reason in the corresponding textbox. Other reason</t>
+  </si>
+  <si>
+    <t>TESTING REASONS</t>
+  </si>
+  <si>
+    <t>You are almost done!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are almost done!
+  To submit your responses, you must continue in the questionnaire by clicking the forward arrow below.  
+The information you have provided will be reviewed by our study team.  If it is determined that you are eligible to participate in the RASopathy Study, you will receive an email with further details, including instructions to log in to a secure study portal. If the team decides that you are not eligible, you will receive an email explaining why. In the meantime, you should receive an email confirming this submission.
+  Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the RASopathies Study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort.  We could not do vital studies like this without the help of dedicated patients and families.  </t>
+  </si>
+  <si>
+    <t>April 1, 1948</t>
+  </si>
+  <si>
+    <t>301-577-4089</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1727,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1659,6 +1807,25 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1989,9 +2156,9 @@
   </sheetPr>
   <dimension ref="A1:EP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="113" workbookViewId="0">
+    <sheetView topLeftCell="AI1" zoomScale="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="AK2" sqref="AK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6321,4 +6488,312 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6599F052-5E19-A342-980D-0163BD929DAC}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="98.5" customWidth="1"/>
+    <col min="2" max="2" width="53" style="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="31">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>464</v>
+      </c>
+      <c r="B17" s="31">
+        <v>22015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A31" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" display="charmsras1@yahoo.com" xr:uid="{6EA70FB0-A297-224B-9C86-78BA30550547}"/>
+    <hyperlink ref="B19" r:id="rId2" display="charmsras1@yahoo.com" xr:uid="{E702EB55-FE21-CB44-8DAD-949BFDA9CB44}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8656CF68-2071-6B48-A1DE-CD7E39F5E3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD510F4C-0F77-D141-9D77-033EC4DE5609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="760" windowWidth="26000" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="720" yWindow="800" windowWidth="26000" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="443">
   <si>
     <t>Yes</t>
   </si>
@@ -379,9 +379,6 @@
     <t>Physician</t>
   </si>
   <si>
-    <t xml:space="preserve">Physician Tester </t>
-  </si>
-  <si>
     <t>HealthCareProviderName</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
     <t>Other Test Reason</t>
   </si>
   <si>
-    <t xml:space="preserve">Receive Genetic Test reason </t>
-  </si>
-  <si>
     <t>Cancer diagnosis Reason</t>
   </si>
   <si>
@@ -1367,6 +1361,15 @@
   </si>
   <si>
     <t>January</t>
+  </si>
+  <si>
+    <t>Receive Genetic Test reason</t>
+  </si>
+  <si>
+    <t>Physician Tester</t>
+  </si>
+  <si>
+    <t>01/21/1948</t>
   </si>
 </sst>
 </file>
@@ -1576,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1655,6 +1658,24 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1986,9 +2007,9 @@
   </sheetPr>
   <dimension ref="A1:EP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2:P13"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2007,7 +2028,8 @@
     <col min="15" max="15" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="33" customWidth="1"/>
+    <col min="19" max="20" width="13.33203125" style="3" customWidth="1"/>
     <col min="21" max="21" width="16" style="3" customWidth="1"/>
     <col min="22" max="22" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.1640625" style="3" customWidth="1"/>
@@ -2050,46 +2072,46 @@
   <sheetData>
     <row r="1" spans="1:146" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="E1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>196</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>1</v>
@@ -2100,14 +2122,14 @@
       <c r="Q1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="9" t="s">
-        <v>127</v>
+      <c r="R1" s="30" t="s">
+        <v>125</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>4</v>
@@ -2116,19 +2138,19 @@
         <v>5</v>
       </c>
       <c r="W1" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="X1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AB1" s="7" t="s">
         <v>7</v>
@@ -2155,10 +2177,10 @@
         <v>39</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AK1" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AL1" s="14" t="s">
         <v>14</v>
@@ -2197,16 +2219,16 @@
         <v>19</v>
       </c>
       <c r="AX1" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AY1" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AZ1" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BA1" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="BB1" s="16" t="s">
         <v>53</v>
@@ -2242,58 +2264,58 @@
         <v>52</v>
       </c>
       <c r="BM1" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="BR1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="BN1" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BS1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="BU1" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="BV1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="BX1" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="BY1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="BP1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="BQ1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="BR1" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BS1" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="BT1" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="BU1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="CA1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="CB1" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="BV1" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="BW1" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="BX1" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="BY1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="BZ1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="CA1" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>365</v>
-      </c>
       <c r="CC1" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CD1" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="CE1" s="13" t="s">
         <v>67</v>
@@ -2311,49 +2333,49 @@
         <v>71</v>
       </c>
       <c r="CJ1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="CK1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="CL1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CM1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="CL1" s="13" t="s">
+      <c r="CN1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="CO1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="CP1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="CQ1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="CR1" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="CS1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CT1" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="CN1" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="CO1" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="CP1" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="CQ1" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="CR1" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="CS1" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="CT1" s="13" t="s">
-        <v>219</v>
-      </c>
       <c r="CU1" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="CV1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="CW1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="CX1" s="13" t="s">
         <v>228</v>
-      </c>
-      <c r="CW1" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="CX1" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="CY1" s="13" t="s">
         <v>80</v>
@@ -2380,112 +2402,112 @@
         <v>91</v>
       </c>
       <c r="DG1" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="DH1" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="DI1" s="13" t="s">
         <v>109</v>
       </c>
       <c r="DJ1" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="DK1" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="DL1" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="DM1" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="DN1" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="DO1" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="DP1" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="DQ1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="DR1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="DS1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="DR1" s="13" t="s">
+      <c r="DT1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="DS1" s="13" t="s">
+      <c r="DU1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="DT1" s="13" t="s">
+      <c r="DV1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="DU1" s="13" t="s">
+      <c r="DW1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="DV1" s="13" t="s">
+      <c r="DX1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="DW1" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="DX1" s="13" t="s">
-        <v>238</v>
-      </c>
       <c r="DY1" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="DZ1" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="EA1" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="EB1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="EA1" s="17" t="s">
+      <c r="EC1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="EB1" s="17" t="s">
+      <c r="ED1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="EC1" s="17" t="s">
+      <c r="EE1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="ED1" s="17" t="s">
+      <c r="EF1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="EE1" s="17" t="s">
+      <c r="EG1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="EF1" s="17" t="s">
+      <c r="EH1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="EG1" s="17" t="s">
+      <c r="EI1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="EH1" s="17" t="s">
+      <c r="EJ1" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="EK1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="EI1" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="EJ1" s="17" t="s">
+      <c r="EL1" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="EM1" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="EK1" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="EL1" s="17" t="s">
+      <c r="EN1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="EM1" s="17" t="s">
+      <c r="EO1" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="EN1" s="17" t="s">
+      <c r="EP1" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="EO1" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="EP1" s="17" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:146" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -2493,13 +2515,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>0</v>
@@ -2508,17 +2530,17 @@
         <v>1948</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q2" s="21">
         <v>21</v>
       </c>
-      <c r="R2" s="22">
-        <v>17553</v>
+      <c r="R2" s="31" t="s">
+        <v>442</v>
       </c>
       <c r="S2" s="22"/>
       <c r="T2" s="21">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" s="21" t="s">
         <v>20</v>
@@ -2533,19 +2555,19 @@
         <v>0</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AB2" s="21" t="s">
         <v>22</v>
       </c>
       <c r="AC2" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD2" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE2" s="21" t="s">
         <v>198</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>200</v>
       </c>
       <c r="AF2" s="21" t="s">
         <v>23</v>
@@ -2554,13 +2576,13 @@
         <v>28907</v>
       </c>
       <c r="AH2" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AI2" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AK2" s="19"/>
       <c r="AL2" s="21">
@@ -2600,7 +2622,7 @@
         <v>40</v>
       </c>
       <c r="AX2" s="21" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AY2" s="21" t="s">
         <v>0</v>
@@ -2609,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="BA2" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BB2" s="21" t="s">
         <v>37</v>
@@ -2663,10 +2685,10 @@
         <v>65</v>
       </c>
       <c r="BW2" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BX2" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BY2" s="21" t="s">
         <v>66</v>
@@ -2678,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="CE2" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CF2" s="21" t="s">
         <v>74</v>
@@ -2765,13 +2787,13 @@
         <v>111</v>
       </c>
       <c r="DK2" s="21" t="s">
-        <v>112</v>
+        <v>441</v>
       </c>
       <c r="DL2" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="DM2" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DN2" s="21">
         <v>3028976789</v>
@@ -2780,31 +2802,31 @@
         <v>0</v>
       </c>
       <c r="DP2" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ2" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR2" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS2" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT2" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR2" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS2" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT2" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU2" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV2" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW2" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX2" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY2" s="21" t="s">
         <v>0</v>
@@ -2843,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="EK2" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL2" s="21" t="s">
         <v>0</v>
@@ -2866,54 +2888,54 @@
         <v>38</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O3" s="21">
         <v>1920</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q3" s="21">
         <v>23</v>
       </c>
-      <c r="R3" s="22" t="s">
-        <v>431</v>
+      <c r="R3" s="31" t="s">
+        <v>429</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
       <c r="U3" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="X3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z3" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB3" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="Z3" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>168</v>
-      </c>
       <c r="AH3" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AI3" s="18" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AJ3" s="19" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="AK3" s="19"/>
       <c r="AL3" s="21">
@@ -2929,7 +2951,7 @@
         <v>3014524258</v>
       </c>
       <c r="AP3" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AQ3" s="21" t="s">
         <v>25</v>
@@ -2953,32 +2975,32 @@
         <v>40</v>
       </c>
       <c r="AX3" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AZ3" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BM3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN3" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO3" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="BQ3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="BO3" s="22" t="s">
-        <v>297</v>
-      </c>
-      <c r="BQ3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="21" t="s">
+      <c r="BY3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="BV3" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY3" s="21" t="s">
-        <v>151</v>
-      </c>
       <c r="BZ3" s="21" t="s">
         <v>0</v>
       </c>
@@ -2986,25 +3008,25 @@
         <v>0</v>
       </c>
       <c r="CE3" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CF3" s="21" t="s">
         <v>74</v>
       </c>
       <c r="CG3" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="CH3" s="21" t="s">
         <v>73</v>
       </c>
       <c r="CI3" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="CJ3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CK3" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="CL3" s="21" t="s">
         <v>0</v>
@@ -3016,22 +3038,22 @@
         <v>100</v>
       </c>
       <c r="CQ3" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CR3" s="21" t="s">
         <v>75</v>
       </c>
       <c r="CS3" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CT3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CU3" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="CV3" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="CX3" s="21" t="s">
         <v>79</v>
@@ -3046,61 +3068,61 @@
         <v>102</v>
       </c>
       <c r="DD3" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="DE3" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="DF3" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="DE3" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="DF3" s="21" t="s">
-        <v>155</v>
-      </c>
       <c r="DG3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="DH3" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="DJ3" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="DL3" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="DM3" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="DN3" s="21">
         <v>3028976789</v>
       </c>
       <c r="DO3" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DP3" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ3" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS3" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT3" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR3" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS3" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT3" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU3" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV3" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW3" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX3" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY3" s="21" t="s">
         <v>0</v>
@@ -3139,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="EK3" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL3" s="21" t="s">
         <v>0</v>
@@ -3162,51 +3184,51 @@
         <v>38</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O4" s="21">
         <v>1910</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q4" s="21">
         <v>21</v>
       </c>
-      <c r="R4" s="22" t="s">
-        <v>432</v>
+      <c r="R4" s="31" t="s">
+        <v>430</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
       <c r="U4" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V4" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="X4" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="X4" s="21" t="s">
-        <v>167</v>
-      </c>
       <c r="Z4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AH4" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AI4" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AJ4" s="18"/>
       <c r="AK4" s="18"/>
@@ -3223,7 +3245,7 @@
         <v>3015567865</v>
       </c>
       <c r="AP4" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AQ4" s="21" t="s">
         <v>27</v>
@@ -3232,25 +3254,25 @@
         <v>27</v>
       </c>
       <c r="AZ4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BM4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN4" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BQ4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BR4" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BV4" s="21" t="s">
         <v>65</v>
       </c>
       <c r="BY4" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BZ4" s="21" t="s">
         <v>0</v>
@@ -3259,34 +3281,34 @@
         <v>0</v>
       </c>
       <c r="CE4" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CF4" s="21" t="s">
         <v>74</v>
       </c>
       <c r="CG4" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CH4" s="21" t="s">
         <v>73</v>
       </c>
       <c r="CI4" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CJ4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CK4" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="CL4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CM4" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CQ4" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CR4" s="21" t="s">
         <v>75</v>
@@ -3298,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="CU4" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CX4" s="21" t="s">
         <v>79</v>
@@ -3307,16 +3329,16 @@
         <v>81</v>
       </c>
       <c r="CZ4" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="DD4" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="DE4" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="DF4" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="DD4" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="DE4" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="DF4" s="21" t="s">
-        <v>174</v>
       </c>
       <c r="DG4" s="21" t="s">
         <v>0</v>
@@ -3328,13 +3350,13 @@
         <v>110</v>
       </c>
       <c r="DJ4" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="DL4" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="DM4" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="DN4" s="21">
         <v>3028976789</v>
@@ -3343,85 +3365,85 @@
         <v>0</v>
       </c>
       <c r="DP4" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ4" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR4" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS4" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT4" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR4" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS4" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT4" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU4" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV4" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW4" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX4" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DZ4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EA4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EB4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EC4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="ED4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EE4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EF4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EG4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EH4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EI4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EJ4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EK4" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EM4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EN4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EO4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EP4" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -3429,57 +3451,57 @@
         <v>38</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O5" s="21">
         <v>1925</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q5" s="21">
         <v>21</v>
       </c>
-      <c r="R5" s="22" t="s">
-        <v>433</v>
+      <c r="R5" s="31" t="s">
+        <v>431</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="U5" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="X5" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Y5" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AH5" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI5" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AJ5" s="19"/>
       <c r="AK5" s="19"/>
@@ -3496,19 +3518,19 @@
         <v>3015567865</v>
       </c>
       <c r="AP5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AQ5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AZ5" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BM5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BQ5" s="21" t="s">
         <v>0</v>
@@ -3517,7 +3539,7 @@
         <v>31</v>
       </c>
       <c r="BS5" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BV5" s="21" t="s">
         <v>65</v>
@@ -3532,49 +3554,49 @@
         <v>0</v>
       </c>
       <c r="CE5" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CF5" s="21" t="s">
         <v>74</v>
       </c>
       <c r="CG5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CH5" s="21" t="s">
         <v>73</v>
       </c>
       <c r="CI5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CJ5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CK5" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="CL5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CM5" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CQ5" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CR5" s="21" t="s">
         <v>75</v>
       </c>
       <c r="CS5" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CT5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CU5" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="CV5" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="CX5" s="21" t="s">
         <v>79</v>
@@ -3583,34 +3605,34 @@
         <v>81</v>
       </c>
       <c r="CZ5" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="DD5" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="DE5" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="DF5" s="21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="DG5" s="21" t="s">
         <v>0</v>
       </c>
       <c r="DH5" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="DJ5" s="21" t="s">
         <v>37</v>
       </c>
       <c r="DK5" s="21" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="DL5" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="DM5" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="DN5" s="21">
         <v>3028976789</v>
@@ -3619,85 +3641,85 @@
         <v>0</v>
       </c>
       <c r="DP5" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR5" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS5" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR5" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS5" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT5" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU5" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV5" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW5" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX5" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DZ5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EA5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EB5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EC5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="ED5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EE5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EF5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EG5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EH5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EI5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EJ5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EK5" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EM5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EN5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EO5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EP5" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -3705,51 +3727,51 @@
         <v>38</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O6" s="21">
         <v>1950</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q6" s="21">
         <v>26</v>
       </c>
-      <c r="R6" s="22" t="s">
-        <v>434</v>
+      <c r="R6" s="31" t="s">
+        <v>432</v>
       </c>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
       <c r="U6" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="X6" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Z6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AH6" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AI6" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AL6" s="21">
         <v>3015774089</v>
@@ -3764,147 +3786,147 @@
         <v>3015774089</v>
       </c>
       <c r="AP6" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AQ6" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AZ6" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BM6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BO6" s="24"/>
       <c r="BQ6" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BR6" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BV6" s="21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BY6" s="21" t="s">
         <v>66</v>
       </c>
       <c r="BZ6" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CE6" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CL6" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CV6" s="24"/>
       <c r="DG6" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DH6" s="21" t="s">
         <v>108</v>
       </c>
       <c r="DI6" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="DJ6" s="21" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="DK6" s="21" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="DL6" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="DM6" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DN6" s="21">
         <v>3028976789</v>
       </c>
       <c r="DO6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DP6" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ6" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR6" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS6" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT6" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR6" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS6" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT6" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU6" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV6" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW6" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX6" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DZ6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EA6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EB6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EC6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="ED6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EE6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EF6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EG6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EH6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EI6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EJ6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EK6" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EM6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EN6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EO6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EP6" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -3912,51 +3934,51 @@
         <v>38</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O7" s="21">
         <v>1940</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q7" s="21">
         <v>11</v>
       </c>
-      <c r="R7" s="22" t="s">
-        <v>435</v>
+      <c r="R7" s="31" t="s">
+        <v>433</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
       <c r="U7" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X7" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Z7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB7" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AH7" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AI7" s="18" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AJ7" s="18"/>
       <c r="AK7" s="18"/>
@@ -3973,16 +3995,16 @@
         <v>3014524258</v>
       </c>
       <c r="AP7" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AQ7" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AZ7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BM7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BO7" s="24"/>
       <c r="BQ7" s="21" t="s">
@@ -3992,10 +4014,10 @@
         <v>31</v>
       </c>
       <c r="BS7" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BT7" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="BU7" s="21" t="s">
         <v>0</v>
@@ -4010,23 +4032,23 @@
         <v>0</v>
       </c>
       <c r="CA7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CB7" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="CE7" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CJ7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CL7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CV7" s="24"/>
       <c r="DG7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DH7" s="21" t="s">
         <v>108</v>
@@ -4035,46 +4057,46 @@
         <v>110</v>
       </c>
       <c r="DJ7" s="21" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="DL7" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="DM7" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DN7" s="21">
         <v>3028976789</v>
       </c>
       <c r="DO7" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DP7" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ7" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR7" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT7" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR7" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS7" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT7" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU7" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV7" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW7" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX7" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY7" s="21" t="s">
         <v>0</v>
@@ -4113,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="EK7" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL7" s="21" t="s">
         <v>0</v>
@@ -4136,54 +4158,54 @@
         <v>38</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N8" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O8" s="21">
         <v>1930</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q8" s="21">
         <v>30</v>
       </c>
-      <c r="R8" s="22" t="s">
-        <v>436</v>
+      <c r="R8" s="31" t="s">
+        <v>434</v>
       </c>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
       <c r="U8" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V8" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="X8" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="Z8" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="AC8" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE8" s="21" t="s">
         <v>198</v>
-      </c>
-      <c r="AD8" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>200</v>
       </c>
       <c r="AF8" s="21" t="s">
         <v>23</v>
@@ -4192,10 +4214,10 @@
         <v>28907</v>
       </c>
       <c r="AH8" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AI8" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AJ8" s="18"/>
       <c r="AK8" s="18"/>
@@ -4212,81 +4234,81 @@
         <v>3015567865</v>
       </c>
       <c r="AP8" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AQ8" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AZ8" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BM8" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BP8" s="24"/>
       <c r="BQ8" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BZ8" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CE8" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CL8" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CV8" s="24"/>
       <c r="DG8" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DH8" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="DJ8" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DK8" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="DL8" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="DM8" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DN8" s="21">
         <v>3028976789</v>
       </c>
       <c r="DO8" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DP8" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ8" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR8" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS8" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT8" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR8" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS8" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT8" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU8" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV8" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW8" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX8" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY8" s="21" t="s">
         <v>0</v>
@@ -4325,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="EK8" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL8" s="21" t="s">
         <v>0</v>
@@ -4348,13 +4370,13 @@
         <v>38</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N9" s="21" t="s">
         <v>0</v>
@@ -4363,36 +4385,36 @@
         <v>1935</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q9" s="21">
         <v>29</v>
       </c>
-      <c r="R9" s="22" t="s">
-        <v>437</v>
+      <c r="R9" s="31" t="s">
+        <v>435</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
       <c r="U9" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V9" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="X9" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="X9" s="21" t="s">
-        <v>167</v>
-      </c>
       <c r="Z9" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AB9" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AH9" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AI9" s="18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AJ9" s="18"/>
       <c r="AK9" s="18"/>
@@ -4409,16 +4431,16 @@
         <v>3015567865</v>
       </c>
       <c r="AP9" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AQ9" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AZ9" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BA9" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BB9" s="21" t="s">
         <v>37</v>
@@ -4463,7 +4485,7 @@
         <v>119</v>
       </c>
       <c r="BQ9" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BZ9" s="21" t="s">
         <v>0</v>
@@ -4472,22 +4494,22 @@
         <v>0</v>
       </c>
       <c r="CE9" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CF9" s="21" t="s">
         <v>74</v>
       </c>
       <c r="CG9" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CH9" s="21" t="s">
         <v>73</v>
       </c>
       <c r="CI9" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CJ9" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CL9" s="21" t="s">
         <v>0</v>
@@ -4499,23 +4521,23 @@
         <v>102</v>
       </c>
       <c r="CQ9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CR9" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="CS9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CT9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CV9" s="24"/>
       <c r="CX9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DG9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DH9" s="21" t="s">
         <v>108</v>
@@ -4524,13 +4546,13 @@
         <v>110</v>
       </c>
       <c r="DJ9" s="23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="DL9" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="DM9" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DN9" s="21">
         <v>3028976789</v>
@@ -4539,111 +4561,111 @@
         <v>0</v>
       </c>
       <c r="DP9" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR9" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU9" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR9" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS9" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT9" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU9" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV9" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW9" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX9" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DZ9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EA9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EB9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EC9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="ED9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EE9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EF9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EG9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EH9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EI9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EJ9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EK9" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EM9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EN9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EO9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EP9" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:146" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>0</v>
@@ -4655,13 +4677,13 @@
         <v>1937</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="21">
         <v>27</v>
       </c>
-      <c r="R10" s="22" t="s">
-        <v>438</v>
+      <c r="R10" s="31" t="s">
+        <v>436</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -4676,13 +4698,13 @@
         <v>22</v>
       </c>
       <c r="AC10" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD10" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE10" s="21" t="s">
         <v>198</v>
-      </c>
-      <c r="AD10" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE10" s="21" t="s">
-        <v>200</v>
       </c>
       <c r="AF10" s="21" t="s">
         <v>23</v>
@@ -4691,10 +4713,10 @@
         <v>28907</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AI10" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AJ10" s="18"/>
       <c r="AK10" s="18"/>
@@ -4735,13 +4757,13 @@
         <v>40</v>
       </c>
       <c r="AX10" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AZ10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BA10" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BB10" s="21" t="s">
         <v>37</v>
@@ -4780,25 +4802,25 @@
         <v>0</v>
       </c>
       <c r="BN10" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BO10" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="BQ10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BR10" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BV10" s="21" t="s">
         <v>65</v>
       </c>
       <c r="BW10" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BX10" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="BY10" s="21" t="s">
         <v>66</v>
@@ -4810,16 +4832,16 @@
         <v>0</v>
       </c>
       <c r="CE10" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CF10" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="CG10" s="21" t="s">
         <v>72</v>
       </c>
       <c r="CH10" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="CI10" s="21" t="s">
         <v>72</v>
@@ -4861,7 +4883,7 @@
         <v>103</v>
       </c>
       <c r="CX10" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="CY10" s="21" t="s">
         <v>81</v>
@@ -4885,7 +4907,7 @@
         <v>92</v>
       </c>
       <c r="DG10" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DH10" s="21" t="s">
         <v>108</v>
@@ -4897,13 +4919,13 @@
         <v>111</v>
       </c>
       <c r="DK10" s="21" t="s">
-        <v>112</v>
+        <v>441</v>
       </c>
       <c r="DL10" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="DM10" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DN10" s="21">
         <v>3028976789</v>
@@ -4912,31 +4934,31 @@
         <v>0</v>
       </c>
       <c r="DP10" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ10" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR10" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS10" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU10" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR10" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS10" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT10" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU10" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV10" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW10" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX10" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY10" s="21" t="s">
         <v>0</v>
@@ -4975,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="EK10" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL10" s="21" t="s">
         <v>0</v>
@@ -4995,66 +5017,66 @@
     </row>
     <row r="11" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>405</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>135</v>
-      </c>
       <c r="J11" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O11" s="21">
         <v>1935</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q11" s="21">
         <v>21</v>
       </c>
-      <c r="R11" s="22" t="s">
-        <v>439</v>
+      <c r="R11" s="31" t="s">
+        <v>437</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
       <c r="U11" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB11" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AH11" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="AJ11" s="19"/>
       <c r="AK11" s="19"/>
@@ -5071,33 +5093,33 @@
         <v>3014524258</v>
       </c>
       <c r="AP11" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AQ11" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AZ11" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BM11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN11" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="BO11" s="24"/>
       <c r="BQ11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BR11" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="BV11" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="BY11" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="BV11" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="BY11" s="21" t="s">
-        <v>151</v>
-      </c>
       <c r="BZ11" s="21" t="s">
         <v>0</v>
       </c>
@@ -5105,65 +5127,65 @@
         <v>0</v>
       </c>
       <c r="CE11" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CF11" s="21" t="s">
         <v>74</v>
       </c>
       <c r="CG11" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CH11" s="21" t="s">
         <v>73</v>
       </c>
       <c r="CI11" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CJ11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CK11" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="CL11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CM11" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CQ11" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="CR11" s="21" t="s">
         <v>75</v>
       </c>
       <c r="CS11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CT11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CU11" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CV11" s="24"/>
       <c r="CX11" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="CY11" s="21" t="s">
         <v>81</v>
       </c>
       <c r="CZ11" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="DD11" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="DE11" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="DF11" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="DD11" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="DE11" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="DF11" s="21" t="s">
-        <v>174</v>
       </c>
       <c r="DG11" s="21" t="s">
         <v>0</v>
@@ -5172,16 +5194,16 @@
         <v>108</v>
       </c>
       <c r="DI11" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="DJ11" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="DL11" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="DM11" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DN11" s="21">
         <v>3028976789</v>
@@ -5190,129 +5212,129 @@
         <v>0</v>
       </c>
       <c r="DP11" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ11" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR11" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS11" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT11" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU11" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR11" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS11" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT11" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU11" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV11" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX11" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DZ11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EA11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EB11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EC11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="ED11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EE11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EF11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EG11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EH11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EI11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EJ11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EK11" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EM11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EN11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EO11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EP11" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E12" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>408</v>
-      </c>
       <c r="H12" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M12" s="21" t="s">
         <v>0</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O12" s="21">
         <v>1930</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q12" s="21">
         <v>30</v>
       </c>
-      <c r="R12" s="22" t="s">
-        <v>436</v>
+      <c r="R12" s="31" t="s">
+        <v>434</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -5320,16 +5342,16 @@
         <v>20</v>
       </c>
       <c r="Z12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AB12" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AH12" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19"/>
@@ -5346,47 +5368,47 @@
         <v>3014524258</v>
       </c>
       <c r="AP12" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AQ12" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AZ12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BM12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BQ12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BZ12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CE12" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CL12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="CV12" s="24"/>
       <c r="DG12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DH12" s="21" t="s">
         <v>108</v>
       </c>
       <c r="DI12" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="DJ12" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="DL12" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="DM12" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="DN12" s="21">
         <v>3028976789</v>
@@ -5395,146 +5417,146 @@
         <v>0</v>
       </c>
       <c r="DP12" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ12" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR12" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS12" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR12" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS12" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT12" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU12" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV12" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW12" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX12" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="DZ12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EA12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EB12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EC12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="ED12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EE12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EF12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EG12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EH12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EI12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EJ12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EK12" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EM12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EN12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EO12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="EP12" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E13" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>407</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>409</v>
-      </c>
       <c r="H13" s="21" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>87</v>
       </c>
       <c r="M13" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O13" s="21">
         <v>1940</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q13" s="21">
         <v>21</v>
       </c>
-      <c r="R13" s="22" t="s">
-        <v>440</v>
+      <c r="R13" s="31" t="s">
+        <v>438</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
       <c r="U13" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Z13" s="21" t="s">
         <v>0</v>
       </c>
       <c r="AB13" s="21" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AJ13" s="19"/>
       <c r="AK13" s="19"/>
@@ -5551,28 +5573,28 @@
         <v>3014524258</v>
       </c>
       <c r="AP13" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AQ13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AZ13" s="21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BM13" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BN13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="CE13" s="21" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="CF13" s="21" t="s">
         <v>74</v>
       </c>
       <c r="CG13" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="CH13" s="21" t="s">
         <v>73</v>
@@ -5587,140 +5609,146 @@
         <v>66</v>
       </c>
       <c r="DP13" s="21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="DQ13" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DR13" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS13" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT13" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DU13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DR13" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS13" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="DT13" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DU13" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="DV13" s="21" t="s">
-        <v>119</v>
+        <v>440</v>
       </c>
       <c r="DW13" s="21" t="s">
         <v>47</v>
       </c>
       <c r="DX13" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="DY13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="DZ13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EA13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EB13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EC13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="ED13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EE13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EF13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EG13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EH13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EI13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EJ13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EK13" s="27" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="EL13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EM13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EN13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EO13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="EP13" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:146" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="25" t="s">
-        <v>385</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="R14" s="32"/>
       <c r="AH14" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AJ14" s="19"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K15" s="21" t="s">
-        <v>386</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="R15" s="32"/>
       <c r="AH15" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AJ15" s="19"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K16" s="21" t="s">
-        <v>387</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="R16" s="32"/>
       <c r="AH16" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AJ16" s="19"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="11:37" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K17" s="21" t="s">
-        <v>141</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="R17" s="32"/>
       <c r="AH17" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="11:37" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="11:37" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="32"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:EP13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5782,34 +5810,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>280</v>
-      </c>
       <c r="H1" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5817,7 +5845,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>59</v>
@@ -5846,10 +5874,10 @@
         <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>61</v>
@@ -5870,7 +5898,7 @@
         <v>1991</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5878,19 +5906,19 @@
         <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E4" s="4">
         <v>3013454562</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -5902,7 +5930,7 @@
         <v>1992</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5910,19 +5938,19 @@
         <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E5" s="4">
         <v>3013454562</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>0</v>
@@ -5934,7 +5962,7 @@
         <v>1993</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5942,19 +5970,19 @@
         <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E6" s="4">
         <v>3013454562</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>0</v>
@@ -5966,7 +5994,7 @@
         <v>1994</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5974,19 +6002,19 @@
         <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E7" s="4">
         <v>3013454562</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>0</v>
@@ -5998,12 +6026,12 @@
         <v>1995</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I12" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -6017,7 +6045,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:K9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6051,7 +6079,7 @@
         <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>102</v>
@@ -6060,10 +6088,10 @@
         <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6101,75 +6129,81 @@
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="28" t="s">
+        <v>265</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
         <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>265</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="28" t="s">
+        <v>265</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
         <v>100</v>
@@ -6178,24 +6212,24 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>77</v>
@@ -6211,89 +6245,95 @@
         <v>0</v>
       </c>
       <c r="H6" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>338</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="20"/>
+      <c r="D7" s="29" t="s">
+        <v>265</v>
+      </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20">
         <v>90</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="K7" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="20"/>
+        <v>170</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>265</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H8" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>346</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="20"/>
+      <c r="D9" s="29" t="s">
+        <v>265</v>
+      </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20">
         <v>100</v>
@@ -6302,16 +6342,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>350</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB65FBF4-05F8-E441-B958-A01DF48600B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B959F6BE-7B6A-A542-9345-B92980057D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="760" windowWidth="26000" windowHeight="17640" activeTab="2" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="720" yWindow="760" windowWidth="44440" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="500">
   <si>
     <t>Yes</t>
   </si>
@@ -609,9 +609,6 @@
   </si>
   <si>
     <t>RaceList</t>
-  </si>
-  <si>
-    <t>Caucasian (white), Black/African American, Native Hawaiian/Other Pacific Islander, American Indian/Alaskan Native, Asian, Other</t>
   </si>
   <si>
     <t>AreYouCompletingThisQuestionnaireForSomeoneElse</t>
@@ -1521,6 +1518,33 @@
   To submit your responses, you must continue in the questionnaire by clicking the forward arrow below.  
 The information you have provided will be reviewed by our study team.  If it is determined that you are eligible to participate in the RASopathy Study, you will receive an email with further details, including instructions to log in to a secure study portal. If the team decides that you are not eligible, you will receive an email explaining why. In the meantime, you should receive an email confirming this submission.
   Please feel free to call at any time if you have any questions regarding this protocol and ask to speak with the RASopathies Study nurse. Our toll-free phone number is 1-800-518-8474 or 301-212-5250. Thank you for your willingness to consider joining our research effort.  We could not do vital studies like this without the help of dedicated patients and families.  </t>
+  </si>
+  <si>
+    <t>sj.fanconitester3@yopmail.com</t>
+  </si>
+  <si>
+    <t>sj.fanconitester4@yopmail.com</t>
+  </si>
+  <si>
+    <t>sj.fanconitester5@yopmail.com</t>
+  </si>
+  <si>
+    <t>sj.fanconitester6@yopmail.com</t>
+  </si>
+  <si>
+    <t>sj.fanconitester7@yopmail.com</t>
+  </si>
+  <si>
+    <t>sj.fanconitester8@yopmail.com</t>
+  </si>
+  <si>
+    <t>sj.fanconitester9@yopmail.com</t>
+  </si>
+  <si>
+    <t>sj.fanconitester10@yopmail.com</t>
+  </si>
+  <si>
+    <t>Caucasian (white), Black/African American, Native Hawaiian/Other Pacific Islander, American Indian/Alaskan Native, Asian,  Other (please specify)</t>
   </si>
 </sst>
 </file>
@@ -2168,9 +2192,9 @@
   </sheetPr>
   <dimension ref="A1:EP18"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="113" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2"/>
+      <selection pane="bottomLeft" activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2232,16 +2256,16 @@
   <sheetData>
     <row r="1" spans="1:146" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>126</v>
@@ -2265,13 +2289,13 @@
         <v>138</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>140</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O1" s="9" t="s">
         <v>1</v>
@@ -2286,10 +2310,10 @@
         <v>125</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U1" s="10" t="s">
         <v>4</v>
@@ -2307,10 +2331,10 @@
         <v>182</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA1" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AB1" s="7" t="s">
         <v>7</v>
@@ -2337,10 +2361,10 @@
         <v>39</v>
       </c>
       <c r="AJ1" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK1" s="12" t="s">
         <v>426</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>427</v>
       </c>
       <c r="AL1" s="14" t="s">
         <v>14</v>
@@ -2382,13 +2406,13 @@
         <v>188</v>
       </c>
       <c r="AY1" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AZ1" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BA1" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB1" s="16" t="s">
         <v>53</v>
@@ -2424,52 +2448,52 @@
         <v>52</v>
       </c>
       <c r="BM1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="BN1" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BO1" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BR1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="BS1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="BU1" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="BV1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="BX1" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="BY1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="BQ1" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="BR1" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="BS1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="CA1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="CB1" s="13" t="s">
         <v>362</v>
-      </c>
-      <c r="BU1" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="BV1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="BW1" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="BX1" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="BY1" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="BZ1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CA1" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>363</v>
       </c>
       <c r="CC1" s="13" t="s">
         <v>185</v>
@@ -2493,49 +2517,49 @@
         <v>71</v>
       </c>
       <c r="CJ1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="CK1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CL1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="CL1" s="13" t="s">
+      <c r="CM1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CN1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="CO1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="CP1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="CQ1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="CR1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="CS1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="CN1" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="CO1" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="CP1" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="CQ1" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="CR1" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="CS1" s="13" t="s">
+      <c r="CT1" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="CT1" s="13" t="s">
-        <v>217</v>
-      </c>
       <c r="CU1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="CV1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="CW1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="CX1" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="CV1" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="CW1" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="CX1" s="13" t="s">
-        <v>228</v>
       </c>
       <c r="CY1" s="13" t="s">
         <v>80</v>
@@ -2562,19 +2586,19 @@
         <v>91</v>
       </c>
       <c r="DG1" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="DH1" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="DI1" s="13" t="s">
         <v>109</v>
       </c>
       <c r="DJ1" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="DK1" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="DL1" s="13" t="s">
         <v>112</v>
@@ -2586,88 +2610,88 @@
         <v>116</v>
       </c>
       <c r="DO1" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="DP1" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="DQ1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="DR1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="DR1" s="13" t="s">
+      <c r="DS1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="DS1" s="13" t="s">
+      <c r="DT1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="DT1" s="13" t="s">
+      <c r="DU1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="DU1" s="13" t="s">
+      <c r="DV1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="DV1" s="13" t="s">
+      <c r="DW1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="DW1" s="13" t="s">
+      <c r="DX1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="DX1" s="13" t="s">
-        <v>236</v>
-      </c>
       <c r="DY1" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="DZ1" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="EA1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="EA1" s="17" t="s">
+      <c r="EB1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="EB1" s="17" t="s">
+      <c r="EC1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="EC1" s="17" t="s">
+      <c r="ED1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="ED1" s="17" t="s">
+      <c r="EE1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="EE1" s="17" t="s">
+      <c r="EF1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="EF1" s="17" t="s">
+      <c r="EG1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="EG1" s="17" t="s">
+      <c r="EH1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="EH1" s="17" t="s">
+      <c r="EI1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="EI1" s="17" t="s">
+      <c r="EJ1" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="EK1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="EJ1" s="17" t="s">
+      <c r="EL1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="EK1" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="EL1" s="17" t="s">
+      <c r="EM1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="EM1" s="17" t="s">
+      <c r="EN1" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="EN1" s="17" t="s">
+      <c r="EO1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="EO1" s="17" t="s">
+      <c r="EP1" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="EP1" s="17" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:146" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
@@ -2675,13 +2699,13 @@
         <v>38</v>
       </c>
       <c r="B2" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>297</v>
-      </c>
       <c r="D2" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>0</v>
@@ -2690,13 +2714,13 @@
         <v>1948</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q2" s="21">
         <v>21</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S2" s="22"/>
       <c r="T2" s="21">
@@ -2715,19 +2739,19 @@
         <v>0</v>
       </c>
       <c r="AA2" s="21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AB2" s="21" t="s">
         <v>22</v>
       </c>
       <c r="AC2" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD2" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AE2" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>198</v>
       </c>
       <c r="AF2" s="21" t="s">
         <v>23</v>
@@ -2736,13 +2760,13 @@
         <v>28907</v>
       </c>
       <c r="AH2" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AI2" s="18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AJ2" s="19" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AK2" s="19"/>
       <c r="AL2" s="21">
@@ -2782,7 +2806,7 @@
         <v>40</v>
       </c>
       <c r="AX2" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AY2" s="21" t="s">
         <v>0</v>
@@ -2791,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="BA2" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BB2" s="21" t="s">
         <v>37</v>
@@ -2845,10 +2869,10 @@
         <v>65</v>
       </c>
       <c r="BW2" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BX2" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BY2" s="21" t="s">
         <v>66</v>
@@ -2860,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="CE2" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CF2" s="21" t="s">
         <v>74</v>
@@ -2947,7 +2971,7 @@
         <v>111</v>
       </c>
       <c r="DK2" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="DL2" s="21" t="s">
         <v>113</v>
@@ -2962,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="DP2" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ2" s="21" t="s">
         <v>120</v>
@@ -2980,7 +3004,7 @@
         <v>122</v>
       </c>
       <c r="DV2" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW2" s="21" t="s">
         <v>47</v>
@@ -3025,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="EK2" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL2" s="21" t="s">
         <v>0</v>
@@ -3054,7 +3078,7 @@
         <v>133</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N3" s="21" t="s">
         <v>134</v>
@@ -3063,13 +3087,13 @@
         <v>1920</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q3" s="21">
         <v>23</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S3" s="22"/>
       <c r="T3" s="22"/>
@@ -3085,6 +3109,9 @@
       <c r="Z3" s="21" t="s">
         <v>134</v>
       </c>
+      <c r="AA3" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="AB3" s="21" t="s">
         <v>166</v>
       </c>
@@ -3095,7 +3122,7 @@
         <v>142</v>
       </c>
       <c r="AJ3" s="19" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AK3" s="19"/>
       <c r="AL3" s="21">
@@ -3135,7 +3162,7 @@
         <v>40</v>
       </c>
       <c r="AX3" s="21" t="s">
-        <v>189</v>
+        <v>418</v>
       </c>
       <c r="AZ3" s="21" t="s">
         <v>134</v>
@@ -3147,7 +3174,7 @@
         <v>146</v>
       </c>
       <c r="BO3" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BQ3" s="21" t="s">
         <v>0</v>
@@ -3168,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="CE3" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CF3" s="21" t="s">
         <v>74</v>
@@ -3213,7 +3240,7 @@
         <v>146</v>
       </c>
       <c r="CV3" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="CX3" s="21" t="s">
         <v>79</v>
@@ -3246,10 +3273,10 @@
         <v>157</v>
       </c>
       <c r="DL3" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="DM3" s="21" t="s">
         <v>321</v>
-      </c>
-      <c r="DM3" s="21" t="s">
-        <v>322</v>
       </c>
       <c r="DN3" s="21">
         <v>3028976789</v>
@@ -3258,7 +3285,7 @@
         <v>134</v>
       </c>
       <c r="DP3" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ3" s="21" t="s">
         <v>120</v>
@@ -3276,7 +3303,7 @@
         <v>122</v>
       </c>
       <c r="DV3" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW3" s="21" t="s">
         <v>47</v>
@@ -3321,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="EK3" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL3" s="21" t="s">
         <v>0</v>
@@ -3350,7 +3377,7 @@
         <v>159</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N4" s="21" t="s">
         <v>145</v>
@@ -3359,13 +3386,13 @@
         <v>1910</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q4" s="21">
         <v>21</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
@@ -3381,8 +3408,11 @@
       <c r="Z4" s="21" t="s">
         <v>134</v>
       </c>
+      <c r="AA4" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="AB4" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AH4" s="19" t="s">
         <v>144</v>
@@ -3390,7 +3420,9 @@
       <c r="AI4" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="AJ4" s="18"/>
+      <c r="AJ4" s="19" t="s">
+        <v>491</v>
+      </c>
       <c r="AK4" s="18"/>
       <c r="AL4" s="21">
         <v>3015774089</v>
@@ -3441,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="CE4" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CF4" s="21" t="s">
         <v>74</v>
@@ -3495,7 +3527,7 @@
         <v>171</v>
       </c>
       <c r="DE4" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="DF4" s="21" t="s">
         <v>172</v>
@@ -3513,10 +3545,10 @@
         <v>175</v>
       </c>
       <c r="DL4" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="DM4" s="21" t="s">
         <v>321</v>
-      </c>
-      <c r="DM4" s="21" t="s">
-        <v>322</v>
       </c>
       <c r="DN4" s="21">
         <v>3028976789</v>
@@ -3525,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="DP4" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ4" s="21" t="s">
         <v>120</v>
@@ -3543,7 +3575,7 @@
         <v>122</v>
       </c>
       <c r="DV4" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW4" s="21" t="s">
         <v>47</v>
@@ -3588,7 +3620,7 @@
         <v>134</v>
       </c>
       <c r="EK4" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL4" s="21" t="s">
         <v>134</v>
@@ -3617,7 +3649,7 @@
         <v>161</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N5" s="21" t="s">
         <v>145</v>
@@ -3626,13 +3658,13 @@
         <v>1925</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q5" s="21">
         <v>21</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
@@ -3643,16 +3675,19 @@
         <v>180</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="X5" s="21" t="s">
         <v>180</v>
       </c>
       <c r="Y5" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Z5" s="21" t="s">
         <v>134</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>420</v>
       </c>
       <c r="AB5" s="21" t="s">
         <v>179</v>
@@ -3663,7 +3698,9 @@
       <c r="AI5" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="AJ5" s="19"/>
+      <c r="AJ5" s="19" t="s">
+        <v>492</v>
+      </c>
       <c r="AK5" s="19"/>
       <c r="AL5" s="21">
         <v>3015774089</v>
@@ -3714,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="CE5" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CF5" s="21" t="s">
         <v>74</v>
@@ -3756,7 +3793,7 @@
         <v>146</v>
       </c>
       <c r="CV5" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="CX5" s="21" t="s">
         <v>79</v>
@@ -3768,13 +3805,13 @@
         <v>170</v>
       </c>
       <c r="DD5" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="DE5" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="DF5" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="DG5" s="21" t="s">
         <v>0</v>
@@ -3786,13 +3823,13 @@
         <v>37</v>
       </c>
       <c r="DK5" s="21" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="DL5" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="DM5" s="21" t="s">
         <v>321</v>
-      </c>
-      <c r="DM5" s="21" t="s">
-        <v>322</v>
       </c>
       <c r="DN5" s="21">
         <v>3028976789</v>
@@ -3801,7 +3838,7 @@
         <v>0</v>
       </c>
       <c r="DP5" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ5" s="21" t="s">
         <v>120</v>
@@ -3819,7 +3856,7 @@
         <v>122</v>
       </c>
       <c r="DV5" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW5" s="21" t="s">
         <v>47</v>
@@ -3864,7 +3901,7 @@
         <v>145</v>
       </c>
       <c r="EK5" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL5" s="21" t="s">
         <v>145</v>
@@ -3893,7 +3930,7 @@
         <v>177</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N6" s="21" t="s">
         <v>145</v>
@@ -3902,13 +3939,13 @@
         <v>1950</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q6" s="21">
         <v>26</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
@@ -3924,8 +3961,11 @@
       <c r="Z6" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="AA6" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="AB6" s="21" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AH6" s="18" t="s">
         <v>178</v>
@@ -3933,6 +3973,9 @@
       <c r="AI6" s="21" t="s">
         <v>178</v>
       </c>
+      <c r="AJ6" s="19" t="s">
+        <v>493</v>
+      </c>
       <c r="AL6" s="21">
         <v>3015774089</v>
       </c>
@@ -3974,7 +4017,7 @@
         <v>145</v>
       </c>
       <c r="CE6" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CL6" s="21" t="s">
         <v>145</v>
@@ -3990,10 +4033,10 @@
         <v>174</v>
       </c>
       <c r="DJ6" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="DK6" s="21" t="s">
         <v>352</v>
-      </c>
-      <c r="DK6" s="21" t="s">
-        <v>353</v>
       </c>
       <c r="DL6" s="21" t="s">
         <v>113</v>
@@ -4008,7 +4051,7 @@
         <v>134</v>
       </c>
       <c r="DP6" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ6" s="21" t="s">
         <v>120</v>
@@ -4026,7 +4069,7 @@
         <v>122</v>
       </c>
       <c r="DV6" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW6" s="21" t="s">
         <v>47</v>
@@ -4071,7 +4114,7 @@
         <v>134</v>
       </c>
       <c r="EK6" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL6" s="21" t="s">
         <v>134</v>
@@ -4094,13 +4137,13 @@
         <v>38</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>315</v>
-      </c>
       <c r="D7" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N7" s="21" t="s">
         <v>134</v>
@@ -4109,13 +4152,13 @@
         <v>1940</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q7" s="21">
         <v>11</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -4131,16 +4174,21 @@
       <c r="Z7" s="21" t="s">
         <v>134</v>
       </c>
+      <c r="AA7" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="AB7" s="21" t="s">
         <v>183</v>
       </c>
       <c r="AH7" s="18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AI7" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ7" s="18"/>
+        <v>317</v>
+      </c>
+      <c r="AJ7" s="19" t="s">
+        <v>494</v>
+      </c>
       <c r="AK7" s="18"/>
       <c r="AL7" s="21">
         <v>3015774089</v>
@@ -4177,7 +4225,7 @@
         <v>184</v>
       </c>
       <c r="BT7" s="21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BU7" s="21" t="s">
         <v>0</v>
@@ -4195,10 +4243,10 @@
         <v>134</v>
       </c>
       <c r="CB7" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="CE7" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CJ7" s="21" t="s">
         <v>134</v>
@@ -4217,7 +4265,7 @@
         <v>110</v>
       </c>
       <c r="DJ7" s="21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DL7" s="21" t="s">
         <v>113</v>
@@ -4232,7 +4280,7 @@
         <v>134</v>
       </c>
       <c r="DP7" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ7" s="21" t="s">
         <v>120</v>
@@ -4250,7 +4298,7 @@
         <v>122</v>
       </c>
       <c r="DV7" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW7" s="21" t="s">
         <v>47</v>
@@ -4295,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="EK7" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL7" s="21" t="s">
         <v>0</v>
@@ -4318,13 +4366,13 @@
         <v>38</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="D8" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N8" s="21" t="s">
         <v>134</v>
@@ -4333,13 +4381,13 @@
         <v>1930</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q8" s="21">
         <v>30</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -4355,17 +4403,20 @@
       <c r="Z8" s="21" t="s">
         <v>134</v>
       </c>
+      <c r="AA8" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="AB8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="AC8" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD8" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="AD8" s="21" t="s">
+      <c r="AE8" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>198</v>
       </c>
       <c r="AF8" s="21" t="s">
         <v>23</v>
@@ -4374,12 +4425,14 @@
         <v>28907</v>
       </c>
       <c r="AH8" s="18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AI8" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ8" s="18"/>
+        <v>318</v>
+      </c>
+      <c r="AJ8" s="19" t="s">
+        <v>495</v>
+      </c>
       <c r="AK8" s="18"/>
       <c r="AL8" s="21">
         <v>3015774089</v>
@@ -4413,7 +4466,7 @@
         <v>134</v>
       </c>
       <c r="CE8" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CL8" s="21" t="s">
         <v>134</v>
@@ -4429,7 +4482,7 @@
         <v>47</v>
       </c>
       <c r="DK8" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="DL8" s="21" t="s">
         <v>113</v>
@@ -4444,7 +4497,7 @@
         <v>134</v>
       </c>
       <c r="DP8" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ8" s="21" t="s">
         <v>120</v>
@@ -4462,7 +4515,7 @@
         <v>122</v>
       </c>
       <c r="DV8" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW8" s="21" t="s">
         <v>47</v>
@@ -4507,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="EK8" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL8" s="21" t="s">
         <v>0</v>
@@ -4530,13 +4583,13 @@
         <v>38</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>375</v>
-      </c>
       <c r="D9" s="21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N9" s="21" t="s">
         <v>0</v>
@@ -4545,13 +4598,13 @@
         <v>1935</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q9" s="21">
         <v>29</v>
       </c>
       <c r="R9" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
@@ -4567,16 +4620,21 @@
       <c r="Z9" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="AA9" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="AB9" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AH9" s="18" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AI9" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="AJ9" s="18"/>
+        <v>319</v>
+      </c>
+      <c r="AJ9" s="19" t="s">
+        <v>496</v>
+      </c>
       <c r="AK9" s="18"/>
       <c r="AL9" s="21">
         <v>3015774089</v>
@@ -4600,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="BA9" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BB9" s="21" t="s">
         <v>37</v>
@@ -4654,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="CE9" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CF9" s="21" t="s">
         <v>74</v>
@@ -4684,7 +4742,7 @@
         <v>134</v>
       </c>
       <c r="CR9" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="CS9" s="21" t="s">
         <v>134</v>
@@ -4721,7 +4779,7 @@
         <v>0</v>
       </c>
       <c r="DP9" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ9" s="21" t="s">
         <v>120</v>
@@ -4739,7 +4797,7 @@
         <v>122</v>
       </c>
       <c r="DV9" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW9" s="21" t="s">
         <v>47</v>
@@ -4784,7 +4842,7 @@
         <v>134</v>
       </c>
       <c r="EK9" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL9" s="21" t="s">
         <v>134</v>
@@ -4807,25 +4865,25 @@
         <v>131</v>
       </c>
       <c r="E10" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="G10" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>413</v>
-      </c>
       <c r="H10" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>0</v>
@@ -4837,13 +4895,13 @@
         <v>1937</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q10" s="21">
         <v>27</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -4854,17 +4912,20 @@
       <c r="Z10" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="AA10" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="AB10" s="21" t="s">
         <v>22</v>
       </c>
       <c r="AC10" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD10" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="AD10" s="21" t="s">
+      <c r="AE10" s="21" t="s">
         <v>197</v>
-      </c>
-      <c r="AE10" s="21" t="s">
-        <v>198</v>
       </c>
       <c r="AF10" s="21" t="s">
         <v>23</v>
@@ -4873,12 +4934,14 @@
         <v>28907</v>
       </c>
       <c r="AH10" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="AI10" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="AJ10" s="18"/>
+        <v>325</v>
+      </c>
+      <c r="AJ10" s="19" t="s">
+        <v>497</v>
+      </c>
       <c r="AK10" s="18"/>
       <c r="AL10" s="21">
         <v>3015774089</v>
@@ -4917,13 +4980,13 @@
         <v>40</v>
       </c>
       <c r="AX10" s="21" t="s">
-        <v>189</v>
+        <v>499</v>
       </c>
       <c r="AZ10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BA10" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BB10" s="21" t="s">
         <v>37</v>
@@ -4965,7 +5028,7 @@
         <v>146</v>
       </c>
       <c r="BO10" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BQ10" s="21" t="s">
         <v>0</v>
@@ -4977,10 +5040,10 @@
         <v>65</v>
       </c>
       <c r="BW10" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BX10" s="23" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BY10" s="21" t="s">
         <v>66</v>
@@ -4992,16 +5055,16 @@
         <v>0</v>
       </c>
       <c r="CE10" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CF10" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="CG10" s="21" t="s">
         <v>72</v>
       </c>
       <c r="CH10" s="21" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CI10" s="21" t="s">
         <v>72</v>
@@ -5043,7 +5106,7 @@
         <v>103</v>
       </c>
       <c r="CX10" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="CY10" s="21" t="s">
         <v>81</v>
@@ -5079,7 +5142,7 @@
         <v>111</v>
       </c>
       <c r="DK10" s="21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="DL10" s="21" t="s">
         <v>113</v>
@@ -5094,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="DP10" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ10" s="21" t="s">
         <v>120</v>
@@ -5112,7 +5175,7 @@
         <v>122</v>
       </c>
       <c r="DV10" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW10" s="21" t="s">
         <v>47</v>
@@ -5157,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="EK10" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL10" s="21" t="s">
         <v>0</v>
@@ -5180,28 +5243,28 @@
         <v>131</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>403</v>
-      </c>
       <c r="H11" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>133</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>134</v>
@@ -5213,13 +5276,13 @@
         <v>1935</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q11" s="21">
         <v>21</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -5229,16 +5292,21 @@
       <c r="Z11" s="21" t="s">
         <v>134</v>
       </c>
+      <c r="AA11" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="AB11" s="21" t="s">
         <v>166</v>
       </c>
       <c r="AH11" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AI11" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ11" s="19"/>
+        <v>326</v>
+      </c>
+      <c r="AJ11" s="19" t="s">
+        <v>498</v>
+      </c>
       <c r="AK11" s="19"/>
       <c r="AL11" s="21">
         <v>3015774089</v>
@@ -5287,7 +5355,7 @@
         <v>0</v>
       </c>
       <c r="CE11" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CF11" s="21" t="s">
         <v>74</v>
@@ -5330,7 +5398,7 @@
       </c>
       <c r="CV11" s="24"/>
       <c r="CX11" s="21" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="CY11" s="21" t="s">
         <v>81</v>
@@ -5342,7 +5410,7 @@
         <v>171</v>
       </c>
       <c r="DE11" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="DF11" s="21" t="s">
         <v>172</v>
@@ -5354,7 +5422,7 @@
         <v>108</v>
       </c>
       <c r="DI11" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="DJ11" s="21" t="s">
         <v>175</v>
@@ -5372,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="DP11" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ11" s="21" t="s">
         <v>120</v>
@@ -5390,7 +5458,7 @@
         <v>122</v>
       </c>
       <c r="DV11" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW11" s="21" t="s">
         <v>47</v>
@@ -5435,7 +5503,7 @@
         <v>134</v>
       </c>
       <c r="EK11" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL11" s="21" t="s">
         <v>134</v>
@@ -5458,25 +5526,25 @@
         <v>131</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>159</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M12" s="21" t="s">
         <v>0</v>
@@ -5488,13 +5556,13 @@
         <v>1930</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q12" s="21">
         <v>30</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -5504,14 +5572,17 @@
       <c r="Z12" s="21" t="s">
         <v>134</v>
       </c>
+      <c r="AA12" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="AB12" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AH12" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AJ12" s="19"/>
       <c r="AK12" s="19"/>
@@ -5546,7 +5617,7 @@
         <v>134</v>
       </c>
       <c r="CE12" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CL12" s="21" t="s">
         <v>134</v>
@@ -5559,7 +5630,7 @@
         <v>108</v>
       </c>
       <c r="DI12" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="DJ12" s="21" t="s">
         <v>175</v>
@@ -5577,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="DP12" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ12" s="21" t="s">
         <v>120</v>
@@ -5595,7 +5666,7 @@
         <v>122</v>
       </c>
       <c r="DV12" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW12" s="21" t="s">
         <v>47</v>
@@ -5640,7 +5711,7 @@
         <v>134</v>
       </c>
       <c r="EK12" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL12" s="21" t="s">
         <v>134</v>
@@ -5663,22 +5734,22 @@
         <v>131</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>161</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>87</v>
@@ -5693,13 +5764,13 @@
         <v>1940</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q13" s="21">
         <v>21</v>
       </c>
       <c r="R13" s="30" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -5709,14 +5780,17 @@
       <c r="Z13" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="AA13" s="21" t="s">
+        <v>420</v>
+      </c>
       <c r="AB13" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AH13" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AJ13" s="19"/>
       <c r="AK13" s="19"/>
@@ -5748,7 +5822,7 @@
         <v>145</v>
       </c>
       <c r="CE13" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="CF13" s="21" t="s">
         <v>74</v>
@@ -5769,7 +5843,7 @@
         <v>66</v>
       </c>
       <c r="DP13" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="DQ13" s="21" t="s">
         <v>120</v>
@@ -5787,7 +5861,7 @@
         <v>122</v>
       </c>
       <c r="DV13" s="21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DW13" s="21" t="s">
         <v>47</v>
@@ -5832,7 +5906,7 @@
         <v>145</v>
       </c>
       <c r="EK13" s="27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="EL13" s="21" t="s">
         <v>145</v>
@@ -5852,39 +5926,39 @@
     </row>
     <row r="14" spans="1:146" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AH14" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AJ14" s="19"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K15" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AH15" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AJ15" s="19"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K16" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AH16" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AJ16" s="19"/>
       <c r="AK16" s="19"/>
@@ -5894,10 +5968,10 @@
         <v>139</v>
       </c>
       <c r="AH17" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AJ17" s="19"/>
       <c r="AK17" s="19"/>
@@ -5936,6 +6010,15 @@
     <hyperlink ref="AI14:AI17" r:id="rId27" display="charmsparticipant12@yopmail.com" xr:uid="{0D113990-F28B-4045-82B3-3B329AB1A52B}"/>
     <hyperlink ref="AJ2" r:id="rId28" xr:uid="{E22D24ED-7C96-1446-A5F8-21D1507C6179}"/>
     <hyperlink ref="AJ3" r:id="rId29" xr:uid="{70C65664-4427-354A-B785-E0B132A43F5C}"/>
+    <hyperlink ref="AJ4" r:id="rId30" xr:uid="{CC02BCBB-3BDC-CE48-A7EB-DEE29B97C95A}"/>
+    <hyperlink ref="AJ5:AJ11" r:id="rId31" display="sj.fanconitester3@yopmail.com" xr:uid="{E1A1E55B-77EC-F549-BF2B-EE817EA7E8DB}"/>
+    <hyperlink ref="AJ5" r:id="rId32" xr:uid="{3BFA334B-C797-5844-9469-BDCBE15B724A}"/>
+    <hyperlink ref="AJ6" r:id="rId33" xr:uid="{A23BBEA4-5507-924C-9662-585110B0F717}"/>
+    <hyperlink ref="AJ7" r:id="rId34" xr:uid="{41B062F1-F9CB-704F-818B-85592F6D9883}"/>
+    <hyperlink ref="AJ8" r:id="rId35" xr:uid="{7C53923E-E953-094F-A49D-C82B1F6B95B8}"/>
+    <hyperlink ref="AJ9" r:id="rId36" xr:uid="{DDC7D204-E39A-FC48-A4E1-997987E166A4}"/>
+    <hyperlink ref="AJ10" r:id="rId37" xr:uid="{0AF75C1A-C67C-FB4B-AE7C-3961DA7F4B14}"/>
+    <hyperlink ref="AJ11" r:id="rId38" xr:uid="{8ACA7222-D208-AD4D-8034-E244E11A98B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5964,25 +6047,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>123</v>
@@ -5991,7 +6074,7 @@
         <v>124</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5999,7 +6082,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>59</v>
@@ -6028,10 +6111,10 @@
         <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>61</v>
@@ -6052,7 +6135,7 @@
         <v>1991</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6060,10 +6143,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>129</v>
@@ -6084,7 +6167,7 @@
         <v>1992</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6092,19 +6175,19 @@
         <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E5" s="4">
         <v>3013454562</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>0</v>
@@ -6116,7 +6199,7 @@
         <v>1993</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6124,19 +6207,19 @@
         <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E6" s="4">
         <v>3013454562</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>0</v>
@@ -6148,7 +6231,7 @@
         <v>1994</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6156,19 +6239,19 @@
         <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E7" s="4">
         <v>3013454562</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>0</v>
@@ -6180,12 +6263,12 @@
         <v>1995</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I12" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -6198,7 +6281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B407C-E01B-5444-BAC5-548BBFB02ADF}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -6233,7 +6316,7 @@
         <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>102</v>
@@ -6242,10 +6325,10 @@
         <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6292,7 +6375,7 @@
         <v>78</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
@@ -6302,16 +6385,16 @@
         <v>134</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6319,13 +6402,13 @@
         <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>170</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -6333,30 +6416,30 @@
         <v>134</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -6366,24 +6449,24 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>77</v>
@@ -6399,30 +6482,30 @@
         <v>0</v>
       </c>
       <c r="H6" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>337</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20">
@@ -6432,16 +6515,16 @@
         <v>134</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="K7" s="20" t="s">
         <v>341</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6449,13 +6532,13 @@
         <v>187</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>170</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
@@ -6463,30 +6546,30 @@
         <v>134</v>
       </c>
       <c r="H8" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>345</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20">
@@ -6496,16 +6579,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>349</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -6530,63 +6613,63 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="32" t="s">
         <v>443</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="B2" s="34" t="s">
         <v>445</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>450</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>452</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B8" s="34">
         <v>1948</v>
@@ -6594,7 +6677,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>20</v>
@@ -6602,7 +6685,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>134</v>
@@ -6610,7 +6693,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>22</v>
@@ -6618,23 +6701,23 @@
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="B13" s="34" t="s">
         <v>459</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>461</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6642,20 +6725,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>464</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B17" s="34">
         <v>22015</v>
@@ -6663,47 +6746,47 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>469</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>143</v>
@@ -6711,7 +6794,7 @@
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>167</v>
@@ -6719,23 +6802,23 @@
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>475</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>477</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>134</v>
@@ -6743,7 +6826,7 @@
     </row>
     <row r="28" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B28" s="34" t="s">
         <v>134</v>
@@ -6751,7 +6834,7 @@
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>134</v>
@@ -6759,7 +6842,7 @@
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>134</v>
@@ -6767,7 +6850,7 @@
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>47</v>
@@ -6775,15 +6858,15 @@
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>484</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>134</v>
@@ -6791,7 +6874,7 @@
     </row>
     <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>47</v>
@@ -6799,18 +6882,18 @@
     </row>
     <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
+        <v>487</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>488</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
+        <v>489</v>
+      </c>
+      <c r="B36" s="37" t="s">
         <v>490</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B959F6BE-7B6A-A542-9345-B92980057D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2B200A-0E96-304E-B230-078AD98998B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="760" windowWidth="44440" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="500">
   <si>
     <t>Yes</t>
   </si>
@@ -2192,9 +2192,9 @@
   </sheetPr>
   <dimension ref="A1:EP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="113" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC3" sqref="AC3"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3164,6 +3164,9 @@
       <c r="AX3" s="21" t="s">
         <v>418</v>
       </c>
+      <c r="AY3" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ3" s="21" t="s">
         <v>134</v>
       </c>
@@ -3445,6 +3448,9 @@
       <c r="AX4" s="21" t="s">
         <v>27</v>
       </c>
+      <c r="AY4" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ4" s="21" t="s">
         <v>134</v>
       </c>
@@ -3720,6 +3726,9 @@
       <c r="AQ5" s="21" t="s">
         <v>145</v>
       </c>
+      <c r="AY5" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ5" s="21" t="s">
         <v>134</v>
       </c>
@@ -3994,6 +4003,9 @@
       <c r="AQ6" s="21" t="s">
         <v>167</v>
       </c>
+      <c r="AY6" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="AZ6" s="21" t="s">
         <v>145</v>
       </c>
@@ -4207,6 +4219,9 @@
       </c>
       <c r="AQ7" s="21" t="s">
         <v>167</v>
+      </c>
+      <c r="AY7" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="AZ7" s="21" t="s">
         <v>134</v>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2B200A-0E96-304E-B230-078AD98998B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC10D563-58D4-BC4C-977E-B0550DAB40FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="498">
   <si>
     <t>Yes</t>
   </si>
@@ -1328,28 +1328,10 @@
     <t>CalculatedAge</t>
   </si>
   <si>
-    <t>01/23/1920</t>
-  </si>
-  <si>
     <t>01/21/1910</t>
   </si>
   <si>
     <t>01/21/1925</t>
-  </si>
-  <si>
-    <t>01/26/1950</t>
-  </si>
-  <si>
-    <t>01/11/1940</t>
-  </si>
-  <si>
-    <t>01/30/1930</t>
-  </si>
-  <si>
-    <t>01/29/1935</t>
-  </si>
-  <si>
-    <t>01/27/1937</t>
   </si>
   <si>
     <t>01/21/1935</t>
@@ -1545,6 +1527,18 @@
   </si>
   <si>
     <t>Caucasian (white), Black/African American, Native Hawaiian/Other Pacific Islander, American Indian/Alaskan Native, Asian,  Other (please specify)</t>
+  </si>
+  <si>
+    <t>01/21/1960</t>
+  </si>
+  <si>
+    <t>01/21/1950</t>
+  </si>
+  <si>
+    <t>01/21/1930</t>
+  </si>
+  <si>
+    <t>01/21/1937</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1862,6 +1856,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2192,9 +2189,9 @@
   </sheetPr>
   <dimension ref="A1:EP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="113" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BP1" zoomScale="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomLeft" activeCell="BX2" sqref="BX2:BX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2714,13 +2711,13 @@
         <v>1948</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q2" s="21">
         <v>21</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="S2" s="22"/>
       <c r="T2" s="21">
@@ -2868,10 +2865,10 @@
       <c r="BV2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BW2" s="23" t="s">
+      <c r="BW2" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="BX2" s="23" t="s">
+      <c r="BX2" s="38" t="s">
         <v>264</v>
       </c>
       <c r="BY2" s="21" t="s">
@@ -2971,7 +2968,7 @@
         <v>111</v>
       </c>
       <c r="DK2" s="21" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="DL2" s="21" t="s">
         <v>113</v>
@@ -3004,7 +3001,7 @@
         <v>122</v>
       </c>
       <c r="DV2" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW2" s="21" t="s">
         <v>47</v>
@@ -3084,19 +3081,21 @@
         <v>134</v>
       </c>
       <c r="O3" s="21">
-        <v>1920</v>
+        <v>1960</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q3" s="21">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="R3" s="30" t="s">
-        <v>428</v>
+        <v>494</v>
       </c>
       <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
+      <c r="T3" s="22">
+        <v>65</v>
+      </c>
       <c r="U3" s="21" t="s">
         <v>141</v>
       </c>
@@ -3188,6 +3187,12 @@
       <c r="BV3" s="21" t="s">
         <v>148</v>
       </c>
+      <c r="BW3" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="BX3" s="38" t="s">
+        <v>264</v>
+      </c>
       <c r="BY3" s="21" t="s">
         <v>149</v>
       </c>
@@ -3306,7 +3311,7 @@
         <v>122</v>
       </c>
       <c r="DV3" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW3" s="21" t="s">
         <v>47</v>
@@ -3389,13 +3394,13 @@
         <v>1910</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="21">
         <v>21</v>
       </c>
       <c r="R4" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="S4" s="22"/>
       <c r="T4" s="22"/>
@@ -3424,7 +3429,7 @@
         <v>144</v>
       </c>
       <c r="AJ4" s="19" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="AK4" s="18"/>
       <c r="AL4" s="21">
@@ -3581,7 +3586,7 @@
         <v>122</v>
       </c>
       <c r="DV4" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW4" s="21" t="s">
         <v>47</v>
@@ -3664,13 +3669,13 @@
         <v>1925</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q5" s="21">
         <v>21</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
@@ -3705,7 +3710,7 @@
         <v>162</v>
       </c>
       <c r="AJ5" s="19" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="AK5" s="19"/>
       <c r="AL5" s="21">
@@ -3865,7 +3870,7 @@
         <v>122</v>
       </c>
       <c r="DV5" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW5" s="21" t="s">
         <v>47</v>
@@ -3948,13 +3953,13 @@
         <v>1950</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q6" s="21">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="R6" s="30" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
@@ -3983,7 +3988,7 @@
         <v>178</v>
       </c>
       <c r="AJ6" s="19" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="AL6" s="21">
         <v>3015774089</v>
@@ -4081,7 +4086,7 @@
         <v>122</v>
       </c>
       <c r="DV6" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW6" s="21" t="s">
         <v>47</v>
@@ -4164,13 +4169,13 @@
         <v>1940</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q7" s="21">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="R7" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -4199,7 +4204,7 @@
         <v>317</v>
       </c>
       <c r="AJ7" s="19" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AK7" s="18"/>
       <c r="AL7" s="21">
@@ -4313,7 +4318,7 @@
         <v>122</v>
       </c>
       <c r="DV7" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW7" s="21" t="s">
         <v>47</v>
@@ -4396,13 +4401,13 @@
         <v>1930</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q8" s="21">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="R8" s="30" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -4446,7 +4451,7 @@
         <v>318</v>
       </c>
       <c r="AJ8" s="19" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="AK8" s="18"/>
       <c r="AL8" s="21">
@@ -4530,7 +4535,7 @@
         <v>122</v>
       </c>
       <c r="DV8" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW8" s="21" t="s">
         <v>47</v>
@@ -4613,13 +4618,13 @@
         <v>1935</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q9" s="21">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="R9" s="30" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
@@ -4648,7 +4653,7 @@
         <v>319</v>
       </c>
       <c r="AJ9" s="19" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="AK9" s="18"/>
       <c r="AL9" s="21">
@@ -4812,7 +4817,7 @@
         <v>122</v>
       </c>
       <c r="DV9" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW9" s="21" t="s">
         <v>47</v>
@@ -4910,13 +4915,13 @@
         <v>1937</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q10" s="21">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="R10" s="30" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -4955,7 +4960,7 @@
         <v>325</v>
       </c>
       <c r="AJ10" s="19" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="AK10" s="18"/>
       <c r="AL10" s="21">
@@ -4995,7 +5000,7 @@
         <v>40</v>
       </c>
       <c r="AX10" s="21" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="AZ10" s="21" t="s">
         <v>0</v>
@@ -5157,7 +5162,7 @@
         <v>111</v>
       </c>
       <c r="DK10" s="21" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="DL10" s="21" t="s">
         <v>113</v>
@@ -5190,7 +5195,7 @@
         <v>122</v>
       </c>
       <c r="DV10" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW10" s="21" t="s">
         <v>47</v>
@@ -5291,13 +5296,13 @@
         <v>1935</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q11" s="21">
         <v>21</v>
       </c>
       <c r="R11" s="30" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -5320,7 +5325,7 @@
         <v>326</v>
       </c>
       <c r="AJ11" s="19" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="AK11" s="19"/>
       <c r="AL11" s="21">
@@ -5473,7 +5478,7 @@
         <v>122</v>
       </c>
       <c r="DV11" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW11" s="21" t="s">
         <v>47</v>
@@ -5571,13 +5576,13 @@
         <v>1930</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q12" s="21">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="R12" s="30" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
@@ -5681,7 +5686,7 @@
         <v>122</v>
       </c>
       <c r="DV12" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW12" s="21" t="s">
         <v>47</v>
@@ -5779,13 +5784,13 @@
         <v>1940</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="21">
         <v>21</v>
       </c>
       <c r="R13" s="30" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -5876,7 +5881,7 @@
         <v>122</v>
       </c>
       <c r="DV13" s="21" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="DW13" s="21" t="s">
         <v>47</v>
@@ -5942,6 +5947,9 @@
     <row r="14" spans="1:146" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="25" t="s">
         <v>382</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>21</v>
       </c>
       <c r="AH14" s="19" t="s">
         <v>397</v>
@@ -5956,6 +5964,9 @@
       <c r="K15" s="21" t="s">
         <v>383</v>
       </c>
+      <c r="Q15" s="21">
+        <v>21</v>
+      </c>
       <c r="AH15" s="19" t="s">
         <v>398</v>
       </c>
@@ -5968,6 +5979,9 @@
     <row r="16" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K16" s="21" t="s">
         <v>384</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>21</v>
       </c>
       <c r="AH16" s="19" t="s">
         <v>399</v>
@@ -6628,23 +6642,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>295</v>
@@ -6652,7 +6666,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>296</v>
@@ -6660,7 +6674,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>389</v>
@@ -6668,23 +6682,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B8" s="34">
         <v>1948</v>
@@ -6692,7 +6706,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>20</v>
@@ -6700,7 +6714,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="31" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>134</v>
@@ -6708,7 +6722,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="31" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>22</v>
@@ -6716,23 +6730,23 @@
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="33" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="31" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6740,20 +6754,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B17" s="34">
         <v>22015</v>
@@ -6761,7 +6775,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B18" s="36" t="s">
         <v>423</v>
@@ -6769,7 +6783,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B19" s="36" t="s">
         <v>423</v>
@@ -6777,31 +6791,31 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B23" s="34" t="s">
         <v>143</v>
@@ -6809,7 +6823,7 @@
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B24" s="34" t="s">
         <v>167</v>
@@ -6817,23 +6831,23 @@
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B27" s="34" t="s">
         <v>134</v>
@@ -6841,7 +6855,7 @@
     </row>
     <row r="28" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B28" s="34" t="s">
         <v>134</v>
@@ -6849,7 +6863,7 @@
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>134</v>
@@ -6857,7 +6871,7 @@
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>134</v>
@@ -6865,7 +6879,7 @@
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>47</v>
@@ -6873,15 +6887,15 @@
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>134</v>
@@ -6889,7 +6903,7 @@
     </row>
     <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>47</v>
@@ -6897,18 +6911,18 @@
     </row>
     <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="33" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F5B58D-9188-D341-ABD0-7139A7806C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1245AF7-1D3A-334A-AD41-AFBC682A6562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="760" windowWidth="26000" windowHeight="17600" activeTab="3" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="492">
   <si>
     <t>Yes</t>
   </si>
@@ -1518,6 +1518,9 @@
   </si>
   <si>
     <t>301-577-4089</t>
+  </si>
+  <si>
+    <t>charmsras3@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -6495,7 +6498,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6642,7 +6645,7 @@
         <v>465</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -6650,7 +6653,7 @@
         <v>466</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1245AF7-1D3A-334A-AD41-AFBC682A6562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B231F39-4D4A-0A49-8DB6-46003D64D32C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4240" yWindow="760" windowWidth="26000" windowHeight="17600" activeTab="3" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="491">
   <si>
     <t>Yes</t>
   </si>
@@ -1518,9 +1518,6 @@
   </si>
   <si>
     <t>301-577-4089</t>
-  </si>
-  <si>
-    <t>charmsras3@yahoo.com</t>
   </si>
 </sst>
 </file>
@@ -6497,8 +6494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6599F052-5E19-A342-980D-0163BD929DAC}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6645,7 +6642,7 @@
         <v>465</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -6653,7 +6650,7 @@
         <v>466</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC10D563-58D4-BC4C-977E-B0550DAB40FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A27FC9-DA4B-294E-BE34-ED2C04A7B803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="fanconiScreenerScenario" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$EP$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$EQ$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="500">
   <si>
     <t>Yes</t>
   </si>
@@ -425,9 +425,6 @@
     <t>ProxyFirstName</t>
   </si>
   <si>
-    <t>ProxyMIddleName</t>
-  </si>
-  <si>
     <t>ProxyLastName</t>
   </si>
   <si>
@@ -515,9 +512,6 @@
     <t>Not Applicable</t>
   </si>
   <si>
-    <t>Web search</t>
-  </si>
-  <si>
     <t>Fanconi-3</t>
   </si>
   <si>
@@ -1095,15 +1089,6 @@
   </si>
   <si>
     <t>Fanconi Anemia Research Fund Test</t>
-  </si>
-  <si>
-    <t>Genetic counselor</t>
-  </si>
-  <si>
-    <t>Genetic counselor Test</t>
-  </si>
-  <si>
-    <t>Family member</t>
   </si>
   <si>
     <t>Other Test</t>
@@ -1526,9 +1511,6 @@
     <t>sj.fanconitester10@yopmail.com</t>
   </si>
   <si>
-    <t>Caucasian (white), Black/African American, Native Hawaiian/Other Pacific Islander, American Indian/Alaskan Native, Asian,  Other (please specify)</t>
-  </si>
-  <si>
     <t>01/21/1960</t>
   </si>
   <si>
@@ -1539,6 +1521,30 @@
   </si>
   <si>
     <t>01/21/1937</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ProxyMiddleName</t>
+  </si>
+  <si>
+    <t>WhatIsYourRelationshipToParticipantInNV</t>
+  </si>
+  <si>
+    <t>I am the person's spouse/long term partner</t>
+  </si>
+  <si>
+    <t>Web Search</t>
+  </si>
+  <si>
+    <t>Genetic Counselor</t>
+  </si>
+  <si>
+    <t>Family Member</t>
+  </si>
+  <si>
+    <t>Genetic Counselor Test</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1554,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1627,8 +1633,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1719,6 +1731,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1748,7 +1766,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1823,9 +1841,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1858,6 +1873,33 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2187,11 +2229,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:EP18"/>
+  <dimension ref="A1:EQ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BX2" sqref="BX2:BX3"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2204,814 +2246,821 @@
     <col min="6" max="7" width="9.5" style="3" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="3" customWidth="1"/>
     <col min="9" max="10" width="9.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="3" customWidth="1"/>
-    <col min="12" max="13" width="9.5" style="3" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="13.33203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="16" style="3" customWidth="1"/>
-    <col min="22" max="22" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.1640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="12.83203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="13.1640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8" style="3" customWidth="1"/>
-    <col min="28" max="28" width="22.83203125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="17.6640625" style="3" customWidth="1"/>
-    <col min="30" max="30" width="19" style="3" customWidth="1"/>
-    <col min="31" max="31" width="13.5" style="3" customWidth="1"/>
-    <col min="32" max="32" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="33.33203125" style="3" customWidth="1"/>
-    <col min="35" max="37" width="30.6640625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.5" style="3" customWidth="1"/>
-    <col min="43" max="43" width="18" style="3" customWidth="1"/>
-    <col min="44" max="44" width="12.5" style="3" customWidth="1"/>
-    <col min="45" max="45" width="16" style="3" customWidth="1"/>
-    <col min="46" max="46" width="16.5" style="3" customWidth="1"/>
-    <col min="47" max="47" width="7" style="3" customWidth="1"/>
-    <col min="48" max="48" width="12.6640625" style="3" customWidth="1"/>
-    <col min="49" max="49" width="10.83203125" style="3" customWidth="1"/>
-    <col min="50" max="51" width="28.6640625" style="3" customWidth="1"/>
-    <col min="52" max="52" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="36.5" style="3" customWidth="1"/>
-    <col min="54" max="54" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="55" max="64" width="20.33203125" style="3" customWidth="1"/>
-    <col min="65" max="65" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="20.1640625" style="3" customWidth="1"/>
-    <col min="69" max="119" width="20.83203125" style="3"/>
-    <col min="120" max="120" width="38.33203125" style="3" customWidth="1"/>
-    <col min="121" max="16384" width="20.83203125" style="3"/>
+    <col min="11" max="12" width="12.5" style="3" customWidth="1"/>
+    <col min="13" max="14" width="9.5" style="3" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="13.33203125" style="3" customWidth="1"/>
+    <col min="22" max="22" width="21.83203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" style="3" customWidth="1"/>
+    <col min="24" max="24" width="19.83203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="19.1640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="24" style="3" customWidth="1"/>
+    <col min="27" max="27" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.83203125" style="3" customWidth="1"/>
+    <col min="29" max="29" width="22.83203125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="17.6640625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="19" style="3" customWidth="1"/>
+    <col min="32" max="32" width="13.5" style="3" customWidth="1"/>
+    <col min="33" max="33" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="33.33203125" style="3" customWidth="1"/>
+    <col min="36" max="38" width="30.6640625" style="3" customWidth="1"/>
+    <col min="39" max="39" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.5" style="3" customWidth="1"/>
+    <col min="44" max="44" width="18" style="3" customWidth="1"/>
+    <col min="45" max="45" width="12.5" style="3" customWidth="1"/>
+    <col min="46" max="46" width="16" style="3" customWidth="1"/>
+    <col min="47" max="47" width="16.5" style="3" customWidth="1"/>
+    <col min="48" max="48" width="7" style="3" customWidth="1"/>
+    <col min="49" max="49" width="12.6640625" style="3" customWidth="1"/>
+    <col min="50" max="50" width="10.83203125" style="3" customWidth="1"/>
+    <col min="51" max="52" width="28.6640625" style="3" customWidth="1"/>
+    <col min="53" max="53" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="36.5" style="3" customWidth="1"/>
+    <col min="55" max="55" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="65" width="20.33203125" style="3" customWidth="1"/>
+    <col min="66" max="66" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="20.1640625" style="3" customWidth="1"/>
+    <col min="70" max="120" width="20.83203125" style="3"/>
+    <col min="121" max="121" width="38.33203125" style="3" customWidth="1"/>
+    <col min="122" max="16384" width="20.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:147" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>126</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="H1" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="L1" s="7" t="s">
-        <v>371</v>
+        <v>494</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="O1" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="T1" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="V1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA1" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB1" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL1" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="T1" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AV1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AW1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AX1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AX1" s="15" t="s">
-        <v>188</v>
-      </c>
       <c r="AY1" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="AZ1" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="AZ1" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="BA1" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="BB1" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="BC1" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="BI1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK1" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="BO1" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="BP1" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="BQ1" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="BR1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="BA1" s="16" t="s">
+      <c r="BS1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="BT1" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="BU1" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="BV1" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="BW1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="BX1" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="BY1" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ1" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="CA1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="CB1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="CC1" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="CD1" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="CE1" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="CG1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="CH1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="CI1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="CJ1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="CK1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="CL1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="CM1" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="CN1" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="CO1" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="CP1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="CQ1" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="CR1" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="CS1" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="CT1" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="CU1" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="CV1" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="CW1" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="CX1" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="CY1" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="CZ1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="DA1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="DB1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="DC1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="DD1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="DE1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="DF1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="DG1" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="DH1" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="DI1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="DJ1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="DK1" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="DL1" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="DM1" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="DN1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="DO1" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="DP1" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="DQ1" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="DR1" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="DS1" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="DT1" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="DU1" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="DV1" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="DW1" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="DX1" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="DY1" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="DZ1" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="EA1" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="EB1" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="BB1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="BF1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="BG1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="BH1" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="BJ1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="BK1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="BL1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM1" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="BN1" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="BO1" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="BP1" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="BQ1" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="BR1" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="BS1" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="BT1" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="BU1" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="BV1" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="BW1" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="BX1" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="BY1" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="BZ1" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="CA1" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CB1" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="CC1" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="CD1" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="CE1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="CF1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="CG1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="CH1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="CI1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="CJ1" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="CK1" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="CL1" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="CM1" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="CN1" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="CO1" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="CP1" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="CQ1" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="CR1" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="CS1" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="CT1" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="CU1" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="CV1" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="CW1" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="CX1" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="CY1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="CZ1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="DA1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="DB1" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="DC1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="DD1" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="DE1" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="DF1" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="DG1" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="DH1" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="DI1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="DJ1" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="DK1" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="DL1" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="DM1" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="DN1" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="DO1" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="DP1" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="DQ1" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="DR1" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="DS1" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="DT1" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="DU1" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="DV1" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="DW1" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="DX1" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="DY1" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="DZ1" s="17" t="s">
+      <c r="EC1" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="EA1" s="17" t="s">
+      <c r="ED1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="EB1" s="17" t="s">
+      <c r="EE1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="EC1" s="17" t="s">
+      <c r="EF1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="ED1" s="17" t="s">
+      <c r="EG1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="EE1" s="17" t="s">
+      <c r="EH1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="EF1" s="17" t="s">
+      <c r="EI1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="EG1" s="17" t="s">
+      <c r="EJ1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="EH1" s="17" t="s">
+      <c r="EK1" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="EL1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="EI1" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="EJ1" s="17" t="s">
+      <c r="EM1" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="EN1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="EK1" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="EL1" s="17" t="s">
+      <c r="EO1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="EM1" s="17" t="s">
+      <c r="EP1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="EN1" s="17" t="s">
+      <c r="EQ1" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="EO1" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="EP1" s="17" t="s">
-        <v>260</v>
-      </c>
     </row>
-    <row r="2" spans="1:146" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:147" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="N2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="21">
+        <v>384</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="O2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="21">
         <v>1948</v>
       </c>
-      <c r="P2" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q2" s="21">
+      <c r="Q2" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R2" s="21">
         <v>21</v>
       </c>
-      <c r="R2" s="30" t="s">
-        <v>435</v>
-      </c>
-      <c r="S2" s="22"/>
-      <c r="T2" s="21">
+      <c r="S2" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="T2" s="22"/>
+      <c r="U2" s="21">
         <v>77</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="V2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="W2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="AA2" s="21" t="s">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AD2" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF2" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="AD2" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AG2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AG2" s="21">
+      <c r="AH2" s="21">
         <v>28907</v>
       </c>
-      <c r="AH2" s="18" t="s">
-        <v>297</v>
-      </c>
       <c r="AI2" s="18" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ2" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="AK2" s="19"/>
-      <c r="AL2" s="21">
+        <v>295</v>
+      </c>
+      <c r="AJ2" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK2" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AM2" s="21">
+      <c r="AN2" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AN2" s="21">
+      <c r="AO2" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AO2" s="21">
+      <c r="AP2" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AP2" s="21" t="s">
+      <c r="AQ2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AQ2" s="21" t="s">
+      <c r="AR2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AR2" s="21" t="s">
+      <c r="AS2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AS2" s="21" t="s">
+      <c r="AT2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AT2" s="21" t="s">
+      <c r="AU2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AU2" s="21" t="s">
+      <c r="AV2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AV2" s="21" t="s">
+      <c r="AW2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AW2" s="21" t="s">
+      <c r="AX2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AX2" s="21" t="s">
-        <v>418</v>
-      </c>
       <c r="AY2" s="21" t="s">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="AZ2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BA2" s="21" t="s">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="BC2" s="21" t="s">
+      <c r="BD2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BD2" s="21" t="s">
+      <c r="BE2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BE2" s="21" t="s">
+      <c r="BF2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BF2" s="21" t="s">
+      <c r="BG2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BG2" s="21" t="s">
+      <c r="BH2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BH2" s="21" t="s">
+      <c r="BI2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BI2" s="21" t="s">
+      <c r="BJ2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BJ2" s="21" t="s">
+      <c r="BK2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BK2" s="21" t="s">
+      <c r="BL2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BL2" s="21" t="s">
+      <c r="BM2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BM2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BN2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="BP2" s="21">
+      <c r="BQ2" s="21">
         <v>91</v>
       </c>
-      <c r="BQ2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BR2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BV2" s="21" t="s">
+      <c r="BW2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BW2" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="BX2" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="BY2" s="21" t="s">
+      <c r="BX2" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY2" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BZ2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BZ2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CA2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CE2" s="21" t="s">
-        <v>417</v>
+      <c r="CB2" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="CF2" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="CG2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CG2" s="21" t="s">
+      <c r="CH2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CH2" s="21" t="s">
+      <c r="CI2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CI2" s="21" t="s">
+      <c r="CJ2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CJ2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CK2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CL2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CM2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="CN2" s="21" t="s">
+      <c r="CO2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="CO2" s="21">
+      <c r="CP2" s="21">
         <v>1997</v>
       </c>
-      <c r="CQ2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CR2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CS2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CT2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CU2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CW2" s="21">
+      <c r="CX2" s="21">
         <v>101</v>
       </c>
-      <c r="CX2" s="21" t="s">
+      <c r="CY2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CY2" s="21" t="s">
+      <c r="CZ2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="CZ2" s="21" t="s">
+      <c r="DA2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="DA2" s="21" t="s">
+      <c r="DB2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="DB2" s="21">
+      <c r="DC2" s="21">
         <v>1985</v>
       </c>
-      <c r="DD2" s="21" t="s">
+      <c r="DE2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="DE2" s="21" t="s">
+      <c r="DF2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="DF2" s="21" t="s">
+      <c r="DG2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="DG2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DH2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DI2" s="21" t="s">
+      <c r="DJ2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DJ2" s="21" t="s">
+      <c r="DK2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DK2" s="21" t="s">
-        <v>434</v>
-      </c>
       <c r="DL2" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="DM2" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DM2" s="21" t="s">
+      <c r="DN2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DN2" s="21">
+      <c r="DO2" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DO2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DP2" s="21" t="s">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="DQ2" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR2" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DR2" s="21" t="s">
+      <c r="DS2" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS2" s="21" t="s">
+      <c r="DT2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DT2" s="21" t="s">
+      <c r="DU2" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DU2" s="21" t="s">
+      <c r="DV2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DV2" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="DW2" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DX2" s="21" t="s">
+      <c r="DY2" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DY2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DZ2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3045,11 +3094,11 @@
       <c r="EJ2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EK2" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="EL2" s="21" t="s">
-        <v>0</v>
+      <c r="EK2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EL2" s="26" t="s">
+        <v>405</v>
       </c>
       <c r="EM2" s="21" t="s">
         <v>0</v>
@@ -3063,265 +3112,267 @@
       <c r="EP2" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="EQ2" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:146" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:147" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="D3" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" s="21">
+        <v>385</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="O3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="21">
         <v>1960</v>
       </c>
-      <c r="P3" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R3" s="21">
         <v>21</v>
       </c>
-      <c r="R3" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22">
+      <c r="S3" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="T3" s="22"/>
+      <c r="U3" s="21">
         <v>65</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="V3" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="W3" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y3" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC3" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="AJ3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="X3" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z3" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH3" s="18" t="s">
+      <c r="AK3" s="19" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="21">
+        <v>3015774089</v>
+      </c>
+      <c r="AN3" s="21">
+        <v>3014524258</v>
+      </c>
+      <c r="AO3" s="21">
+        <v>3015567865</v>
+      </c>
+      <c r="AP3" s="21">
+        <v>3014524258</v>
+      </c>
+      <c r="AQ3" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="AI3" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="21">
-        <v>3015774089</v>
-      </c>
-      <c r="AM3" s="21">
-        <v>3014524258</v>
-      </c>
-      <c r="AN3" s="21">
-        <v>3015567865</v>
-      </c>
-      <c r="AO3" s="21">
-        <v>3014524258</v>
-      </c>
-      <c r="AP3" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ3" s="21" t="s">
+      <c r="AR3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AR3" s="21" t="s">
+      <c r="AS3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AS3" s="21" t="s">
+      <c r="AT3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AT3" s="21" t="s">
+      <c r="AU3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AU3" s="21" t="s">
+      <c r="AV3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AV3" s="21" t="s">
+      <c r="AW3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AW3" s="21" t="s">
+      <c r="AX3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AX3" s="21" t="s">
-        <v>418</v>
-      </c>
       <c r="AY3" s="21" t="s">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="AZ3" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BM3" s="21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="BN3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP3" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="BR3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="BO3" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="BQ3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="21" t="s">
+      <c r="BW3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="BV3" s="21" t="s">
+      <c r="BX3" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY3" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BZ3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="BW3" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="BX3" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="BY3" s="21" t="s">
+      <c r="CA3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="CG3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="BZ3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="CF3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG3" s="21" t="s">
+      <c r="CI3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="CJ3" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="CK3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="CM3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN3" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="CQ3" s="21">
+        <v>100</v>
+      </c>
+      <c r="CR3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS3" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="CT3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="CW3" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="CY3" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="CZ3" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA3" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="DD3" s="21">
+        <v>102</v>
+      </c>
+      <c r="DE3" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="CH3" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="CI3" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="CJ3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK3" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="CL3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="CP3" s="21">
-        <v>100</v>
-      </c>
-      <c r="CQ3" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CR3" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="CS3" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CT3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU3" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="CV3" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="CX3" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="CY3" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="CZ3" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="DC3" s="21">
-        <v>102</v>
-      </c>
-      <c r="DD3" s="21" t="s">
+      <c r="DF3" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="DE3" s="21" t="s">
+      <c r="DG3" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="DF3" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="DG3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DH3" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="DJ3" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="DL3" s="21" t="s">
-        <v>320</v>
+        <v>0</v>
+      </c>
+      <c r="DI3" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="DK3" s="21" t="s">
+        <v>496</v>
       </c>
       <c r="DM3" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="DN3" s="21">
+        <v>318</v>
+      </c>
+      <c r="DN3" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="DO3" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DO3" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="DP3" s="21" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="DQ3" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR3" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DR3" s="21" t="s">
+      <c r="DS3" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS3" s="21" t="s">
+      <c r="DT3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DT3" s="21" t="s">
+      <c r="DU3" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DU3" s="21" t="s">
+      <c r="DV3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DV3" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="DW3" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DX3" s="21" t="s">
+      <c r="DY3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DY3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DZ3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3355,11 +3406,11 @@
       <c r="EJ3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EK3" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="EL3" s="21" t="s">
-        <v>0</v>
+      <c r="EK3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EL3" s="26" t="s">
+        <v>405</v>
       </c>
       <c r="EM3" s="21" t="s">
         <v>0</v>
@@ -3373,962 +3424,1033 @@
       <c r="EP3" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="EQ3" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:147" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="O4" s="21">
+        <v>386</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="21">
         <v>1910</v>
       </c>
-      <c r="P4" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R4" s="21">
         <v>21</v>
       </c>
-      <c r="R4" s="30" t="s">
-        <v>428</v>
-      </c>
-      <c r="S4" s="22"/>
+      <c r="S4" s="29" t="s">
+        <v>423</v>
+      </c>
       <c r="T4" s="22"/>
-      <c r="U4" s="21" t="s">
-        <v>145</v>
+      <c r="U4" s="21">
+        <v>115</v>
       </c>
       <c r="V4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y4" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="X4" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="AA4" s="21" t="s">
-        <v>420</v>
+        <v>133</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="AH4" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI4" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ4" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="21">
+        <v>415</v>
+      </c>
+      <c r="AC4" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="AI4" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ4" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="AK4" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AM4" s="21">
+      <c r="AN4" s="21">
         <v>3014524258</v>
-      </c>
-      <c r="AN4" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AO4" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP4" s="21" t="s">
-        <v>145</v>
+      <c r="AP4" s="21">
+        <v>3015567865</v>
       </c>
       <c r="AQ4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AX4" s="21" t="s">
+      <c r="AY4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AY4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="AZ4" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BM4" s="21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="BN4" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="BQ4" s="21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BO4" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="BR4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="BW4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BX4" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY4" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BZ4" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="CA4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="CG4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CI4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="CJ4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="CM4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="BV4" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="BY4" s="21" t="s">
+      <c r="CR4" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="CS4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="CT4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CY4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="CZ4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA4" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="DE4" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="BZ4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="CF4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG4" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CH4" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="CI4" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CJ4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK4" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="CL4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="21" t="s">
+      <c r="DF4" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="DG4" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="CQ4" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="CR4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="CS4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CX4" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="CY4" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="CZ4" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="DD4" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="DE4" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="DF4" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="DG4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DH4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DI4" s="21" t="s">
+      <c r="DJ4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DJ4" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="DL4" s="21" t="s">
-        <v>320</v>
+      <c r="DK4" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="DM4" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="DN4" s="21">
+        <v>318</v>
+      </c>
+      <c r="DN4" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="DO4" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DO4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DP4" s="21" t="s">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="DQ4" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DR4" s="21" t="s">
+      <c r="DS4" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS4" s="21" t="s">
+      <c r="DT4" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DT4" s="21" t="s">
+      <c r="DU4" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DU4" s="21" t="s">
+      <c r="DV4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DV4" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="DW4" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DX4" s="21" t="s">
+      <c r="DY4" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DY4" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="DZ4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EA4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EB4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EC4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="ED4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EE4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EF4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EG4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EH4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EI4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EJ4" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EK4" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="EL4" s="21" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="EK4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EL4" s="26"/>
       <c r="EM4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EN4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EO4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EP4" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="EQ4" s="21" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:147" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="P5" s="21">
+        <v>1925</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R5" s="21">
+        <v>21</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="T5" s="22"/>
+      <c r="U5" s="21">
+        <v>100</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="X5" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y5" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC5" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI5" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="O5" s="21">
-        <v>1925</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>21</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>429</v>
-      </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="X5" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y5" s="21" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z5" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA5" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB5" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH5" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AI5" s="19" t="s">
-        <v>162</v>
-      </c>
       <c r="AJ5" s="19" t="s">
-        <v>486</v>
-      </c>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="21">
+        <v>160</v>
+      </c>
+      <c r="AK5" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AM5" s="21">
+      <c r="AN5" s="21">
         <v>3014524258</v>
-      </c>
-      <c r="AN5" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AO5" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP5" s="21" t="s">
+      <c r="AP5" s="21">
+        <v>3015567865</v>
+      </c>
+      <c r="AQ5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BR5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="BT5" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="BW5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BX5" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY5" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BZ5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="CA5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="CG5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CI5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="CJ5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="CM5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="CR5" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="CS5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="CT5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="AQ5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AY5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BM5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="BQ5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS5" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="BV5" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="BY5" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="BZ5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="CF5" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CH5" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="CI5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CJ5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="CL5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="CQ5" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="CR5" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="CS5" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CT5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="CV5" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="CX5" s="21" t="s">
+      <c r="CW5" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="CY5" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CY5" s="21" t="s">
+      <c r="CZ5" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="CZ5" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="DD5" s="21" t="s">
-        <v>357</v>
+      <c r="DA5" s="21" t="s">
+        <v>168</v>
       </c>
       <c r="DE5" s="21" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="DF5" s="21" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="DG5" s="21" t="s">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="DH5" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="DJ5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="DK5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="DK5" s="21" t="s">
-        <v>350</v>
-      </c>
       <c r="DL5" s="21" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="DM5" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="DN5" s="21">
+        <v>318</v>
+      </c>
+      <c r="DN5" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="DO5" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DO5" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DP5" s="21" t="s">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="DQ5" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR5" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DR5" s="21" t="s">
+      <c r="DS5" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS5" s="21" t="s">
+      <c r="DT5" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DT5" s="21" t="s">
+      <c r="DU5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DU5" s="21" t="s">
+      <c r="DV5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DV5" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="DW5" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DX5" s="21" t="s">
+      <c r="DY5" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DY5" s="21" t="s">
-        <v>145</v>
-      </c>
       <c r="DZ5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EA5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EB5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EC5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="ED5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EE5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EF5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EG5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EH5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EI5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EJ5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="EK5" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="EL5" s="21" t="s">
-        <v>145</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="EK5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EL5" s="26"/>
       <c r="EM5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EN5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EO5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EP5" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="EQ5" s="21" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:147" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="P6" s="21">
+        <v>1950</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R6" s="21">
+        <v>21</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="T6" s="22"/>
+      <c r="U6" s="21">
+        <v>75</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="W6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC6" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="AI6" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="O6" s="21">
-        <v>1950</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>21</v>
-      </c>
-      <c r="R6" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="V6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="X6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB6" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="AH6" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI6" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="AL6" s="21">
+      <c r="AJ6" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK6" s="19" t="s">
+        <v>482</v>
+      </c>
+      <c r="AM6" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AM6" s="21">
+      <c r="AN6" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AN6" s="21">
+      <c r="AO6" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AO6" s="21">
+      <c r="AP6" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AP6" s="21" t="s">
-        <v>167</v>
-      </c>
       <c r="AQ6" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="AR6" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="AY6" s="21" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="AZ6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="BM6" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BO6" s="24"/>
-      <c r="BQ6" s="21" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BA6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BN6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP6" s="24"/>
       <c r="BR6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="BV6" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="BY6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BW6" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="BX6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BZ6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BZ6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CE6" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="CL6" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CV6" s="24"/>
-      <c r="DG6" s="21" t="s">
-        <v>145</v>
+      <c r="CA6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CF6" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="CK6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CL6" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="CM6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CR6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CT6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CU6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CW6" s="24"/>
+      <c r="CY6" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="DH6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="DI6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DI6" s="21" t="s">
-        <v>174</v>
-      </c>
       <c r="DJ6" s="21" t="s">
-        <v>351</v>
+        <v>172</v>
       </c>
       <c r="DK6" s="21" t="s">
-        <v>352</v>
+        <v>497</v>
       </c>
       <c r="DL6" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="DM6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DM6" s="21" t="s">
+      <c r="DN6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DN6" s="21">
+      <c r="DO6" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DO6" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="DP6" s="21" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="DQ6" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR6" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DR6" s="21" t="s">
+      <c r="DS6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS6" s="21" t="s">
+      <c r="DT6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DT6" s="21" t="s">
+      <c r="DU6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DU6" s="21" t="s">
+      <c r="DV6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DV6" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="DW6" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DX6" s="21" t="s">
+      <c r="DY6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DY6" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="DZ6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EA6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EB6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EC6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="ED6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EE6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EF6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EG6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EH6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EI6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EJ6" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EK6" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="EL6" s="21" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="EK6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EL6" s="26"/>
       <c r="EM6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EN6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EO6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EP6" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="EQ6" s="21" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:147" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>394</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="O7" s="21">
+        <v>389</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" s="21">
         <v>1940</v>
       </c>
-      <c r="P7" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q7" s="21">
+      <c r="Q7" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R7" s="21">
         <v>21</v>
       </c>
-      <c r="R7" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="S7" s="22"/>
+      <c r="S7" s="29" t="s">
+        <v>426</v>
+      </c>
       <c r="T7" s="22"/>
-      <c r="U7" s="21" t="s">
-        <v>167</v>
+      <c r="U7" s="21">
+        <v>85</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="X7" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="Z7" s="21" t="s">
-        <v>134</v>
+        <v>165</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y7" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="AA7" s="21" t="s">
-        <v>420</v>
+        <v>133</v>
       </c>
       <c r="AB7" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH7" s="18" t="s">
-        <v>317</v>
+        <v>415</v>
+      </c>
+      <c r="AC7" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="AI7" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="AJ7" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="AK7" s="18"/>
-      <c r="AL7" s="21">
+        <v>315</v>
+      </c>
+      <c r="AJ7" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="AK7" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AM7" s="21">
+      <c r="AN7" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AN7" s="21">
+      <c r="AO7" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AO7" s="21">
+      <c r="AP7" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AP7" s="21" t="s">
-        <v>167</v>
-      </c>
       <c r="AQ7" s="21" t="s">
-        <v>167</v>
+        <v>165</v>
+      </c>
+      <c r="AR7" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="AY7" s="21" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="AZ7" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BM7" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BO7" s="24"/>
-      <c r="BQ7" s="21" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BA7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BP7" s="24"/>
       <c r="BR7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BS7" s="21" t="s">
-        <v>184</v>
-      </c>
       <c r="BT7" s="21" t="s">
-        <v>359</v>
+        <v>182</v>
       </c>
       <c r="BU7" s="21" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="BV7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="BX7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY7" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="BY7" s="21" t="s">
+      <c r="BZ7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="BZ7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CA7" s="21" t="s">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="CB7" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="CE7" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="CJ7" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CL7" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CV7" s="24"/>
-      <c r="DG7" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="CC7" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="CF7" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="CK7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL7" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="CM7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR7" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CT7" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CU7" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CW7" s="24"/>
+      <c r="CY7" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="DH7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI7" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DI7" s="21" t="s">
+      <c r="DJ7" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DJ7" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="DL7" s="21" t="s">
+      <c r="DK7" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="DM7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DM7" s="21" t="s">
+      <c r="DN7" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DN7" s="21">
+      <c r="DO7" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DO7" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="DP7" s="21" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="DQ7" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DR7" s="21" t="s">
+      <c r="DS7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS7" s="21" t="s">
+      <c r="DT7" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DT7" s="21" t="s">
+      <c r="DU7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DU7" s="21" t="s">
+      <c r="DV7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DV7" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="DW7" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DX7" s="21" t="s">
+      <c r="DY7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DY7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DZ7" s="21" t="s">
         <v>0</v>
       </c>
@@ -4362,11 +4484,11 @@
       <c r="EJ7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EK7" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="EL7" s="21" t="s">
-        <v>0</v>
+      <c r="EK7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="26" t="s">
+        <v>405</v>
       </c>
       <c r="EM7" s="21" t="s">
         <v>0</v>
@@ -4380,172 +4502,216 @@
       <c r="EP7" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="EQ7" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:146" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:147" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" s="21">
+        <v>1930</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R8" s="21">
+        <v>21</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="T8" s="22"/>
+      <c r="U8" s="21">
+        <v>95</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH8" s="21">
+        <v>28907</v>
+      </c>
+      <c r="AI8" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="O8" s="21">
-        <v>1930</v>
-      </c>
-      <c r="P8" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>21</v>
-      </c>
-      <c r="R8" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="V8" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="X8" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="Z8" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA8" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC8" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD8" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG8" s="21">
-        <v>28907</v>
-      </c>
-      <c r="AH8" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="AI8" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="AJ8" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="21">
+      <c r="AJ8" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="AK8" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AM8" s="21">
+      <c r="AN8" s="21">
         <v>3014524258</v>
-      </c>
-      <c r="AN8" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AO8" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP8" s="21" t="s">
-        <v>145</v>
+      <c r="AP8" s="21">
+        <v>3015567865</v>
       </c>
       <c r="AQ8" s="21" t="s">
-        <v>167</v>
+        <v>144</v>
+      </c>
+      <c r="AR8" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY8" s="21" t="s">
+        <v>165</v>
       </c>
       <c r="AZ8" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BM8" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BP8" s="24"/>
-      <c r="BQ8" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BZ8" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CE8" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="CL8" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CV8" s="24"/>
-      <c r="DG8" s="21" t="s">
-        <v>134</v>
+        <v>0</v>
+      </c>
+      <c r="BA8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ8" s="24"/>
+      <c r="BR8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BW8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BX8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BZ8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CF8" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="CK8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CL8" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="CM8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CR8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CT8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CU8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CW8" s="24"/>
+      <c r="CY8" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="DH8" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="DJ8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI8" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="DK8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DK8" s="21" t="s">
-        <v>354</v>
-      </c>
       <c r="DL8" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="DM8" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DM8" s="21" t="s">
+      <c r="DN8" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DN8" s="21">
+      <c r="DO8" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DO8" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="DP8" s="21" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="DQ8" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR8" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DR8" s="21" t="s">
+      <c r="DS8" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS8" s="21" t="s">
+      <c r="DT8" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DT8" s="21" t="s">
+      <c r="DU8" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DU8" s="21" t="s">
+      <c r="DV8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DV8" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="DW8" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DX8" s="21" t="s">
+      <c r="DY8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DY8" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DZ8" s="21" t="s">
         <v>0</v>
       </c>
@@ -4579,11 +4745,11 @@
       <c r="EJ8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EK8" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="EL8" s="21" t="s">
-        <v>0</v>
+      <c r="EK8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EL8" s="26" t="s">
+        <v>405</v>
       </c>
       <c r="EM8" s="21" t="s">
         <v>0</v>
@@ -4597,1457 +4763,1521 @@
       <c r="EP8" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="EQ8" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:147" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="21">
+        <v>391</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="21">
         <v>1935</v>
       </c>
-      <c r="P9" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q9" s="21">
+      <c r="Q9" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R9" s="21">
         <v>21</v>
       </c>
-      <c r="R9" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="S9" s="22"/>
+      <c r="S9" s="29" t="s">
+        <v>425</v>
+      </c>
       <c r="T9" s="22"/>
-      <c r="U9" s="21" t="s">
-        <v>167</v>
+      <c r="U9" s="21">
+        <v>90</v>
       </c>
       <c r="V9" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="W9" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="X9" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="Z9" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="AA9" s="21" t="s">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="AH9" s="18" t="s">
-        <v>319</v>
+        <v>415</v>
+      </c>
+      <c r="AC9" s="21" t="s">
+        <v>370</v>
       </c>
       <c r="AI9" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ9" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="21">
+        <v>317</v>
+      </c>
+      <c r="AJ9" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="AK9" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="AL9" s="18"/>
+      <c r="AM9" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AM9" s="21">
+      <c r="AN9" s="21">
         <v>3014524258</v>
-      </c>
-      <c r="AN9" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AO9" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP9" s="21" t="s">
+      <c r="AP9" s="21">
+        <v>3015567865</v>
+      </c>
+      <c r="AQ9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI9" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK9" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="BQ9" s="21">
+        <v>119</v>
+      </c>
+      <c r="BR9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BS9" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BW9" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BX9" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY9" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="BZ9" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF9" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="CG9" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CI9" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="CJ9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CL9" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="CM9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="CQ9" s="21">
+        <v>102</v>
+      </c>
+      <c r="CR9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS9" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="CT9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CW9" s="24"/>
+      <c r="CY9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DH9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI9" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ9" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="DK9" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="DM9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="DN9" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="DO9" s="21">
+        <v>3028976789</v>
+      </c>
+      <c r="DP9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DQ9" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR9" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS9" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DT9" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DU9" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DV9" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DW9" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="DY9" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="DZ9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EA9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EB9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EC9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="ED9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EG9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EH9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EI9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EJ9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EK9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EL9" s="26"/>
+      <c r="EM9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EN9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EO9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EP9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EQ9" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:147" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" s="39">
+        <v>1937</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="R10" s="39">
+        <v>21</v>
+      </c>
+      <c r="S10" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="T10" s="41"/>
+      <c r="U10" s="39">
+        <v>88</v>
+      </c>
+      <c r="V10" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y10" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC10" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE10" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF10" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH10" s="39">
+        <v>28907</v>
+      </c>
+      <c r="AI10" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ10" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="AK10" s="43" t="s">
+        <v>486</v>
+      </c>
+      <c r="AL10" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM10" s="39">
+        <v>3015774089</v>
+      </c>
+      <c r="AN10" s="39">
+        <v>3014524258</v>
+      </c>
+      <c r="AO10" s="39">
+        <v>3015567865</v>
+      </c>
+      <c r="AP10" s="39">
+        <v>3015774089</v>
+      </c>
+      <c r="AQ10" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR10" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS10" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="AT10" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="AU10" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV10" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="AW10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX10" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY10" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="AZ10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="BC10" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD10" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="BE10" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF10" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG10" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH10" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="BI10" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ10" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="BK10" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="BL10" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM10" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="BN10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="AQ9" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="BB9" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG9" s="21" t="s">
+      <c r="BP10" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="BR10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="BW10" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="BX10" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="BY10" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="BZ10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="CA10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CB10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="CG10" s="39" t="s">
+        <v>361</v>
+      </c>
+      <c r="CH10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="CI10" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="CJ10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="CK10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="CM10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="CO10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="CP10" s="39">
+        <v>1997</v>
+      </c>
+      <c r="CR10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CS10" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="CT10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="CX10" s="39">
+        <v>103</v>
+      </c>
+      <c r="CY10" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="CZ10" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB10" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="DC10" s="39">
+        <v>1985</v>
+      </c>
+      <c r="DE10" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="DF10" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="DG10" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="DH10" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI10" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ10" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="DK10" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL10" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="DM10" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="DN10" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="DO10" s="39">
+        <v>3028976789</v>
+      </c>
+      <c r="DP10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DQ10" s="39" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR10" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS10" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="DT10" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="DU10" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="DV10" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="DW10" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BH9" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ9" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="BL9" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="BP9" s="21">
-        <v>119</v>
-      </c>
-      <c r="BQ9" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="BZ9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="CF9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="CG9" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CH9" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="CI9" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CJ9" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CL9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="CP9" s="21">
-        <v>102</v>
-      </c>
-      <c r="CQ9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CR9" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="CS9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CT9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CV9" s="24"/>
-      <c r="CX9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="DG9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="DH9" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI9" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="DJ9" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="DL9" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="DM9" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN9" s="21">
-        <v>3028976789</v>
-      </c>
-      <c r="DO9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP9" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="DQ9" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR9" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="DS9" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT9" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="DU9" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DV9" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="DW9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="DX9" s="21" t="s">
+      <c r="DY10" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="DY9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="DZ9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EA9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EB9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EC9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="ED9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EE9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EH9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EI9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EJ9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EK9" s="27" t="s">
+      <c r="DZ10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EA10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="ED10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EE10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EG10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EH10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EI10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EJ10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EK10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EL10" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="EM10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:147" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="EL9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EM9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EN9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EO9" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EP9" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:146" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>296</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="K10" s="21" t="s">
+      <c r="G11" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="H11" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="M10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="21">
-        <v>1937</v>
-      </c>
-      <c r="P10" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>21</v>
-      </c>
-      <c r="R10" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="26"/>
-      <c r="Z10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC10" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD10" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE10" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF10" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG10" s="21">
-        <v>28907</v>
-      </c>
-      <c r="AH10" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="AI10" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="AJ10" s="19" t="s">
-        <v>491</v>
-      </c>
-      <c r="AK10" s="18"/>
-      <c r="AL10" s="21">
-        <v>3015774089</v>
-      </c>
-      <c r="AM10" s="21">
-        <v>3014524258</v>
-      </c>
-      <c r="AN10" s="21">
-        <v>3015567865</v>
-      </c>
-      <c r="AO10" s="21">
-        <v>3015774089</v>
-      </c>
-      <c r="AP10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AR10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="AS10" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="AT10" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU10" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="AW10" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX10" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="AZ10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="BB10" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE10" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF10" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="BG10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="BH10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="BI10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="BJ10" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="BK10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="BL10" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BO10" s="22" t="s">
-        <v>387</v>
-      </c>
-      <c r="BQ10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BR10" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="BV10" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="BW10" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="BX10" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="BY10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="BZ10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CA10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CE10" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="CF10" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="CG10" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="CH10" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="CI10" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="CJ10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CK10" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="CL10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="CN10" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="CO10" s="21">
-        <v>1997</v>
-      </c>
-      <c r="CQ10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CR10" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="CS10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU10" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="CW10" s="21">
-        <v>103</v>
-      </c>
-      <c r="CX10" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="CY10" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="CZ10" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="DA10" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="DB10" s="21">
-        <v>1985</v>
-      </c>
-      <c r="DD10" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="DE10" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="DF10" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="DG10" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="DH10" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI10" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="DJ10" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="DK10" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="DL10" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="DM10" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN10" s="21">
-        <v>3028976789</v>
-      </c>
-      <c r="DO10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP10" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="DQ10" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR10" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="DS10" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT10" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="DU10" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DV10" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="DW10" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="DX10" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="DY10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DZ10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EA10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EB10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ED10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EE10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EF10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EK10" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="EL10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EM10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EN10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EO10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EP10" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>369</v>
-      </c>
       <c r="I11" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>47</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>388</v>
+        <v>47</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>134</v>
+        <v>383</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="O11" s="21">
+        <v>133</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="21">
         <v>1935</v>
       </c>
-      <c r="P11" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q11" s="21">
+      <c r="Q11" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R11" s="21">
         <v>21</v>
       </c>
-      <c r="R11" s="30" t="s">
-        <v>430</v>
-      </c>
-      <c r="S11" s="22"/>
+      <c r="S11" s="29" t="s">
+        <v>425</v>
+      </c>
       <c r="T11" s="22"/>
-      <c r="U11" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z11" s="21" t="s">
-        <v>134</v>
+      <c r="U11" s="21">
+        <v>90</v>
+      </c>
+      <c r="V11" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="W11" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y11" s="45" t="s">
+        <v>262</v>
       </c>
       <c r="AA11" s="21" t="s">
-        <v>420</v>
+        <v>133</v>
       </c>
       <c r="AB11" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="AH11" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="AI11" s="19" t="s">
-        <v>326</v>
+        <v>415</v>
+      </c>
+      <c r="AC11" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI11" s="18" t="s">
+        <v>324</v>
       </c>
       <c r="AJ11" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="21">
+        <v>324</v>
+      </c>
+      <c r="AK11" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="AL11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="AM11" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AM11" s="21">
+      <c r="AN11" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AN11" s="21">
+      <c r="AO11" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AO11" s="21">
+      <c r="AP11" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AP11" s="21" t="s">
-        <v>145</v>
-      </c>
       <c r="AQ11" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="AR11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY11" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="AZ11" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="BM11" s="21" t="s">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="BA11" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="BN11" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="BO11" s="24"/>
-      <c r="BQ11" s="21" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BO11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BP11" s="24"/>
       <c r="BR11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BW11" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="BV11" s="21" t="s">
+      <c r="BZ11" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="BY11" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="BZ11" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CA11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CE11" s="21" t="s">
-        <v>417</v>
+      <c r="CB11" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="CF11" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="CG11" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CG11" s="21" t="s">
-        <v>145</v>
-      </c>
       <c r="CH11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CI11" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CI11" s="21" t="s">
-        <v>145</v>
-      </c>
       <c r="CJ11" s="21" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="CK11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="CM11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="CR11" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="CS11" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="CT11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CU11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CW11" s="24"/>
+      <c r="CY11" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="CZ11" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="DA11" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="DE11" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="CL11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="21" t="s">
+      <c r="DF11" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="DG11" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="CQ11" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="CR11" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="CS11" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CT11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU11" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CV11" s="24"/>
-      <c r="CX11" s="21" t="s">
-        <v>368</v>
-      </c>
-      <c r="CY11" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="CZ11" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="DD11" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="DE11" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="DF11" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="DG11" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DH11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DI11" s="21" t="s">
-        <v>379</v>
-      </c>
       <c r="DJ11" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="DL11" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="DK11" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="DM11" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DM11" s="21" t="s">
+      <c r="DN11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DN11" s="21">
+      <c r="DO11" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DO11" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DP11" s="21" t="s">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="DQ11" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR11" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DR11" s="21" t="s">
+      <c r="DS11" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS11" s="21" t="s">
+      <c r="DT11" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DT11" s="21" t="s">
+      <c r="DU11" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DU11" s="21" t="s">
+      <c r="DV11" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DV11" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="DW11" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DX11" s="21" t="s">
+      <c r="DY11" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DY11" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="DZ11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EA11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EB11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EC11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="ED11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EE11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EF11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EG11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EH11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EI11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EJ11" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EK11" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="EL11" s="21" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="EK11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EL11" s="26"/>
       <c r="EM11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EN11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EO11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="EP11" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="EQ11" s="21" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:147" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="I12" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="P12" s="21">
+        <v>1930</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R12" s="21">
+        <v>21</v>
+      </c>
+      <c r="S12" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB12" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC12" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="AI12" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="AJ12" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="21">
+        <v>3015774089</v>
+      </c>
+      <c r="AN12" s="21">
+        <v>3014524258</v>
+      </c>
+      <c r="AO12" s="21">
+        <v>3015567865</v>
+      </c>
+      <c r="AP12" s="21">
+        <v>3014524258</v>
+      </c>
+      <c r="AQ12" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AY12" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="BA12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CA12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF12" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="CM12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CW12" s="24"/>
+      <c r="DH12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI12" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="DJ12" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="DK12" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="DM12" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="DN12" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="DO12" s="21">
+        <v>3028976789</v>
+      </c>
+      <c r="DP12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DQ12" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR12" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS12" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="DT12" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="DU12" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="DV12" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="DW12" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="DY12" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="DZ12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EA12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EB12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EC12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="ED12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EG12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EH12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EI12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EJ12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EK12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EL12" s="26"/>
+      <c r="EM12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EN12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EO12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EP12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EQ12" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:147" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>391</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="M12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="O12" s="21">
-        <v>1930</v>
-      </c>
-      <c r="P12" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>21</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA12" s="21" t="s">
-        <v>420</v>
-      </c>
-      <c r="AB12" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="AH12" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="AI12" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="21">
-        <v>3015774089</v>
-      </c>
-      <c r="AM12" s="21">
-        <v>3014524258</v>
-      </c>
-      <c r="AN12" s="21">
-        <v>3015567865</v>
-      </c>
-      <c r="AO12" s="21">
-        <v>3014524258</v>
-      </c>
-      <c r="AP12" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ12" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="AZ12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BM12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BQ12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BZ12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CE12" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="CL12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="CV12" s="24"/>
-      <c r="DG12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="DH12" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="DI12" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="DJ12" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="DL12" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="DM12" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN12" s="21">
-        <v>3028976789</v>
-      </c>
-      <c r="DO12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DP12" s="21" t="s">
-        <v>242</v>
-      </c>
-      <c r="DQ12" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR12" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="DS12" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="DT12" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="DU12" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="DV12" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="DW12" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="DX12" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="DY12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="DZ12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EA12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EB12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EC12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="ED12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EE12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EF12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EG12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EH12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EI12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EJ12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EK12" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="EL12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EM12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EN12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EO12" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="EP12" s="21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:146" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>406</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>161</v>
-      </c>
       <c r="J13" s="21" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="N13" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="O13" s="21">
+        <v>133</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="21">
         <v>1940</v>
       </c>
-      <c r="P13" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q13" s="21">
+      <c r="Q13" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="R13" s="21">
         <v>21</v>
       </c>
-      <c r="R13" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="S13" s="22"/>
+      <c r="S13" s="29" t="s">
+        <v>426</v>
+      </c>
       <c r="T13" s="22"/>
-      <c r="U13" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z13" s="21" t="s">
-        <v>0</v>
+      <c r="U13" s="22"/>
+      <c r="V13" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="AA13" s="21" t="s">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="AH13" s="19" t="s">
-        <v>376</v>
+        <v>415</v>
+      </c>
+      <c r="AC13" s="21" t="s">
+        <v>381</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ13" s="19"/>
+        <v>371</v>
+      </c>
+      <c r="AJ13" s="19" t="s">
+        <v>371</v>
+      </c>
       <c r="AK13" s="19"/>
-      <c r="AL13" s="21">
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AM13" s="21">
+      <c r="AN13" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AN13" s="21">
+      <c r="AO13" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AO13" s="21">
+      <c r="AP13" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AP13" s="21" t="s">
-        <v>167</v>
-      </c>
       <c r="AQ13" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ13" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="BM13" s="21" t="s">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="AR13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA13" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="BN13" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CE13" s="21" t="s">
-        <v>417</v>
+        <v>0</v>
+      </c>
+      <c r="BO13" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="CF13" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="CG13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CG13" s="21" t="s">
-        <v>150</v>
-      </c>
       <c r="CH13" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="CI13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CI13" s="21" t="s">
+      <c r="CJ13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CJ13" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CK13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="DP13" s="21" t="s">
-        <v>242</v>
-      </c>
       <c r="DQ13" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="DR13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DR13" s="21" t="s">
+      <c r="DS13" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DS13" s="21" t="s">
+      <c r="DT13" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DT13" s="21" t="s">
+      <c r="DU13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DU13" s="21" t="s">
+      <c r="DV13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DV13" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="DW13" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DX13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DX13" s="21" t="s">
+      <c r="DY13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DY13" s="21" t="s">
-        <v>145</v>
-      </c>
       <c r="DZ13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EA13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EB13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EC13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="ED13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EE13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EF13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EG13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EH13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EI13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EJ13" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="EK13" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="EL13" s="21" t="s">
-        <v>145</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="EK13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EL13" s="26"/>
       <c r="EM13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EN13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EO13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="EP13" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
+      </c>
+      <c r="EQ13" s="21" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:146" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:147" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q14" s="21">
+        <v>377</v>
+      </c>
+      <c r="L14" s="25"/>
+      <c r="R14" s="21">
         <v>21</v>
       </c>
-      <c r="AH14" s="19" t="s">
-        <v>397</v>
-      </c>
       <c r="AI14" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="AJ14" s="19"/>
+        <v>392</v>
+      </c>
+      <c r="AJ14" s="19" t="s">
+        <v>392</v>
+      </c>
       <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
     </row>
-    <row r="15" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:147" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K15" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q15" s="21">
+        <v>378</v>
+      </c>
+      <c r="R15" s="21">
         <v>21</v>
       </c>
-      <c r="AH15" s="19" t="s">
-        <v>398</v>
-      </c>
       <c r="AI15" s="19" t="s">
-        <v>398</v>
-      </c>
-      <c r="AJ15" s="19"/>
+        <v>393</v>
+      </c>
+      <c r="AJ15" s="19" t="s">
+        <v>393</v>
+      </c>
       <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
     </row>
-    <row r="16" spans="1:146" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:147" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K16" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q16" s="21">
+        <v>379</v>
+      </c>
+      <c r="R16" s="21">
         <v>21</v>
       </c>
-      <c r="AH16" s="19" t="s">
-        <v>399</v>
-      </c>
       <c r="AI16" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="AJ16" s="19"/>
+        <v>394</v>
+      </c>
+      <c r="AJ16" s="19" t="s">
+        <v>394</v>
+      </c>
       <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
     </row>
-    <row r="17" spans="11:37" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="11:38" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K17" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH17" s="19" t="s">
-        <v>400</v>
+        <v>138</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>400</v>
-      </c>
-      <c r="AJ17" s="19"/>
+        <v>395</v>
+      </c>
+      <c r="AJ17" s="19" t="s">
+        <v>395</v>
+      </c>
       <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
     </row>
-    <row r="18" spans="11:37" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="11:38" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:EP13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
+  <autoFilter ref="A1:EQ13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AH7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
-    <hyperlink ref="AH4" r:id="rId2" xr:uid="{54A26098-2C02-B14A-A8B8-E895ACEFE8FC}"/>
-    <hyperlink ref="AI4" r:id="rId3" xr:uid="{19B8EC6B-4DE1-EF45-9AC5-07A97297CA08}"/>
-    <hyperlink ref="AH2" r:id="rId4" xr:uid="{CE9060F8-46A2-8E4A-9049-D259F5FF8833}"/>
-    <hyperlink ref="AI2" r:id="rId5" xr:uid="{9F426852-B12C-F246-BBD4-2DFF4046F17B}"/>
-    <hyperlink ref="AI7" r:id="rId6" xr:uid="{F867FCEE-CDE3-774C-AA60-18F374257445}"/>
-    <hyperlink ref="AH8" r:id="rId7" xr:uid="{FF13954F-3772-2244-8624-0759DAAA195B}"/>
-    <hyperlink ref="AI8" r:id="rId8" xr:uid="{DEA58592-D611-1446-A2DF-45ED1084017D}"/>
-    <hyperlink ref="AH5" r:id="rId9" xr:uid="{AE8E2947-9665-444E-BB61-535EF103703A}"/>
-    <hyperlink ref="AI5" r:id="rId10" xr:uid="{03D22372-21FE-6647-9FB7-E611341DF12C}"/>
-    <hyperlink ref="AH6" r:id="rId11" xr:uid="{38E74D40-B9B2-9F4F-A95C-07E96ED19969}"/>
-    <hyperlink ref="AH13" r:id="rId12" xr:uid="{A84CFFC5-66D9-2E4D-9EAF-A805310521D0}"/>
-    <hyperlink ref="AH12" r:id="rId13" xr:uid="{EE58DF3D-4E06-D242-A11C-C73725F63244}"/>
-    <hyperlink ref="AH9" r:id="rId14" xr:uid="{9561474B-13C0-5C45-A0AF-651803129C22}"/>
-    <hyperlink ref="AI9" r:id="rId15" xr:uid="{A1121A3E-E434-0D46-8060-8CC9554A173E}"/>
-    <hyperlink ref="AH10" r:id="rId16" xr:uid="{74DEEA39-9EE3-DA40-986A-18AB27D7AF3D}"/>
-    <hyperlink ref="AI10" r:id="rId17" xr:uid="{10D6E031-35FA-1A41-812A-AC8A67918A79}"/>
-    <hyperlink ref="AH11" r:id="rId18" xr:uid="{E72B4306-86EB-094D-A7D7-3CE674C9E99B}"/>
-    <hyperlink ref="AI11" r:id="rId19" xr:uid="{BBD42CF8-45B8-BC4C-8616-E5054108E74E}"/>
-    <hyperlink ref="AI12" r:id="rId20" xr:uid="{CB1028F2-6BEB-9845-BBBF-2CCF7E196D7E}"/>
-    <hyperlink ref="AI13" r:id="rId21" xr:uid="{38A05DA8-5083-B64C-9BB7-7515D994A102}"/>
-    <hyperlink ref="AH14:AH17" r:id="rId22" display="charmsparticipant12@yopmail.com" xr:uid="{F7B2D757-0C7A-4D43-8200-C0254FB3451B}"/>
-    <hyperlink ref="AH14" r:id="rId23" xr:uid="{00D2EC9C-C0B0-A94F-A0A4-8DCEB003125B}"/>
-    <hyperlink ref="AH15" r:id="rId24" xr:uid="{4B08829F-C727-1F4D-8585-8623FDC25445}"/>
-    <hyperlink ref="AH16" r:id="rId25" xr:uid="{D67C22F6-0FF5-2A43-9F6B-E465DA043CCB}"/>
-    <hyperlink ref="AH17" r:id="rId26" xr:uid="{39CD3A02-5AC2-A349-A912-CB63C565E8B1}"/>
-    <hyperlink ref="AI14:AI17" r:id="rId27" display="charmsparticipant12@yopmail.com" xr:uid="{0D113990-F28B-4045-82B3-3B329AB1A52B}"/>
-    <hyperlink ref="AJ2" r:id="rId28" xr:uid="{E22D24ED-7C96-1446-A5F8-21D1507C6179}"/>
-    <hyperlink ref="AJ3" r:id="rId29" xr:uid="{70C65664-4427-354A-B785-E0B132A43F5C}"/>
-    <hyperlink ref="AJ4" r:id="rId30" xr:uid="{CC02BCBB-3BDC-CE48-A7EB-DEE29B97C95A}"/>
-    <hyperlink ref="AJ5:AJ11" r:id="rId31" display="sj.fanconitester3@yopmail.com" xr:uid="{E1A1E55B-77EC-F549-BF2B-EE817EA7E8DB}"/>
-    <hyperlink ref="AJ5" r:id="rId32" xr:uid="{3BFA334B-C797-5844-9469-BDCBE15B724A}"/>
-    <hyperlink ref="AJ6" r:id="rId33" xr:uid="{A23BBEA4-5507-924C-9662-585110B0F717}"/>
-    <hyperlink ref="AJ7" r:id="rId34" xr:uid="{41B062F1-F9CB-704F-818B-85592F6D9883}"/>
-    <hyperlink ref="AJ8" r:id="rId35" xr:uid="{7C53923E-E953-094F-A49D-C82B1F6B95B8}"/>
-    <hyperlink ref="AJ9" r:id="rId36" xr:uid="{DDC7D204-E39A-FC48-A4E1-997987E166A4}"/>
-    <hyperlink ref="AJ10" r:id="rId37" xr:uid="{0AF75C1A-C67C-FB4B-AE7C-3961DA7F4B14}"/>
-    <hyperlink ref="AJ11" r:id="rId38" xr:uid="{8ACA7222-D208-AD4D-8034-E244E11A98B6}"/>
+    <hyperlink ref="AI7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
+    <hyperlink ref="AI4" r:id="rId2" xr:uid="{54A26098-2C02-B14A-A8B8-E895ACEFE8FC}"/>
+    <hyperlink ref="AJ4" r:id="rId3" xr:uid="{19B8EC6B-4DE1-EF45-9AC5-07A97297CA08}"/>
+    <hyperlink ref="AI2" r:id="rId4" xr:uid="{CE9060F8-46A2-8E4A-9049-D259F5FF8833}"/>
+    <hyperlink ref="AJ2" r:id="rId5" xr:uid="{9F426852-B12C-F246-BBD4-2DFF4046F17B}"/>
+    <hyperlink ref="AJ7" r:id="rId6" xr:uid="{F867FCEE-CDE3-774C-AA60-18F374257445}"/>
+    <hyperlink ref="AI8" r:id="rId7" xr:uid="{FF13954F-3772-2244-8624-0759DAAA195B}"/>
+    <hyperlink ref="AJ8" r:id="rId8" xr:uid="{DEA58592-D611-1446-A2DF-45ED1084017D}"/>
+    <hyperlink ref="AI5" r:id="rId9" xr:uid="{AE8E2947-9665-444E-BB61-535EF103703A}"/>
+    <hyperlink ref="AJ5" r:id="rId10" xr:uid="{03D22372-21FE-6647-9FB7-E611341DF12C}"/>
+    <hyperlink ref="AI6" r:id="rId11" xr:uid="{38E74D40-B9B2-9F4F-A95C-07E96ED19969}"/>
+    <hyperlink ref="AI13" r:id="rId12" xr:uid="{A84CFFC5-66D9-2E4D-9EAF-A805310521D0}"/>
+    <hyperlink ref="AI12" r:id="rId13" xr:uid="{EE58DF3D-4E06-D242-A11C-C73725F63244}"/>
+    <hyperlink ref="AI9" r:id="rId14" xr:uid="{9561474B-13C0-5C45-A0AF-651803129C22}"/>
+    <hyperlink ref="AJ9" r:id="rId15" xr:uid="{A1121A3E-E434-0D46-8060-8CC9554A173E}"/>
+    <hyperlink ref="AL10" r:id="rId16" xr:uid="{74DEEA39-9EE3-DA40-986A-18AB27D7AF3D}"/>
+    <hyperlink ref="AJ10" r:id="rId17" xr:uid="{10D6E031-35FA-1A41-812A-AC8A67918A79}"/>
+    <hyperlink ref="AI11" r:id="rId18" xr:uid="{E72B4306-86EB-094D-A7D7-3CE674C9E99B}"/>
+    <hyperlink ref="AJ11" r:id="rId19" xr:uid="{BBD42CF8-45B8-BC4C-8616-E5054108E74E}"/>
+    <hyperlink ref="AJ12" r:id="rId20" xr:uid="{CB1028F2-6BEB-9845-BBBF-2CCF7E196D7E}"/>
+    <hyperlink ref="AJ13" r:id="rId21" xr:uid="{38A05DA8-5083-B64C-9BB7-7515D994A102}"/>
+    <hyperlink ref="AI14:AI17" r:id="rId22" display="charmsparticipant12@yopmail.com" xr:uid="{F7B2D757-0C7A-4D43-8200-C0254FB3451B}"/>
+    <hyperlink ref="AI14" r:id="rId23" xr:uid="{00D2EC9C-C0B0-A94F-A0A4-8DCEB003125B}"/>
+    <hyperlink ref="AI15" r:id="rId24" xr:uid="{4B08829F-C727-1F4D-8585-8623FDC25445}"/>
+    <hyperlink ref="AI16" r:id="rId25" xr:uid="{D67C22F6-0FF5-2A43-9F6B-E465DA043CCB}"/>
+    <hyperlink ref="AI17" r:id="rId26" xr:uid="{39CD3A02-5AC2-A349-A912-CB63C565E8B1}"/>
+    <hyperlink ref="AJ14:AJ17" r:id="rId27" display="charmsparticipant12@yopmail.com" xr:uid="{0D113990-F28B-4045-82B3-3B329AB1A52B}"/>
+    <hyperlink ref="AK2" r:id="rId28" xr:uid="{E22D24ED-7C96-1446-A5F8-21D1507C6179}"/>
+    <hyperlink ref="AK3" r:id="rId29" xr:uid="{70C65664-4427-354A-B785-E0B132A43F5C}"/>
+    <hyperlink ref="AK4" r:id="rId30" xr:uid="{CC02BCBB-3BDC-CE48-A7EB-DEE29B97C95A}"/>
+    <hyperlink ref="AK5:AK11" r:id="rId31" display="sj.fanconitester3@yopmail.com" xr:uid="{E1A1E55B-77EC-F549-BF2B-EE817EA7E8DB}"/>
+    <hyperlink ref="AK5" r:id="rId32" xr:uid="{3BFA334B-C797-5844-9469-BDCBE15B724A}"/>
+    <hyperlink ref="AK6" r:id="rId33" xr:uid="{A23BBEA4-5507-924C-9662-585110B0F717}"/>
+    <hyperlink ref="AK7" r:id="rId34" xr:uid="{41B062F1-F9CB-704F-818B-85592F6D9883}"/>
+    <hyperlink ref="AK8" r:id="rId35" xr:uid="{7C53923E-E953-094F-A49D-C82B1F6B95B8}"/>
+    <hyperlink ref="AK9" r:id="rId36" xr:uid="{DDC7D204-E39A-FC48-A4E1-997987E166A4}"/>
+    <hyperlink ref="AK10" r:id="rId37" xr:uid="{0AF75C1A-C67C-FB4B-AE7C-3961DA7F4B14}"/>
+    <hyperlink ref="AK11" r:id="rId38" xr:uid="{8ACA7222-D208-AD4D-8034-E244E11A98B6}"/>
+    <hyperlink ref="AI10" r:id="rId39" xr:uid="{289B06F2-9A86-3847-B5A3-0A3F844F7476}"/>
+    <hyperlink ref="AL11" r:id="rId40" xr:uid="{61E7E9C0-9075-1940-B5D8-4DC1910A82BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6076,25 +6306,25 @@
   <sheetData>
     <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>275</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>123</v>
@@ -6103,7 +6333,7 @@
         <v>124</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6111,7 +6341,7 @@
         <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>59</v>
@@ -6140,10 +6370,10 @@
         <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>61</v>
@@ -6164,7 +6394,7 @@
         <v>1991</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6172,19 +6402,19 @@
         <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4">
         <v>3013454562</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -6196,7 +6426,7 @@
         <v>1992</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6204,19 +6434,19 @@
         <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E5" s="4">
         <v>3013454562</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>0</v>
@@ -6228,7 +6458,7 @@
         <v>1993</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6236,19 +6466,19 @@
         <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E6" s="4">
         <v>3013454562</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>0</v>
@@ -6260,7 +6490,7 @@
         <v>1994</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6268,19 +6498,19 @@
         <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E7" s="4">
         <v>3013454562</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>0</v>
@@ -6292,12 +6522,12 @@
         <v>1995</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I12" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -6345,7 +6575,7 @@
         <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>102</v>
@@ -6354,10 +6584,10 @@
         <v>103</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6395,80 +6625,80 @@
     </row>
     <row r="3" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>264</v>
+      <c r="D3" s="27" t="s">
+        <v>262</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2">
         <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>264</v>
+        <v>168</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>262</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>264</v>
+      <c r="D5" s="27" t="s">
+        <v>262</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -6478,24 +6708,24 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>77</v>
@@ -6511,94 +6741,94 @@
         <v>0</v>
       </c>
       <c r="H6" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="J6" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>335</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>264</v>
+      <c r="D7" s="28" t="s">
+        <v>262</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20">
         <v>90</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="J7" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="K7" s="20" t="s">
         <v>339</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>264</v>
+        <v>168</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>262</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H8" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="J8" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>343</v>
-      </c>
-      <c r="J8" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>264</v>
+      <c r="D9" s="28" t="s">
+        <v>262</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20">
@@ -6608,16 +6838,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>347</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -6637,292 +6867,292 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="98.5" customWidth="1"/>
-    <col min="2" max="2" width="53" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>437</v>
+      <c r="A1" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>439</v>
+      <c r="A2" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
-        <v>440</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>295</v>
+      <c r="A3" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>296</v>
+      <c r="A4" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>442</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>389</v>
+      <c r="A5" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>443</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>444</v>
+      <c r="A6" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>445</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>446</v>
+      <c r="A7" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="B8" s="34">
+      <c r="A8" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="B8" s="33">
         <v>1948</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>448</v>
-      </c>
-      <c r="B9" s="34" t="s">
+      <c r="A9" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>449</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>134</v>
+      <c r="A10" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="B11" s="34" t="s">
+      <c r="A11" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>451</v>
+      <c r="A12" s="32" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>452</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>453</v>
+      <c r="A13" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>454</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>455</v>
+      <c r="A14" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>456</v>
+      <c r="B15" s="33" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>458</v>
+      <c r="A16" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="B17" s="34">
+      <c r="A17" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="B17" s="33">
         <v>22015</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>423</v>
+      <c r="A18" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>423</v>
+      <c r="A19" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>463</v>
+      <c r="A20" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>464</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>463</v>
+      <c r="A21" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>463</v>
+      <c r="A22" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>143</v>
+      <c r="A23" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>167</v>
+      <c r="A24" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="33" t="s">
-        <v>468</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>469</v>
+      <c r="A25" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>471</v>
+      <c r="A26" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
-        <v>472</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>134</v>
+      <c r="A27" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>134</v>
+      <c r="A28" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
-        <v>474</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>134</v>
+      <c r="A29" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
-        <v>475</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>134</v>
+      <c r="A30" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>478</v>
+      <c r="A32" s="32" t="s">
+        <v>472</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>134</v>
+      <c r="A33" s="32" t="s">
+        <v>474</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="33" t="s">
-        <v>480</v>
-      </c>
-      <c r="B34" s="34" t="s">
+      <c r="A34" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>482</v>
+      <c r="A35" s="32" t="s">
+        <v>476</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="323" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="s">
-        <v>483</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>484</v>
+      <c r="A36" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A27FC9-DA4B-294E-BE34-ED2C04A7B803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3969A541-1677-E943-A003-4BB22A020631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
@@ -2231,9 +2231,9 @@
   </sheetPr>
   <dimension ref="A1:EQ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ11" sqref="AZ11"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V6" sqref="V6:V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3461,7 +3461,7 @@
         <v>115</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="W4" s="21" t="s">
         <v>161</v>
@@ -3742,7 +3742,7 @@
         <v>100</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="W5" s="21" t="s">
         <v>178</v>
@@ -4035,7 +4035,7 @@
         <v>75</v>
       </c>
       <c r="V6" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="W6" s="21" t="s">
         <v>144</v>
@@ -4281,7 +4281,7 @@
         <v>85</v>
       </c>
       <c r="V7" s="21" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="W7" s="21" t="s">
         <v>165</v>
@@ -4360,8 +4360,8 @@
       <c r="BX7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="BY7" s="37" t="s">
-        <v>65</v>
+      <c r="BY7" s="21" t="s">
+        <v>354</v>
       </c>
       <c r="BZ7" s="21" t="s">
         <v>66</v>
@@ -4539,7 +4539,7 @@
         <v>95</v>
       </c>
       <c r="V8" s="21" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="W8" s="21" t="s">
         <v>165</v>
@@ -4800,7 +4800,7 @@
         <v>90</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="W9" s="21" t="s">
         <v>161</v>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3969A541-1677-E943-A003-4BB22A020631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0B5BAC-C447-C145-ABE8-F1DAFFD390AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="fanconiScreenerScenario" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$EQ$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$ER$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="503">
   <si>
     <t>Yes</t>
   </si>
@@ -930,9 +930,6 @@
   </si>
   <si>
     <t>charmsparticipant1@yopmail.com</t>
-  </si>
-  <si>
-    <t>Fanconi Anemia Research Fund, FA study at Study1, FA study at Study2, Research fund at Study3, Research fund at Study4, Research fund at Study5</t>
   </si>
   <si>
     <t>ParticipantStudyNameInNV</t>
@@ -1545,6 +1542,18 @@
   </si>
   <si>
     <t>Genetic Counselor Test</t>
+  </si>
+  <si>
+    <t>Fanconi Cancer Foundation (formerly Fanconi Anemia Research Fund)</t>
+  </si>
+  <si>
+    <t>Fanconi Cancer Foundation (formerly Fanconi Anemia Research Fund), FA study at Study1, FA study at Study2, Research fund at Study3, Research fund at Study4, Research fund at Study5</t>
+  </si>
+  <si>
+    <t>PreviousStudiesNV</t>
+  </si>
+  <si>
+    <t>Fanconi Anemia Research Fund, FA study at Study1, FA study at Study2, Research fund at Study3, Research fund at Study4, Research fund at Study5</t>
   </si>
 </sst>
 </file>
@@ -2229,11 +2238,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:EQ18"/>
+  <dimension ref="A1:ER18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V6" sqref="V6:V9"/>
+    <sheetView tabSelected="1" topLeftCell="DK1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="DL5" sqref="DL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2282,18 +2291,18 @@
     <col min="50" max="50" width="10.83203125" style="3" customWidth="1"/>
     <col min="51" max="52" width="28.6640625" style="3" customWidth="1"/>
     <col min="53" max="53" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="36.5" style="3" customWidth="1"/>
-    <col min="55" max="55" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="56" max="65" width="20.33203125" style="3" customWidth="1"/>
-    <col min="66" max="66" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="20.1640625" style="3" customWidth="1"/>
-    <col min="70" max="120" width="20.83203125" style="3"/>
-    <col min="121" max="121" width="38.33203125" style="3" customWidth="1"/>
-    <col min="122" max="16384" width="20.83203125" style="3"/>
+    <col min="54" max="55" width="36.5" style="3" customWidth="1"/>
+    <col min="56" max="56" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="57" max="66" width="20.33203125" style="3" customWidth="1"/>
+    <col min="67" max="67" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="20.1640625" style="3" customWidth="1"/>
+    <col min="71" max="121" width="20.83203125" style="3"/>
+    <col min="122" max="122" width="38.33203125" style="3" customWidth="1"/>
+    <col min="123" max="16384" width="20.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:148" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>187</v>
       </c>
@@ -2310,7 +2319,7 @@
         <v>126</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>127</v>
@@ -2328,10 +2337,10 @@
         <v>137</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>139</v>
@@ -2352,10 +2361,10 @@
         <v>125</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="U1" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>4</v>
@@ -2376,7 +2385,7 @@
         <v>192</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AC1" s="7" t="s">
         <v>7</v>
@@ -2403,10 +2412,10 @@
         <v>39</v>
       </c>
       <c r="AK1" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="AL1" s="12" t="s">
         <v>420</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>421</v>
       </c>
       <c r="AM1" s="14" t="s">
         <v>14</v>
@@ -2448,7 +2457,7 @@
         <v>186</v>
       </c>
       <c r="AZ1" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="BA1" s="16" t="s">
         <v>197</v>
@@ -2457,286 +2466,289 @@
         <v>241</v>
       </c>
       <c r="BC1" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="BD1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="16" t="s">
+      <c r="BE1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="BE1" s="16" t="s">
+      <c r="BF1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="BF1" s="16" t="s">
+      <c r="BG1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="BG1" s="16" t="s">
+      <c r="BH1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="16" t="s">
+      <c r="BI1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BI1" s="16" t="s">
+      <c r="BJ1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="BJ1" s="16" t="s">
+      <c r="BK1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="BK1" s="16" t="s">
+      <c r="BL1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="BL1" s="16" t="s">
+      <c r="BM1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BM1" s="16" t="s">
+      <c r="BN1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="BN1" s="13" t="s">
+      <c r="BO1" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BP1" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BR1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="BS1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="BT1" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="BU1" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="BU1" s="13" t="s">
-        <v>356</v>
       </c>
       <c r="BV1" s="13" t="s">
         <v>355</v>
       </c>
       <c r="BW1" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="BX1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="BY1" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="CA1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CB1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="CB1" s="13" t="s">
+      <c r="CC1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="CC1" s="13" t="s">
-        <v>357</v>
-      </c>
       <c r="CD1" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="CE1" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="CE1" s="13" t="s">
+      <c r="CF1" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="CF1" s="13" t="s">
+      <c r="CG1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CG1" s="13" t="s">
+      <c r="CH1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CI1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="CI1" s="13" t="s">
+      <c r="CJ1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="CJ1" s="13" t="s">
+      <c r="CK1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CL1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="CL1" s="13" t="s">
+      <c r="CM1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CN1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="CN1" s="13" t="s">
+      <c r="CO1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="CO1" s="13" t="s">
+      <c r="CP1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="CP1" s="13" t="s">
+      <c r="CQ1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="CQ1" s="13" t="s">
+      <c r="CR1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="CR1" s="13" t="s">
+      <c r="CS1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="CS1" s="13" t="s">
+      <c r="CT1" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="CT1" s="13" t="s">
+      <c r="CU1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="CU1" s="13" t="s">
+      <c r="CV1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="CV1" s="13" t="s">
+      <c r="CW1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="CW1" s="13" t="s">
+      <c r="CX1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="CX1" s="13" t="s">
+      <c r="CY1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="CY1" s="13" t="s">
+      <c r="CZ1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="CZ1" s="13" t="s">
+      <c r="DA1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="DA1" s="13" t="s">
+      <c r="DB1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="DB1" s="13" t="s">
+      <c r="DC1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="DC1" s="13" t="s">
+      <c r="DD1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="DD1" s="13" t="s">
+      <c r="DE1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DE1" s="13" t="s">
+      <c r="DF1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="DF1" s="13" t="s">
+      <c r="DG1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="DG1" s="13" t="s">
+      <c r="DH1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="DH1" s="13" t="s">
+      <c r="DI1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="DI1" s="13" t="s">
+      <c r="DJ1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="DJ1" s="13" t="s">
+      <c r="DK1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="DK1" s="13" t="s">
+      <c r="DL1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="DL1" s="13" t="s">
-        <v>351</v>
-      </c>
       <c r="DM1" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="DN1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="DN1" s="13" t="s">
+      <c r="DO1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="DO1" s="13" t="s">
+      <c r="DP1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="DP1" s="13" t="s">
+      <c r="DQ1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="DQ1" s="13" t="s">
+      <c r="DR1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="DR1" s="13" t="s">
+      <c r="DS1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="DS1" s="13" t="s">
+      <c r="DT1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="DT1" s="13" t="s">
+      <c r="DU1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="DU1" s="13" t="s">
+      <c r="DV1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="DV1" s="13" t="s">
+      <c r="DW1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="DW1" s="13" t="s">
+      <c r="DX1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="DX1" s="13" t="s">
+      <c r="DY1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="DY1" s="13" t="s">
+      <c r="DZ1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="DZ1" s="17" t="s">
+      <c r="EA1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="EA1" s="17" t="s">
+      <c r="EB1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="EB1" s="17" t="s">
+      <c r="EC1" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="EC1" s="17" t="s">
+      <c r="ED1" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="ED1" s="17" t="s">
+      <c r="EE1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="EE1" s="17" t="s">
+      <c r="EF1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="EF1" s="17" t="s">
+      <c r="EG1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="EG1" s="17" t="s">
+      <c r="EH1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="EH1" s="17" t="s">
+      <c r="EI1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="EI1" s="17" t="s">
+      <c r="EJ1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="EJ1" s="17" t="s">
+      <c r="EK1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="EK1" s="17" t="s">
+      <c r="EL1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="EL1" s="17" t="s">
+      <c r="EM1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="EM1" s="17" t="s">
+      <c r="EN1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="EN1" s="17" t="s">
+      <c r="EO1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="EO1" s="17" t="s">
+      <c r="EP1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="EP1" s="17" t="s">
+      <c r="EQ1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="EQ1" s="17" t="s">
+      <c r="ER1" s="17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:147" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:148" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
@@ -2747,13 +2759,13 @@
         <v>294</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G2" s="29"/>
       <c r="O2" s="21" t="s">
@@ -2763,13 +2775,13 @@
         <v>1948</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R2" s="21">
         <v>21</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="T2" s="22"/>
       <c r="U2" s="21">
@@ -2788,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC2" s="21" t="s">
         <v>22</v>
@@ -2815,7 +2827,7 @@
         <v>295</v>
       </c>
       <c r="AK2" s="19" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AL2" s="19"/>
       <c r="AM2" s="21">
@@ -2855,7 +2867,7 @@
         <v>40</v>
       </c>
       <c r="AY2" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AZ2" s="21" t="s">
         <v>0</v>
@@ -2864,206 +2876,206 @@
         <v>0</v>
       </c>
       <c r="BB2" s="21" t="s">
-        <v>296</v>
+        <v>500</v>
       </c>
       <c r="BC2" s="21" t="s">
-        <v>37</v>
+        <v>502</v>
       </c>
       <c r="BD2" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="BE2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BE2" s="21" t="s">
+      <c r="BF2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BF2" s="21" t="s">
+      <c r="BG2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG2" s="21" t="s">
+      <c r="BH2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BH2" s="21" t="s">
+      <c r="BI2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BI2" s="21" t="s">
+      <c r="BJ2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BJ2" s="21" t="s">
+      <c r="BK2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BK2" s="21" t="s">
+      <c r="BL2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BL2" s="21" t="s">
+      <c r="BM2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BM2" s="21" t="s">
+      <c r="BN2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BN2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BO2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="BQ2" s="21">
+      <c r="BR2" s="21">
         <v>91</v>
       </c>
-      <c r="BR2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BS2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BW2" s="21" t="s">
+      <c r="BX2" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="BX2" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="BY2" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BZ2" s="21" t="s">
+      <c r="BZ2" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CA2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CB2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CF2" s="21" t="s">
-        <v>412</v>
+      <c r="CC2" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="CG2" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="CH2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CH2" s="21" t="s">
+      <c r="CI2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CI2" s="21" t="s">
+      <c r="CJ2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CJ2" s="21" t="s">
+      <c r="CK2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CK2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CL2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CM2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CN2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="CO2" s="21" t="s">
+      <c r="CP2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="CP2" s="21">
+      <c r="CQ2" s="21">
         <v>1997</v>
       </c>
-      <c r="CR2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CS2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CT2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CU2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CV2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CX2" s="21">
+      <c r="CY2" s="21">
         <v>101</v>
       </c>
-      <c r="CY2" s="21" t="s">
+      <c r="CZ2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CZ2" s="21" t="s">
+      <c r="DA2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DA2" s="21" t="s">
+      <c r="DB2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="DB2" s="21" t="s">
+      <c r="DC2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="DC2" s="21">
+      <c r="DD2" s="21">
         <v>1985</v>
       </c>
-      <c r="DE2" s="21" t="s">
+      <c r="DF2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="DF2" s="21" t="s">
+      <c r="DG2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="DG2" s="21" t="s">
+      <c r="DH2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="DH2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DI2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DJ2" s="21" t="s">
+      <c r="DK2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DK2" s="21" t="s">
+      <c r="DL2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DL2" s="21" t="s">
-        <v>429</v>
-      </c>
       <c r="DM2" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="DN2" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DN2" s="21" t="s">
+      <c r="DO2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DO2" s="21">
+      <c r="DP2" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DP2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DQ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR2" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DR2" s="21" t="s">
+      <c r="DS2" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DS2" s="21" t="s">
+      <c r="DT2" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DT2" s="21" t="s">
+      <c r="DU2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DU2" s="21" t="s">
+      <c r="DV2" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DV2" s="21" t="s">
+      <c r="DW2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DW2" s="21" t="s">
-        <v>428</v>
-      </c>
       <c r="DX2" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DY2" s="21" t="s">
+      <c r="DZ2" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DZ2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EA2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3097,11 +3109,11 @@
       <c r="EK2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EL2" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="EM2" s="21" t="s">
-        <v>0</v>
+      <c r="EL2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM2" s="26" t="s">
+        <v>404</v>
       </c>
       <c r="EN2" s="21" t="s">
         <v>0</v>
@@ -3115,8 +3127,11 @@
       <c r="EQ2" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="ER2" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:147" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:148" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>38</v>
       </c>
@@ -3127,7 +3142,7 @@
         <v>132</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
@@ -3138,13 +3153,13 @@
         <v>1960</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R3" s="21">
         <v>21</v>
       </c>
       <c r="S3" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="T3" s="22"/>
       <c r="U3" s="21">
@@ -3163,7 +3178,7 @@
         <v>133</v>
       </c>
       <c r="AB3" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC3" s="21" t="s">
         <v>164</v>
@@ -3175,7 +3190,7 @@
         <v>141</v>
       </c>
       <c r="AK3" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AL3" s="19"/>
       <c r="AM3" s="21">
@@ -3215,7 +3230,7 @@
         <v>40</v>
       </c>
       <c r="AY3" s="21" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AZ3" s="21" t="s">
         <v>0</v>
@@ -3223,159 +3238,156 @@
       <c r="BA3" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="BN3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BO3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="BP3" s="22" t="s">
+      <c r="BQ3" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="BR3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BS3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="BW3" s="21" t="s">
+      <c r="BX3" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="BX3" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="BY3" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BZ3" s="21" t="s">
+      <c r="BZ3" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="CA3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CB3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CF3" s="21" t="s">
-        <v>412</v>
+      <c r="CC3" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="CG3" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="CH3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CH3" s="21" t="s">
+      <c r="CI3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CI3" s="21" t="s">
+      <c r="CJ3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CJ3" s="21" t="s">
+      <c r="CK3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CK3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CL3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="CM3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CN3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CQ3" s="21">
+      <c r="CR3" s="21">
         <v>100</v>
       </c>
-      <c r="CR3" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="CS3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CT3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CT3" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="CU3" s="21" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="CV3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="CW3" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="CY3" s="21" t="s">
+      <c r="CX3" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="CZ3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CZ3" s="21" t="s">
+      <c r="DA3" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DA3" s="21" t="s">
+      <c r="DB3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="DD3" s="21">
+      <c r="DE3" s="21">
         <v>102</v>
       </c>
-      <c r="DE3" s="21" t="s">
+      <c r="DF3" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="DF3" s="21" t="s">
+      <c r="DG3" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="DG3" s="21" t="s">
+      <c r="DH3" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="DH3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DI3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DK3" s="21" t="s">
-        <v>496</v>
-      </c>
-      <c r="DM3" s="21" t="s">
+      <c r="DL3" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="DN3" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="DO3" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DN3" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="DO3" s="21">
+      <c r="DP3" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DP3" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DQ3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DR3" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DR3" s="21" t="s">
+      <c r="DS3" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DS3" s="21" t="s">
+      <c r="DT3" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DT3" s="21" t="s">
+      <c r="DU3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DU3" s="21" t="s">
+      <c r="DV3" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DV3" s="21" t="s">
+      <c r="DW3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DW3" s="21" t="s">
-        <v>428</v>
-      </c>
       <c r="DX3" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DY3" s="21" t="s">
+      <c r="DZ3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DZ3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EA3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3409,11 +3421,11 @@
       <c r="EK3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EL3" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="EM3" s="21" t="s">
-        <v>0</v>
+      <c r="EL3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM3" s="26" t="s">
+        <v>404</v>
       </c>
       <c r="EN3" s="21" t="s">
         <v>0</v>
@@ -3427,8 +3439,11 @@
       <c r="EQ3" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="ER3" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:147" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:148" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>38</v>
       </c>
@@ -3439,7 +3454,7 @@
         <v>157</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O4" s="21" t="s">
         <v>144</v>
@@ -3448,13 +3463,13 @@
         <v>1910</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R4" s="21">
         <v>21</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T4" s="22"/>
       <c r="U4" s="21">
@@ -3473,10 +3488,10 @@
         <v>133</v>
       </c>
       <c r="AB4" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC4" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AI4" s="19" t="s">
         <v>143</v>
@@ -3485,7 +3500,7 @@
         <v>143</v>
       </c>
       <c r="AK4" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AL4" s="18"/>
       <c r="AM4" s="21">
@@ -3515,150 +3530,147 @@
       <c r="BA4" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="BN4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BO4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BR4" s="21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BP4" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="BS4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="BW4" s="21" t="s">
+      <c r="BX4" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="BX4" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="BY4" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BZ4" s="21" t="s">
+      <c r="BZ4" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CA4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CB4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CF4" s="21" t="s">
-        <v>412</v>
+      <c r="CC4" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="CG4" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="CH4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CH4" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CI4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CJ4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CJ4" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CK4" s="21" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="CL4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CM4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CN4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="CR4" s="21" t="s">
+      <c r="CS4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="CS4" s="21" t="s">
+      <c r="CT4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CT4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CU4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="CV4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CY4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CZ4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CZ4" s="21" t="s">
+      <c r="DA4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DA4" s="21" t="s">
+      <c r="DB4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DE4" s="21" t="s">
+      <c r="DF4" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="DF4" s="21" t="s">
-        <v>352</v>
-      </c>
       <c r="DG4" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="DH4" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="DH4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DI4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DJ4" s="21" t="s">
+      <c r="DK4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DK4" s="23" t="s">
+      <c r="DL4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="DM4" s="21" t="s">
+      <c r="DN4" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="DO4" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DN4" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="DO4" s="21">
+      <c r="DP4" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DP4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DQ4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR4" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DR4" s="21" t="s">
+      <c r="DS4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DS4" s="21" t="s">
+      <c r="DT4" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DT4" s="21" t="s">
+      <c r="DU4" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DU4" s="21" t="s">
+      <c r="DV4" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DV4" s="21" t="s">
+      <c r="DW4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DW4" s="21" t="s">
-        <v>428</v>
-      </c>
       <c r="DX4" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DY4" s="21" t="s">
+      <c r="DZ4" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DZ4" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EA4" s="21" t="s">
         <v>133</v>
       </c>
@@ -3692,10 +3704,10 @@
       <c r="EK4" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EL4" s="26"/>
-      <c r="EM4" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EL4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EM4" s="26"/>
       <c r="EN4" s="21" t="s">
         <v>133</v>
       </c>
@@ -3708,8 +3720,11 @@
       <c r="EQ4" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ER4" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="5" spans="1:147" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:148" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
@@ -3720,7 +3735,7 @@
         <v>159</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="O5" s="21" t="s">
         <v>144</v>
@@ -3729,13 +3744,13 @@
         <v>1925</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R5" s="21">
         <v>21</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T5" s="22"/>
       <c r="U5" s="21">
@@ -3748,7 +3763,7 @@
         <v>178</v>
       </c>
       <c r="X5" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Y5" s="21" t="s">
         <v>178</v>
@@ -3760,7 +3775,7 @@
         <v>133</v>
       </c>
       <c r="AB5" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC5" s="21" t="s">
         <v>177</v>
@@ -3772,7 +3787,7 @@
         <v>160</v>
       </c>
       <c r="AK5" s="19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL5" s="19"/>
       <c r="AM5" s="21">
@@ -3802,156 +3817,153 @@
       <c r="BA5" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="BN5" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BO5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BR5" s="21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BP5" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="BS5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BT5" s="21" t="s">
+      <c r="BU5" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="BW5" s="21" t="s">
+      <c r="BX5" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="BX5" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="BY5" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BZ5" s="21" t="s">
+      <c r="BZ5" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CA5" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CB5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CF5" s="21" t="s">
-        <v>412</v>
+      <c r="CC5" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="CG5" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="CH5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CH5" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CI5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CJ5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CJ5" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CK5" s="21" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="CL5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CM5" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CN5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="CR5" s="21" t="s">
+      <c r="CS5" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="CS5" s="21" t="s">
+      <c r="CT5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CT5" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="CU5" s="21" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="CV5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="CW5" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="CY5" s="21" t="s">
+      <c r="CX5" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="CZ5" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="CZ5" s="21" t="s">
+      <c r="DA5" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DA5" s="21" t="s">
+      <c r="DB5" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DE5" s="21" t="s">
-        <v>352</v>
-      </c>
       <c r="DF5" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="DG5" s="21" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="DH5" s="21" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="DI5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DK5" s="21" t="s">
-        <v>37</v>
-      </c>
       <c r="DL5" s="21" t="s">
-        <v>348</v>
+        <v>499</v>
       </c>
       <c r="DM5" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="DN5" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="DO5" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DN5" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="DO5" s="21">
+      <c r="DP5" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DP5" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DQ5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DR5" s="21" t="s">
+      <c r="DS5" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DS5" s="21" t="s">
+      <c r="DT5" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DT5" s="21" t="s">
+      <c r="DU5" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DU5" s="21" t="s">
+      <c r="DV5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DV5" s="21" t="s">
+      <c r="DW5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DW5" s="21" t="s">
-        <v>428</v>
-      </c>
       <c r="DX5" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DY5" s="21" t="s">
+      <c r="DZ5" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DZ5" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="EA5" s="21" t="s">
         <v>144</v>
       </c>
@@ -3985,10 +3997,10 @@
       <c r="EK5" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EL5" s="26"/>
-      <c r="EM5" s="21" t="s">
-        <v>144</v>
-      </c>
+      <c r="EL5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EM5" s="26"/>
       <c r="EN5" s="21" t="s">
         <v>144</v>
       </c>
@@ -4001,8 +4013,11 @@
       <c r="EQ5" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="ER5" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="6" spans="1:147" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:148" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>38</v>
       </c>
@@ -4013,7 +4028,7 @@
         <v>175</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="O6" s="21" t="s">
         <v>144</v>
@@ -4022,13 +4037,13 @@
         <v>1950</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R6" s="21">
         <v>21</v>
       </c>
       <c r="S6" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="T6" s="22"/>
       <c r="U6" s="21">
@@ -4047,10 +4062,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC6" s="21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AI6" s="18" t="s">
         <v>176</v>
@@ -4059,7 +4074,7 @@
         <v>176</v>
       </c>
       <c r="AK6" s="19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM6" s="21">
         <v>3015774089</v>
@@ -4088,116 +4103,113 @@
       <c r="BA6" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="BN6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BP6" s="24"/>
-      <c r="BR6" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="BO6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ6" s="24"/>
       <c r="BS6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BW6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BX6" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="BX6" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="BY6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BZ6" s="21" t="s">
+      <c r="BZ6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CA6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CB6" s="37" t="s">
+      <c r="CB6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CF6" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="CK6" s="37" t="s">
+      <c r="CG6" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="CL6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CL6" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="CM6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CR6" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CT6" s="37" t="s">
+      <c r="CM6" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="CN6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CS6" s="37" t="s">
         <v>262</v>
       </c>
       <c r="CU6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CW6" s="24"/>
-      <c r="CY6" s="37" t="s">
+      <c r="CV6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DH6" s="21" t="s">
-        <v>144</v>
+      <c r="CX6" s="24"/>
+      <c r="CZ6" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="DI6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="DJ6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DJ6" s="21" t="s">
+      <c r="DK6" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="DK6" s="21" t="s">
-        <v>497</v>
-      </c>
       <c r="DL6" s="21" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="DM6" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="DN6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DN6" s="21" t="s">
+      <c r="DO6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DO6" s="21">
+      <c r="DP6" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DP6" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DQ6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DR6" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DR6" s="21" t="s">
+      <c r="DS6" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DS6" s="21" t="s">
+      <c r="DT6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DT6" s="21" t="s">
+      <c r="DU6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DU6" s="21" t="s">
+      <c r="DV6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DV6" s="21" t="s">
+      <c r="DW6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DW6" s="21" t="s">
-        <v>428</v>
-      </c>
       <c r="DX6" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DY6" s="21" t="s">
+      <c r="DZ6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DZ6" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EA6" s="21" t="s">
         <v>133</v>
       </c>
@@ -4231,10 +4243,10 @@
       <c r="EK6" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EL6" s="26"/>
-      <c r="EM6" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EL6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EM6" s="26"/>
       <c r="EN6" s="21" t="s">
         <v>133</v>
       </c>
@@ -4247,19 +4259,22 @@
       <c r="EQ6" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ER6" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="7" spans="1:147" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:148" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>312</v>
-      </c>
       <c r="D7" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>133</v>
@@ -4268,13 +4283,13 @@
         <v>1940</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R7" s="21">
         <v>21</v>
       </c>
       <c r="S7" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T7" s="22"/>
       <c r="U7" s="21">
@@ -4293,19 +4308,19 @@
         <v>133</v>
       </c>
       <c r="AB7" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC7" s="21" t="s">
         <v>181</v>
       </c>
       <c r="AI7" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AJ7" s="18" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AK7" s="19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="AL7" s="18"/>
       <c r="AM7" s="21">
@@ -4335,125 +4350,122 @@
       <c r="BA7" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="BN7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BP7" s="24"/>
-      <c r="BR7" s="21" t="s">
-        <v>0</v>
-      </c>
+      <c r="BO7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BQ7" s="24"/>
       <c r="BS7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BT7" s="21" t="s">
+      <c r="BU7" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="BU7" s="21" t="s">
-        <v>354</v>
-      </c>
       <c r="BV7" s="21" t="s">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="BW7" s="21" t="s">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="21" t="s">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="BY7" s="21" t="s">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="BZ7" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="CA7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CA7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CB7" s="21" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="CF7" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="CK7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CL7" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="CM7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CR7" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CT7" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="CD7" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="CG7" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="CL7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CM7" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="CN7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS7" s="37" t="s">
         <v>262</v>
       </c>
       <c r="CU7" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CW7" s="24"/>
-      <c r="CY7" s="37" t="s">
+      <c r="CV7" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DH7" s="21" t="s">
-        <v>133</v>
+      <c r="CX7" s="24"/>
+      <c r="CZ7" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="DI7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ7" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DJ7" s="21" t="s">
+      <c r="DK7" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DK7" s="21" t="s">
-        <v>498</v>
-      </c>
-      <c r="DM7" s="21" t="s">
+      <c r="DL7" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="DN7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DN7" s="21" t="s">
+      <c r="DO7" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DO7" s="21">
+      <c r="DP7" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DP7" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DQ7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DR7" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DR7" s="21" t="s">
+      <c r="DS7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DS7" s="21" t="s">
+      <c r="DT7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DT7" s="21" t="s">
+      <c r="DU7" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DU7" s="21" t="s">
+      <c r="DV7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DV7" s="21" t="s">
+      <c r="DW7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DW7" s="21" t="s">
-        <v>428</v>
-      </c>
       <c r="DX7" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DY7" s="21" t="s">
+      <c r="DZ7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DZ7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EA7" s="21" t="s">
         <v>0</v>
       </c>
@@ -4487,11 +4499,11 @@
       <c r="EK7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EL7" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="EM7" s="21" t="s">
-        <v>0</v>
+      <c r="EL7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="26" t="s">
+        <v>404</v>
       </c>
       <c r="EN7" s="21" t="s">
         <v>0</v>
@@ -4505,19 +4517,22 @@
       <c r="EQ7" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="ER7" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:147" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:148" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>314</v>
-      </c>
       <c r="D8" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>133</v>
@@ -4526,13 +4541,13 @@
         <v>1930</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R8" s="21">
         <v>21</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T8" s="22"/>
       <c r="U8" s="21">
@@ -4551,7 +4566,7 @@
         <v>133</v>
       </c>
       <c r="AB8" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC8" s="21" t="s">
         <v>22</v>
@@ -4572,13 +4587,13 @@
         <v>28907</v>
       </c>
       <c r="AI8" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AJ8" s="18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AK8" s="19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AL8" s="18"/>
       <c r="AM8" s="21">
@@ -4608,17 +4623,14 @@
       <c r="BA8" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="BN8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ8" s="24"/>
-      <c r="BR8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BS8" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="BW8" s="37" t="s">
+      <c r="BO8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BR8" s="24"/>
+      <c r="BS8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BT8" s="37" t="s">
         <v>262</v>
       </c>
       <c r="BX8" s="37" t="s">
@@ -4630,91 +4642,91 @@
       <c r="BZ8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CA8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CB8" s="37" t="s">
+      <c r="CA8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CF8" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="CK8" s="37" t="s">
+      <c r="CB8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CC8" s="37" t="s">
         <v>262</v>
       </c>
+      <c r="CG8" s="21" t="s">
+        <v>411</v>
+      </c>
       <c r="CL8" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="CM8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CR8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CT8" s="37" t="s">
+      <c r="CM8" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="CN8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CS8" s="37" t="s">
         <v>262</v>
       </c>
       <c r="CU8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CW8" s="24"/>
-      <c r="CY8" s="37" t="s">
+      <c r="CV8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DH8" s="21" t="s">
-        <v>133</v>
+      <c r="CX8" s="24"/>
+      <c r="CZ8" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="DI8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ8" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DK8" s="21" t="s">
+      <c r="DL8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DL8" s="21" t="s">
-        <v>349</v>
-      </c>
       <c r="DM8" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="DN8" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DN8" s="21" t="s">
+      <c r="DO8" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DO8" s="21">
+      <c r="DP8" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DP8" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DQ8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DR8" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DR8" s="21" t="s">
+      <c r="DS8" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DS8" s="21" t="s">
+      <c r="DT8" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DT8" s="21" t="s">
+      <c r="DU8" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DU8" s="21" t="s">
+      <c r="DV8" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DV8" s="21" t="s">
+      <c r="DW8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DW8" s="21" t="s">
-        <v>428</v>
-      </c>
       <c r="DX8" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DY8" s="21" t="s">
+      <c r="DZ8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DZ8" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EA8" s="21" t="s">
         <v>0</v>
       </c>
@@ -4748,11 +4760,11 @@
       <c r="EK8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EL8" s="26" t="s">
-        <v>405</v>
-      </c>
-      <c r="EM8" s="21" t="s">
-        <v>0</v>
+      <c r="EL8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM8" s="26" t="s">
+        <v>404</v>
       </c>
       <c r="EN8" s="21" t="s">
         <v>0</v>
@@ -4766,19 +4778,22 @@
       <c r="EQ8" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="ER8" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:147" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:148" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>369</v>
-      </c>
       <c r="D9" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="O9" s="21" t="s">
         <v>0</v>
@@ -4787,13 +4802,13 @@
         <v>1935</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R9" s="21">
         <v>21</v>
       </c>
       <c r="S9" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T9" s="22"/>
       <c r="U9" s="21">
@@ -4812,19 +4827,19 @@
         <v>0</v>
       </c>
       <c r="AB9" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC9" s="21" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI9" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AJ9" s="18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AK9" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AL9" s="18"/>
       <c r="AM9" s="21">
@@ -4855,57 +4870,57 @@
         <v>0</v>
       </c>
       <c r="BB9" s="21" t="s">
-        <v>296</v>
+        <v>500</v>
       </c>
       <c r="BC9" s="21" t="s">
-        <v>37</v>
+        <v>502</v>
       </c>
       <c r="BD9" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="BE9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BE9" s="21" t="s">
+      <c r="BF9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BF9" s="21" t="s">
+      <c r="BG9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG9" s="21" t="s">
+      <c r="BH9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BH9" s="21" t="s">
+      <c r="BI9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BI9" s="21" t="s">
+      <c r="BJ9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BJ9" s="21" t="s">
+      <c r="BK9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BK9" s="21" t="s">
+      <c r="BL9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BL9" s="21" t="s">
+      <c r="BM9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BM9" s="21" t="s">
+      <c r="BN9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BN9" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BO9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP9" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="BQ9" s="21">
+      <c r="BR9" s="21">
         <v>119</v>
       </c>
-      <c r="BR9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BS9" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="BW9" s="37" t="s">
+      <c r="BS9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BT9" s="37" t="s">
         <v>262</v>
       </c>
       <c r="BX9" s="37" t="s">
@@ -4917,112 +4932,112 @@
       <c r="BZ9" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CA9" s="21" t="s">
-        <v>0</v>
+      <c r="CA9" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="CB9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CF9" s="21" t="s">
-        <v>412</v>
+      <c r="CC9" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="CG9" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="CH9" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CH9" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CI9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CJ9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CJ9" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CK9" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="CL9" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="CM9" s="21" t="s">
-        <v>0</v>
+      <c r="CL9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CM9" s="37" t="s">
+        <v>414</v>
       </c>
       <c r="CN9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CQ9" s="21">
+      <c r="CR9" s="21">
         <v>102</v>
       </c>
-      <c r="CR9" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="CS9" s="21" t="s">
-        <v>372</v>
+        <v>133</v>
       </c>
       <c r="CT9" s="21" t="s">
-        <v>133</v>
+        <v>371</v>
       </c>
       <c r="CU9" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="CW9" s="24"/>
-      <c r="CY9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DH9" s="21" t="s">
+      <c r="CV9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CX9" s="24"/>
+      <c r="CZ9" s="21" t="s">
         <v>133</v>
       </c>
       <c r="DI9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ9" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DJ9" s="21" t="s">
+      <c r="DK9" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DK9" s="23" t="s">
+      <c r="DL9" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="DM9" s="21" t="s">
+      <c r="DN9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DN9" s="21" t="s">
+      <c r="DO9" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DO9" s="21">
+      <c r="DP9" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DP9" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DQ9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR9" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DR9" s="21" t="s">
+      <c r="DS9" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DS9" s="21" t="s">
+      <c r="DT9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DT9" s="21" t="s">
+      <c r="DU9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DU9" s="21" t="s">
+      <c r="DV9" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DV9" s="21" t="s">
+      <c r="DW9" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DW9" s="21" t="s">
-        <v>428</v>
-      </c>
       <c r="DX9" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DY9" s="21" t="s">
+      <c r="DZ9" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DZ9" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EA9" s="21" t="s">
         <v>133</v>
       </c>
@@ -5056,10 +5071,10 @@
       <c r="EK9" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EL9" s="26"/>
-      <c r="EM9" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EL9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EM9" s="26"/>
       <c r="EN9" s="21" t="s">
         <v>133</v>
       </c>
@@ -5072,34 +5087,37 @@
       <c r="EQ9" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ER9" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="10" spans="1:147" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:148" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>130</v>
       </c>
       <c r="E10" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="F10" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="G10" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="F10" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="G10" s="39" t="s">
-        <v>407</v>
-      </c>
       <c r="H10" s="39" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I10" s="39" t="s">
         <v>294</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K10" s="39" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L10" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N10" s="39" t="s">
         <v>0</v>
@@ -5111,13 +5129,13 @@
         <v>1937</v>
       </c>
       <c r="Q10" s="39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R10" s="39">
         <v>21</v>
       </c>
       <c r="S10" s="40" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="T10" s="41"/>
       <c r="U10" s="39">
@@ -5136,7 +5154,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="39" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC10" s="39" t="s">
         <v>22</v>
@@ -5157,16 +5175,16 @@
         <v>28907</v>
       </c>
       <c r="AI10" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AJ10" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AK10" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AL10" s="43" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AM10" s="39">
         <v>3015774089</v>
@@ -5205,7 +5223,7 @@
         <v>40</v>
       </c>
       <c r="AY10" s="39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AZ10" s="21" t="s">
         <v>0</v>
@@ -5214,206 +5232,206 @@
         <v>0</v>
       </c>
       <c r="BB10" s="39" t="s">
-        <v>296</v>
+        <v>500</v>
       </c>
       <c r="BC10" s="39" t="s">
-        <v>37</v>
+        <v>502</v>
       </c>
       <c r="BD10" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="BE10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BE10" s="39" t="s">
+      <c r="BF10" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="BF10" s="39" t="s">
+      <c r="BG10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BG10" s="39" t="s">
+      <c r="BH10" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="BH10" s="39" t="s">
+      <c r="BI10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BI10" s="39" t="s">
+      <c r="BJ10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="BJ10" s="39" t="s">
+      <c r="BK10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BK10" s="39" t="s">
+      <c r="BL10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="BL10" s="39" t="s">
+      <c r="BM10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BM10" s="39" t="s">
+      <c r="BN10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BN10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="BO10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="BP10" s="41" t="s">
-        <v>382</v>
-      </c>
-      <c r="BR10" s="39" t="s">
-        <v>0</v>
+      <c r="BQ10" s="41" t="s">
+        <v>381</v>
       </c>
       <c r="BS10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="BW10" s="39" t="s">
+      <c r="BX10" s="39" t="s">
         <v>65</v>
-      </c>
-      <c r="BX10" s="46" t="s">
-        <v>262</v>
       </c>
       <c r="BY10" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="BZ10" s="39" t="s">
+      <c r="BZ10" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="CA10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="CB10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="CF10" s="39" t="s">
-        <v>412</v>
+      <c r="CC10" s="39" t="s">
+        <v>0</v>
       </c>
       <c r="CG10" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="CH10" s="39" t="s">
+        <v>360</v>
+      </c>
+      <c r="CI10" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="CJ10" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="CH10" s="39" t="s">
+      <c r="CK10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="CI10" s="39" t="s">
+      <c r="CL10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM10" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="CN10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="CP10" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="CQ10" s="39">
+        <v>1997</v>
+      </c>
+      <c r="CS10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="CU10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW10" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="CY10" s="39">
+        <v>103</v>
+      </c>
+      <c r="CZ10" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="CJ10" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="CK10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CL10" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="CM10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CN10" s="39" t="s">
+      <c r="DA10" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="DB10" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="CO10" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="CP10" s="39">
-        <v>1997</v>
-      </c>
-      <c r="CR10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CS10" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="CT10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CU10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV10" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="CX10" s="39">
-        <v>103</v>
-      </c>
-      <c r="CY10" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="CZ10" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="DA10" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="DB10" s="39" t="s">
+      <c r="DC10" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="DC10" s="39">
+      <c r="DD10" s="39">
         <v>1985</v>
       </c>
-      <c r="DE10" s="39" t="s">
+      <c r="DF10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DF10" s="39" t="s">
+      <c r="DG10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="DG10" s="39" t="s">
+      <c r="DH10" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="DH10" s="39" t="s">
-        <v>133</v>
-      </c>
       <c r="DI10" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ10" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="DJ10" s="39" t="s">
+      <c r="DK10" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="DK10" s="39" t="s">
+      <c r="DL10" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="DL10" s="39" t="s">
-        <v>429</v>
-      </c>
       <c r="DM10" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="DN10" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="DN10" s="39" t="s">
+      <c r="DO10" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="DO10" s="39">
+      <c r="DP10" s="39">
         <v>3028976789</v>
       </c>
-      <c r="DP10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="DQ10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR10" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="DR10" s="39" t="s">
+      <c r="DS10" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="DS10" s="39" t="s">
+      <c r="DT10" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="DT10" s="39" t="s">
+      <c r="DU10" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="DU10" s="39" t="s">
+      <c r="DV10" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="DV10" s="39" t="s">
+      <c r="DW10" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="DW10" s="39" t="s">
-        <v>428</v>
-      </c>
       <c r="DX10" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="DY10" s="39" t="s">
+      <c r="DZ10" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="DZ10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="EA10" s="39" t="s">
         <v>0</v>
       </c>
@@ -5447,11 +5465,11 @@
       <c r="EK10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="EL10" s="44" t="s">
-        <v>405</v>
-      </c>
-      <c r="EM10" s="39" t="s">
-        <v>0</v>
+      <c r="EL10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EM10" s="44" t="s">
+        <v>404</v>
       </c>
       <c r="EN10" s="39" t="s">
         <v>0</v>
@@ -5465,28 +5483,31 @@
       <c r="EQ10" s="39" t="s">
         <v>0</v>
       </c>
+      <c r="ER10" s="39" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:147" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:148" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>130</v>
       </c>
       <c r="E11" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>397</v>
-      </c>
       <c r="H11" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>132</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K11" s="21" t="s">
         <v>47</v>
@@ -5495,7 +5516,7 @@
         <v>47</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N11" s="21" t="s">
         <v>133</v>
@@ -5507,13 +5528,13 @@
         <v>1935</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R11" s="21">
         <v>21</v>
       </c>
       <c r="S11" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="21">
@@ -5532,22 +5553,22 @@
         <v>133</v>
       </c>
       <c r="AB11" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC11" s="21" t="s">
         <v>164</v>
       </c>
       <c r="AI11" s="18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AJ11" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AK11" s="19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AL11" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AM11" s="21">
         <v>3015774089</v>
@@ -5576,146 +5597,143 @@
       <c r="BA11" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="BN11" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BO11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BP11" s="24"/>
-      <c r="BR11" s="21" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BP11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ11" s="24"/>
       <c r="BS11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="BW11" s="21" t="s">
+      <c r="BX11" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="BZ11" s="21" t="s">
+      <c r="CA11" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="CA11" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CB11" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CF11" s="21" t="s">
-        <v>412</v>
+      <c r="CC11" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="CG11" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="CH11" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CH11" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CI11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CJ11" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CJ11" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CK11" s="21" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="CL11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CM11" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CN11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="CR11" s="21" t="s">
+      <c r="CS11" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="CS11" s="21" t="s">
+      <c r="CT11" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CT11" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="CU11" s="21" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="CV11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CW11" s="24"/>
-      <c r="CY11" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="CZ11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CX11" s="24"/>
+      <c r="CZ11" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="DA11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DA11" s="21" t="s">
+      <c r="DB11" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DE11" s="21" t="s">
+      <c r="DF11" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="DF11" s="21" t="s">
-        <v>352</v>
-      </c>
       <c r="DG11" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="DH11" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="DH11" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DI11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DJ11" s="21" t="s">
-        <v>374</v>
-      </c>
       <c r="DK11" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="DL11" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="DM11" s="21" t="s">
+      <c r="DN11" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DN11" s="21" t="s">
+      <c r="DO11" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DO11" s="21">
+      <c r="DP11" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DP11" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DQ11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR11" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DR11" s="21" t="s">
+      <c r="DS11" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DS11" s="21" t="s">
+      <c r="DT11" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DT11" s="21" t="s">
+      <c r="DU11" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DU11" s="21" t="s">
+      <c r="DV11" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DV11" s="21" t="s">
+      <c r="DW11" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DW11" s="21" t="s">
-        <v>428</v>
-      </c>
       <c r="DX11" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY11" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DY11" s="21" t="s">
+      <c r="DZ11" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DZ11" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EA11" s="21" t="s">
         <v>133</v>
       </c>
@@ -5749,10 +5767,10 @@
       <c r="EK11" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EL11" s="26"/>
-      <c r="EM11" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EL11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EM11" s="26"/>
       <c r="EN11" s="21" t="s">
         <v>133</v>
       </c>
@@ -5765,31 +5783,34 @@
       <c r="EQ11" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ER11" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="12" spans="1:147" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:148" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>130</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I12" s="21" t="s">
         <v>157</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K12" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N12" s="21" t="s">
         <v>0</v>
@@ -5801,13 +5822,13 @@
         <v>1930</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R12" s="21">
         <v>21</v>
       </c>
       <c r="S12" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -5818,16 +5839,16 @@
         <v>133</v>
       </c>
       <c r="AB12" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC12" s="21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AI12" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AJ12" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AK12" s="19"/>
       <c r="AL12" s="19"/>
@@ -5855,76 +5876,73 @@
       <c r="BA12" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="BN12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BR12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CA12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CF12" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="CM12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CW12" s="24"/>
-      <c r="DH12" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="BO12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CG12" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="CN12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CX12" s="24"/>
       <c r="DI12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DJ12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DJ12" s="21" t="s">
-        <v>375</v>
-      </c>
       <c r="DK12" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="DL12" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="DM12" s="21" t="s">
+      <c r="DN12" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DN12" s="21" t="s">
+      <c r="DO12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DO12" s="21">
+      <c r="DP12" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DP12" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DQ12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DR12" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DR12" s="21" t="s">
+      <c r="DS12" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DS12" s="21" t="s">
+      <c r="DT12" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DT12" s="21" t="s">
+      <c r="DU12" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DU12" s="21" t="s">
+      <c r="DV12" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DV12" s="21" t="s">
+      <c r="DW12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DW12" s="21" t="s">
-        <v>428</v>
-      </c>
       <c r="DX12" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DY12" s="21" t="s">
+      <c r="DZ12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DZ12" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EA12" s="21" t="s">
         <v>133</v>
       </c>
@@ -5958,10 +5976,10 @@
       <c r="EK12" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EL12" s="26"/>
-      <c r="EM12" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EL12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EM12" s="26"/>
       <c r="EN12" s="21" t="s">
         <v>133</v>
       </c>
@@ -5974,28 +5992,31 @@
       <c r="EQ12" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ER12" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="13" spans="1:147" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:148" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>130</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I13" s="21" t="s">
         <v>159</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K13" s="21" t="s">
         <v>87</v>
@@ -6010,13 +6031,13 @@
         <v>1940</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R13" s="21">
         <v>21</v>
       </c>
       <c r="S13" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="22"/>
@@ -6027,16 +6048,16 @@
         <v>0</v>
       </c>
       <c r="AB13" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AC13" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AI13" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ13" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AK13" s="19"/>
       <c r="AL13" s="19"/>
@@ -6064,63 +6085,60 @@
       <c r="BA13" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="BN13" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BO13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CF13" s="21" t="s">
-        <v>412</v>
+        <v>0</v>
+      </c>
+      <c r="BP13" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="CG13" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="CH13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CH13" s="21" t="s">
+      <c r="CI13" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CI13" s="21" t="s">
+      <c r="CJ13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CJ13" s="21" t="s">
+      <c r="CK13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CK13" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CL13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="DQ13" s="21" t="s">
+      <c r="DR13" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DR13" s="21" t="s">
+      <c r="DS13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DS13" s="21" t="s">
+      <c r="DT13" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DT13" s="21" t="s">
+      <c r="DU13" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DU13" s="21" t="s">
+      <c r="DV13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DV13" s="21" t="s">
+      <c r="DW13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DW13" s="21" t="s">
-        <v>428</v>
-      </c>
       <c r="DX13" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="DY13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DY13" s="21" t="s">
+      <c r="DZ13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="DZ13" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="EA13" s="21" t="s">
         <v>144</v>
       </c>
@@ -6154,10 +6172,10 @@
       <c r="EK13" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EL13" s="26"/>
-      <c r="EM13" s="21" t="s">
-        <v>144</v>
-      </c>
+      <c r="EL13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EM13" s="26"/>
       <c r="EN13" s="21" t="s">
         <v>144</v>
       </c>
@@ -6170,52 +6188,55 @@
       <c r="EQ13" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="ER13" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="14" spans="1:147" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:148" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L14" s="25"/>
       <c r="R14" s="21">
         <v>21</v>
       </c>
       <c r="AI14" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AJ14" s="19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AK14" s="19"/>
       <c r="AL14" s="19"/>
     </row>
-    <row r="15" spans="1:147" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:148" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K15" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="R15" s="21">
         <v>21</v>
       </c>
       <c r="AI15" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AJ15" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AK15" s="19"/>
       <c r="AL15" s="19"/>
     </row>
-    <row r="16" spans="1:147" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:148" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K16" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R16" s="21">
         <v>21</v>
       </c>
       <c r="AI16" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AJ16" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AK16" s="19"/>
       <c r="AL16" s="19"/>
@@ -6225,17 +6246,17 @@
         <v>138</v>
       </c>
       <c r="AI17" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AJ17" s="19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AK17" s="19"/>
       <c r="AL17" s="19"/>
     </row>
     <row r="18" spans="11:38" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:EQ13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
+  <autoFilter ref="A1:ER13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AI7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
@@ -6289,7 +6310,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="36.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6333,15 +6354,15 @@
         <v>124</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>499</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>59</v>
@@ -6370,10 +6391,10 @@
         <v>43</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>61</v>
@@ -6394,7 +6415,7 @@
         <v>1991</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6402,10 +6423,10 @@
         <v>43</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>128</v>
@@ -6426,7 +6447,7 @@
         <v>1992</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6434,10 +6455,10 @@
         <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>264</v>
@@ -6458,7 +6479,7 @@
         <v>1993</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6466,10 +6487,10 @@
         <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>265</v>
@@ -6490,7 +6511,7 @@
         <v>1994</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -6498,10 +6519,10 @@
         <v>47</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>266</v>
@@ -6522,7 +6543,7 @@
         <v>1995</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -6722,10 +6743,10 @@
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>77</v>
@@ -6741,24 +6762,24 @@
         <v>0</v>
       </c>
       <c r="H6" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="I6" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="J6" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="20" t="s">
         <v>334</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C7" s="20" t="s">
         <v>78</v>
@@ -6774,16 +6795,16 @@
         <v>133</v>
       </c>
       <c r="H7" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="I7" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="J7" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="K7" s="20" t="s">
         <v>338</v>
-      </c>
-      <c r="K7" s="20" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -6791,7 +6812,7 @@
         <v>185</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>168</v>
@@ -6805,24 +6826,24 @@
         <v>133</v>
       </c>
       <c r="H8" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" s="20" t="s">
         <v>340</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="J8" s="20" t="s">
         <v>341</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="K8" s="20" t="s">
         <v>342</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>78</v>
@@ -6838,16 +6859,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="I9" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="J9" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>346</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -6872,23 +6893,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="B1" s="31" t="s">
         <v>431</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>433</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>293</v>
@@ -6896,7 +6917,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>294</v>
@@ -6904,31 +6925,31 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>438</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="B7" s="33" t="s">
         <v>440</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B8" s="33">
         <v>1948</v>
@@ -6936,7 +6957,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B9" s="33" t="s">
         <v>20</v>
@@ -6944,7 +6965,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="30" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>133</v>
@@ -6952,7 +6973,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>22</v>
@@ -6960,23 +6981,23 @@
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>447</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>449</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6984,20 +7005,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="B16" s="33" t="s">
         <v>452</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B17" s="33">
         <v>22015</v>
@@ -7005,47 +7026,47 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="30" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>457</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="30" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>142</v>
@@ -7053,7 +7074,7 @@
     </row>
     <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>165</v>
@@ -7061,23 +7082,23 @@
     </row>
     <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>463</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>465</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>133</v>
@@ -7085,7 +7106,7 @@
     </row>
     <row r="28" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>133</v>
@@ -7093,7 +7114,7 @@
     </row>
     <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>133</v>
@@ -7101,7 +7122,7 @@
     </row>
     <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="32" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B30" s="33" t="s">
         <v>133</v>
@@ -7109,7 +7130,7 @@
     </row>
     <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B31" s="33" t="s">
         <v>47</v>
@@ -7117,15 +7138,15 @@
     </row>
     <row r="32" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="32" t="s">
+        <v>471</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>472</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="32" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B33" s="33" t="s">
         <v>133</v>
@@ -7133,7 +7154,7 @@
     </row>
     <row r="34" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="32" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B34" s="33" t="s">
         <v>47</v>
@@ -7141,18 +7162,18 @@
     </row>
     <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A35" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="B35" s="33" t="s">
         <v>476</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="323" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="B36" s="36" t="s">
         <v>478</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0B5BAC-C447-C145-ABE8-F1DAFFD390AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38586A4A-7CEA-6C4B-8A3E-C902F948B728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="2" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="fanconiScreenerScenario" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$ER$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$ES$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="504">
   <si>
     <t>Yes</t>
   </si>
@@ -1554,6 +1554,9 @@
   </si>
   <si>
     <t>Fanconi Anemia Research Fund, FA study at Study1, FA study at Study2, Research fund at Study3, Research fund at Study4, Research fund at Study5</t>
+  </si>
+  <si>
+    <t>HowDidYouHearAboutThisStudy1</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1652,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1746,6 +1749,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1775,7 +1784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1910,6 +1919,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2238,11 +2271,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:ER18"/>
+  <dimension ref="A1:ES18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DK1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="DL5" sqref="DL5"/>
+    <sheetView zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2297,12 +2330,12 @@
     <col min="67" max="67" width="16.5" style="3" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="69" max="70" width="20.1640625" style="3" customWidth="1"/>
-    <col min="71" max="121" width="20.83203125" style="3"/>
-    <col min="122" max="122" width="38.33203125" style="3" customWidth="1"/>
-    <col min="123" max="16384" width="20.83203125" style="3"/>
+    <col min="71" max="122" width="20.83203125" style="3"/>
+    <col min="123" max="123" width="38.33203125" style="3" customWidth="1"/>
+    <col min="124" max="16384" width="20.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:149" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>187</v>
       </c>
@@ -2652,103 +2685,106 @@
         <v>220</v>
       </c>
       <c r="DM1" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="DN1" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="DN1" s="13" t="s">
+      <c r="DO1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="DO1" s="13" t="s">
+      <c r="DP1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="DP1" s="13" t="s">
+      <c r="DQ1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="DQ1" s="13" t="s">
+      <c r="DR1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="DR1" s="13" t="s">
+      <c r="DS1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="DS1" s="13" t="s">
+      <c r="DT1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="DT1" s="13" t="s">
+      <c r="DU1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="DU1" s="13" t="s">
+      <c r="DV1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="DV1" s="13" t="s">
+      <c r="DW1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="DW1" s="13" t="s">
+      <c r="DX1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="DX1" s="13" t="s">
+      <c r="DY1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="DY1" s="13" t="s">
+      <c r="DZ1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="DZ1" s="13" t="s">
+      <c r="EA1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="EA1" s="17" t="s">
+      <c r="EB1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="EB1" s="17" t="s">
+      <c r="EC1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="EC1" s="17" t="s">
+      <c r="ED1" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="ED1" s="17" t="s">
+      <c r="EE1" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="EE1" s="17" t="s">
+      <c r="EF1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="EF1" s="17" t="s">
+      <c r="EG1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="EG1" s="17" t="s">
+      <c r="EH1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="EH1" s="17" t="s">
+      <c r="EI1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="EI1" s="17" t="s">
+      <c r="EJ1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="EJ1" s="17" t="s">
+      <c r="EK1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="EK1" s="17" t="s">
+      <c r="EL1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="EL1" s="17" t="s">
+      <c r="EM1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="EM1" s="17" t="s">
+      <c r="EN1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="EN1" s="17" t="s">
+      <c r="EO1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="EO1" s="17" t="s">
+      <c r="EP1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="EP1" s="17" t="s">
+      <c r="EQ1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="EQ1" s="17" t="s">
+      <c r="ER1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="ER1" s="17" t="s">
+      <c r="ES1" s="17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:148" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:149" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
@@ -3034,51 +3070,48 @@
       <c r="DL2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DM2" s="21" t="s">
+      <c r="DN2" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="DN2" s="21" t="s">
+      <c r="DO2" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DO2" s="21" t="s">
+      <c r="DP2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DP2" s="21">
+      <c r="DQ2" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DQ2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DR2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DS2" s="21" t="s">
+      <c r="DT2" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DT2" s="21" t="s">
+      <c r="DU2" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DU2" s="21" t="s">
+      <c r="DV2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DV2" s="21" t="s">
+      <c r="DW2" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DW2" s="21" t="s">
+      <c r="DX2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DX2" s="21" t="s">
+      <c r="DY2" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DY2" s="21" t="s">
+      <c r="DZ2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DZ2" s="21" t="s">
+      <c r="EA2" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EA2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EB2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3112,12 +3145,12 @@
       <c r="EL2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EM2" s="26" t="s">
+      <c r="EM2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN2" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EN2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EO2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3130,8 +3163,11 @@
       <c r="ER2" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="ES2" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:148" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:149" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>38</v>
       </c>
@@ -3349,48 +3385,45 @@
       <c r="DL3" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="DN3" s="21" t="s">
+      <c r="DO3" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DO3" s="21" t="s">
+      <c r="DP3" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DP3" s="21">
+      <c r="DQ3" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DQ3" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DR3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS3" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DS3" s="21" t="s">
+      <c r="DT3" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DT3" s="21" t="s">
+      <c r="DU3" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DU3" s="21" t="s">
+      <c r="DV3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DV3" s="21" t="s">
+      <c r="DW3" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DW3" s="21" t="s">
+      <c r="DX3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DX3" s="21" t="s">
+      <c r="DY3" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DY3" s="21" t="s">
+      <c r="DZ3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DZ3" s="21" t="s">
+      <c r="EA3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EA3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EB3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3424,12 +3457,12 @@
       <c r="EL3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EM3" s="26" t="s">
+      <c r="EM3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN3" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EN3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EO3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3442,8 +3475,11 @@
       <c r="ER3" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="ES3" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:148" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:149" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>38</v>
       </c>
@@ -3632,48 +3668,46 @@
       <c r="DL4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="DN4" s="21" t="s">
+      <c r="DM4" s="23"/>
+      <c r="DO4" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DO4" s="21" t="s">
+      <c r="DP4" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DP4" s="21">
+      <c r="DQ4" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DQ4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DR4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS4" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DS4" s="21" t="s">
+      <c r="DT4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DT4" s="21" t="s">
+      <c r="DU4" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DU4" s="21" t="s">
+      <c r="DV4" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DV4" s="21" t="s">
+      <c r="DW4" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DW4" s="21" t="s">
+      <c r="DX4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DX4" s="21" t="s">
+      <c r="DY4" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DY4" s="21" t="s">
+      <c r="DZ4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DZ4" s="21" t="s">
+      <c r="EA4" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EA4" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EB4" s="21" t="s">
         <v>133</v>
       </c>
@@ -3707,10 +3741,10 @@
       <c r="EL4" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EM4" s="26"/>
-      <c r="EN4" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EM4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EN4" s="26"/>
       <c r="EO4" s="21" t="s">
         <v>133</v>
       </c>
@@ -3723,8 +3757,11 @@
       <c r="ER4" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ES4" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="5" spans="1:148" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:149" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
@@ -3923,50 +3960,50 @@
         <v>499</v>
       </c>
       <c r="DM5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="DN5" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="DN5" s="21" t="s">
+      <c r="DO5" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DO5" s="21" t="s">
+      <c r="DP5" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DP5" s="21">
+      <c r="DQ5" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DQ5" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DR5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DS5" s="21" t="s">
+      <c r="DT5" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DT5" s="21" t="s">
+      <c r="DU5" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DU5" s="21" t="s">
+      <c r="DV5" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DV5" s="21" t="s">
+      <c r="DW5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DW5" s="21" t="s">
+      <c r="DX5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DX5" s="21" t="s">
+      <c r="DY5" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DY5" s="21" t="s">
+      <c r="DZ5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DZ5" s="21" t="s">
+      <c r="EA5" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EA5" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="EB5" s="21" t="s">
         <v>144</v>
       </c>
@@ -4000,10 +4037,10 @@
       <c r="EL5" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EM5" s="26"/>
-      <c r="EN5" s="21" t="s">
-        <v>144</v>
-      </c>
+      <c r="EM5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EN5" s="26"/>
       <c r="EO5" s="21" t="s">
         <v>144</v>
       </c>
@@ -4016,8 +4053,11 @@
       <c r="ER5" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="ES5" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="6" spans="1:148" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:149" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>38</v>
       </c>
@@ -4168,51 +4208,48 @@
       <c r="DL6" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="DM6" s="21" t="s">
+      <c r="DN6" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="DN6" s="21" t="s">
+      <c r="DO6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DO6" s="21" t="s">
+      <c r="DP6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DP6" s="21">
+      <c r="DQ6" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DQ6" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DR6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS6" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DS6" s="21" t="s">
+      <c r="DT6" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DT6" s="21" t="s">
+      <c r="DU6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DU6" s="21" t="s">
+      <c r="DV6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DV6" s="21" t="s">
+      <c r="DW6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DW6" s="21" t="s">
+      <c r="DX6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DX6" s="21" t="s">
+      <c r="DY6" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DY6" s="21" t="s">
+      <c r="DZ6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DZ6" s="21" t="s">
+      <c r="EA6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EA6" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EB6" s="21" t="s">
         <v>133</v>
       </c>
@@ -4246,10 +4283,10 @@
       <c r="EL6" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EM6" s="26"/>
-      <c r="EN6" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EM6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EN6" s="26"/>
       <c r="EO6" s="21" t="s">
         <v>133</v>
       </c>
@@ -4262,8 +4299,11 @@
       <c r="ER6" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ES6" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="7" spans="1:148" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:149" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
@@ -4427,48 +4467,45 @@
       <c r="DL7" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="DN7" s="21" t="s">
+      <c r="DO7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DO7" s="21" t="s">
+      <c r="DP7" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DP7" s="21">
+      <c r="DQ7" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DQ7" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DR7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS7" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DS7" s="21" t="s">
+      <c r="DT7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DT7" s="21" t="s">
+      <c r="DU7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DU7" s="21" t="s">
+      <c r="DV7" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DV7" s="21" t="s">
+      <c r="DW7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DW7" s="21" t="s">
+      <c r="DX7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DX7" s="21" t="s">
+      <c r="DY7" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DY7" s="21" t="s">
+      <c r="DZ7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DZ7" s="21" t="s">
+      <c r="EA7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EA7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EB7" s="21" t="s">
         <v>0</v>
       </c>
@@ -4502,12 +4539,12 @@
       <c r="EL7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EM7" s="26" t="s">
+      <c r="EM7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EN7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EO7" s="21" t="s">
         <v>0</v>
       </c>
@@ -4520,8 +4557,11 @@
       <c r="ER7" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="ES7" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:148" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:149" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
@@ -4685,51 +4725,48 @@
       <c r="DL8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DM8" s="21" t="s">
+      <c r="DN8" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="DN8" s="21" t="s">
+      <c r="DO8" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DO8" s="21" t="s">
+      <c r="DP8" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DP8" s="21">
+      <c r="DQ8" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DQ8" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DR8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS8" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DS8" s="21" t="s">
+      <c r="DT8" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DT8" s="21" t="s">
+      <c r="DU8" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DU8" s="21" t="s">
+      <c r="DV8" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DV8" s="21" t="s">
+      <c r="DW8" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DW8" s="21" t="s">
+      <c r="DX8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DX8" s="21" t="s">
+      <c r="DY8" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DY8" s="21" t="s">
+      <c r="DZ8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DZ8" s="21" t="s">
+      <c r="EA8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EA8" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EB8" s="21" t="s">
         <v>0</v>
       </c>
@@ -4763,12 +4800,12 @@
       <c r="EL8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EM8" s="26" t="s">
+      <c r="EM8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN8" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EN8" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EO8" s="21" t="s">
         <v>0</v>
       </c>
@@ -4781,8 +4818,11 @@
       <c r="ER8" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="ES8" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:148" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:149" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>38</v>
       </c>
@@ -4999,48 +5039,46 @@
       <c r="DL9" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="DN9" s="21" t="s">
+      <c r="DM9" s="23"/>
+      <c r="DO9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DO9" s="21" t="s">
+      <c r="DP9" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DP9" s="21">
+      <c r="DQ9" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DQ9" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DR9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS9" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DS9" s="21" t="s">
+      <c r="DT9" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DT9" s="21" t="s">
+      <c r="DU9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DU9" s="21" t="s">
+      <c r="DV9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DV9" s="21" t="s">
+      <c r="DW9" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DW9" s="21" t="s">
+      <c r="DX9" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DX9" s="21" t="s">
+      <c r="DY9" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DY9" s="21" t="s">
+      <c r="DZ9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DZ9" s="21" t="s">
+      <c r="EA9" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EA9" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EB9" s="21" t="s">
         <v>133</v>
       </c>
@@ -5074,10 +5112,10 @@
       <c r="EL9" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EM9" s="26"/>
-      <c r="EN9" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EM9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EN9" s="26"/>
       <c r="EO9" s="21" t="s">
         <v>133</v>
       </c>
@@ -5090,8 +5128,11 @@
       <c r="ER9" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ES9" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="10" spans="1:148" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:149" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>130</v>
       </c>
@@ -5390,51 +5431,48 @@
       <c r="DL10" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="DM10" s="39" t="s">
+      <c r="DN10" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="DN10" s="39" t="s">
+      <c r="DO10" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="DO10" s="39" t="s">
+      <c r="DP10" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="DP10" s="39">
+      <c r="DQ10" s="39">
         <v>3028976789</v>
       </c>
-      <c r="DQ10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="DR10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS10" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="DS10" s="39" t="s">
+      <c r="DT10" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="DT10" s="39" t="s">
+      <c r="DU10" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="DU10" s="39" t="s">
+      <c r="DV10" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="DV10" s="39" t="s">
+      <c r="DW10" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="DW10" s="39" t="s">
+      <c r="DX10" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="DX10" s="39" t="s">
+      <c r="DY10" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="DY10" s="39" t="s">
+      <c r="DZ10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="DZ10" s="39" t="s">
+      <c r="EA10" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="EA10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="EB10" s="39" t="s">
         <v>0</v>
       </c>
@@ -5468,12 +5506,12 @@
       <c r="EL10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="EM10" s="44" t="s">
+      <c r="EM10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EN10" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="EN10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="EO10" s="39" t="s">
         <v>0</v>
       </c>
@@ -5486,308 +5524,317 @@
       <c r="ER10" s="39" t="s">
         <v>0</v>
       </c>
+      <c r="ES10" s="39" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:148" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:149" s="47" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="21" t="s">
+      <c r="L11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="N11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="P11" s="21">
+      <c r="N11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="47">
         <v>1935</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="R11" s="21">
+      <c r="R11" s="47">
         <v>21</v>
       </c>
-      <c r="S11" s="29" t="s">
+      <c r="S11" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="T11" s="22"/>
-      <c r="U11" s="21">
+      <c r="T11" s="49"/>
+      <c r="U11" s="47">
         <v>90</v>
       </c>
-      <c r="V11" s="21" t="s">
+      <c r="V11" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="W11" s="45" t="s">
+      <c r="W11" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="Y11" s="45" t="s">
+      <c r="Y11" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="AA11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB11" s="21" t="s">
+      <c r="AA11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB11" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="AC11" s="21" t="s">
+      <c r="AC11" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="AI11" s="18" t="s">
+      <c r="AI11" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="AJ11" s="19" t="s">
+      <c r="AJ11" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="AK11" s="19" t="s">
+      <c r="AK11" s="52" t="s">
         <v>486</v>
       </c>
-      <c r="AL11" s="19" t="s">
+      <c r="AL11" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="AM11" s="21">
+      <c r="AM11" s="47">
         <v>3015774089</v>
       </c>
-      <c r="AN11" s="21">
+      <c r="AN11" s="47">
         <v>3014524258</v>
       </c>
-      <c r="AO11" s="21">
+      <c r="AO11" s="47">
         <v>3015567865</v>
       </c>
-      <c r="AP11" s="21">
+      <c r="AP11" s="47">
         <v>3014524258</v>
       </c>
-      <c r="AQ11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AZ11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BA11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BQ11" s="24"/>
-      <c r="BS11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="21" t="s">
+      <c r="AQ11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AY11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BP11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="BQ11" s="53"/>
+      <c r="BS11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="BX11" s="21" t="s">
+      <c r="BX11" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="CA11" s="21" t="s">
+      <c r="BY11" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="BZ11" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="CA11" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="CB11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="21" t="s">
+      <c r="CB11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="CH11" s="21" t="s">
+      <c r="CH11" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="CI11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CJ11" s="21" t="s">
+      <c r="CI11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="CJ11" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="CK11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CL11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="21" t="s">
+      <c r="CK11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="CL11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="CN11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO11" s="21" t="s">
+      <c r="CN11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="CS11" s="21" t="s">
+      <c r="CS11" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="CT11" s="21" t="s">
+      <c r="CT11" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="CU11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CV11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW11" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CX11" s="24"/>
-      <c r="CZ11" s="39" t="s">
+      <c r="CU11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="CV11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="CX11" s="53"/>
+      <c r="CZ11" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="DA11" s="21" t="s">
+      <c r="DA11" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="DB11" s="21" t="s">
+      <c r="DB11" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="DF11" s="21" t="s">
+      <c r="DF11" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="DG11" s="21" t="s">
+      <c r="DG11" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="DH11" s="21" t="s">
+      <c r="DH11" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="DI11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ11" s="21" t="s">
+      <c r="DI11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ11" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="DK11" s="21" t="s">
+      <c r="DK11" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="DL11" s="21" t="s">
+      <c r="DL11" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="DN11" s="21" t="s">
+      <c r="DO11" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="DO11" s="21" t="s">
+      <c r="DP11" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="DP11" s="21">
+      <c r="DQ11" s="47">
         <v>3028976789</v>
       </c>
-      <c r="DQ11" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DR11" s="21" t="s">
+      <c r="DR11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="DS11" s="21" t="s">
+      <c r="DT11" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="DT11" s="21" t="s">
+      <c r="DU11" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="DU11" s="21" t="s">
+      <c r="DV11" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="DV11" s="21" t="s">
+      <c r="DW11" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="DW11" s="21" t="s">
+      <c r="DX11" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="DX11" s="21" t="s">
+      <c r="DY11" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="DY11" s="21" t="s">
+      <c r="DZ11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="DZ11" s="21" t="s">
+      <c r="EA11" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="EA11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EB11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="ED11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EG11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EH11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EI11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EJ11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EK11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EL11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EM11" s="26"/>
-      <c r="EN11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EO11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EP11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EQ11" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="ER11" s="21" t="s">
+      <c r="EB11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EC11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="ED11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EE11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EG11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EH11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EI11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EJ11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EK11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EL11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EM11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EN11" s="54"/>
+      <c r="EO11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EP11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EQ11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="ER11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="ES11" s="47" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:148" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:149" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>130</v>
       </c>
@@ -5904,48 +5951,45 @@
       <c r="DL12" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="DN12" s="21" t="s">
+      <c r="DO12" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DO12" s="21" t="s">
+      <c r="DP12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DP12" s="21">
+      <c r="DQ12" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DQ12" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DR12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS12" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DS12" s="21" t="s">
+      <c r="DT12" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DT12" s="21" t="s">
+      <c r="DU12" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DU12" s="21" t="s">
+      <c r="DV12" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DV12" s="21" t="s">
+      <c r="DW12" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DW12" s="21" t="s">
+      <c r="DX12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DX12" s="21" t="s">
+      <c r="DY12" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DY12" s="21" t="s">
+      <c r="DZ12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DZ12" s="21" t="s">
+      <c r="EA12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EA12" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EB12" s="21" t="s">
         <v>133</v>
       </c>
@@ -5979,10 +6023,10 @@
       <c r="EL12" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EM12" s="26"/>
-      <c r="EN12" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EM12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EN12" s="26"/>
       <c r="EO12" s="21" t="s">
         <v>133</v>
       </c>
@@ -5995,8 +6039,11 @@
       <c r="ER12" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ES12" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="13" spans="1:148" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:149" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>130</v>
       </c>
@@ -6112,36 +6159,33 @@
       <c r="CM13" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="DR13" s="21" t="s">
+      <c r="DS13" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DS13" s="21" t="s">
+      <c r="DT13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DT13" s="21" t="s">
+      <c r="DU13" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DU13" s="21" t="s">
+      <c r="DV13" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DV13" s="21" t="s">
+      <c r="DW13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DW13" s="21" t="s">
+      <c r="DX13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DX13" s="21" t="s">
+      <c r="DY13" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DY13" s="21" t="s">
+      <c r="DZ13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DZ13" s="21" t="s">
+      <c r="EA13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EA13" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="EB13" s="21" t="s">
         <v>144</v>
       </c>
@@ -6175,10 +6219,10 @@
       <c r="EL13" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EM13" s="26"/>
-      <c r="EN13" s="21" t="s">
-        <v>144</v>
-      </c>
+      <c r="EM13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EN13" s="26"/>
       <c r="EO13" s="21" t="s">
         <v>144</v>
       </c>
@@ -6191,8 +6235,11 @@
       <c r="ER13" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="ES13" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="14" spans="1:148" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:149" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K14" s="25" t="s">
         <v>376</v>
       </c>
@@ -6209,7 +6256,7 @@
       <c r="AK14" s="19"/>
       <c r="AL14" s="19"/>
     </row>
-    <row r="15" spans="1:148" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:149" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K15" s="21" t="s">
         <v>377</v>
       </c>
@@ -6225,7 +6272,7 @@
       <c r="AK15" s="19"/>
       <c r="AL15" s="19"/>
     </row>
-    <row r="16" spans="1:148" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:149" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="K16" s="21" t="s">
         <v>378</v>
       </c>
@@ -6256,7 +6303,7 @@
     </row>
     <row r="18" spans="11:38" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:ER13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
+  <autoFilter ref="A1:ES13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AI7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
@@ -6561,8 +6608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B407C-E01B-5444-BAC5-548BBFB02ADF}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="27" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6874,6 +6921,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38586A4A-7CEA-6C4B-8A3E-C902F948B728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30100A1-F255-4E4D-B590-1683BD94667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="2" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="fanconiScreenerScenario" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$ES$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$FB$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="513">
   <si>
     <t>Yes</t>
   </si>
@@ -1557,6 +1557,33 @@
   </si>
   <si>
     <t>HowDidYouHearAboutThisStudy1</t>
+  </si>
+  <si>
+    <t>ProxyStreetAddress</t>
+  </si>
+  <si>
+    <t>ProxyCity</t>
+  </si>
+  <si>
+    <t>ProxyState</t>
+  </si>
+  <si>
+    <t>ProxyZipCode</t>
+  </si>
+  <si>
+    <t>ProxyEmail</t>
+  </si>
+  <si>
+    <t>ProxyPhoneNumber</t>
+  </si>
+  <si>
+    <t>ProxyCellPhone</t>
+  </si>
+  <si>
+    <t>ProxyWorkPhone</t>
+  </si>
+  <si>
+    <t>ProxyPreferredPhoneNumber</t>
   </si>
 </sst>
 </file>
@@ -2271,11 +2298,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:ES18"/>
+  <dimension ref="A1:FB18"/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2285,57 +2312,59 @@
     <col min="3" max="3" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="3" customWidth="1"/>
-    <col min="9" max="10" width="9.5" style="3" customWidth="1"/>
-    <col min="11" max="12" width="12.5" style="3" customWidth="1"/>
-    <col min="13" max="14" width="9.5" style="3" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="13.33203125" style="3" customWidth="1"/>
-    <col min="22" max="22" width="21.83203125" style="3" customWidth="1"/>
-    <col min="23" max="23" width="20.1640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="19.83203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="19.1640625" style="3" customWidth="1"/>
-    <col min="26" max="26" width="24" style="3" customWidth="1"/>
-    <col min="27" max="27" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.83203125" style="3" customWidth="1"/>
-    <col min="29" max="29" width="22.83203125" style="3" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" style="3" customWidth="1"/>
-    <col min="31" max="31" width="19" style="3" customWidth="1"/>
-    <col min="32" max="32" width="13.5" style="3" customWidth="1"/>
-    <col min="33" max="33" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="33.33203125" style="3" customWidth="1"/>
-    <col min="36" max="38" width="30.6640625" style="3" customWidth="1"/>
-    <col min="39" max="39" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.5" style="3" customWidth="1"/>
-    <col min="44" max="44" width="18" style="3" customWidth="1"/>
-    <col min="45" max="45" width="12.5" style="3" customWidth="1"/>
-    <col min="46" max="46" width="16" style="3" customWidth="1"/>
-    <col min="47" max="47" width="16.5" style="3" customWidth="1"/>
-    <col min="48" max="48" width="7" style="3" customWidth="1"/>
-    <col min="49" max="49" width="12.6640625" style="3" customWidth="1"/>
-    <col min="50" max="50" width="10.83203125" style="3" customWidth="1"/>
-    <col min="51" max="52" width="28.6640625" style="3" customWidth="1"/>
-    <col min="53" max="53" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="36.5" style="3" customWidth="1"/>
-    <col min="56" max="56" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="57" max="66" width="20.33203125" style="3" customWidth="1"/>
-    <col min="67" max="67" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="69" max="70" width="20.1640625" style="3" customWidth="1"/>
-    <col min="71" max="122" width="20.83203125" style="3"/>
-    <col min="123" max="123" width="38.33203125" style="3" customWidth="1"/>
-    <col min="124" max="16384" width="20.83203125" style="3"/>
+    <col min="6" max="13" width="9.5" style="3" customWidth="1"/>
+    <col min="14" max="15" width="9.5" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="14" customWidth="1"/>
+    <col min="17" max="17" width="16.5" style="3" customWidth="1"/>
+    <col min="18" max="19" width="9.5" style="3" customWidth="1"/>
+    <col min="20" max="21" width="12.5" style="3" customWidth="1"/>
+    <col min="22" max="23" width="9.5" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="13.33203125" style="3" customWidth="1"/>
+    <col min="31" max="31" width="21.83203125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="20.1640625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="19.83203125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="19.1640625" style="3" customWidth="1"/>
+    <col min="35" max="35" width="24" style="3" customWidth="1"/>
+    <col min="36" max="36" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.83203125" style="3" customWidth="1"/>
+    <col min="38" max="38" width="22.83203125" style="3" customWidth="1"/>
+    <col min="39" max="39" width="17.6640625" style="3" customWidth="1"/>
+    <col min="40" max="40" width="19" style="3" customWidth="1"/>
+    <col min="41" max="41" width="13.5" style="3" customWidth="1"/>
+    <col min="42" max="42" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="33.33203125" style="3" customWidth="1"/>
+    <col min="45" max="47" width="30.6640625" style="3" customWidth="1"/>
+    <col min="48" max="48" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.5" style="3" customWidth="1"/>
+    <col min="53" max="53" width="18" style="3" customWidth="1"/>
+    <col min="54" max="54" width="12.5" style="3" customWidth="1"/>
+    <col min="55" max="55" width="16" style="3" customWidth="1"/>
+    <col min="56" max="56" width="16.5" style="3" customWidth="1"/>
+    <col min="57" max="57" width="7" style="3" customWidth="1"/>
+    <col min="58" max="58" width="12.6640625" style="3" customWidth="1"/>
+    <col min="59" max="59" width="10.83203125" style="3" customWidth="1"/>
+    <col min="60" max="61" width="28.6640625" style="3" customWidth="1"/>
+    <col min="62" max="62" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="36.5" style="3" customWidth="1"/>
+    <col min="65" max="65" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="66" max="75" width="20.33203125" style="3" customWidth="1"/>
+    <col min="76" max="76" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="20.1640625" style="3" customWidth="1"/>
+    <col min="80" max="131" width="20.83203125" style="3"/>
+    <col min="132" max="132" width="38.33203125" style="3" customWidth="1"/>
+    <col min="133" max="16384" width="20.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:149" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:158" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>187</v>
       </c>
@@ -2358,433 +2387,460 @@
         <v>127</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AB1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AV1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AW1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AX1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AY1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AZ1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="BA1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="BB1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="BC1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="BD1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="BE1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="BF1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="BG1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="BH1" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="BI1" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="BA1" s="16" t="s">
+      <c r="BJ1" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="BB1" s="16" t="s">
+      <c r="BK1" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="BC1" s="16" t="s">
+      <c r="BL1" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="BD1" s="16" t="s">
+      <c r="BM1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="16" t="s">
+      <c r="BN1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="BF1" s="16" t="s">
+      <c r="BO1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="BG1" s="16" t="s">
+      <c r="BP1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="BH1" s="16" t="s">
+      <c r="BQ1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="BI1" s="16" t="s">
+      <c r="BR1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BJ1" s="16" t="s">
+      <c r="BS1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="BK1" s="16" t="s">
+      <c r="BT1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="BL1" s="16" t="s">
+      <c r="BU1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="BM1" s="16" t="s">
+      <c r="BV1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BN1" s="16" t="s">
+      <c r="BW1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="BO1" s="13" t="s">
+      <c r="BX1" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BP1" s="13" t="s">
+      <c r="BY1" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="BQ1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="BR1" s="13" t="s">
+      <c r="CA1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="BS1" s="13" t="s">
+      <c r="CB1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="BT1" s="13" t="s">
+      <c r="CC1" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="BU1" s="13" t="s">
+      <c r="CD1" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="BV1" s="13" t="s">
+      <c r="CE1" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="BW1" s="13" t="s">
+      <c r="CF1" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="CG1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="CH1" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="CI1" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CJ1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="CB1" s="13" t="s">
+      <c r="CK1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="CC1" s="13" t="s">
+      <c r="CL1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="CD1" s="13" t="s">
+      <c r="CM1" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="CE1" s="13" t="s">
+      <c r="CN1" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="CF1" s="13" t="s">
+      <c r="CO1" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="CG1" s="13" t="s">
+      <c r="CP1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CQ1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CI1" s="13" t="s">
+      <c r="CR1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="CJ1" s="13" t="s">
+      <c r="CS1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CT1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="CL1" s="13" t="s">
+      <c r="CU1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CV1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="CN1" s="13" t="s">
+      <c r="CW1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="CO1" s="13" t="s">
+      <c r="CX1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="CP1" s="13" t="s">
+      <c r="CY1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="CQ1" s="13" t="s">
+      <c r="CZ1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="CR1" s="13" t="s">
+      <c r="DA1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="CS1" s="13" t="s">
+      <c r="DB1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="CT1" s="13" t="s">
+      <c r="DC1" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="CU1" s="13" t="s">
+      <c r="DD1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="CV1" s="13" t="s">
+      <c r="DE1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="CW1" s="13" t="s">
+      <c r="DF1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="CX1" s="13" t="s">
+      <c r="DG1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="CY1" s="13" t="s">
+      <c r="DH1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="CZ1" s="13" t="s">
+      <c r="DI1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="DA1" s="13" t="s">
+      <c r="DJ1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="DB1" s="13" t="s">
+      <c r="DK1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="DC1" s="13" t="s">
+      <c r="DL1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="DD1" s="13" t="s">
+      <c r="DM1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="DE1" s="13" t="s">
+      <c r="DN1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DF1" s="13" t="s">
+      <c r="DO1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="DG1" s="13" t="s">
+      <c r="DP1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="DH1" s="13" t="s">
+      <c r="DQ1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="DI1" s="13" t="s">
+      <c r="DR1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="DJ1" s="13" t="s">
+      <c r="DS1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="DK1" s="13" t="s">
+      <c r="DT1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="DL1" s="13" t="s">
+      <c r="DU1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="DM1" s="13" t="s">
+      <c r="DV1" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="DN1" s="13" t="s">
+      <c r="DW1" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="DO1" s="13" t="s">
+      <c r="DX1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="DP1" s="13" t="s">
+      <c r="DY1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="DQ1" s="13" t="s">
+      <c r="DZ1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="DR1" s="13" t="s">
+      <c r="EA1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="DS1" s="13" t="s">
+      <c r="EB1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="DT1" s="13" t="s">
+      <c r="EC1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="DU1" s="13" t="s">
+      <c r="ED1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="DV1" s="13" t="s">
+      <c r="EE1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="DW1" s="13" t="s">
+      <c r="EF1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="DX1" s="13" t="s">
+      <c r="EG1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="DY1" s="13" t="s">
+      <c r="EH1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="DZ1" s="13" t="s">
+      <c r="EI1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="EA1" s="13" t="s">
+      <c r="EJ1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="EB1" s="17" t="s">
+      <c r="EK1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="EC1" s="17" t="s">
+      <c r="EL1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="ED1" s="17" t="s">
+      <c r="EM1" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="EE1" s="17" t="s">
+      <c r="EN1" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="EF1" s="17" t="s">
+      <c r="EO1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="EG1" s="17" t="s">
+      <c r="EP1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="EH1" s="17" t="s">
+      <c r="EQ1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="EI1" s="17" t="s">
+      <c r="ER1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="EJ1" s="17" t="s">
+      <c r="ES1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="EK1" s="17" t="s">
+      <c r="ET1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="EL1" s="17" t="s">
+      <c r="EU1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="EM1" s="17" t="s">
+      <c r="EV1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="EN1" s="17" t="s">
+      <c r="EW1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="EO1" s="17" t="s">
+      <c r="EX1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="EP1" s="17" t="s">
+      <c r="EY1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="EQ1" s="17" t="s">
+      <c r="EZ1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="ER1" s="17" t="s">
+      <c r="FA1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="ES1" s="17" t="s">
+      <c r="FB1" s="17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:149" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:158" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
@@ -2804,341 +2860,323 @@
         <v>491</v>
       </c>
       <c r="G2" s="29"/>
-      <c r="O2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="21">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="14"/>
+      <c r="X2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="21">
         <v>1948</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Z2" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="R2" s="21">
+      <c r="AA2" s="21">
         <v>21</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="AB2" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="T2" s="22"/>
-      <c r="U2" s="21">
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="21">
         <v>77</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="AE2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="AF2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="21" t="s">
+      <c r="AH2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="21" t="s">
+      <c r="AJ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AC2" s="21" t="s">
+      <c r="AL2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AD2" s="21" t="s">
+      <c r="AM2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="AE2" s="21" t="s">
+      <c r="AN2" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AO2" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AP2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AH2" s="21">
+      <c r="AQ2" s="21">
         <v>28907</v>
       </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AR2" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="AJ2" s="18" t="s">
+      <c r="AS2" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="AK2" s="19" t="s">
+      <c r="AT2" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="AL2" s="19"/>
-      <c r="AM2" s="21">
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AN2" s="21">
+      <c r="AW2" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AO2" s="21">
+      <c r="AX2" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP2" s="21">
+      <c r="AY2" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AQ2" s="21" t="s">
+      <c r="AZ2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" s="21" t="s">
+      <c r="BA2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AS2" s="21" t="s">
+      <c r="BB2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AT2" s="21" t="s">
+      <c r="BC2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="21" t="s">
+      <c r="BD2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AV2" s="21" t="s">
+      <c r="BE2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AW2" s="21" t="s">
+      <c r="BF2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AX2" s="21" t="s">
+      <c r="BG2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AY2" s="21" t="s">
+      <c r="BH2" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="AZ2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="21" t="s">
+      <c r="BI2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="BC2" s="21" t="s">
+      <c r="BL2" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="BD2" s="21" t="s">
+      <c r="BM2" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="BE2" s="21" t="s">
+      <c r="BN2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BF2" s="21" t="s">
+      <c r="BO2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BG2" s="21" t="s">
+      <c r="BP2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BH2" s="21" t="s">
+      <c r="BQ2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BI2" s="21" t="s">
+      <c r="BR2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BJ2" s="21" t="s">
+      <c r="BS2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BK2" s="21" t="s">
+      <c r="BT2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BL2" s="21" t="s">
+      <c r="BU2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BM2" s="21" t="s">
+      <c r="BV2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BN2" s="21" t="s">
+      <c r="BW2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BO2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP2" s="21" t="s">
+      <c r="BX2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="BR2" s="21">
+      <c r="CA2" s="21">
         <v>91</v>
       </c>
-      <c r="BS2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT2" s="21" t="s">
+      <c r="CB2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="BX2" s="21" t="s">
+      <c r="CG2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BY2" s="37" t="s">
+      <c r="CH2" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BZ2" s="37" t="s">
+      <c r="CI2" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CA2" s="21" t="s">
+      <c r="CJ2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CB2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="21" t="s">
+      <c r="CK2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CH2" s="21" t="s">
+      <c r="CQ2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CI2" s="21" t="s">
+      <c r="CR2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CJ2" s="21" t="s">
+      <c r="CS2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CK2" s="21" t="s">
+      <c r="CT2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CL2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="21" t="s">
+      <c r="CU2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CN2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO2" s="21" t="s">
+      <c r="CW2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="CP2" s="21" t="s">
+      <c r="CY2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="CQ2" s="21">
+      <c r="CZ2" s="21">
         <v>1997</v>
       </c>
-      <c r="CS2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT2" s="21" t="s">
+      <c r="DB2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CU2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW2" s="21" t="s">
+      <c r="DD2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DF2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CY2" s="21">
+      <c r="DH2" s="21">
         <v>101</v>
       </c>
-      <c r="CZ2" s="21" t="s">
+      <c r="DI2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="DA2" s="21" t="s">
+      <c r="DJ2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DB2" s="21" t="s">
+      <c r="DK2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="DC2" s="21" t="s">
+      <c r="DL2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="DD2" s="21">
+      <c r="DM2" s="21">
         <v>1985</v>
       </c>
-      <c r="DF2" s="21" t="s">
+      <c r="DO2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="DG2" s="21" t="s">
+      <c r="DP2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="DH2" s="21" t="s">
+      <c r="DQ2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="DI2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ2" s="21" t="s">
+      <c r="DR2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DK2" s="21" t="s">
+      <c r="DT2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DL2" s="21" t="s">
+      <c r="DU2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DN2" s="21" t="s">
+      <c r="DW2" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="DO2" s="21" t="s">
+      <c r="DX2" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DP2" s="21" t="s">
+      <c r="DY2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DQ2" s="21">
+      <c r="DZ2" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DR2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS2" s="21" t="s">
+      <c r="EA2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB2" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DT2" s="21" t="s">
+      <c r="EC2" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DU2" s="21" t="s">
+      <c r="ED2" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DV2" s="21" t="s">
+      <c r="EE2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DW2" s="21" t="s">
+      <c r="EF2" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DX2" s="21" t="s">
+      <c r="EG2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DY2" s="21" t="s">
+      <c r="EH2" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DZ2" s="21" t="s">
+      <c r="EI2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EA2" s="21" t="s">
+      <c r="EJ2" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EB2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ED2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EE2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EF2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EK2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3148,26 +3186,53 @@
       <c r="EM2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EN2" s="26" t="s">
+      <c r="EN2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EQ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ER2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ES2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ET2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EU2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EW2" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EO2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EP2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EQ2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ER2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ES2" s="21" t="s">
+      <c r="EX2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FB2" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:149" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:158" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>38</v>
       </c>
@@ -3182,275 +3247,257 @@
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
-      <c r="O3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P3" s="21">
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="14"/>
+      <c r="X3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y3" s="21">
         <v>1960</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Z3" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="R3" s="21">
+      <c r="AA3" s="21">
         <v>21</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="AB3" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="21">
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="21">
         <v>65</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="AE3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="AF3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="AH3" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AJ3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK3" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AC3" s="21" t="s">
+      <c r="AL3" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="AI3" s="18" t="s">
+      <c r="AR3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="AJ3" s="18" t="s">
+      <c r="AS3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="AK3" s="19" t="s">
+      <c r="AT3" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="21">
+      <c r="AU3" s="19"/>
+      <c r="AV3" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AN3" s="21">
+      <c r="AW3" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AO3" s="21">
+      <c r="AX3" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP3" s="21">
+      <c r="AY3" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AQ3" s="21" t="s">
+      <c r="AZ3" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="AR3" s="21" t="s">
+      <c r="BA3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AS3" s="21" t="s">
+      <c r="BB3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AT3" s="21" t="s">
+      <c r="BC3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="AU3" s="21" t="s">
+      <c r="BD3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AV3" s="21" t="s">
+      <c r="BE3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AW3" s="21" t="s">
+      <c r="BF3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AX3" s="21" t="s">
+      <c r="BG3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AY3" s="21" t="s">
+      <c r="BH3" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="AZ3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="21" t="s">
+      <c r="BI3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BX3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="BQ3" s="22" t="s">
+      <c r="BZ3" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="BS3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="21" t="s">
+      <c r="CB3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="BX3" s="21" t="s">
+      <c r="CG3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="BY3" s="37" t="s">
+      <c r="CH3" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BZ3" s="37" t="s">
+      <c r="CI3" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CA3" s="21" t="s">
+      <c r="CJ3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="CB3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="21" t="s">
+      <c r="CK3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CH3" s="21" t="s">
+      <c r="CQ3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CI3" s="21" t="s">
+      <c r="CR3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CJ3" s="21" t="s">
+      <c r="CS3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CK3" s="21" t="s">
+      <c r="CT3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CL3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="21" t="s">
+      <c r="CU3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="CN3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO3" s="21" t="s">
+      <c r="CW3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CR3" s="21">
+      <c r="DA3" s="21">
         <v>100</v>
       </c>
-      <c r="CS3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CT3" s="21" t="s">
+      <c r="DB3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DC3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="CU3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CV3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW3" s="21" t="s">
+      <c r="DD3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DE3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="CX3" s="22" t="s">
+      <c r="DG3" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="CZ3" s="21" t="s">
+      <c r="DI3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="DA3" s="21" t="s">
+      <c r="DJ3" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DB3" s="21" t="s">
+      <c r="DK3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="DE3" s="21">
+      <c r="DN3" s="21">
         <v>102</v>
       </c>
-      <c r="DF3" s="21" t="s">
+      <c r="DO3" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="DG3" s="21" t="s">
+      <c r="DP3" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="DH3" s="21" t="s">
+      <c r="DQ3" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="DI3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ3" s="21" t="s">
+      <c r="DR3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DL3" s="21" t="s">
+      <c r="DU3" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="DO3" s="21" t="s">
+      <c r="DX3" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DP3" s="21" t="s">
+      <c r="DY3" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DQ3" s="21">
+      <c r="DZ3" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DR3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DS3" s="21" t="s">
+      <c r="EA3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EB3" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DT3" s="21" t="s">
+      <c r="EC3" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DU3" s="21" t="s">
+      <c r="ED3" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DV3" s="21" t="s">
+      <c r="EE3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DW3" s="21" t="s">
+      <c r="EF3" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DX3" s="21" t="s">
+      <c r="EG3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DY3" s="21" t="s">
+      <c r="EH3" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DZ3" s="21" t="s">
+      <c r="EI3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EA3" s="21" t="s">
+      <c r="EJ3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EB3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ED3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EE3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EF3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EK3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3460,26 +3507,53 @@
       <c r="EM3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EN3" s="26" t="s">
+      <c r="EN3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EQ3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ER3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ES3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ET3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EU3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EW3" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EO3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EP3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EQ3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ER3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ES3" s="21" t="s">
+      <c r="EX3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FB3" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:149" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:158" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>38</v>
       </c>
@@ -3492,249 +3566,225 @@
       <c r="D4" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="O4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="P4" s="21">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="14"/>
+      <c r="X4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y4" s="21">
         <v>1910</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Z4" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="R4" s="21">
+      <c r="AA4" s="21">
         <v>21</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="AB4" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21">
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="21">
         <v>115</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="AE4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="AF4" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="Y4" s="21" t="s">
+      <c r="AH4" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="AA4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB4" s="21" t="s">
+      <c r="AJ4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK4" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AC4" s="21" t="s">
+      <c r="AL4" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AR4" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="AJ4" s="18" t="s">
+      <c r="AS4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="AK4" s="19" t="s">
+      <c r="AT4" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="21">
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AN4" s="21">
+      <c r="AW4" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AO4" s="21">
+      <c r="AX4" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP4" s="21">
+      <c r="AY4" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AQ4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR4" s="21" t="s">
+      <c r="AZ4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AY4" s="21" t="s">
+      <c r="BH4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AZ4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BS4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="21" t="s">
+      <c r="BI4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BX4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="BX4" s="21" t="s">
+      <c r="CG4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BY4" s="37" t="s">
+      <c r="CH4" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BZ4" s="37" t="s">
+      <c r="CI4" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CA4" s="21" t="s">
+      <c r="CJ4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CB4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="21" t="s">
+      <c r="CK4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CH4" s="21" t="s">
+      <c r="CQ4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CI4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CJ4" s="21" t="s">
+      <c r="CR4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CS4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CK4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CL4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="21" t="s">
+      <c r="CT4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CU4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CN4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO4" s="21" t="s">
+      <c r="CW4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX4" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="CS4" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="CT4" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="CU4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CZ4" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="DA4" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="DB4" s="21" t="s">
         <v>168</v>
       </c>
+      <c r="DC4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="DD4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="DF4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="DI4" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ4" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK4" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="DO4" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="DG4" s="21" t="s">
+      <c r="DP4" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="DH4" s="21" t="s">
+      <c r="DQ4" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="DI4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="21" t="s">
+      <c r="DR4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DK4" s="21" t="s">
+      <c r="DT4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DL4" s="23" t="s">
+      <c r="DU4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="DM4" s="23"/>
-      <c r="DO4" s="21" t="s">
+      <c r="DV4" s="23"/>
+      <c r="DX4" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DP4" s="21" t="s">
+      <c r="DY4" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DQ4" s="21">
+      <c r="DZ4" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DR4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS4" s="21" t="s">
+      <c r="EA4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB4" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DT4" s="21" t="s">
+      <c r="EC4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DU4" s="21" t="s">
+      <c r="ED4" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DV4" s="21" t="s">
+      <c r="EE4" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DW4" s="21" t="s">
+      <c r="EF4" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DX4" s="21" t="s">
+      <c r="EG4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DY4" s="21" t="s">
+      <c r="EH4" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DZ4" s="21" t="s">
+      <c r="EI4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EA4" s="21" t="s">
+      <c r="EJ4" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EB4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="ED4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EG4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EH4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EI4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EJ4" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EK4" s="21" t="s">
         <v>133</v>
       </c>
@@ -3744,7 +3794,9 @@
       <c r="EM4" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EN4" s="26"/>
+      <c r="EN4" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="EO4" s="21" t="s">
         <v>133</v>
       </c>
@@ -3760,8 +3812,33 @@
       <c r="ES4" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ET4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EU4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EV4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EW4" s="26"/>
+      <c r="EX4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EY4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EZ4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FA4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FB4" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="5" spans="1:149" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:158" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
@@ -3774,263 +3851,239 @@
       <c r="D5" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="O5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="P5" s="21">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="14"/>
+      <c r="X5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y5" s="21">
         <v>1925</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Z5" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="R5" s="21">
+      <c r="AA5" s="21">
         <v>21</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="AB5" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="21">
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="21">
         <v>100</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="AE5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="AF5" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="X5" s="21" t="s">
+      <c r="AG5" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="Y5" s="21" t="s">
+      <c r="AH5" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="AI5" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="AA5" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AJ5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK5" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AC5" s="21" t="s">
+      <c r="AL5" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="AI5" s="19" t="s">
+      <c r="AR5" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AJ5" s="19" t="s">
+      <c r="AS5" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AK5" s="19" t="s">
+      <c r="AT5" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="21">
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AN5" s="21">
+      <c r="AW5" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AO5" s="21">
+      <c r="AX5" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP5" s="21">
+      <c r="AY5" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AQ5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY5" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="AZ5" s="21" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="BA5" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BS5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BX5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BU5" s="21" t="s">
+      <c r="CD5" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="BX5" s="21" t="s">
+      <c r="CG5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="BY5" s="37" t="s">
+      <c r="CH5" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BZ5" s="37" t="s">
+      <c r="CI5" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CA5" s="21" t="s">
+      <c r="CJ5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CB5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="21" t="s">
+      <c r="CK5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CH5" s="21" t="s">
+      <c r="CQ5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CI5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CJ5" s="21" t="s">
+      <c r="CR5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CS5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CK5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CL5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="21" t="s">
+      <c r="CT5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CU5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CN5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="21" t="s">
+      <c r="CW5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX5" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="CS5" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="CT5" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="CU5" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CV5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW5" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="CX5" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="CZ5" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="DA5" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="DB5" s="21" t="s">
         <v>168</v>
       </c>
+      <c r="DC5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="DD5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DE5" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="DF5" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="DG5" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="DI5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="DJ5" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK5" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="DO5" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="DG5" s="21" t="s">
+      <c r="DP5" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="DH5" s="21" t="s">
+      <c r="DQ5" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="DI5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="21" t="s">
+      <c r="DR5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DL5" s="21" t="s">
+      <c r="DU5" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="DM5" s="21" t="s">
+      <c r="DV5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="DN5" s="21" t="s">
+      <c r="DW5" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="DO5" s="21" t="s">
+      <c r="DX5" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DP5" s="21" t="s">
+      <c r="DY5" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DQ5" s="21">
+      <c r="DZ5" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DR5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS5" s="21" t="s">
+      <c r="EA5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB5" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DT5" s="21" t="s">
+      <c r="EC5" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DU5" s="21" t="s">
+      <c r="ED5" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DV5" s="21" t="s">
+      <c r="EE5" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DW5" s="21" t="s">
+      <c r="EF5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DX5" s="21" t="s">
+      <c r="EG5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DY5" s="21" t="s">
+      <c r="EH5" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DZ5" s="21" t="s">
+      <c r="EI5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EA5" s="21" t="s">
+      <c r="EJ5" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EB5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EC5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="ED5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EE5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EF5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EG5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EH5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EI5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EJ5" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="EK5" s="21" t="s">
         <v>144</v>
       </c>
@@ -4040,7 +4093,9 @@
       <c r="EM5" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EN5" s="26"/>
+      <c r="EN5" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="EO5" s="21" t="s">
         <v>144</v>
       </c>
@@ -4056,8 +4111,33 @@
       <c r="ES5" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="ET5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EU5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EV5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW5" s="26"/>
+      <c r="EX5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EY5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EZ5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="FA5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="FB5" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="6" spans="1:149" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:158" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>38</v>
       </c>
@@ -4070,213 +4150,189 @@
       <c r="D6" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="O6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="P6" s="21">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="14"/>
+      <c r="X6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y6" s="21">
         <v>1950</v>
       </c>
-      <c r="Q6" s="21" t="s">
+      <c r="Z6" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="R6" s="21">
+      <c r="AA6" s="21">
         <v>21</v>
       </c>
-      <c r="S6" s="29" t="s">
+      <c r="AB6" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="21">
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="21">
         <v>75</v>
       </c>
-      <c r="V6" s="21" t="s">
+      <c r="AE6" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="W6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="21" t="s">
+      <c r="AF6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AL6" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="AI6" s="18" t="s">
+      <c r="AR6" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="AJ6" s="21" t="s">
+      <c r="AS6" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="AK6" s="19" t="s">
+      <c r="AT6" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="AM6" s="21">
+      <c r="AV6" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AN6" s="21">
+      <c r="AW6" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AO6" s="21">
+      <c r="AX6" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP6" s="21">
+      <c r="AY6" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AQ6" s="21" t="s">
+      <c r="AZ6" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AR6" s="21" t="s">
+      <c r="BA6" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AY6" s="21" t="s">
+      <c r="BH6" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AZ6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BO6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ6" s="24"/>
-      <c r="BS6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="21" t="s">
+      <c r="BI6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="21" t="s">
         <v>144</v>
       </c>
       <c r="BX6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BZ6" s="24"/>
+      <c r="CB6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CG6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="BY6" s="37" t="s">
+      <c r="CH6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BZ6" s="37" t="s">
+      <c r="CI6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CA6" s="21" t="s">
+      <c r="CJ6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CB6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CC6" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CG6" s="21" t="s">
-        <v>411</v>
+      <c r="CK6" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="CL6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CM6" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="CN6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CS6" s="37" t="s">
-        <v>262</v>
+      <c r="CP6" s="21" t="s">
+        <v>411</v>
       </c>
       <c r="CU6" s="37" t="s">
         <v>262</v>
       </c>
       <c r="CV6" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="CW6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="DB6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CX6" s="24"/>
-      <c r="CZ6" s="37" t="s">
+      <c r="DD6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DI6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="DJ6" s="21" t="s">
+      <c r="DE6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="DG6" s="24"/>
+      <c r="DI6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="DR6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="DS6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DK6" s="21" t="s">
+      <c r="DT6" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="DL6" s="21" t="s">
+      <c r="DU6" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="DN6" s="21" t="s">
+      <c r="DW6" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="DO6" s="21" t="s">
+      <c r="DX6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DP6" s="21" t="s">
+      <c r="DY6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DQ6" s="21">
+      <c r="DZ6" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DR6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DS6" s="21" t="s">
+      <c r="EA6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EB6" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DT6" s="21" t="s">
+      <c r="EC6" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DU6" s="21" t="s">
+      <c r="ED6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DV6" s="21" t="s">
+      <c r="EE6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DW6" s="21" t="s">
+      <c r="EF6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DX6" s="21" t="s">
+      <c r="EG6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DY6" s="21" t="s">
+      <c r="EH6" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DZ6" s="21" t="s">
+      <c r="EI6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EA6" s="21" t="s">
+      <c r="EJ6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EB6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="ED6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EG6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EH6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EI6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EJ6" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EK6" s="21" t="s">
         <v>133</v>
       </c>
@@ -4286,7 +4342,9 @@
       <c r="EM6" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EN6" s="26"/>
+      <c r="EN6" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="EO6" s="21" t="s">
         <v>133</v>
       </c>
@@ -4302,8 +4360,33 @@
       <c r="ES6" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ET6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EU6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EV6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EW6" s="26"/>
+      <c r="EX6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EY6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EZ6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FA6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FB6" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="7" spans="1:149" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:158" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
@@ -4316,223 +4399,199 @@
       <c r="D7" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="O7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P7" s="21">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="14"/>
+      <c r="X7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y7" s="21">
         <v>1940</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Z7" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="R7" s="21">
+      <c r="AA7" s="21">
         <v>21</v>
       </c>
-      <c r="S7" s="29" t="s">
+      <c r="AB7" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="T7" s="22"/>
-      <c r="U7" s="21">
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="21">
         <v>85</v>
       </c>
-      <c r="V7" s="21" t="s">
+      <c r="AE7" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="AF7" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="Y7" s="21" t="s">
+      <c r="AH7" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AA7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AJ7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK7" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AC7" s="21" t="s">
+      <c r="AL7" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="AI7" s="18" t="s">
+      <c r="AR7" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="AJ7" s="18" t="s">
+      <c r="AS7" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="AK7" s="19" t="s">
+      <c r="AT7" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="AL7" s="18"/>
-      <c r="AM7" s="21">
+      <c r="AU7" s="18"/>
+      <c r="AV7" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AN7" s="21">
+      <c r="AW7" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AO7" s="21">
+      <c r="AX7" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP7" s="21">
+      <c r="AY7" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AQ7" s="21" t="s">
+      <c r="AZ7" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AR7" s="21" t="s">
+      <c r="BA7" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AY7" s="21" t="s">
+      <c r="BH7" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AZ7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BQ7" s="24"/>
-      <c r="BS7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="21" t="s">
+      <c r="BI7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BX7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BZ7" s="24"/>
+      <c r="CB7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BU7" s="21" t="s">
+      <c r="CD7" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="BV7" s="21" t="s">
+      <c r="CE7" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="BW7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="21" t="s">
+      <c r="CF7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="BY7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="21" t="s">
+      <c r="CH7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="CA7" s="21" t="s">
+      <c r="CJ7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CB7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CD7" s="21" t="s">
+      <c r="CK7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CM7" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="CG7" s="21" t="s">
+      <c r="CP7" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CL7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CM7" s="37" t="s">
+      <c r="CU7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CV7" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="CN7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CS7" s="37" t="s">
+      <c r="CW7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DB7" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CU7" s="37" t="s">
+      <c r="DD7" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CV7" s="37" t="s">
+      <c r="DE7" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CX7" s="24"/>
-      <c r="CZ7" s="37" t="s">
+      <c r="DG7" s="24"/>
+      <c r="DI7" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DI7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DJ7" s="21" t="s">
+      <c r="DR7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS7" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DK7" s="21" t="s">
+      <c r="DT7" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DL7" s="21" t="s">
+      <c r="DU7" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="DO7" s="21" t="s">
+      <c r="DX7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DP7" s="21" t="s">
+      <c r="DY7" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DQ7" s="21">
+      <c r="DZ7" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DR7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DS7" s="21" t="s">
+      <c r="EA7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EB7" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DT7" s="21" t="s">
+      <c r="EC7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DU7" s="21" t="s">
+      <c r="ED7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DV7" s="21" t="s">
+      <c r="EE7" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DW7" s="21" t="s">
+      <c r="EF7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DX7" s="21" t="s">
+      <c r="EG7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DY7" s="21" t="s">
+      <c r="EH7" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DZ7" s="21" t="s">
+      <c r="EI7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EA7" s="21" t="s">
+      <c r="EJ7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EB7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ED7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EE7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EF7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EK7" s="21" t="s">
         <v>0</v>
       </c>
@@ -4542,26 +4601,53 @@
       <c r="EM7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EN7" s="26" t="s">
+      <c r="EN7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EQ7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ER7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EU7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EW7" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EO7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EP7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EQ7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ER7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ES7" s="21" t="s">
+      <c r="EX7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FB7" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:149" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:158" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
@@ -4574,226 +4660,202 @@
       <c r="D8" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="O8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P8" s="21">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="14"/>
+      <c r="X8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y8" s="21">
         <v>1930</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Z8" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="R8" s="21">
+      <c r="AA8" s="21">
         <v>21</v>
       </c>
-      <c r="S8" s="29" t="s">
+      <c r="AB8" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="21">
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="21">
         <v>95</v>
       </c>
-      <c r="V8" s="21" t="s">
+      <c r="AE8" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="W8" s="21" t="s">
+      <c r="AF8" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="Y8" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB8" s="21" t="s">
+      <c r="AH8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK8" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AC8" s="21" t="s">
+      <c r="AL8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AD8" s="21" t="s">
+      <c r="AM8" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="AE8" s="21" t="s">
+      <c r="AN8" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="AF8" s="21" t="s">
+      <c r="AO8" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="AG8" s="21" t="s">
+      <c r="AP8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AH8" s="21">
+      <c r="AQ8" s="21">
         <v>28907</v>
       </c>
-      <c r="AI8" s="18" t="s">
+      <c r="AR8" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="AJ8" s="18" t="s">
+      <c r="AS8" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="AK8" s="19" t="s">
+      <c r="AT8" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="21">
+      <c r="AU8" s="18"/>
+      <c r="AV8" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AN8" s="21">
+      <c r="AW8" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AO8" s="21">
+      <c r="AX8" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP8" s="21">
+      <c r="AY8" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AQ8" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR8" s="21" t="s">
+      <c r="AZ8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BA8" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AY8" s="21" t="s">
+      <c r="BH8" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AZ8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BR8" s="24"/>
-      <c r="BS8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BT8" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="BX8" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="BY8" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="BZ8" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CA8" s="37" t="s">
-        <v>262</v>
-      </c>
+      <c r="BI8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BX8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CA8" s="24"/>
       <c r="CB8" s="21" t="s">
         <v>133</v>
       </c>
       <c r="CC8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CG8" s="21" t="s">
-        <v>411</v>
+      <c r="CG8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CH8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CI8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CJ8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK8" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="CL8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CM8" s="37" t="s">
-        <v>414</v>
-      </c>
-      <c r="CN8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CS8" s="37" t="s">
-        <v>262</v>
+      <c r="CP8" s="21" t="s">
+        <v>411</v>
       </c>
       <c r="CU8" s="37" t="s">
         <v>262</v>
       </c>
       <c r="CV8" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="CW8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DB8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CX8" s="24"/>
-      <c r="CZ8" s="37" t="s">
+      <c r="DD8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DI8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DJ8" s="21" t="s">
+      <c r="DE8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="DG8" s="24"/>
+      <c r="DI8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="DR8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS8" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DL8" s="21" t="s">
+      <c r="DU8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DN8" s="21" t="s">
+      <c r="DW8" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="DO8" s="21" t="s">
+      <c r="DX8" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DP8" s="21" t="s">
+      <c r="DY8" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DQ8" s="21">
+      <c r="DZ8" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DR8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DS8" s="21" t="s">
+      <c r="EA8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EB8" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DT8" s="21" t="s">
+      <c r="EC8" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DU8" s="21" t="s">
+      <c r="ED8" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DV8" s="21" t="s">
+      <c r="EE8" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DW8" s="21" t="s">
+      <c r="EF8" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DX8" s="21" t="s">
+      <c r="EG8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DY8" s="21" t="s">
+      <c r="EH8" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DZ8" s="21" t="s">
+      <c r="EI8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EA8" s="21" t="s">
+      <c r="EJ8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EB8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ED8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EE8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EF8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ8" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EK8" s="21" t="s">
         <v>0</v>
       </c>
@@ -4803,26 +4865,53 @@
       <c r="EM8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EN8" s="26" t="s">
+      <c r="EN8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EQ8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ER8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ES8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="ET8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EU8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EW8" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EO8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EP8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EQ8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ER8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="ES8" s="21" t="s">
+      <c r="EX8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FB8" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:149" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:158" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>38</v>
       </c>
@@ -4835,277 +4924,253 @@
       <c r="D9" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="O9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="P9" s="21">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="14"/>
+      <c r="X9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="21">
         <v>1935</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Z9" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="R9" s="21">
+      <c r="AA9" s="21">
         <v>21</v>
       </c>
-      <c r="S9" s="29" t="s">
+      <c r="AB9" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="T9" s="22"/>
-      <c r="U9" s="21">
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="21">
         <v>90</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="AE9" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="W9" s="21" t="s">
+      <c r="AF9" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="Y9" s="21" t="s">
+      <c r="AH9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="AA9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="21" t="s">
+      <c r="AJ9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AC9" s="21" t="s">
+      <c r="AL9" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="AI9" s="18" t="s">
+      <c r="AR9" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="AJ9" s="18" t="s">
+      <c r="AS9" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="AK9" s="19" t="s">
+      <c r="AT9" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="AL9" s="18"/>
-      <c r="AM9" s="21">
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AN9" s="21">
+      <c r="AW9" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AO9" s="21">
+      <c r="AX9" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP9" s="21">
+      <c r="AY9" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AQ9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY9" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="AZ9" s="21" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="BA9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="BC9" s="21" t="s">
+      <c r="BL9" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="BD9" s="21" t="s">
+      <c r="BM9" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="BE9" s="21" t="s">
+      <c r="BN9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BF9" s="21" t="s">
+      <c r="BO9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BG9" s="21" t="s">
+      <c r="BP9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BH9" s="21" t="s">
+      <c r="BQ9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BI9" s="21" t="s">
+      <c r="BR9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BJ9" s="21" t="s">
+      <c r="BS9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BK9" s="21" t="s">
+      <c r="BT9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BL9" s="21" t="s">
+      <c r="BU9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BM9" s="21" t="s">
+      <c r="BV9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BN9" s="21" t="s">
+      <c r="BW9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BO9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="21" t="s">
+      <c r="BX9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY9" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="BR9" s="21">
+      <c r="CA9" s="21">
         <v>119</v>
       </c>
-      <c r="BS9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BT9" s="37" t="s">
+      <c r="CB9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CC9" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BX9" s="37" t="s">
+      <c r="CG9" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BY9" s="37" t="s">
+      <c r="CH9" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="BZ9" s="37" t="s">
+      <c r="CI9" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CA9" s="37" t="s">
+      <c r="CJ9" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CB9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG9" s="21" t="s">
+      <c r="CK9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CH9" s="21" t="s">
+      <c r="CQ9" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CI9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CJ9" s="21" t="s">
+      <c r="CR9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CS9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CK9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CL9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CM9" s="37" t="s">
+      <c r="CT9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CU9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CV9" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="CN9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO9" s="21" t="s">
+      <c r="CW9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="CR9" s="21">
+      <c r="DA9" s="21">
         <v>102</v>
       </c>
-      <c r="CS9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CT9" s="21" t="s">
+      <c r="DB9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DC9" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="CU9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CV9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CX9" s="24"/>
-      <c r="CZ9" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="DD9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DE9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG9" s="24"/>
       <c r="DI9" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="DJ9" s="21" t="s">
+      <c r="DR9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS9" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DK9" s="21" t="s">
+      <c r="DT9" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DL9" s="23" t="s">
+      <c r="DU9" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="DM9" s="23"/>
-      <c r="DO9" s="21" t="s">
+      <c r="DV9" s="23"/>
+      <c r="DX9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DP9" s="21" t="s">
+      <c r="DY9" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DQ9" s="21">
+      <c r="DZ9" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DR9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS9" s="21" t="s">
+      <c r="EA9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB9" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DT9" s="21" t="s">
+      <c r="EC9" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DU9" s="21" t="s">
+      <c r="ED9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DV9" s="21" t="s">
+      <c r="EE9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DW9" s="21" t="s">
+      <c r="EF9" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DX9" s="21" t="s">
+      <c r="EG9" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DY9" s="21" t="s">
+      <c r="EH9" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DZ9" s="21" t="s">
+      <c r="EI9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EA9" s="21" t="s">
+      <c r="EJ9" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EB9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="ED9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EG9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EH9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EI9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EJ9" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EK9" s="21" t="s">
         <v>133</v>
       </c>
@@ -5115,7 +5180,9 @@
       <c r="EM9" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EN9" s="26"/>
+      <c r="EN9" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="EO9" s="21" t="s">
         <v>133</v>
       </c>
@@ -5131,8 +5198,33 @@
       <c r="ES9" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ET9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EU9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EV9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EW9" s="26"/>
+      <c r="EX9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EY9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EZ9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FA9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FB9" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="10" spans="1:149" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:158" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>130</v>
       </c>
@@ -5145,361 +5237,337 @@
       <c r="G10" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="R10" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="S10" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="T10" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="U10" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="N10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="O10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="P10" s="39">
+      <c r="W10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="39">
         <v>1937</v>
       </c>
-      <c r="Q10" s="39" t="s">
+      <c r="Z10" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="R10" s="39">
+      <c r="AA10" s="39">
         <v>21</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="AB10" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="T10" s="41"/>
-      <c r="U10" s="39">
+      <c r="AC10" s="41"/>
+      <c r="AD10" s="39">
         <v>88</v>
       </c>
-      <c r="V10" s="39" t="s">
+      <c r="AE10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="W10" s="45" t="s">
+      <c r="AF10" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="Y10" s="45" t="s">
+      <c r="AH10" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="AA10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="39" t="s">
+      <c r="AJ10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="AC10" s="39" t="s">
+      <c r="AL10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="AD10" s="39" t="s">
+      <c r="AM10" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="AE10" s="39" t="s">
+      <c r="AN10" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="AF10" s="39" t="s">
+      <c r="AO10" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="AG10" s="39" t="s">
+      <c r="AP10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AH10" s="39">
+      <c r="AQ10" s="39">
         <v>28907</v>
       </c>
-      <c r="AI10" s="43" t="s">
+      <c r="AR10" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="AJ10" s="42" t="s">
+      <c r="AS10" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="AK10" s="43" t="s">
+      <c r="AT10" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="AL10" s="43" t="s">
+      <c r="AU10" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="AM10" s="39">
+      <c r="AV10" s="39">
         <v>3015774089</v>
       </c>
-      <c r="AN10" s="39">
+      <c r="AW10" s="39">
         <v>3014524258</v>
       </c>
-      <c r="AO10" s="39">
+      <c r="AX10" s="39">
         <v>3015567865</v>
       </c>
-      <c r="AP10" s="39">
+      <c r="AY10" s="39">
         <v>3015774089</v>
       </c>
-      <c r="AQ10" s="39" t="s">
+      <c r="AZ10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AR10" s="39" t="s">
+      <c r="BA10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AS10" s="39" t="s">
+      <c r="BB10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AT10" s="39" t="s">
+      <c r="BC10" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AU10" s="39" t="s">
+      <c r="BD10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AV10" s="39" t="s">
+      <c r="BE10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="AW10" s="39" t="s">
+      <c r="BF10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AX10" s="39" t="s">
+      <c r="BG10" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="AY10" s="39" t="s">
+      <c r="BH10" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="AZ10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="39" t="s">
+      <c r="BI10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="BC10" s="39" t="s">
+      <c r="BL10" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="BD10" s="39" t="s">
+      <c r="BM10" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="BE10" s="39" t="s">
+      <c r="BN10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BF10" s="39" t="s">
+      <c r="BO10" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="BG10" s="39" t="s">
+      <c r="BP10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BH10" s="39" t="s">
+      <c r="BQ10" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="BI10" s="39" t="s">
+      <c r="BR10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BJ10" s="39" t="s">
+      <c r="BS10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="BK10" s="39" t="s">
+      <c r="BT10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BL10" s="39" t="s">
+      <c r="BU10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="BM10" s="39" t="s">
+      <c r="BV10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BN10" s="39" t="s">
+      <c r="BW10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BO10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP10" s="39" t="s">
+      <c r="BX10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY10" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="BQ10" s="41" t="s">
+      <c r="BZ10" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="BS10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT10" s="39" t="s">
+      <c r="CB10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="BX10" s="39" t="s">
+      <c r="CG10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="BY10" s="46" t="s">
+      <c r="CH10" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="BZ10" s="46" t="s">
+      <c r="CI10" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="CA10" s="39" t="s">
+      <c r="CJ10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="CB10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG10" s="39" t="s">
+      <c r="CK10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="CH10" s="39" t="s">
+      <c r="CQ10" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="CI10" s="39" t="s">
+      <c r="CR10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="CJ10" s="39" t="s">
+      <c r="CS10" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="CK10" s="39" t="s">
+      <c r="CT10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="CL10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="39" t="s">
+      <c r="CU10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="CN10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO10" s="39" t="s">
+      <c r="CW10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX10" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="CP10" s="39" t="s">
+      <c r="CY10" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="CQ10" s="39">
+      <c r="CZ10" s="39">
         <v>1997</v>
       </c>
-      <c r="CS10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CT10" s="39" t="s">
+      <c r="DB10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DC10" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="CU10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CV10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW10" s="39" t="s">
+      <c r="DD10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DE10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DF10" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="CY10" s="39">
+      <c r="DH10" s="39">
         <v>103</v>
       </c>
-      <c r="CZ10" s="39" t="s">
+      <c r="DI10" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="DA10" s="39" t="s">
+      <c r="DJ10" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="DB10" s="39" t="s">
+      <c r="DK10" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="DC10" s="39" t="s">
+      <c r="DL10" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="DD10" s="39">
+      <c r="DM10" s="39">
         <v>1985</v>
       </c>
-      <c r="DF10" s="39" t="s">
+      <c r="DO10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DG10" s="39" t="s">
+      <c r="DP10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="DH10" s="39" t="s">
+      <c r="DQ10" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="DI10" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="DJ10" s="39" t="s">
+      <c r="DR10" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS10" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="DK10" s="39" t="s">
+      <c r="DT10" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="DL10" s="39" t="s">
+      <c r="DU10" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="DN10" s="39" t="s">
+      <c r="DW10" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="DO10" s="39" t="s">
+      <c r="DX10" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="DP10" s="39" t="s">
+      <c r="DY10" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="DQ10" s="39">
+      <c r="DZ10" s="39">
         <v>3028976789</v>
       </c>
-      <c r="DR10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS10" s="39" t="s">
+      <c r="EA10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB10" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="DT10" s="39" t="s">
+      <c r="EC10" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="DU10" s="39" t="s">
+      <c r="ED10" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="DV10" s="39" t="s">
+      <c r="EE10" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="DW10" s="39" t="s">
+      <c r="EF10" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="DX10" s="39" t="s">
+      <c r="EG10" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="DY10" s="39" t="s">
+      <c r="EH10" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="DZ10" s="39" t="s">
+      <c r="EI10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="EA10" s="39" t="s">
+      <c r="EJ10" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="EB10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="ED10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EE10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EF10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EG10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EH10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EI10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EJ10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="EK10" s="39" t="s">
         <v>0</v>
       </c>
@@ -5509,26 +5577,53 @@
       <c r="EM10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="EN10" s="44" t="s">
+      <c r="EN10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EO10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EP10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EQ10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="ER10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="ES10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="ET10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EU10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EV10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EW10" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="EO10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EP10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EQ10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="ER10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="ES10" s="39" t="s">
+      <c r="EX10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="FB10" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:149" s="47" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:158" s="47" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>130</v>
       </c>
@@ -5541,273 +5636,249 @@
       <c r="G11" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="R11" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="S11" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="K11" s="47" t="s">
+      <c r="T11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="47" t="s">
+      <c r="U11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="47" t="s">
+      <c r="V11" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="N11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="O11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="P11" s="47">
+      <c r="W11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y11" s="47">
         <v>1935</v>
       </c>
-      <c r="Q11" s="47" t="s">
+      <c r="Z11" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="R11" s="47">
+      <c r="AA11" s="47">
         <v>21</v>
       </c>
-      <c r="S11" s="48" t="s">
+      <c r="AB11" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="T11" s="49"/>
-      <c r="U11" s="47">
+      <c r="AC11" s="49"/>
+      <c r="AD11" s="47">
         <v>90</v>
       </c>
-      <c r="V11" s="47" t="s">
+      <c r="AE11" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="W11" s="50" t="s">
+      <c r="AF11" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="Y11" s="50" t="s">
+      <c r="AH11" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="AA11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB11" s="47" t="s">
+      <c r="AJ11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK11" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="AC11" s="47" t="s">
+      <c r="AL11" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="AI11" s="51" t="s">
+      <c r="AR11" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="AJ11" s="52" t="s">
+      <c r="AS11" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="AK11" s="52" t="s">
+      <c r="AT11" s="52" t="s">
         <v>486</v>
       </c>
-      <c r="AL11" s="52" t="s">
+      <c r="AU11" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="AM11" s="47">
+      <c r="AV11" s="47">
         <v>3015774089</v>
       </c>
-      <c r="AN11" s="47">
+      <c r="AW11" s="47">
         <v>3014524258</v>
       </c>
-      <c r="AO11" s="47">
+      <c r="AX11" s="47">
         <v>3015567865</v>
       </c>
-      <c r="AP11" s="47">
+      <c r="AY11" s="47">
         <v>3014524258</v>
       </c>
-      <c r="AQ11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AR11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY11" s="47" t="s">
-        <v>144</v>
-      </c>
       <c r="AZ11" s="47" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="BA11" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="BO11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="BQ11" s="53"/>
-      <c r="BS11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="47" t="s">
+      <c r="BH11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="BX11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="BZ11" s="53"/>
+      <c r="CB11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="BX11" s="47" t="s">
+      <c r="CG11" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="BY11" s="46" t="s">
+      <c r="CH11" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="BZ11" s="46" t="s">
+      <c r="CI11" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="CA11" s="47" t="s">
+      <c r="CJ11" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="CB11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="CG11" s="47" t="s">
+      <c r="CK11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="CH11" s="47" t="s">
+      <c r="CQ11" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="CI11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="CJ11" s="47" t="s">
+      <c r="CR11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="CS11" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="CK11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="CL11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="47" t="s">
+      <c r="CT11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="CU11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV11" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="CN11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="CO11" s="47" t="s">
+      <c r="CW11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CX11" s="47" t="s">
         <v>168</v>
-      </c>
-      <c r="CS11" s="47" t="s">
-        <v>168</v>
-      </c>
-      <c r="CT11" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="CU11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="CV11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="CX11" s="53"/>
-      <c r="CZ11" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="DA11" s="47" t="s">
-        <v>81</v>
       </c>
       <c r="DB11" s="47" t="s">
         <v>168</v>
       </c>
+      <c r="DC11" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="DD11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="DE11" s="47" t="s">
+        <v>0</v>
+      </c>
       <c r="DF11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="DG11" s="53"/>
+      <c r="DI11" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="DJ11" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="DK11" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="DO11" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="DG11" s="47" t="s">
+      <c r="DP11" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="DH11" s="47" t="s">
+      <c r="DQ11" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="DI11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="DJ11" s="47" t="s">
+      <c r="DR11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="DS11" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="DK11" s="47" t="s">
+      <c r="DT11" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="DL11" s="47" t="s">
+      <c r="DU11" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="DO11" s="47" t="s">
+      <c r="DX11" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="DP11" s="47" t="s">
+      <c r="DY11" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="DQ11" s="47">
+      <c r="DZ11" s="47">
         <v>3028976789</v>
       </c>
-      <c r="DR11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS11" s="47" t="s">
+      <c r="EA11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB11" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="DT11" s="47" t="s">
+      <c r="EC11" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="DU11" s="47" t="s">
+      <c r="ED11" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="DV11" s="47" t="s">
+      <c r="EE11" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="DW11" s="47" t="s">
+      <c r="EF11" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="DX11" s="47" t="s">
+      <c r="EG11" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="DY11" s="47" t="s">
+      <c r="EH11" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="DZ11" s="47" t="s">
+      <c r="EI11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="EA11" s="47" t="s">
+      <c r="EJ11" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="EB11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="ED11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="EG11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="EH11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="EI11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="EJ11" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="EK11" s="47" t="s">
         <v>133</v>
       </c>
@@ -5817,7 +5888,9 @@
       <c r="EM11" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="EN11" s="54"/>
+      <c r="EN11" s="47" t="s">
+        <v>133</v>
+      </c>
       <c r="EO11" s="47" t="s">
         <v>133</v>
       </c>
@@ -5833,8 +5906,33 @@
       <c r="ES11" s="47" t="s">
         <v>133</v>
       </c>
+      <c r="ET11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EU11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EV11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EW11" s="54"/>
+      <c r="EX11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EY11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EZ11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="FA11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="FB11" s="47" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="12" spans="1:149" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:158" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>130</v>
       </c>
@@ -5847,176 +5945,152 @@
       <c r="G12" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="R12" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="S12" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="T12" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="N12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="P12" s="21">
+      <c r="W12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" s="21">
         <v>1930</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Z12" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="R12" s="21">
+      <c r="AA12" s="21">
         <v>21</v>
       </c>
-      <c r="S12" s="29" t="s">
+      <c r="AB12" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="21" t="s">
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AA12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AB12" s="21" t="s">
+      <c r="AJ12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK12" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AC12" s="21" t="s">
+      <c r="AL12" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="AI12" s="19" t="s">
+      <c r="AR12" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="AJ12" s="19" t="s">
+      <c r="AS12" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="21">
+      <c r="AT12" s="19"/>
+      <c r="AU12" s="19"/>
+      <c r="AV12" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AN12" s="21">
+      <c r="AW12" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AO12" s="21">
+      <c r="AX12" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP12" s="21">
+      <c r="AY12" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AQ12" s="21" t="s">
+      <c r="AZ12" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="AR12" s="21" t="s">
+      <c r="BA12" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AY12" s="21" t="s">
+      <c r="BH12" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BA12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BS12" s="21" t="s">
+      <c r="BJ12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BX12" s="21" t="s">
         <v>133</v>
       </c>
       <c r="CB12" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="CG12" s="21" t="s">
+      <c r="CK12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP12" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CN12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CX12" s="24"/>
-      <c r="DI12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DJ12" s="21" t="s">
+      <c r="CW12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG12" s="24"/>
+      <c r="DR12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DS12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DK12" s="21" t="s">
+      <c r="DT12" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="DL12" s="21" t="s">
+      <c r="DU12" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="DO12" s="21" t="s">
+      <c r="DX12" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DP12" s="21" t="s">
+      <c r="DY12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DQ12" s="21">
+      <c r="DZ12" s="21">
         <v>3028976789</v>
       </c>
-      <c r="DR12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DS12" s="21" t="s">
+      <c r="EA12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EB12" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DT12" s="21" t="s">
+      <c r="EC12" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DU12" s="21" t="s">
+      <c r="ED12" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DV12" s="21" t="s">
+      <c r="EE12" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DW12" s="21" t="s">
+      <c r="EF12" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DX12" s="21" t="s">
+      <c r="EG12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DY12" s="21" t="s">
+      <c r="EH12" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DZ12" s="21" t="s">
+      <c r="EI12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EA12" s="21" t="s">
+      <c r="EJ12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EB12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="ED12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EE12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EF12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EG12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EH12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EI12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EJ12" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EK12" s="21" t="s">
         <v>133</v>
       </c>
@@ -6026,7 +6100,9 @@
       <c r="EM12" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EN12" s="26"/>
+      <c r="EN12" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="EO12" s="21" t="s">
         <v>133</v>
       </c>
@@ -6042,8 +6118,33 @@
       <c r="ES12" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="ET12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EU12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EV12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EW12" s="26"/>
+      <c r="EX12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EY12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EZ12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FA12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FB12" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="13" spans="1:149" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:158" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>130</v>
       </c>
@@ -6056,163 +6157,139 @@
       <c r="G13" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="R13" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="S13" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="T13" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="N13" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="P13" s="21">
+      <c r="W13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" s="21">
         <v>1940</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Z13" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="R13" s="21">
+      <c r="AA13" s="21">
         <v>21</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="AB13" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="21" t="s">
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AA13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="21" t="s">
+      <c r="AJ13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AC13" s="21" t="s">
+      <c r="AL13" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="AI13" s="19" t="s">
+      <c r="AR13" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="AJ13" s="19" t="s">
+      <c r="AS13" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="AK13" s="19"/>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="21">
+      <c r="AT13" s="19"/>
+      <c r="AU13" s="19"/>
+      <c r="AV13" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AN13" s="21">
+      <c r="AW13" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AO13" s="21">
+      <c r="AX13" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AP13" s="21">
+      <c r="AY13" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AQ13" s="21" t="s">
+      <c r="AZ13" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AR13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AY13" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="BA13" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BP13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CG13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BJ13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BX13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CP13" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CH13" s="21" t="s">
+      <c r="CQ13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CI13" s="21" t="s">
+      <c r="CR13" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CJ13" s="21" t="s">
+      <c r="CS13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CK13" s="21" t="s">
+      <c r="CT13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CL13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM13" s="21" t="s">
+      <c r="CU13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CV13" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="DS13" s="21" t="s">
+      <c r="EB13" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="DT13" s="21" t="s">
+      <c r="EC13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="DU13" s="21" t="s">
+      <c r="ED13" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="DV13" s="21" t="s">
+      <c r="EE13" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="DW13" s="21" t="s">
+      <c r="EF13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="DX13" s="21" t="s">
+      <c r="EG13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="DY13" s="21" t="s">
+      <c r="EH13" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="DZ13" s="21" t="s">
+      <c r="EI13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EA13" s="21" t="s">
+      <c r="EJ13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EB13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EC13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="ED13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EE13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EF13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EG13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EH13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EI13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EJ13" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="EK13" s="21" t="s">
         <v>144</v>
       </c>
@@ -6222,7 +6299,9 @@
       <c r="EM13" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EN13" s="26"/>
+      <c r="EN13" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="EO13" s="21" t="s">
         <v>144</v>
       </c>
@@ -6238,114 +6317,155 @@
       <c r="ES13" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="ET13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EU13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EV13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EW13" s="26"/>
+      <c r="EX13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EY13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EZ13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="FA13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="FB13" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="14" spans="1:149" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K14" s="25" t="s">
+    <row r="14" spans="1:158" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="14"/>
+      <c r="T14" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="L14" s="25"/>
-      <c r="R14" s="21">
+      <c r="U14" s="25"/>
+      <c r="AA14" s="21">
         <v>21</v>
       </c>
-      <c r="AI14" s="19" t="s">
+      <c r="AR14" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="AJ14" s="19" t="s">
+      <c r="AS14" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="AK14" s="19"/>
-      <c r="AL14" s="19"/>
+      <c r="AT14" s="19"/>
+      <c r="AU14" s="19"/>
     </row>
-    <row r="15" spans="1:149" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="K15" s="21" t="s">
+    <row r="15" spans="1:158" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="14"/>
+      <c r="T15" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="R15" s="21">
+      <c r="AA15" s="21">
         <v>21</v>
       </c>
-      <c r="AI15" s="19" t="s">
+      <c r="AR15" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="AJ15" s="19" t="s">
+      <c r="AS15" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="AK15" s="19"/>
-      <c r="AL15" s="19"/>
+      <c r="AT15" s="19"/>
+      <c r="AU15" s="19"/>
     </row>
-    <row r="16" spans="1:149" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="K16" s="21" t="s">
+    <row r="16" spans="1:158" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="14"/>
+      <c r="T16" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="R16" s="21">
+      <c r="AA16" s="21">
         <v>21</v>
       </c>
-      <c r="AI16" s="19" t="s">
+      <c r="AR16" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="AJ16" s="19" t="s">
+      <c r="AS16" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="AK16" s="19"/>
-      <c r="AL16" s="19"/>
+      <c r="AT16" s="19"/>
+      <c r="AU16" s="19"/>
     </row>
-    <row r="17" spans="11:38" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="K17" s="21" t="s">
+    <row r="17" spans="14:47" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="14"/>
+      <c r="T17" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AI17" s="19" t="s">
+      <c r="AR17" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="AJ17" s="19" t="s">
+      <c r="AS17" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="AK17" s="19"/>
-      <c r="AL17" s="19"/>
+      <c r="AT17" s="19"/>
+      <c r="AU17" s="19"/>
     </row>
-    <row r="18" spans="11:38" s="21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="14:47" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="14"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:ES13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
+  <autoFilter ref="A1:FB13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AI7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
-    <hyperlink ref="AI4" r:id="rId2" xr:uid="{54A26098-2C02-B14A-A8B8-E895ACEFE8FC}"/>
-    <hyperlink ref="AJ4" r:id="rId3" xr:uid="{19B8EC6B-4DE1-EF45-9AC5-07A97297CA08}"/>
-    <hyperlink ref="AI2" r:id="rId4" xr:uid="{CE9060F8-46A2-8E4A-9049-D259F5FF8833}"/>
-    <hyperlink ref="AJ2" r:id="rId5" xr:uid="{9F426852-B12C-F246-BBD4-2DFF4046F17B}"/>
-    <hyperlink ref="AJ7" r:id="rId6" xr:uid="{F867FCEE-CDE3-774C-AA60-18F374257445}"/>
-    <hyperlink ref="AI8" r:id="rId7" xr:uid="{FF13954F-3772-2244-8624-0759DAAA195B}"/>
-    <hyperlink ref="AJ8" r:id="rId8" xr:uid="{DEA58592-D611-1446-A2DF-45ED1084017D}"/>
-    <hyperlink ref="AI5" r:id="rId9" xr:uid="{AE8E2947-9665-444E-BB61-535EF103703A}"/>
-    <hyperlink ref="AJ5" r:id="rId10" xr:uid="{03D22372-21FE-6647-9FB7-E611341DF12C}"/>
-    <hyperlink ref="AI6" r:id="rId11" xr:uid="{38E74D40-B9B2-9F4F-A95C-07E96ED19969}"/>
-    <hyperlink ref="AI13" r:id="rId12" xr:uid="{A84CFFC5-66D9-2E4D-9EAF-A805310521D0}"/>
-    <hyperlink ref="AI12" r:id="rId13" xr:uid="{EE58DF3D-4E06-D242-A11C-C73725F63244}"/>
-    <hyperlink ref="AI9" r:id="rId14" xr:uid="{9561474B-13C0-5C45-A0AF-651803129C22}"/>
-    <hyperlink ref="AJ9" r:id="rId15" xr:uid="{A1121A3E-E434-0D46-8060-8CC9554A173E}"/>
-    <hyperlink ref="AL10" r:id="rId16" xr:uid="{74DEEA39-9EE3-DA40-986A-18AB27D7AF3D}"/>
-    <hyperlink ref="AJ10" r:id="rId17" xr:uid="{10D6E031-35FA-1A41-812A-AC8A67918A79}"/>
-    <hyperlink ref="AI11" r:id="rId18" xr:uid="{E72B4306-86EB-094D-A7D7-3CE674C9E99B}"/>
-    <hyperlink ref="AJ11" r:id="rId19" xr:uid="{BBD42CF8-45B8-BC4C-8616-E5054108E74E}"/>
-    <hyperlink ref="AJ12" r:id="rId20" xr:uid="{CB1028F2-6BEB-9845-BBBF-2CCF7E196D7E}"/>
-    <hyperlink ref="AJ13" r:id="rId21" xr:uid="{38A05DA8-5083-B64C-9BB7-7515D994A102}"/>
-    <hyperlink ref="AI14:AI17" r:id="rId22" display="charmsparticipant12@yopmail.com" xr:uid="{F7B2D757-0C7A-4D43-8200-C0254FB3451B}"/>
-    <hyperlink ref="AI14" r:id="rId23" xr:uid="{00D2EC9C-C0B0-A94F-A0A4-8DCEB003125B}"/>
-    <hyperlink ref="AI15" r:id="rId24" xr:uid="{4B08829F-C727-1F4D-8585-8623FDC25445}"/>
-    <hyperlink ref="AI16" r:id="rId25" xr:uid="{D67C22F6-0FF5-2A43-9F6B-E465DA043CCB}"/>
-    <hyperlink ref="AI17" r:id="rId26" xr:uid="{39CD3A02-5AC2-A349-A912-CB63C565E8B1}"/>
-    <hyperlink ref="AJ14:AJ17" r:id="rId27" display="charmsparticipant12@yopmail.com" xr:uid="{0D113990-F28B-4045-82B3-3B329AB1A52B}"/>
-    <hyperlink ref="AK2" r:id="rId28" xr:uid="{E22D24ED-7C96-1446-A5F8-21D1507C6179}"/>
-    <hyperlink ref="AK3" r:id="rId29" xr:uid="{70C65664-4427-354A-B785-E0B132A43F5C}"/>
-    <hyperlink ref="AK4" r:id="rId30" xr:uid="{CC02BCBB-3BDC-CE48-A7EB-DEE29B97C95A}"/>
-    <hyperlink ref="AK5:AK11" r:id="rId31" display="sj.fanconitester3@yopmail.com" xr:uid="{E1A1E55B-77EC-F549-BF2B-EE817EA7E8DB}"/>
-    <hyperlink ref="AK5" r:id="rId32" xr:uid="{3BFA334B-C797-5844-9469-BDCBE15B724A}"/>
-    <hyperlink ref="AK6" r:id="rId33" xr:uid="{A23BBEA4-5507-924C-9662-585110B0F717}"/>
-    <hyperlink ref="AK7" r:id="rId34" xr:uid="{41B062F1-F9CB-704F-818B-85592F6D9883}"/>
-    <hyperlink ref="AK8" r:id="rId35" xr:uid="{7C53923E-E953-094F-A49D-C82B1F6B95B8}"/>
-    <hyperlink ref="AK9" r:id="rId36" xr:uid="{DDC7D204-E39A-FC48-A4E1-997987E166A4}"/>
-    <hyperlink ref="AK10" r:id="rId37" xr:uid="{0AF75C1A-C67C-FB4B-AE7C-3961DA7F4B14}"/>
-    <hyperlink ref="AK11" r:id="rId38" xr:uid="{8ACA7222-D208-AD4D-8034-E244E11A98B6}"/>
-    <hyperlink ref="AI10" r:id="rId39" xr:uid="{289B06F2-9A86-3847-B5A3-0A3F844F7476}"/>
-    <hyperlink ref="AL11" r:id="rId40" xr:uid="{61E7E9C0-9075-1940-B5D8-4DC1910A82BB}"/>
+    <hyperlink ref="AR7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
+    <hyperlink ref="AR4" r:id="rId2" xr:uid="{54A26098-2C02-B14A-A8B8-E895ACEFE8FC}"/>
+    <hyperlink ref="AS4" r:id="rId3" xr:uid="{19B8EC6B-4DE1-EF45-9AC5-07A97297CA08}"/>
+    <hyperlink ref="AR2" r:id="rId4" xr:uid="{CE9060F8-46A2-8E4A-9049-D259F5FF8833}"/>
+    <hyperlink ref="AS2" r:id="rId5" xr:uid="{9F426852-B12C-F246-BBD4-2DFF4046F17B}"/>
+    <hyperlink ref="AS7" r:id="rId6" xr:uid="{F867FCEE-CDE3-774C-AA60-18F374257445}"/>
+    <hyperlink ref="AR8" r:id="rId7" xr:uid="{FF13954F-3772-2244-8624-0759DAAA195B}"/>
+    <hyperlink ref="AS8" r:id="rId8" xr:uid="{DEA58592-D611-1446-A2DF-45ED1084017D}"/>
+    <hyperlink ref="AR5" r:id="rId9" xr:uid="{AE8E2947-9665-444E-BB61-535EF103703A}"/>
+    <hyperlink ref="AS5" r:id="rId10" xr:uid="{03D22372-21FE-6647-9FB7-E611341DF12C}"/>
+    <hyperlink ref="AR6" r:id="rId11" xr:uid="{38E74D40-B9B2-9F4F-A95C-07E96ED19969}"/>
+    <hyperlink ref="AR13" r:id="rId12" xr:uid="{A84CFFC5-66D9-2E4D-9EAF-A805310521D0}"/>
+    <hyperlink ref="AR12" r:id="rId13" xr:uid="{EE58DF3D-4E06-D242-A11C-C73725F63244}"/>
+    <hyperlink ref="AR9" r:id="rId14" xr:uid="{9561474B-13C0-5C45-A0AF-651803129C22}"/>
+    <hyperlink ref="AS9" r:id="rId15" xr:uid="{A1121A3E-E434-0D46-8060-8CC9554A173E}"/>
+    <hyperlink ref="AU10" r:id="rId16" xr:uid="{74DEEA39-9EE3-DA40-986A-18AB27D7AF3D}"/>
+    <hyperlink ref="AS10" r:id="rId17" xr:uid="{10D6E031-35FA-1A41-812A-AC8A67918A79}"/>
+    <hyperlink ref="AR11" r:id="rId18" xr:uid="{E72B4306-86EB-094D-A7D7-3CE674C9E99B}"/>
+    <hyperlink ref="AS11" r:id="rId19" xr:uid="{BBD42CF8-45B8-BC4C-8616-E5054108E74E}"/>
+    <hyperlink ref="AS12" r:id="rId20" xr:uid="{CB1028F2-6BEB-9845-BBBF-2CCF7E196D7E}"/>
+    <hyperlink ref="AS13" r:id="rId21" xr:uid="{38A05DA8-5083-B64C-9BB7-7515D994A102}"/>
+    <hyperlink ref="AR14:AR17" r:id="rId22" display="charmsparticipant12@yopmail.com" xr:uid="{F7B2D757-0C7A-4D43-8200-C0254FB3451B}"/>
+    <hyperlink ref="AR14" r:id="rId23" xr:uid="{00D2EC9C-C0B0-A94F-A0A4-8DCEB003125B}"/>
+    <hyperlink ref="AR15" r:id="rId24" xr:uid="{4B08829F-C727-1F4D-8585-8623FDC25445}"/>
+    <hyperlink ref="AR16" r:id="rId25" xr:uid="{D67C22F6-0FF5-2A43-9F6B-E465DA043CCB}"/>
+    <hyperlink ref="AR17" r:id="rId26" xr:uid="{39CD3A02-5AC2-A349-A912-CB63C565E8B1}"/>
+    <hyperlink ref="AS14:AS17" r:id="rId27" display="charmsparticipant12@yopmail.com" xr:uid="{0D113990-F28B-4045-82B3-3B329AB1A52B}"/>
+    <hyperlink ref="AT2" r:id="rId28" xr:uid="{E22D24ED-7C96-1446-A5F8-21D1507C6179}"/>
+    <hyperlink ref="AT3" r:id="rId29" xr:uid="{70C65664-4427-354A-B785-E0B132A43F5C}"/>
+    <hyperlink ref="AT4" r:id="rId30" xr:uid="{CC02BCBB-3BDC-CE48-A7EB-DEE29B97C95A}"/>
+    <hyperlink ref="AT5:AT11" r:id="rId31" display="sj.fanconitester3@yopmail.com" xr:uid="{E1A1E55B-77EC-F549-BF2B-EE817EA7E8DB}"/>
+    <hyperlink ref="AT5" r:id="rId32" xr:uid="{3BFA334B-C797-5844-9469-BDCBE15B724A}"/>
+    <hyperlink ref="AT6" r:id="rId33" xr:uid="{A23BBEA4-5507-924C-9662-585110B0F717}"/>
+    <hyperlink ref="AT7" r:id="rId34" xr:uid="{41B062F1-F9CB-704F-818B-85592F6D9883}"/>
+    <hyperlink ref="AT8" r:id="rId35" xr:uid="{7C53923E-E953-094F-A49D-C82B1F6B95B8}"/>
+    <hyperlink ref="AT9" r:id="rId36" xr:uid="{DDC7D204-E39A-FC48-A4E1-997987E166A4}"/>
+    <hyperlink ref="AT10" r:id="rId37" xr:uid="{0AF75C1A-C67C-FB4B-AE7C-3961DA7F4B14}"/>
+    <hyperlink ref="AT11" r:id="rId38" xr:uid="{8ACA7222-D208-AD4D-8034-E244E11A98B6}"/>
+    <hyperlink ref="AR10" r:id="rId39" xr:uid="{289B06F2-9A86-3847-B5A3-0A3F844F7476}"/>
+    <hyperlink ref="AU11" r:id="rId40" xr:uid="{61E7E9C0-9075-1940-B5D8-4DC1910A82BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6608,7 +6728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288B407C-E01B-5444-BAC5-548BBFB02ADF}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30100A1-F255-4E4D-B590-1683BD94667B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA87B5B7-2B65-C243-B1A5-06A2FB12B079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="10480" yWindow="500" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
@@ -2300,9 +2300,9 @@
   </sheetPr>
   <dimension ref="A1:FB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="AU1" sqref="AU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA87B5B7-2B65-C243-B1A5-06A2FB12B079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D43525-F857-4E46-B5F1-B98810A465D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10480" yWindow="500" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="fanconiScreenerScenario" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$FB$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$FC$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="514">
   <si>
     <t>Yes</t>
   </si>
@@ -1584,6 +1584,9 @@
   </si>
   <si>
     <t>ProxyPreferredPhoneNumber</t>
+  </si>
+  <si>
+    <t>ProxyStreetAddress2</t>
   </si>
 </sst>
 </file>
@@ -2298,11 +2301,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:FB18"/>
+  <dimension ref="A1:FC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="113" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU1" sqref="AU1"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2312,59 +2315,59 @@
     <col min="3" max="3" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="13" width="9.5" style="3" customWidth="1"/>
-    <col min="14" max="15" width="9.5" style="7" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="14" customWidth="1"/>
-    <col min="17" max="17" width="16.5" style="3" customWidth="1"/>
-    <col min="18" max="19" width="9.5" style="3" customWidth="1"/>
-    <col min="20" max="21" width="12.5" style="3" customWidth="1"/>
-    <col min="22" max="23" width="9.5" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="13.33203125" style="3" customWidth="1"/>
-    <col min="31" max="31" width="21.83203125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="20.1640625" style="3" customWidth="1"/>
-    <col min="33" max="33" width="19.83203125" style="3" customWidth="1"/>
-    <col min="34" max="34" width="19.1640625" style="3" customWidth="1"/>
-    <col min="35" max="35" width="24" style="3" customWidth="1"/>
-    <col min="36" max="36" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.83203125" style="3" customWidth="1"/>
-    <col min="38" max="38" width="22.83203125" style="3" customWidth="1"/>
-    <col min="39" max="39" width="17.6640625" style="3" customWidth="1"/>
-    <col min="40" max="40" width="19" style="3" customWidth="1"/>
-    <col min="41" max="41" width="13.5" style="3" customWidth="1"/>
-    <col min="42" max="42" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="33.33203125" style="3" customWidth="1"/>
-    <col min="45" max="47" width="30.6640625" style="3" customWidth="1"/>
-    <col min="48" max="48" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.5" style="3" customWidth="1"/>
-    <col min="53" max="53" width="18" style="3" customWidth="1"/>
-    <col min="54" max="54" width="12.5" style="3" customWidth="1"/>
-    <col min="55" max="55" width="16" style="3" customWidth="1"/>
-    <col min="56" max="56" width="16.5" style="3" customWidth="1"/>
-    <col min="57" max="57" width="7" style="3" customWidth="1"/>
-    <col min="58" max="58" width="12.6640625" style="3" customWidth="1"/>
-    <col min="59" max="59" width="10.83203125" style="3" customWidth="1"/>
-    <col min="60" max="61" width="28.6640625" style="3" customWidth="1"/>
-    <col min="62" max="62" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="36.5" style="3" customWidth="1"/>
-    <col min="65" max="65" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="66" max="75" width="20.33203125" style="3" customWidth="1"/>
-    <col min="76" max="76" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="20.1640625" style="3" customWidth="1"/>
-    <col min="80" max="131" width="20.83203125" style="3"/>
-    <col min="132" max="132" width="38.33203125" style="3" customWidth="1"/>
-    <col min="133" max="16384" width="20.83203125" style="3"/>
+    <col min="6" max="14" width="9.5" style="3" customWidth="1"/>
+    <col min="15" max="16" width="9.5" style="7" customWidth="1"/>
+    <col min="17" max="17" width="9.5" style="14" customWidth="1"/>
+    <col min="18" max="18" width="16.5" style="3" customWidth="1"/>
+    <col min="19" max="20" width="9.5" style="3" customWidth="1"/>
+    <col min="21" max="22" width="12.5" style="3" customWidth="1"/>
+    <col min="23" max="24" width="9.5" style="3" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" style="3" customWidth="1"/>
+    <col min="26" max="26" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="13.33203125" style="3" customWidth="1"/>
+    <col min="32" max="32" width="21.83203125" style="3" customWidth="1"/>
+    <col min="33" max="33" width="20.1640625" style="3" customWidth="1"/>
+    <col min="34" max="34" width="19.83203125" style="3" customWidth="1"/>
+    <col min="35" max="35" width="19.1640625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="24" style="3" customWidth="1"/>
+    <col min="37" max="37" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="14.83203125" style="3" customWidth="1"/>
+    <col min="39" max="39" width="22.83203125" style="3" customWidth="1"/>
+    <col min="40" max="40" width="17.6640625" style="3" customWidth="1"/>
+    <col min="41" max="41" width="19" style="3" customWidth="1"/>
+    <col min="42" max="42" width="13.5" style="3" customWidth="1"/>
+    <col min="43" max="43" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="33.33203125" style="3" customWidth="1"/>
+    <col min="46" max="48" width="30.6640625" style="3" customWidth="1"/>
+    <col min="49" max="49" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.5" style="3" customWidth="1"/>
+    <col min="54" max="54" width="18" style="3" customWidth="1"/>
+    <col min="55" max="55" width="12.5" style="3" customWidth="1"/>
+    <col min="56" max="56" width="16" style="3" customWidth="1"/>
+    <col min="57" max="57" width="16.5" style="3" customWidth="1"/>
+    <col min="58" max="58" width="7" style="3" customWidth="1"/>
+    <col min="59" max="59" width="12.6640625" style="3" customWidth="1"/>
+    <col min="60" max="60" width="10.83203125" style="3" customWidth="1"/>
+    <col min="61" max="62" width="28.6640625" style="3" customWidth="1"/>
+    <col min="63" max="63" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="36.5" style="3" customWidth="1"/>
+    <col min="66" max="66" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="76" width="20.33203125" style="3" customWidth="1"/>
+    <col min="77" max="77" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="20.1640625" style="3" customWidth="1"/>
+    <col min="81" max="132" width="20.83203125" style="3"/>
+    <col min="133" max="133" width="38.33203125" style="3" customWidth="1"/>
+    <col min="134" max="16384" width="20.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:158" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:159" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>187</v>
       </c>
@@ -2390,457 +2393,460 @@
         <v>504</v>
       </c>
       <c r="I1" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="S1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AS1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AW1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AX1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AY1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="BA1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BB1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BC1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BD1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BE1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BF1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BG1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BH1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BI1" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BJ1" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="BJ1" s="16" t="s">
+      <c r="BK1" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="BK1" s="16" t="s">
+      <c r="BL1" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="BL1" s="16" t="s">
+      <c r="BM1" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="BM1" s="16" t="s">
+      <c r="BN1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="BN1" s="16" t="s">
+      <c r="BO1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="BO1" s="16" t="s">
+      <c r="BP1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="BP1" s="16" t="s">
+      <c r="BQ1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="BQ1" s="16" t="s">
+      <c r="BR1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="BR1" s="16" t="s">
+      <c r="BS1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BS1" s="16" t="s">
+      <c r="BT1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="BT1" s="16" t="s">
+      <c r="BU1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="BU1" s="16" t="s">
+      <c r="BV1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="BV1" s="16" t="s">
+      <c r="BW1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BW1" s="16" t="s">
+      <c r="BX1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="BX1" s="13" t="s">
+      <c r="BY1" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="CA1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CB1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="CB1" s="13" t="s">
+      <c r="CC1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="CC1" s="13" t="s">
+      <c r="CD1" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="CD1" s="13" t="s">
+      <c r="CE1" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="CE1" s="13" t="s">
+      <c r="CF1" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="CF1" s="13" t="s">
+      <c r="CG1" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="CG1" s="13" t="s">
+      <c r="CH1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CI1" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="CI1" s="13" t="s">
+      <c r="CJ1" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="CJ1" s="13" t="s">
+      <c r="CK1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CL1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="CL1" s="13" t="s">
+      <c r="CM1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CN1" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="CN1" s="13" t="s">
+      <c r="CO1" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="CO1" s="13" t="s">
+      <c r="CP1" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="CP1" s="13" t="s">
+      <c r="CQ1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CQ1" s="13" t="s">
+      <c r="CR1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CR1" s="13" t="s">
+      <c r="CS1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="CS1" s="13" t="s">
+      <c r="CT1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="CT1" s="13" t="s">
+      <c r="CU1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="CU1" s="13" t="s">
+      <c r="CV1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="CV1" s="13" t="s">
+      <c r="CW1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="CW1" s="13" t="s">
+      <c r="CX1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="CX1" s="13" t="s">
+      <c r="CY1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="CY1" s="13" t="s">
+      <c r="CZ1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="CZ1" s="13" t="s">
+      <c r="DA1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="DA1" s="13" t="s">
+      <c r="DB1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="DB1" s="13" t="s">
+      <c r="DC1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="DC1" s="13" t="s">
+      <c r="DD1" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="DD1" s="13" t="s">
+      <c r="DE1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="DE1" s="13" t="s">
+      <c r="DF1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="DF1" s="13" t="s">
+      <c r="DG1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="DG1" s="13" t="s">
+      <c r="DH1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="DH1" s="13" t="s">
+      <c r="DI1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="DI1" s="13" t="s">
+      <c r="DJ1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="DJ1" s="13" t="s">
+      <c r="DK1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="DK1" s="13" t="s">
+      <c r="DL1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="DL1" s="13" t="s">
+      <c r="DM1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="DM1" s="13" t="s">
+      <c r="DN1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="DN1" s="13" t="s">
+      <c r="DO1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DO1" s="13" t="s">
+      <c r="DP1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="DP1" s="13" t="s">
+      <c r="DQ1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="DQ1" s="13" t="s">
+      <c r="DR1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="DR1" s="13" t="s">
+      <c r="DS1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="DS1" s="13" t="s">
+      <c r="DT1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="DT1" s="13" t="s">
+      <c r="DU1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="DU1" s="13" t="s">
+      <c r="DV1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="DV1" s="13" t="s">
+      <c r="DW1" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="DW1" s="13" t="s">
+      <c r="DX1" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="DX1" s="13" t="s">
+      <c r="DY1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="DY1" s="13" t="s">
+      <c r="DZ1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="DZ1" s="13" t="s">
+      <c r="EA1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="EA1" s="13" t="s">
+      <c r="EB1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="EB1" s="13" t="s">
+      <c r="EC1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="EC1" s="13" t="s">
+      <c r="ED1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="ED1" s="13" t="s">
+      <c r="EE1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="EE1" s="13" t="s">
+      <c r="EF1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="EF1" s="13" t="s">
+      <c r="EG1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="EG1" s="13" t="s">
+      <c r="EH1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="EH1" s="13" t="s">
+      <c r="EI1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="EI1" s="13" t="s">
+      <c r="EJ1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="EJ1" s="13" t="s">
+      <c r="EK1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="EK1" s="17" t="s">
+      <c r="EL1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="EL1" s="17" t="s">
+      <c r="EM1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="EM1" s="17" t="s">
+      <c r="EN1" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="EN1" s="17" t="s">
+      <c r="EO1" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="EO1" s="17" t="s">
+      <c r="EP1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="EP1" s="17" t="s">
+      <c r="EQ1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="EQ1" s="17" t="s">
+      <c r="ER1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="ER1" s="17" t="s">
+      <c r="ES1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="ES1" s="17" t="s">
+      <c r="ET1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="ET1" s="17" t="s">
+      <c r="EU1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="EU1" s="17" t="s">
+      <c r="EV1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="EV1" s="17" t="s">
+      <c r="EW1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="EW1" s="17" t="s">
+      <c r="EX1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="EX1" s="17" t="s">
+      <c r="EY1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="EY1" s="17" t="s">
+      <c r="EZ1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="EZ1" s="17" t="s">
+      <c r="FA1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="FA1" s="17" t="s">
+      <c r="FB1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="FB1" s="17" t="s">
+      <c r="FC1" s="17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:158" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:159" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
@@ -2866,320 +2872,318 @@
       <c r="K2" s="29"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
-      <c r="N2" s="7"/>
+      <c r="N2" s="29"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="14"/>
-      <c r="X2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="21">
+      <c r="P2" s="7"/>
+      <c r="Q2" s="14"/>
+      <c r="Y2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="21">
         <v>1948</v>
       </c>
-      <c r="Z2" s="21" t="s">
+      <c r="AA2" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AA2" s="21">
+      <c r="AB2" s="21">
         <v>21</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AC2" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="21">
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="21">
         <v>77</v>
-      </c>
-      <c r="AE2" s="21" t="s">
-        <v>20</v>
       </c>
       <c r="AF2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" s="21" t="s">
+      <c r="AG2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AJ2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="AK2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AL2" s="21" t="s">
+      <c r="AM2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AM2" s="21" t="s">
+      <c r="AN2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AO2" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="AO2" s="21" t="s">
+      <c r="AP2" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="AP2" s="21" t="s">
+      <c r="AQ2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" s="21">
+      <c r="AR2" s="21">
         <v>28907</v>
-      </c>
-      <c r="AR2" s="18" t="s">
-        <v>295</v>
       </c>
       <c r="AS2" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="AT2" s="19" t="s">
+      <c r="AT2" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="AU2" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="21">
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AW2" s="21">
+      <c r="AX2" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AX2" s="21">
+      <c r="AY2" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AY2" s="21">
+      <c r="AZ2" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AZ2" s="21" t="s">
+      <c r="BA2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BA2" s="21" t="s">
+      <c r="BB2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BB2" s="21" t="s">
+      <c r="BC2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BC2" s="21" t="s">
+      <c r="BD2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BD2" s="21" t="s">
+      <c r="BE2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BE2" s="21" t="s">
+      <c r="BF2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="BF2" s="21" t="s">
+      <c r="BG2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BG2" s="21" t="s">
+      <c r="BH2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" s="21" t="s">
+      <c r="BI2" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="BI2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BK2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="BL2" s="21" t="s">
+      <c r="BM2" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="BM2" s="21" t="s">
+      <c r="BN2" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="BN2" s="21" t="s">
+      <c r="BO2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BO2" s="21" t="s">
+      <c r="BP2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BP2" s="21" t="s">
+      <c r="BQ2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BQ2" s="21" t="s">
+      <c r="BR2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BR2" s="21" t="s">
+      <c r="BS2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BS2" s="21" t="s">
+      <c r="BT2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BT2" s="21" t="s">
+      <c r="BU2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BU2" s="21" t="s">
+      <c r="BV2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BV2" s="21" t="s">
+      <c r="BW2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BW2" s="21" t="s">
+      <c r="BX2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BX2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BY2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="CA2" s="21">
+      <c r="CB2" s="21">
         <v>91</v>
       </c>
-      <c r="CB2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CC2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="CG2" s="21" t="s">
+      <c r="CH2" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="CH2" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="CI2" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CJ2" s="21" t="s">
+      <c r="CJ2" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CK2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CL2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CP2" s="21" t="s">
+      <c r="CM2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ2" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CQ2" s="21" t="s">
+      <c r="CR2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CR2" s="21" t="s">
+      <c r="CS2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CS2" s="21" t="s">
+      <c r="CT2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CT2" s="21" t="s">
+      <c r="CU2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CU2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CV2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CW2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CX2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="CY2" s="21" t="s">
+      <c r="CZ2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="CZ2" s="21">
+      <c r="DA2" s="21">
         <v>1997</v>
       </c>
-      <c r="DB2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DC2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="DD2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DE2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="DF2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DG2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="DH2" s="21">
+      <c r="DI2" s="21">
         <v>101</v>
       </c>
-      <c r="DI2" s="21" t="s">
+      <c r="DJ2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="DJ2" s="21" t="s">
+      <c r="DK2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DK2" s="21" t="s">
+      <c r="DL2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="DL2" s="21" t="s">
+      <c r="DM2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="DM2" s="21">
+      <c r="DN2" s="21">
         <v>1985</v>
       </c>
-      <c r="DO2" s="21" t="s">
+      <c r="DP2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="DP2" s="21" t="s">
+      <c r="DQ2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="DQ2" s="21" t="s">
+      <c r="DR2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="DR2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DS2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DT2" s="21" t="s">
+      <c r="DU2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DU2" s="21" t="s">
+      <c r="DV2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DW2" s="21" t="s">
+      <c r="DX2" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="DX2" s="21" t="s">
+      <c r="DY2" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DY2" s="21" t="s">
+      <c r="DZ2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DZ2" s="21">
+      <c r="EA2" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EA2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EB2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC2" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="EC2" s="21" t="s">
+      <c r="ED2" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="ED2" s="21" t="s">
+      <c r="EE2" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EE2" s="21" t="s">
+      <c r="EF2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EF2" s="21" t="s">
+      <c r="EG2" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EG2" s="21" t="s">
+      <c r="EH2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EH2" s="21" t="s">
+      <c r="EI2" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EI2" s="21" t="s">
+      <c r="EJ2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EJ2" s="21" t="s">
+      <c r="EK2" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EK2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EL2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3213,12 +3217,12 @@
       <c r="EV2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EW2" s="26" t="s">
+      <c r="EW2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EX2" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EX2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EY2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3231,8 +3235,11 @@
       <c r="FB2" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="FC2" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:158" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:159" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>38</v>
       </c>
@@ -3253,254 +3260,252 @@
       <c r="K3" s="38"/>
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
-      <c r="N3" s="7"/>
+      <c r="N3" s="38"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="14"/>
-      <c r="X3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y3" s="21">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="14"/>
+      <c r="Y3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z3" s="21">
         <v>1960</v>
       </c>
-      <c r="Z3" s="21" t="s">
+      <c r="AA3" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AA3" s="21">
+      <c r="AB3" s="21">
         <v>21</v>
       </c>
-      <c r="AB3" s="29" t="s">
+      <c r="AC3" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="AC3" s="22"/>
-      <c r="AD3" s="21">
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="21">
         <v>65</v>
-      </c>
-      <c r="AE3" s="21" t="s">
-        <v>140</v>
       </c>
       <c r="AF3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AH3" s="21" t="s">
+      <c r="AG3" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI3" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="AJ3" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="AK3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL3" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AL3" s="21" t="s">
+      <c r="AM3" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="AR3" s="18" t="s">
-        <v>141</v>
       </c>
       <c r="AS3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="AT3" s="19" t="s">
+      <c r="AT3" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU3" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="AU3" s="19"/>
-      <c r="AV3" s="21">
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AW3" s="21">
+      <c r="AX3" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AX3" s="21">
+      <c r="AY3" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AY3" s="21">
+      <c r="AZ3" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AZ3" s="21" t="s">
+      <c r="BA3" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="BA3" s="21" t="s">
+      <c r="BB3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BB3" s="21" t="s">
+      <c r="BC3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BC3" s="21" t="s">
+      <c r="BD3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BD3" s="21" t="s">
+      <c r="BE3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BE3" s="21" t="s">
+      <c r="BF3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="BF3" s="21" t="s">
+      <c r="BG3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BG3" s="21" t="s">
+      <c r="BH3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BH3" s="21" t="s">
+      <c r="BI3" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="BI3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BX3" s="21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BK3" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="BY3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="BZ3" s="22" t="s">
+      <c r="CA3" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="CB3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CC3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="CG3" s="21" t="s">
+      <c r="CH3" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="CH3" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="CI3" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CJ3" s="21" t="s">
+      <c r="CJ3" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="CK3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CL3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CP3" s="21" t="s">
+      <c r="CM3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ3" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CQ3" s="21" t="s">
+      <c r="CR3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CR3" s="21" t="s">
+      <c r="CS3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CS3" s="21" t="s">
+      <c r="CT3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CT3" s="21" t="s">
+      <c r="CU3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CU3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CV3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="CW3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CX3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="DA3" s="21">
+      <c r="DB3" s="21">
         <v>100</v>
       </c>
-      <c r="DB3" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DC3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DD3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="DD3" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DE3" s="21" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="DF3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DG3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="DG3" s="22" t="s">
+      <c r="DH3" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="DI3" s="21" t="s">
+      <c r="DJ3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="DJ3" s="21" t="s">
+      <c r="DK3" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DK3" s="21" t="s">
+      <c r="DL3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="DN3" s="21">
+      <c r="DO3" s="21">
         <v>102</v>
       </c>
-      <c r="DO3" s="21" t="s">
+      <c r="DP3" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="DP3" s="21" t="s">
+      <c r="DQ3" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="DQ3" s="21" t="s">
+      <c r="DR3" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="DR3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DS3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DU3" s="21" t="s">
+      <c r="DV3" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="DX3" s="21" t="s">
+      <c r="DY3" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DY3" s="21" t="s">
+      <c r="DZ3" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DZ3" s="21">
+      <c r="EA3" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EA3" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EB3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EC3" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="EC3" s="21" t="s">
+      <c r="ED3" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="ED3" s="21" t="s">
+      <c r="EE3" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EE3" s="21" t="s">
+      <c r="EF3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EF3" s="21" t="s">
+      <c r="EG3" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EG3" s="21" t="s">
+      <c r="EH3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EH3" s="21" t="s">
+      <c r="EI3" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EI3" s="21" t="s">
+      <c r="EJ3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EJ3" s="21" t="s">
+      <c r="EK3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EK3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EL3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3534,12 +3539,12 @@
       <c r="EV3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EW3" s="26" t="s">
+      <c r="EW3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EX3" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EX3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EY3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3552,8 +3557,11 @@
       <c r="FB3" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="FC3" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:158" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:159" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>38</v>
       </c>
@@ -3566,228 +3574,225 @@
       <c r="D4" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="14"/>
-      <c r="X4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y4" s="21">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="14"/>
+      <c r="Y4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z4" s="21">
         <v>1910</v>
       </c>
-      <c r="Z4" s="21" t="s">
+      <c r="AA4" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AA4" s="21">
+      <c r="AB4" s="21">
         <v>21</v>
       </c>
-      <c r="AB4" s="29" t="s">
+      <c r="AC4" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="AC4" s="22"/>
-      <c r="AD4" s="21">
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="21">
         <v>115</v>
       </c>
-      <c r="AE4" s="21" t="s">
+      <c r="AF4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AG4" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="AH4" s="21" t="s">
+      <c r="AI4" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="AJ4" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="AK4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL4" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AL4" s="21" t="s">
+      <c r="AM4" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="AR4" s="19" t="s">
+      <c r="AS4" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="AS4" s="18" t="s">
+      <c r="AT4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="AT4" s="19" t="s">
+      <c r="AU4" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="21">
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AW4" s="21">
+      <c r="AX4" s="21">
         <v>3014524258</v>
-      </c>
-      <c r="AX4" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AY4" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AZ4" s="21" t="s">
-        <v>144</v>
+      <c r="AZ4" s="21">
+        <v>3015567865</v>
       </c>
       <c r="BA4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BH4" s="21" t="s">
+      <c r="BI4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BI4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BX4" s="21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BK4" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="BY4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CB4" s="21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="CC4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="CG4" s="21" t="s">
+      <c r="CH4" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="CH4" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="CI4" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CJ4" s="21" t="s">
+      <c r="CJ4" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CK4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CL4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CP4" s="21" t="s">
+      <c r="CM4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CQ4" s="21" t="s">
+      <c r="CR4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CR4" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CS4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CT4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CT4" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CU4" s="21" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="CV4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CW4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CX4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DB4" s="21" t="s">
+      <c r="DC4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DC4" s="21" t="s">
+      <c r="DD4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="DD4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DE4" s="21" t="s">
         <v>0</v>
       </c>
       <c r="DF4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="DI4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="DJ4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="DJ4" s="21" t="s">
+      <c r="DK4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DK4" s="21" t="s">
+      <c r="DL4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DO4" s="21" t="s">
+      <c r="DP4" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="DP4" s="21" t="s">
+      <c r="DQ4" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="DQ4" s="21" t="s">
+      <c r="DR4" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="DR4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="DS4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DT4" s="21" t="s">
+      <c r="DU4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DU4" s="23" t="s">
+      <c r="DV4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="DV4" s="23"/>
-      <c r="DX4" s="21" t="s">
+      <c r="DW4" s="23"/>
+      <c r="DY4" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DY4" s="21" t="s">
+      <c r="DZ4" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DZ4" s="21">
+      <c r="EA4" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EA4" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EB4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC4" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="EC4" s="21" t="s">
+      <c r="ED4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="ED4" s="21" t="s">
+      <c r="EE4" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EE4" s="21" t="s">
+      <c r="EF4" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EF4" s="21" t="s">
+      <c r="EG4" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EG4" s="21" t="s">
+      <c r="EH4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EH4" s="21" t="s">
+      <c r="EI4" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EI4" s="21" t="s">
+      <c r="EJ4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EJ4" s="21" t="s">
+      <c r="EK4" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EK4" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EL4" s="21" t="s">
         <v>133</v>
       </c>
@@ -3821,10 +3826,10 @@
       <c r="EV4" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EW4" s="26"/>
-      <c r="EX4" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EW4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EX4" s="26"/>
       <c r="EY4" s="21" t="s">
         <v>133</v>
       </c>
@@ -3837,8 +3842,11 @@
       <c r="FB4" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="FC4" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="5" spans="1:158" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:159" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
@@ -3851,178 +3859,175 @@
       <c r="D5" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="N5" s="7"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="14"/>
-      <c r="X5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y5" s="21">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="14"/>
+      <c r="Y5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z5" s="21">
         <v>1925</v>
       </c>
-      <c r="Z5" s="21" t="s">
+      <c r="AA5" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AA5" s="21">
+      <c r="AB5" s="21">
         <v>21</v>
       </c>
-      <c r="AB5" s="29" t="s">
+      <c r="AC5" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="21">
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="21">
         <v>100</v>
       </c>
-      <c r="AE5" s="21" t="s">
+      <c r="AF5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AF5" s="21" t="s">
+      <c r="AG5" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="AG5" s="21" t="s">
+      <c r="AH5" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="AH5" s="21" t="s">
+      <c r="AI5" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="AI5" s="21" t="s">
+      <c r="AJ5" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="AJ5" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="AK5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL5" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AL5" s="21" t="s">
+      <c r="AM5" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="AR5" s="19" t="s">
-        <v>160</v>
       </c>
       <c r="AS5" s="19" t="s">
         <v>160</v>
       </c>
       <c r="AT5" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="AU5" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="21">
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AW5" s="21">
+      <c r="AX5" s="21">
         <v>3014524258</v>
-      </c>
-      <c r="AX5" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AY5" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AZ5" s="21" t="s">
-        <v>144</v>
+      <c r="AZ5" s="21">
+        <v>3015567865</v>
       </c>
       <c r="BA5" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="BH5" s="21" t="s">
+      <c r="BB5" s="21" t="s">
         <v>144</v>
       </c>
       <c r="BI5" s="21" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="BJ5" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BX5" s="21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BK5" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="BY5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CB5" s="21" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="CC5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="CD5" s="21" t="s">
+      <c r="CE5" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="CG5" s="21" t="s">
+      <c r="CH5" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="CH5" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="CI5" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CJ5" s="21" t="s">
+      <c r="CJ5" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CK5" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CL5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CP5" s="21" t="s">
+      <c r="CM5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CQ5" s="21" t="s">
+      <c r="CR5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CR5" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CS5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CT5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CT5" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CU5" s="21" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="CV5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CW5" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CX5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DB5" s="21" t="s">
+      <c r="DC5" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DC5" s="21" t="s">
+      <c r="DD5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="DD5" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DE5" s="21" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="DF5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="DG5" s="22" t="s">
+      <c r="DH5" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="DI5" s="21" t="s">
+      <c r="DJ5" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="DJ5" s="21" t="s">
+      <c r="DK5" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DK5" s="21" t="s">
+      <c r="DL5" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="DO5" s="21" t="s">
-        <v>351</v>
       </c>
       <c r="DP5" s="21" t="s">
         <v>351</v>
@@ -4031,62 +4036,62 @@
         <v>351</v>
       </c>
       <c r="DR5" s="21" t="s">
-        <v>0</v>
+        <v>351</v>
       </c>
       <c r="DS5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT5" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DU5" s="21" t="s">
+      <c r="DV5" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="DV5" s="21" t="s">
+      <c r="DW5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="DW5" s="21" t="s">
+      <c r="DX5" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="DX5" s="21" t="s">
+      <c r="DY5" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DY5" s="21" t="s">
+      <c r="DZ5" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="DZ5" s="21">
+      <c r="EA5" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EA5" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EB5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC5" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="EC5" s="21" t="s">
+      <c r="ED5" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="ED5" s="21" t="s">
+      <c r="EE5" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EE5" s="21" t="s">
+      <c r="EF5" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EF5" s="21" t="s">
+      <c r="EG5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EG5" s="21" t="s">
+      <c r="EH5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EH5" s="21" t="s">
+      <c r="EI5" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EI5" s="21" t="s">
+      <c r="EJ5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EJ5" s="21" t="s">
+      <c r="EK5" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EK5" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="EL5" s="21" t="s">
         <v>144</v>
       </c>
@@ -4120,10 +4125,10 @@
       <c r="EV5" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EW5" s="26"/>
-      <c r="EX5" s="21" t="s">
-        <v>144</v>
-      </c>
+      <c r="EW5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EX5" s="26"/>
       <c r="EY5" s="21" t="s">
         <v>144</v>
       </c>
@@ -4136,8 +4141,11 @@
       <c r="FB5" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="FC5" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="6" spans="1:158" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:159" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>38</v>
       </c>
@@ -4150,192 +4158,189 @@
       <c r="D6" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="14"/>
-      <c r="X6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y6" s="21">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="14"/>
+      <c r="Y6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z6" s="21">
         <v>1950</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="AA6" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AA6" s="21">
+      <c r="AB6" s="21">
         <v>21</v>
       </c>
-      <c r="AB6" s="29" t="s">
+      <c r="AC6" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="21">
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="21">
         <v>75</v>
       </c>
-      <c r="AE6" s="21" t="s">
+      <c r="AF6" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AF6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ6" s="21" t="s">
-        <v>0</v>
+      <c r="AG6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI6" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="AK6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AL6" s="21" t="s">
+      <c r="AM6" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="AR6" s="18" t="s">
+      <c r="AS6" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="AS6" s="21" t="s">
+      <c r="AT6" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="AT6" s="19" t="s">
+      <c r="AU6" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="AV6" s="21">
+      <c r="AW6" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AW6" s="21">
+      <c r="AX6" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AX6" s="21">
+      <c r="AY6" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AY6" s="21">
+      <c r="AZ6" s="21">
         <v>3015774089</v>
-      </c>
-      <c r="AZ6" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="BA6" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BH6" s="21" t="s">
+      <c r="BB6" s="21" t="s">
         <v>165</v>
       </c>
       <c r="BI6" s="21" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="BJ6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BX6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BZ6" s="24"/>
-      <c r="CB6" s="21" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BK6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BY6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CA6" s="24"/>
       <c r="CC6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CG6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CH6" s="21" t="s">
         <v>147</v>
-      </c>
-      <c r="CH6" s="37" t="s">
-        <v>262</v>
       </c>
       <c r="CI6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CJ6" s="21" t="s">
+      <c r="CJ6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK6" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CK6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CL6" s="37" t="s">
+      <c r="CL6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CM6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CP6" s="21" t="s">
+      <c r="CQ6" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CU6" s="37" t="s">
+      <c r="CV6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CV6" s="37" t="s">
+      <c r="CW6" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="CW6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="DB6" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="DD6" s="37" t="s">
+      <c r="CX6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="DC6" s="37" t="s">
         <v>262</v>
       </c>
       <c r="DE6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DG6" s="24"/>
-      <c r="DI6" s="37" t="s">
+      <c r="DF6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DR6" s="21" t="s">
-        <v>144</v>
+      <c r="DH6" s="24"/>
+      <c r="DJ6" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="DS6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="DT6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DT6" s="21" t="s">
+      <c r="DU6" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="DU6" s="21" t="s">
+      <c r="DV6" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="DW6" s="21" t="s">
+      <c r="DX6" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="DX6" s="21" t="s">
+      <c r="DY6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DY6" s="21" t="s">
+      <c r="DZ6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DZ6" s="21">
+      <c r="EA6" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EA6" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EB6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EC6" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="EC6" s="21" t="s">
+      <c r="ED6" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="ED6" s="21" t="s">
+      <c r="EE6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EE6" s="21" t="s">
+      <c r="EF6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EF6" s="21" t="s">
+      <c r="EG6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EG6" s="21" t="s">
+      <c r="EH6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EH6" s="21" t="s">
+      <c r="EI6" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EI6" s="21" t="s">
+      <c r="EJ6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EJ6" s="21" t="s">
+      <c r="EK6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EK6" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EL6" s="21" t="s">
         <v>133</v>
       </c>
@@ -4369,10 +4374,10 @@
       <c r="EV6" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EW6" s="26"/>
-      <c r="EX6" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EW6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EX6" s="26"/>
       <c r="EY6" s="21" t="s">
         <v>133</v>
       </c>
@@ -4385,8 +4390,11 @@
       <c r="FB6" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="FC6" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="7" spans="1:158" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:159" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
@@ -4399,202 +4407,199 @@
       <c r="D7" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="14"/>
-      <c r="X7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y7" s="21">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="14"/>
+      <c r="Y7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z7" s="21">
         <v>1940</v>
       </c>
-      <c r="Z7" s="21" t="s">
+      <c r="AA7" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AA7" s="21">
+      <c r="AB7" s="21">
         <v>21</v>
       </c>
-      <c r="AB7" s="29" t="s">
+      <c r="AC7" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="21">
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="21">
         <v>85</v>
       </c>
-      <c r="AE7" s="21" t="s">
+      <c r="AF7" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AF7" s="21" t="s">
+      <c r="AG7" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AH7" s="21" t="s">
+      <c r="AI7" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AJ7" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="AK7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL7" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AL7" s="21" t="s">
+      <c r="AM7" s="21" t="s">
         <v>181</v>
-      </c>
-      <c r="AR7" s="18" t="s">
-        <v>314</v>
       </c>
       <c r="AS7" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="AT7" s="19" t="s">
+      <c r="AT7" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="AU7" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="AU7" s="18"/>
-      <c r="AV7" s="21">
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AW7" s="21">
+      <c r="AX7" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AX7" s="21">
+      <c r="AY7" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AY7" s="21">
+      <c r="AZ7" s="21">
         <v>3014524258</v>
-      </c>
-      <c r="AZ7" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="BA7" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BH7" s="21" t="s">
+      <c r="BB7" s="21" t="s">
         <v>165</v>
       </c>
       <c r="BI7" s="21" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="BJ7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BX7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BZ7" s="24"/>
-      <c r="CB7" s="21" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BK7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CA7" s="24"/>
       <c r="CC7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="CD7" s="21" t="s">
+      <c r="CE7" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="CE7" s="21" t="s">
+      <c r="CF7" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="CF7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CG7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CH7" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="CH7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CI7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="CJ7" s="21" t="s">
+      <c r="CK7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CK7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CL7" s="21" t="s">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="CM7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CN7" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="CP7" s="21" t="s">
+      <c r="CQ7" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CU7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CV7" s="37" t="s">
+      <c r="CV7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CW7" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="CW7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DB7" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="DD7" s="37" t="s">
+      <c r="CX7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DC7" s="37" t="s">
         <v>262</v>
       </c>
       <c r="DE7" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DG7" s="24"/>
-      <c r="DI7" s="37" t="s">
+      <c r="DF7" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DR7" s="21" t="s">
-        <v>133</v>
+      <c r="DH7" s="24"/>
+      <c r="DJ7" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="DS7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DT7" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DT7" s="21" t="s">
+      <c r="DU7" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DU7" s="21" t="s">
+      <c r="DV7" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="DX7" s="21" t="s">
+      <c r="DY7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DY7" s="21" t="s">
+      <c r="DZ7" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DZ7" s="21">
+      <c r="EA7" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EA7" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EB7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EC7" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="EC7" s="21" t="s">
+      <c r="ED7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="ED7" s="21" t="s">
+      <c r="EE7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EE7" s="21" t="s">
+      <c r="EF7" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EF7" s="21" t="s">
+      <c r="EG7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EG7" s="21" t="s">
+      <c r="EH7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EH7" s="21" t="s">
+      <c r="EI7" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EI7" s="21" t="s">
+      <c r="EJ7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EJ7" s="21" t="s">
+      <c r="EK7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EK7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EL7" s="21" t="s">
         <v>0</v>
       </c>
@@ -4628,12 +4633,12 @@
       <c r="EV7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EW7" s="26" t="s">
+      <c r="EW7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EX7" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EX7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EY7" s="21" t="s">
         <v>0</v>
       </c>
@@ -4646,8 +4651,11 @@
       <c r="FB7" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="FC7" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:158" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:159" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
@@ -4660,109 +4668,106 @@
       <c r="D8" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="14"/>
-      <c r="X8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y8" s="21">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="14"/>
+      <c r="Y8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z8" s="21">
         <v>1930</v>
       </c>
-      <c r="Z8" s="21" t="s">
+      <c r="AA8" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AA8" s="21">
+      <c r="AB8" s="21">
         <v>21</v>
       </c>
-      <c r="AB8" s="29" t="s">
+      <c r="AC8" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="21">
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="21">
         <v>95</v>
       </c>
-      <c r="AE8" s="21" t="s">
+      <c r="AF8" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AF8" s="21" t="s">
+      <c r="AG8" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AH8" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ8" s="21" t="s">
-        <v>133</v>
+      <c r="AI8" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="AK8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL8" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AL8" s="21" t="s">
+      <c r="AM8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AM8" s="21" t="s">
+      <c r="AN8" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="AN8" s="21" t="s">
+      <c r="AO8" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="AO8" s="21" t="s">
+      <c r="AP8" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="AP8" s="21" t="s">
+      <c r="AQ8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AQ8" s="21">
+      <c r="AR8" s="21">
         <v>28907</v>
-      </c>
-      <c r="AR8" s="18" t="s">
-        <v>315</v>
       </c>
       <c r="AS8" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="AT8" s="19" t="s">
+      <c r="AT8" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="AU8" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="AU8" s="18"/>
-      <c r="AV8" s="21">
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AW8" s="21">
+      <c r="AX8" s="21">
         <v>3014524258</v>
-      </c>
-      <c r="AX8" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AY8" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AZ8" s="21" t="s">
-        <v>144</v>
+      <c r="AZ8" s="21">
+        <v>3015567865</v>
       </c>
       <c r="BA8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB8" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BH8" s="21" t="s">
+      <c r="BI8" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BI8" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BJ8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BX8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CA8" s="24"/>
-      <c r="CB8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CC8" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CG8" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB8" s="24"/>
+      <c r="CC8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CD8" s="37" t="s">
         <v>262</v>
       </c>
       <c r="CH8" s="37" t="s">
@@ -4774,91 +4779,91 @@
       <c r="CJ8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CK8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CL8" s="37" t="s">
+      <c r="CK8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CP8" s="21" t="s">
+      <c r="CL8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CM8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CQ8" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CU8" s="37" t="s">
+      <c r="CV8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CV8" s="37" t="s">
+      <c r="CW8" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="CW8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DB8" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="DD8" s="37" t="s">
+      <c r="CX8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DC8" s="37" t="s">
         <v>262</v>
       </c>
       <c r="DE8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DG8" s="24"/>
-      <c r="DI8" s="37" t="s">
+      <c r="DF8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DR8" s="21" t="s">
-        <v>133</v>
+      <c r="DH8" s="24"/>
+      <c r="DJ8" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="DS8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DT8" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DU8" s="21" t="s">
+      <c r="DV8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DW8" s="21" t="s">
+      <c r="DX8" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="DX8" s="21" t="s">
+      <c r="DY8" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DY8" s="21" t="s">
+      <c r="DZ8" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DZ8" s="21">
+      <c r="EA8" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EA8" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EB8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EC8" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="EC8" s="21" t="s">
+      <c r="ED8" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="ED8" s="21" t="s">
+      <c r="EE8" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EE8" s="21" t="s">
+      <c r="EF8" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EF8" s="21" t="s">
+      <c r="EG8" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EG8" s="21" t="s">
+      <c r="EH8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EH8" s="21" t="s">
+      <c r="EI8" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EI8" s="21" t="s">
+      <c r="EJ8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EJ8" s="21" t="s">
+      <c r="EK8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EK8" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EL8" s="21" t="s">
         <v>0</v>
       </c>
@@ -4892,12 +4897,12 @@
       <c r="EV8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EW8" s="26" t="s">
+      <c r="EW8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EX8" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EX8" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EY8" s="21" t="s">
         <v>0</v>
       </c>
@@ -4910,8 +4915,11 @@
       <c r="FB8" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="FC8" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:158" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:159" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>38</v>
       </c>
@@ -4924,138 +4932,135 @@
       <c r="D9" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="N9" s="7"/>
       <c r="O9" s="7"/>
-      <c r="P9" s="14"/>
-      <c r="X9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="21">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="14"/>
+      <c r="Y9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="21">
         <v>1935</v>
       </c>
-      <c r="Z9" s="21" t="s">
+      <c r="AA9" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AB9" s="21">
         <v>21</v>
       </c>
-      <c r="AB9" s="29" t="s">
+      <c r="AC9" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="21">
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="21">
         <v>90</v>
       </c>
-      <c r="AE9" s="21" t="s">
+      <c r="AF9" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AF9" s="21" t="s">
+      <c r="AG9" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="AH9" s="21" t="s">
+      <c r="AI9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="AJ9" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="AK9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AL9" s="21" t="s">
+      <c r="AM9" s="21" t="s">
         <v>369</v>
-      </c>
-      <c r="AR9" s="18" t="s">
-        <v>316</v>
       </c>
       <c r="AS9" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="AT9" s="19" t="s">
+      <c r="AT9" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="AU9" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="21">
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AW9" s="21">
+      <c r="AX9" s="21">
         <v>3014524258</v>
-      </c>
-      <c r="AX9" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AY9" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AZ9" s="21" t="s">
-        <v>144</v>
+      <c r="AZ9" s="21">
+        <v>3015567865</v>
       </c>
       <c r="BA9" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="BH9" s="21" t="s">
+      <c r="BB9" s="21" t="s">
         <v>144</v>
       </c>
       <c r="BI9" s="21" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="BJ9" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BK9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL9" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="BL9" s="21" t="s">
+      <c r="BM9" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="BM9" s="21" t="s">
+      <c r="BN9" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="BN9" s="21" t="s">
+      <c r="BO9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BO9" s="21" t="s">
+      <c r="BP9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BP9" s="21" t="s">
+      <c r="BQ9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BQ9" s="21" t="s">
+      <c r="BR9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BR9" s="21" t="s">
+      <c r="BS9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BS9" s="21" t="s">
+      <c r="BT9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BT9" s="21" t="s">
+      <c r="BU9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BU9" s="21" t="s">
+      <c r="BV9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BV9" s="21" t="s">
+      <c r="BW9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BW9" s="21" t="s">
+      <c r="BX9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BX9" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="BY9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ9" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="CA9" s="21">
+      <c r="CB9" s="21">
         <v>119</v>
       </c>
-      <c r="CB9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CC9" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CG9" s="37" t="s">
+      <c r="CC9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CD9" s="37" t="s">
         <v>262</v>
       </c>
       <c r="CH9" s="37" t="s">
@@ -5067,113 +5072,113 @@
       <c r="CJ9" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CK9" s="21" t="s">
-        <v>0</v>
+      <c r="CK9" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="CL9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="CP9" s="21" t="s">
+      <c r="CM9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ9" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CQ9" s="21" t="s">
+      <c r="CR9" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CR9" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CS9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CT9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CT9" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="CU9" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="CV9" s="37" t="s">
+      <c r="CV9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CW9" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="CW9" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CX9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="DA9" s="21">
+      <c r="DB9" s="21">
         <v>102</v>
       </c>
-      <c r="DB9" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DC9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DD9" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="DD9" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="DE9" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="DG9" s="24"/>
-      <c r="DI9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DR9" s="21" t="s">
+      <c r="DF9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DH9" s="24"/>
+      <c r="DJ9" s="21" t="s">
         <v>133</v>
       </c>
       <c r="DS9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DT9" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DT9" s="21" t="s">
+      <c r="DU9" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DU9" s="23" t="s">
+      <c r="DV9" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="DV9" s="23"/>
-      <c r="DX9" s="21" t="s">
+      <c r="DW9" s="23"/>
+      <c r="DY9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DY9" s="21" t="s">
+      <c r="DZ9" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DZ9" s="21">
+      <c r="EA9" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EA9" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EB9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC9" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="EC9" s="21" t="s">
+      <c r="ED9" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="ED9" s="21" t="s">
+      <c r="EE9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EE9" s="21" t="s">
+      <c r="EF9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EF9" s="21" t="s">
+      <c r="EG9" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EG9" s="21" t="s">
+      <c r="EH9" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EH9" s="21" t="s">
+      <c r="EI9" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EI9" s="21" t="s">
+      <c r="EJ9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EJ9" s="21" t="s">
+      <c r="EK9" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EK9" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EL9" s="21" t="s">
         <v>133</v>
       </c>
@@ -5207,10 +5212,10 @@
       <c r="EV9" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EW9" s="26"/>
-      <c r="EX9" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EW9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EX9" s="26"/>
       <c r="EY9" s="21" t="s">
         <v>133</v>
       </c>
@@ -5223,8 +5228,11 @@
       <c r="FB9" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="FC9" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="10" spans="1:158" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:159" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>130</v>
       </c>
@@ -5237,340 +5245,337 @@
       <c r="G10" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="N10" s="7"/>
       <c r="O10" s="7"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="39" t="s">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="S10" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="S10" s="39" t="s">
+      <c r="T10" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="T10" s="39" t="s">
+      <c r="U10" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="U10" s="39" t="s">
+      <c r="V10" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="W10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="X10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="Y10" s="39">
+      <c r="Y10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="39">
         <v>1937</v>
       </c>
-      <c r="Z10" s="39" t="s">
+      <c r="AA10" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="AA10" s="39">
+      <c r="AB10" s="39">
         <v>21</v>
       </c>
-      <c r="AB10" s="40" t="s">
+      <c r="AC10" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="39">
+      <c r="AD10" s="41"/>
+      <c r="AE10" s="39">
         <v>88</v>
       </c>
-      <c r="AE10" s="39" t="s">
+      <c r="AF10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="AF10" s="45" t="s">
+      <c r="AG10" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="AH10" s="45" t="s">
+      <c r="AI10" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="AJ10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="AK10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="AL10" s="39" t="s">
+      <c r="AM10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="AM10" s="39" t="s">
+      <c r="AN10" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="AN10" s="39" t="s">
+      <c r="AO10" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="AO10" s="39" t="s">
+      <c r="AP10" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="AP10" s="39" t="s">
+      <c r="AQ10" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AQ10" s="39">
+      <c r="AR10" s="39">
         <v>28907</v>
       </c>
-      <c r="AR10" s="43" t="s">
+      <c r="AS10" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="AS10" s="42" t="s">
+      <c r="AT10" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="AT10" s="43" t="s">
+      <c r="AU10" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="AU10" s="43" t="s">
+      <c r="AV10" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="AV10" s="39">
+      <c r="AW10" s="39">
         <v>3015774089</v>
       </c>
-      <c r="AW10" s="39">
+      <c r="AX10" s="39">
         <v>3014524258</v>
       </c>
-      <c r="AX10" s="39">
+      <c r="AY10" s="39">
         <v>3015567865</v>
       </c>
-      <c r="AY10" s="39">
+      <c r="AZ10" s="39">
         <v>3015774089</v>
       </c>
-      <c r="AZ10" s="39" t="s">
+      <c r="BA10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="BA10" s="39" t="s">
+      <c r="BB10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="BB10" s="39" t="s">
+      <c r="BC10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="BC10" s="39" t="s">
+      <c r="BD10" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="BD10" s="39" t="s">
+      <c r="BE10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="BE10" s="39" t="s">
+      <c r="BF10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="BF10" s="39" t="s">
+      <c r="BG10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="BG10" s="39" t="s">
+      <c r="BH10" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="BH10" s="39" t="s">
+      <c r="BI10" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="BI10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="39" t="s">
+      <c r="BJ10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="BK10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="BL10" s="39" t="s">
+      <c r="BM10" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="BM10" s="39" t="s">
+      <c r="BN10" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="BN10" s="39" t="s">
+      <c r="BO10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BO10" s="39" t="s">
+      <c r="BP10" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="BP10" s="39" t="s">
+      <c r="BQ10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BQ10" s="39" t="s">
+      <c r="BR10" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="BR10" s="39" t="s">
+      <c r="BS10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BS10" s="39" t="s">
+      <c r="BT10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="BT10" s="39" t="s">
+      <c r="BU10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BU10" s="39" t="s">
+      <c r="BV10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="BV10" s="39" t="s">
+      <c r="BW10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BW10" s="39" t="s">
+      <c r="BX10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BX10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="BY10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="BZ10" s="41" t="s">
+      <c r="CA10" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="CB10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="CC10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD10" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="CG10" s="39" t="s">
+      <c r="CH10" s="39" t="s">
         <v>65</v>
-      </c>
-      <c r="CH10" s="46" t="s">
-        <v>262</v>
       </c>
       <c r="CI10" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="CJ10" s="39" t="s">
+      <c r="CJ10" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="CK10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="CL10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="CP10" s="39" t="s">
+      <c r="CM10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ10" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="CQ10" s="39" t="s">
+      <c r="CR10" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="CR10" s="39" t="s">
+      <c r="CS10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="CS10" s="39" t="s">
+      <c r="CT10" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="CT10" s="39" t="s">
+      <c r="CU10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="CU10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="CV10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="CW10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="CX10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY10" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="CY10" s="39" t="s">
+      <c r="CZ10" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="CZ10" s="39">
+      <c r="DA10" s="39">
         <v>1997</v>
       </c>
-      <c r="DB10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="DC10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DD10" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="DD10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="DE10" s="39" t="s">
         <v>0</v>
       </c>
       <c r="DF10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="DH10" s="39">
+      <c r="DI10" s="39">
         <v>103</v>
       </c>
-      <c r="DI10" s="39" t="s">
+      <c r="DJ10" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="DJ10" s="39" t="s">
+      <c r="DK10" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="DK10" s="39" t="s">
+      <c r="DL10" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="DL10" s="39" t="s">
+      <c r="DM10" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="DM10" s="39">
+      <c r="DN10" s="39">
         <v>1985</v>
       </c>
-      <c r="DO10" s="39" t="s">
+      <c r="DP10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DP10" s="39" t="s">
+      <c r="DQ10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="DQ10" s="39" t="s">
+      <c r="DR10" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="DR10" s="39" t="s">
-        <v>133</v>
-      </c>
       <c r="DS10" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="DT10" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="DT10" s="39" t="s">
+      <c r="DU10" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="DU10" s="39" t="s">
+      <c r="DV10" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="DW10" s="39" t="s">
+      <c r="DX10" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="DX10" s="39" t="s">
+      <c r="DY10" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="DY10" s="39" t="s">
+      <c r="DZ10" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="DZ10" s="39">
+      <c r="EA10" s="39">
         <v>3028976789</v>
       </c>
-      <c r="EA10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="EB10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC10" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="EC10" s="39" t="s">
+      <c r="ED10" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="ED10" s="39" t="s">
+      <c r="EE10" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="EE10" s="39" t="s">
+      <c r="EF10" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="EF10" s="39" t="s">
+      <c r="EG10" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="EG10" s="39" t="s">
+      <c r="EH10" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="EH10" s="39" t="s">
+      <c r="EI10" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="EI10" s="39" t="s">
+      <c r="EJ10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="EJ10" s="39" t="s">
+      <c r="EK10" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="EK10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="EL10" s="39" t="s">
         <v>0</v>
       </c>
@@ -5604,12 +5609,12 @@
       <c r="EV10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="EW10" s="44" t="s">
+      <c r="EW10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EX10" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="EX10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="EY10" s="39" t="s">
         <v>0</v>
       </c>
@@ -5622,8 +5627,11 @@
       <c r="FB10" s="39" t="s">
         <v>0</v>
       </c>
+      <c r="FC10" s="39" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:158" s="47" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:159" s="47" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>130</v>
       </c>
@@ -5636,252 +5644,249 @@
       <c r="G11" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="N11" s="7"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="47" t="s">
+      <c r="P11" s="7"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="R11" s="47" t="s">
+      <c r="S11" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="S11" s="47" t="s">
+      <c r="T11" s="47" t="s">
         <v>384</v>
-      </c>
-      <c r="T11" s="47" t="s">
-        <v>47</v>
       </c>
       <c r="U11" s="47" t="s">
         <v>47</v>
       </c>
       <c r="V11" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="W11" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="W11" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="X11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y11" s="47">
+        <v>133</v>
+      </c>
+      <c r="Y11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z11" s="47">
         <v>1935</v>
       </c>
-      <c r="Z11" s="47" t="s">
+      <c r="AA11" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="AA11" s="47">
+      <c r="AB11" s="47">
         <v>21</v>
       </c>
-      <c r="AB11" s="48" t="s">
+      <c r="AC11" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="AC11" s="49"/>
-      <c r="AD11" s="47">
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="47">
         <v>90</v>
       </c>
-      <c r="AE11" s="47" t="s">
+      <c r="AF11" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AF11" s="50" t="s">
+      <c r="AG11" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="AH11" s="50" t="s">
+      <c r="AI11" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="AJ11" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="AK11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL11" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="AL11" s="47" t="s">
+      <c r="AM11" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="AR11" s="51" t="s">
+      <c r="AS11" s="51" t="s">
         <v>323</v>
       </c>
-      <c r="AS11" s="52" t="s">
+      <c r="AT11" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="AT11" s="52" t="s">
+      <c r="AU11" s="52" t="s">
         <v>486</v>
       </c>
-      <c r="AU11" s="52" t="s">
+      <c r="AV11" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="AV11" s="47">
+      <c r="AW11" s="47">
         <v>3015774089</v>
       </c>
-      <c r="AW11" s="47">
+      <c r="AX11" s="47">
         <v>3014524258</v>
       </c>
-      <c r="AX11" s="47">
+      <c r="AY11" s="47">
         <v>3015567865</v>
       </c>
-      <c r="AY11" s="47">
+      <c r="AZ11" s="47">
         <v>3014524258</v>
       </c>
-      <c r="AZ11" s="47" t="s">
-        <v>144</v>
-      </c>
       <c r="BA11" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="BH11" s="47" t="s">
+      <c r="BB11" s="47" t="s">
         <v>144</v>
       </c>
       <c r="BI11" s="47" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="BJ11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="BX11" s="47" t="s">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="BK11" s="47" t="s">
+        <v>144</v>
       </c>
       <c r="BY11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="BZ11" s="53"/>
-      <c r="CB11" s="47" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="CA11" s="53"/>
       <c r="CC11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CD11" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="CG11" s="47" t="s">
+      <c r="CH11" s="47" t="s">
         <v>147</v>
-      </c>
-      <c r="CH11" s="46" t="s">
-        <v>262</v>
       </c>
       <c r="CI11" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="CJ11" s="47" t="s">
+      <c r="CJ11" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="CK11" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="CK11" s="47" t="s">
-        <v>0</v>
-      </c>
       <c r="CL11" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="CP11" s="47" t="s">
+      <c r="CM11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CQ11" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="CQ11" s="47" t="s">
+      <c r="CR11" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="CR11" s="47" t="s">
-        <v>144</v>
-      </c>
       <c r="CS11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="CT11" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="CT11" s="47" t="s">
-        <v>144</v>
-      </c>
       <c r="CU11" s="47" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="CV11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW11" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="CW11" s="47" t="s">
-        <v>0</v>
-      </c>
       <c r="CX11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CY11" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="DB11" s="47" t="s">
+      <c r="DC11" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="DC11" s="47" t="s">
+      <c r="DD11" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="DD11" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="DE11" s="47" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="DF11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="DG11" s="53"/>
-      <c r="DI11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="DH11" s="53"/>
+      <c r="DJ11" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="DJ11" s="47" t="s">
+      <c r="DK11" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="DK11" s="47" t="s">
+      <c r="DL11" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="DO11" s="47" t="s">
+      <c r="DP11" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="DP11" s="47" t="s">
+      <c r="DQ11" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="DQ11" s="47" t="s">
+      <c r="DR11" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="DR11" s="47" t="s">
-        <v>0</v>
-      </c>
       <c r="DS11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="DT11" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="DT11" s="47" t="s">
+      <c r="DU11" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="DU11" s="47" t="s">
+      <c r="DV11" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="DX11" s="47" t="s">
+      <c r="DY11" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="DY11" s="47" t="s">
+      <c r="DZ11" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="DZ11" s="47">
+      <c r="EA11" s="47">
         <v>3028976789</v>
       </c>
-      <c r="EA11" s="47" t="s">
-        <v>0</v>
-      </c>
       <c r="EB11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC11" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="EC11" s="47" t="s">
+      <c r="ED11" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="ED11" s="47" t="s">
+      <c r="EE11" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="EE11" s="47" t="s">
+      <c r="EF11" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="EF11" s="47" t="s">
+      <c r="EG11" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="EG11" s="47" t="s">
+      <c r="EH11" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="EH11" s="47" t="s">
+      <c r="EI11" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="EI11" s="47" t="s">
+      <c r="EJ11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="EJ11" s="47" t="s">
+      <c r="EK11" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="EK11" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="EL11" s="47" t="s">
         <v>133</v>
       </c>
@@ -5915,10 +5920,10 @@
       <c r="EV11" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="EW11" s="54"/>
-      <c r="EX11" s="47" t="s">
-        <v>133</v>
-      </c>
+      <c r="EW11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="EX11" s="54"/>
       <c r="EY11" s="47" t="s">
         <v>133</v>
       </c>
@@ -5931,8 +5936,11 @@
       <c r="FB11" s="47" t="s">
         <v>133</v>
       </c>
+      <c r="FC11" s="47" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="12" spans="1:158" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:159" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>130</v>
       </c>
@@ -5945,155 +5953,152 @@
       <c r="G12" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="21" t="s">
+      <c r="P12" s="7"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="S12" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="T12" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="U12" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="W12" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="X12" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y12" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z12" s="21">
         <v>1930</v>
       </c>
-      <c r="Z12" s="21" t="s">
+      <c r="AA12" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AA12" s="21">
+      <c r="AB12" s="21">
         <v>21</v>
       </c>
-      <c r="AB12" s="29" t="s">
+      <c r="AC12" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="AC12" s="22"/>
       <c r="AD12" s="22"/>
-      <c r="AE12" s="21" t="s">
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AJ12" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="AK12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL12" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AL12" s="21" t="s">
+      <c r="AM12" s="21" t="s">
         <v>379</v>
-      </c>
-      <c r="AR12" s="19" t="s">
-        <v>366</v>
       </c>
       <c r="AS12" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="AT12" s="19"/>
+      <c r="AT12" s="19" t="s">
+        <v>366</v>
+      </c>
       <c r="AU12" s="19"/>
-      <c r="AV12" s="21">
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AW12" s="21">
+      <c r="AX12" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AX12" s="21">
+      <c r="AY12" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AY12" s="21">
+      <c r="AZ12" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AZ12" s="21" t="s">
+      <c r="BA12" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="BA12" s="21" t="s">
+      <c r="BB12" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BH12" s="21" t="s">
+      <c r="BI12" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BJ12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BX12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CB12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CK12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CP12" s="21" t="s">
+      <c r="BK12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="BY12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CC12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CL12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ12" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CW12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DG12" s="24"/>
-      <c r="DR12" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="CX12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DH12" s="24"/>
       <c r="DS12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DT12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DT12" s="21" t="s">
+      <c r="DU12" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="DU12" s="21" t="s">
+      <c r="DV12" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="DX12" s="21" t="s">
+      <c r="DY12" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DY12" s="21" t="s">
+      <c r="DZ12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="DZ12" s="21">
+      <c r="EA12" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EA12" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EB12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EC12" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="EC12" s="21" t="s">
+      <c r="ED12" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="ED12" s="21" t="s">
+      <c r="EE12" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EE12" s="21" t="s">
+      <c r="EF12" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EF12" s="21" t="s">
+      <c r="EG12" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EG12" s="21" t="s">
+      <c r="EH12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EH12" s="21" t="s">
+      <c r="EI12" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EI12" s="21" t="s">
+      <c r="EJ12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EJ12" s="21" t="s">
+      <c r="EK12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EK12" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EL12" s="21" t="s">
         <v>133</v>
       </c>
@@ -6127,10 +6132,10 @@
       <c r="EV12" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EW12" s="26"/>
-      <c r="EX12" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="EW12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EX12" s="26"/>
       <c r="EY12" s="21" t="s">
         <v>133</v>
       </c>
@@ -6143,8 +6148,11 @@
       <c r="FB12" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="FC12" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="13" spans="1:158" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:159" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>130</v>
       </c>
@@ -6157,142 +6165,139 @@
       <c r="G13" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="21" t="s">
+      <c r="P13" s="7"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="S13" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="T13" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="T13" s="21" t="s">
+      <c r="U13" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="W13" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="X13" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="Y13" s="21">
+      <c r="Y13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z13" s="21">
         <v>1940</v>
       </c>
-      <c r="Z13" s="21" t="s">
+      <c r="AA13" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AA13" s="21">
+      <c r="AB13" s="21">
         <v>21</v>
       </c>
-      <c r="AB13" s="29" t="s">
+      <c r="AC13" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="AC13" s="22"/>
       <c r="AD13" s="22"/>
-      <c r="AE13" s="21" t="s">
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AJ13" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="AK13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AL13" s="21" t="s">
+      <c r="AM13" s="21" t="s">
         <v>380</v>
-      </c>
-      <c r="AR13" s="19" t="s">
-        <v>370</v>
       </c>
       <c r="AS13" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="AT13" s="19"/>
+      <c r="AT13" s="19" t="s">
+        <v>370</v>
+      </c>
       <c r="AU13" s="19"/>
-      <c r="AV13" s="21">
+      <c r="AV13" s="19"/>
+      <c r="AW13" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AW13" s="21">
+      <c r="AX13" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AX13" s="21">
+      <c r="AY13" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AY13" s="21">
+      <c r="AZ13" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AZ13" s="21" t="s">
+      <c r="BA13" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BA13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BH13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BJ13" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BX13" s="21" t="s">
-        <v>0</v>
+      <c r="BB13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BK13" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="BY13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CP13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CQ13" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CQ13" s="21" t="s">
+      <c r="CR13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CR13" s="21" t="s">
+      <c r="CS13" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CS13" s="21" t="s">
+      <c r="CT13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CT13" s="21" t="s">
+      <c r="CU13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CU13" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="CV13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CW13" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="EB13" s="21" t="s">
+      <c r="EC13" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="EC13" s="21" t="s">
+      <c r="ED13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="ED13" s="21" t="s">
+      <c r="EE13" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EE13" s="21" t="s">
+      <c r="EF13" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EF13" s="21" t="s">
+      <c r="EG13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EG13" s="21" t="s">
+      <c r="EH13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EH13" s="21" t="s">
+      <c r="EI13" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EI13" s="21" t="s">
+      <c r="EJ13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EJ13" s="21" t="s">
+      <c r="EK13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EK13" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="EL13" s="21" t="s">
         <v>144</v>
       </c>
@@ -6326,10 +6331,10 @@
       <c r="EV13" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EW13" s="26"/>
-      <c r="EX13" s="21" t="s">
-        <v>144</v>
-      </c>
+      <c r="EW13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="EX13" s="26"/>
       <c r="EY13" s="21" t="s">
         <v>144</v>
       </c>
@@ -6342,130 +6347,133 @@
       <c r="FB13" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="FC13" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="14" spans="1:158" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N14" s="7"/>
+    <row r="14" spans="1:159" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O14" s="7"/>
-      <c r="P14" s="14"/>
-      <c r="T14" s="25" t="s">
+      <c r="P14" s="7"/>
+      <c r="Q14" s="14"/>
+      <c r="U14" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="U14" s="25"/>
-      <c r="AA14" s="21">
+      <c r="V14" s="25"/>
+      <c r="AB14" s="21">
         <v>21</v>
-      </c>
-      <c r="AR14" s="19" t="s">
-        <v>391</v>
       </c>
       <c r="AS14" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="AT14" s="19"/>
+      <c r="AT14" s="19" t="s">
+        <v>391</v>
+      </c>
       <c r="AU14" s="19"/>
+      <c r="AV14" s="19"/>
     </row>
-    <row r="15" spans="1:158" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="N15" s="7"/>
+    <row r="15" spans="1:159" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="O15" s="7"/>
-      <c r="P15" s="14"/>
-      <c r="T15" s="21" t="s">
+      <c r="P15" s="7"/>
+      <c r="Q15" s="14"/>
+      <c r="U15" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="AA15" s="21">
+      <c r="AB15" s="21">
         <v>21</v>
-      </c>
-      <c r="AR15" s="19" t="s">
-        <v>392</v>
       </c>
       <c r="AS15" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="AT15" s="19"/>
+      <c r="AT15" s="19" t="s">
+        <v>392</v>
+      </c>
       <c r="AU15" s="19"/>
+      <c r="AV15" s="19"/>
     </row>
-    <row r="16" spans="1:158" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="N16" s="7"/>
+    <row r="16" spans="1:159" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="O16" s="7"/>
-      <c r="P16" s="14"/>
-      <c r="T16" s="21" t="s">
+      <c r="P16" s="7"/>
+      <c r="Q16" s="14"/>
+      <c r="U16" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="AA16" s="21">
+      <c r="AB16" s="21">
         <v>21</v>
-      </c>
-      <c r="AR16" s="19" t="s">
-        <v>393</v>
       </c>
       <c r="AS16" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="AT16" s="19"/>
+      <c r="AT16" s="19" t="s">
+        <v>393</v>
+      </c>
       <c r="AU16" s="19"/>
+      <c r="AV16" s="19"/>
     </row>
-    <row r="17" spans="14:47" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="N17" s="7"/>
+    <row r="17" spans="15:48" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="O17" s="7"/>
-      <c r="P17" s="14"/>
-      <c r="T17" s="21" t="s">
+      <c r="P17" s="7"/>
+      <c r="Q17" s="14"/>
+      <c r="U17" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="AR17" s="19" t="s">
-        <v>394</v>
       </c>
       <c r="AS17" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="AT17" s="19"/>
+      <c r="AT17" s="19" t="s">
+        <v>394</v>
+      </c>
       <c r="AU17" s="19"/>
+      <c r="AV17" s="19"/>
     </row>
-    <row r="18" spans="14:47" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="N18" s="7"/>
+    <row r="18" spans="15:48" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="O18" s="7"/>
-      <c r="P18" s="14"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:FB13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
+  <autoFilter ref="A1:FC13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AR7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
-    <hyperlink ref="AR4" r:id="rId2" xr:uid="{54A26098-2C02-B14A-A8B8-E895ACEFE8FC}"/>
-    <hyperlink ref="AS4" r:id="rId3" xr:uid="{19B8EC6B-4DE1-EF45-9AC5-07A97297CA08}"/>
-    <hyperlink ref="AR2" r:id="rId4" xr:uid="{CE9060F8-46A2-8E4A-9049-D259F5FF8833}"/>
-    <hyperlink ref="AS2" r:id="rId5" xr:uid="{9F426852-B12C-F246-BBD4-2DFF4046F17B}"/>
-    <hyperlink ref="AS7" r:id="rId6" xr:uid="{F867FCEE-CDE3-774C-AA60-18F374257445}"/>
-    <hyperlink ref="AR8" r:id="rId7" xr:uid="{FF13954F-3772-2244-8624-0759DAAA195B}"/>
-    <hyperlink ref="AS8" r:id="rId8" xr:uid="{DEA58592-D611-1446-A2DF-45ED1084017D}"/>
-    <hyperlink ref="AR5" r:id="rId9" xr:uid="{AE8E2947-9665-444E-BB61-535EF103703A}"/>
-    <hyperlink ref="AS5" r:id="rId10" xr:uid="{03D22372-21FE-6647-9FB7-E611341DF12C}"/>
-    <hyperlink ref="AR6" r:id="rId11" xr:uid="{38E74D40-B9B2-9F4F-A95C-07E96ED19969}"/>
-    <hyperlink ref="AR13" r:id="rId12" xr:uid="{A84CFFC5-66D9-2E4D-9EAF-A805310521D0}"/>
-    <hyperlink ref="AR12" r:id="rId13" xr:uid="{EE58DF3D-4E06-D242-A11C-C73725F63244}"/>
-    <hyperlink ref="AR9" r:id="rId14" xr:uid="{9561474B-13C0-5C45-A0AF-651803129C22}"/>
-    <hyperlink ref="AS9" r:id="rId15" xr:uid="{A1121A3E-E434-0D46-8060-8CC9554A173E}"/>
-    <hyperlink ref="AU10" r:id="rId16" xr:uid="{74DEEA39-9EE3-DA40-986A-18AB27D7AF3D}"/>
-    <hyperlink ref="AS10" r:id="rId17" xr:uid="{10D6E031-35FA-1A41-812A-AC8A67918A79}"/>
-    <hyperlink ref="AR11" r:id="rId18" xr:uid="{E72B4306-86EB-094D-A7D7-3CE674C9E99B}"/>
-    <hyperlink ref="AS11" r:id="rId19" xr:uid="{BBD42CF8-45B8-BC4C-8616-E5054108E74E}"/>
-    <hyperlink ref="AS12" r:id="rId20" xr:uid="{CB1028F2-6BEB-9845-BBBF-2CCF7E196D7E}"/>
-    <hyperlink ref="AS13" r:id="rId21" xr:uid="{38A05DA8-5083-B64C-9BB7-7515D994A102}"/>
-    <hyperlink ref="AR14:AR17" r:id="rId22" display="charmsparticipant12@yopmail.com" xr:uid="{F7B2D757-0C7A-4D43-8200-C0254FB3451B}"/>
-    <hyperlink ref="AR14" r:id="rId23" xr:uid="{00D2EC9C-C0B0-A94F-A0A4-8DCEB003125B}"/>
-    <hyperlink ref="AR15" r:id="rId24" xr:uid="{4B08829F-C727-1F4D-8585-8623FDC25445}"/>
-    <hyperlink ref="AR16" r:id="rId25" xr:uid="{D67C22F6-0FF5-2A43-9F6B-E465DA043CCB}"/>
-    <hyperlink ref="AR17" r:id="rId26" xr:uid="{39CD3A02-5AC2-A349-A912-CB63C565E8B1}"/>
-    <hyperlink ref="AS14:AS17" r:id="rId27" display="charmsparticipant12@yopmail.com" xr:uid="{0D113990-F28B-4045-82B3-3B329AB1A52B}"/>
-    <hyperlink ref="AT2" r:id="rId28" xr:uid="{E22D24ED-7C96-1446-A5F8-21D1507C6179}"/>
-    <hyperlink ref="AT3" r:id="rId29" xr:uid="{70C65664-4427-354A-B785-E0B132A43F5C}"/>
-    <hyperlink ref="AT4" r:id="rId30" xr:uid="{CC02BCBB-3BDC-CE48-A7EB-DEE29B97C95A}"/>
-    <hyperlink ref="AT5:AT11" r:id="rId31" display="sj.fanconitester3@yopmail.com" xr:uid="{E1A1E55B-77EC-F549-BF2B-EE817EA7E8DB}"/>
-    <hyperlink ref="AT5" r:id="rId32" xr:uid="{3BFA334B-C797-5844-9469-BDCBE15B724A}"/>
-    <hyperlink ref="AT6" r:id="rId33" xr:uid="{A23BBEA4-5507-924C-9662-585110B0F717}"/>
-    <hyperlink ref="AT7" r:id="rId34" xr:uid="{41B062F1-F9CB-704F-818B-85592F6D9883}"/>
-    <hyperlink ref="AT8" r:id="rId35" xr:uid="{7C53923E-E953-094F-A49D-C82B1F6B95B8}"/>
-    <hyperlink ref="AT9" r:id="rId36" xr:uid="{DDC7D204-E39A-FC48-A4E1-997987E166A4}"/>
-    <hyperlink ref="AT10" r:id="rId37" xr:uid="{0AF75C1A-C67C-FB4B-AE7C-3961DA7F4B14}"/>
-    <hyperlink ref="AT11" r:id="rId38" xr:uid="{8ACA7222-D208-AD4D-8034-E244E11A98B6}"/>
-    <hyperlink ref="AR10" r:id="rId39" xr:uid="{289B06F2-9A86-3847-B5A3-0A3F844F7476}"/>
-    <hyperlink ref="AU11" r:id="rId40" xr:uid="{61E7E9C0-9075-1940-B5D8-4DC1910A82BB}"/>
+    <hyperlink ref="AS7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
+    <hyperlink ref="AS4" r:id="rId2" xr:uid="{54A26098-2C02-B14A-A8B8-E895ACEFE8FC}"/>
+    <hyperlink ref="AT4" r:id="rId3" xr:uid="{19B8EC6B-4DE1-EF45-9AC5-07A97297CA08}"/>
+    <hyperlink ref="AS2" r:id="rId4" xr:uid="{CE9060F8-46A2-8E4A-9049-D259F5FF8833}"/>
+    <hyperlink ref="AT2" r:id="rId5" xr:uid="{9F426852-B12C-F246-BBD4-2DFF4046F17B}"/>
+    <hyperlink ref="AT7" r:id="rId6" xr:uid="{F867FCEE-CDE3-774C-AA60-18F374257445}"/>
+    <hyperlink ref="AS8" r:id="rId7" xr:uid="{FF13954F-3772-2244-8624-0759DAAA195B}"/>
+    <hyperlink ref="AT8" r:id="rId8" xr:uid="{DEA58592-D611-1446-A2DF-45ED1084017D}"/>
+    <hyperlink ref="AS5" r:id="rId9" xr:uid="{AE8E2947-9665-444E-BB61-535EF103703A}"/>
+    <hyperlink ref="AT5" r:id="rId10" xr:uid="{03D22372-21FE-6647-9FB7-E611341DF12C}"/>
+    <hyperlink ref="AS6" r:id="rId11" xr:uid="{38E74D40-B9B2-9F4F-A95C-07E96ED19969}"/>
+    <hyperlink ref="AS13" r:id="rId12" xr:uid="{A84CFFC5-66D9-2E4D-9EAF-A805310521D0}"/>
+    <hyperlink ref="AS12" r:id="rId13" xr:uid="{EE58DF3D-4E06-D242-A11C-C73725F63244}"/>
+    <hyperlink ref="AS9" r:id="rId14" xr:uid="{9561474B-13C0-5C45-A0AF-651803129C22}"/>
+    <hyperlink ref="AT9" r:id="rId15" xr:uid="{A1121A3E-E434-0D46-8060-8CC9554A173E}"/>
+    <hyperlink ref="AV10" r:id="rId16" xr:uid="{74DEEA39-9EE3-DA40-986A-18AB27D7AF3D}"/>
+    <hyperlink ref="AT10" r:id="rId17" xr:uid="{10D6E031-35FA-1A41-812A-AC8A67918A79}"/>
+    <hyperlink ref="AS11" r:id="rId18" xr:uid="{E72B4306-86EB-094D-A7D7-3CE674C9E99B}"/>
+    <hyperlink ref="AT11" r:id="rId19" xr:uid="{BBD42CF8-45B8-BC4C-8616-E5054108E74E}"/>
+    <hyperlink ref="AT12" r:id="rId20" xr:uid="{CB1028F2-6BEB-9845-BBBF-2CCF7E196D7E}"/>
+    <hyperlink ref="AT13" r:id="rId21" xr:uid="{38A05DA8-5083-B64C-9BB7-7515D994A102}"/>
+    <hyperlink ref="AS14:AS17" r:id="rId22" display="charmsparticipant12@yopmail.com" xr:uid="{F7B2D757-0C7A-4D43-8200-C0254FB3451B}"/>
+    <hyperlink ref="AS14" r:id="rId23" xr:uid="{00D2EC9C-C0B0-A94F-A0A4-8DCEB003125B}"/>
+    <hyperlink ref="AS15" r:id="rId24" xr:uid="{4B08829F-C727-1F4D-8585-8623FDC25445}"/>
+    <hyperlink ref="AS16" r:id="rId25" xr:uid="{D67C22F6-0FF5-2A43-9F6B-E465DA043CCB}"/>
+    <hyperlink ref="AS17" r:id="rId26" xr:uid="{39CD3A02-5AC2-A349-A912-CB63C565E8B1}"/>
+    <hyperlink ref="AT14:AT17" r:id="rId27" display="charmsparticipant12@yopmail.com" xr:uid="{0D113990-F28B-4045-82B3-3B329AB1A52B}"/>
+    <hyperlink ref="AU2" r:id="rId28" xr:uid="{E22D24ED-7C96-1446-A5F8-21D1507C6179}"/>
+    <hyperlink ref="AU3" r:id="rId29" xr:uid="{70C65664-4427-354A-B785-E0B132A43F5C}"/>
+    <hyperlink ref="AU4" r:id="rId30" xr:uid="{CC02BCBB-3BDC-CE48-A7EB-DEE29B97C95A}"/>
+    <hyperlink ref="AU5:AU11" r:id="rId31" display="sj.fanconitester3@yopmail.com" xr:uid="{E1A1E55B-77EC-F549-BF2B-EE817EA7E8DB}"/>
+    <hyperlink ref="AU5" r:id="rId32" xr:uid="{3BFA334B-C797-5844-9469-BDCBE15B724A}"/>
+    <hyperlink ref="AU6" r:id="rId33" xr:uid="{A23BBEA4-5507-924C-9662-585110B0F717}"/>
+    <hyperlink ref="AU7" r:id="rId34" xr:uid="{41B062F1-F9CB-704F-818B-85592F6D9883}"/>
+    <hyperlink ref="AU8" r:id="rId35" xr:uid="{7C53923E-E953-094F-A49D-C82B1F6B95B8}"/>
+    <hyperlink ref="AU9" r:id="rId36" xr:uid="{DDC7D204-E39A-FC48-A4E1-997987E166A4}"/>
+    <hyperlink ref="AU10" r:id="rId37" xr:uid="{0AF75C1A-C67C-FB4B-AE7C-3961DA7F4B14}"/>
+    <hyperlink ref="AU11" r:id="rId38" xr:uid="{8ACA7222-D208-AD4D-8034-E244E11A98B6}"/>
+    <hyperlink ref="AS10" r:id="rId39" xr:uid="{289B06F2-9A86-3847-B5A3-0A3F844F7476}"/>
+    <hyperlink ref="AV11" r:id="rId40" xr:uid="{61E7E9C0-9075-1940-B5D8-4DC1910A82BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D43525-F857-4E46-B5F1-B98810A465D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C209F2-CDDC-0448-AE83-0A584A69343B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10480" yWindow="500" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="fanconiScreenerScenario" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$FC$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">FanconiScreener!$A$1:$FF$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="523">
   <si>
     <t>Yes</t>
   </si>
@@ -1571,9 +1571,6 @@
     <t>ProxyZipCode</t>
   </si>
   <si>
-    <t>ProxyEmail</t>
-  </si>
-  <si>
     <t>ProxyPhoneNumber</t>
   </si>
   <si>
@@ -1587,6 +1584,36 @@
   </si>
   <si>
     <t>ProxyStreetAddress2</t>
+  </si>
+  <si>
+    <t>ProxyPreferredEmailAddress</t>
+  </si>
+  <si>
+    <t>sj.fanconitester11@yopmail.com</t>
+  </si>
+  <si>
+    <t>sj.fanconitester12@yopmail.com</t>
+  </si>
+  <si>
+    <t>sj.fanconitester13@yopmail.com</t>
+  </si>
+  <si>
+    <t>ProxyCountry</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>PreferredPhoneNumberInStudyScreener</t>
+  </si>
+  <si>
+    <t>home_phone</t>
+  </si>
+  <si>
+    <t>cell_phone</t>
+  </si>
+  <si>
+    <t>work_phone</t>
   </si>
 </sst>
 </file>
@@ -2301,11 +2328,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:FC18"/>
+  <dimension ref="A1:FF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AY10" sqref="AY10:BB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2315,59 +2342,63 @@
     <col min="3" max="3" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="3" customWidth="1"/>
-    <col min="6" max="14" width="9.5" style="3" customWidth="1"/>
-    <col min="15" max="16" width="9.5" style="7" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="14" customWidth="1"/>
-    <col min="18" max="18" width="16.5" style="3" customWidth="1"/>
-    <col min="19" max="20" width="9.5" style="3" customWidth="1"/>
-    <col min="21" max="22" width="12.5" style="3" customWidth="1"/>
-    <col min="23" max="24" width="9.5" style="3" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="13.33203125" style="3" customWidth="1"/>
-    <col min="32" max="32" width="21.83203125" style="3" customWidth="1"/>
-    <col min="33" max="33" width="20.1640625" style="3" customWidth="1"/>
-    <col min="34" max="34" width="19.83203125" style="3" customWidth="1"/>
-    <col min="35" max="35" width="19.1640625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="24" style="3" customWidth="1"/>
-    <col min="37" max="37" width="8" style="3" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14.83203125" style="3" customWidth="1"/>
-    <col min="39" max="39" width="22.83203125" style="3" customWidth="1"/>
-    <col min="40" max="40" width="17.6640625" style="3" customWidth="1"/>
-    <col min="41" max="41" width="19" style="3" customWidth="1"/>
-    <col min="42" max="42" width="13.5" style="3" customWidth="1"/>
-    <col min="43" max="43" width="5.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="33.33203125" style="3" customWidth="1"/>
-    <col min="46" max="48" width="30.6640625" style="3" customWidth="1"/>
-    <col min="49" max="49" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.5" style="3" customWidth="1"/>
-    <col min="54" max="54" width="18" style="3" customWidth="1"/>
-    <col min="55" max="55" width="12.5" style="3" customWidth="1"/>
-    <col min="56" max="56" width="16" style="3" customWidth="1"/>
-    <col min="57" max="57" width="16.5" style="3" customWidth="1"/>
-    <col min="58" max="58" width="7" style="3" customWidth="1"/>
-    <col min="59" max="59" width="12.6640625" style="3" customWidth="1"/>
-    <col min="60" max="60" width="10.83203125" style="3" customWidth="1"/>
-    <col min="61" max="62" width="28.6640625" style="3" customWidth="1"/>
-    <col min="63" max="63" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="36.5" style="3" customWidth="1"/>
-    <col min="66" max="66" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="67" max="76" width="20.33203125" style="3" customWidth="1"/>
-    <col min="77" max="77" width="16.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="79" max="80" width="20.1640625" style="3" customWidth="1"/>
-    <col min="81" max="132" width="20.83203125" style="3"/>
-    <col min="133" max="133" width="38.33203125" style="3" customWidth="1"/>
-    <col min="134" max="16384" width="20.83203125" style="3"/>
+    <col min="6" max="13" width="9.5" style="3" customWidth="1"/>
+    <col min="14" max="15" width="31.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="17" style="7" customWidth="1"/>
+    <col min="19" max="19" width="26.83203125" style="14" customWidth="1"/>
+    <col min="20" max="20" width="16.5" style="3" customWidth="1"/>
+    <col min="21" max="22" width="9.5" style="3" customWidth="1"/>
+    <col min="23" max="24" width="12.5" style="3" customWidth="1"/>
+    <col min="25" max="26" width="9.5" style="3" customWidth="1"/>
+    <col min="27" max="27" width="15.33203125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="13.33203125" style="3" customWidth="1"/>
+    <col min="34" max="34" width="21.83203125" style="3" customWidth="1"/>
+    <col min="35" max="35" width="20.1640625" style="3" customWidth="1"/>
+    <col min="36" max="36" width="19.83203125" style="3" customWidth="1"/>
+    <col min="37" max="37" width="19.1640625" style="3" customWidth="1"/>
+    <col min="38" max="38" width="24" style="3" customWidth="1"/>
+    <col min="39" max="39" width="8" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.83203125" style="3" customWidth="1"/>
+    <col min="41" max="41" width="22.83203125" style="3" customWidth="1"/>
+    <col min="42" max="42" width="17.6640625" style="3" customWidth="1"/>
+    <col min="43" max="43" width="19" style="3" customWidth="1"/>
+    <col min="44" max="44" width="13.5" style="3" customWidth="1"/>
+    <col min="45" max="45" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="33.33203125" style="3" customWidth="1"/>
+    <col min="48" max="50" width="30.6640625" style="3" customWidth="1"/>
+    <col min="51" max="51" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.6640625" style="3" customWidth="1"/>
+    <col min="56" max="56" width="22.5" style="3" customWidth="1"/>
+    <col min="57" max="57" width="18" style="3" customWidth="1"/>
+    <col min="58" max="58" width="12.5" style="3" customWidth="1"/>
+    <col min="59" max="59" width="16" style="3" customWidth="1"/>
+    <col min="60" max="60" width="16.5" style="3" customWidth="1"/>
+    <col min="61" max="61" width="7" style="3" customWidth="1"/>
+    <col min="62" max="62" width="12.6640625" style="3" customWidth="1"/>
+    <col min="63" max="63" width="10.83203125" style="3" customWidth="1"/>
+    <col min="64" max="65" width="28.6640625" style="3" customWidth="1"/>
+    <col min="66" max="66" width="20.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="36.5" style="3" customWidth="1"/>
+    <col min="69" max="69" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="70" max="79" width="20.33203125" style="3" customWidth="1"/>
+    <col min="80" max="80" width="16.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="20.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="20.1640625" style="3" customWidth="1"/>
+    <col min="84" max="135" width="20.83203125" style="3"/>
+    <col min="136" max="136" width="38.33203125" style="3" customWidth="1"/>
+    <col min="137" max="16384" width="20.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:162" s="13" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>187</v>
       </c>
@@ -2393,7 +2424,7 @@
         <v>504</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="J1" s="7" t="s">
         <v>505</v>
@@ -2402,451 +2433,460 @@
         <v>506</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P1" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="Q1" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="R1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AH1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AI1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="AK1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" s="7" t="s">
+      <c r="AQ1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AP1" s="7" t="s">
+      <c r="AR1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AQ1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AW1" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AY1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AZ1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="BA1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AZ1" s="14" t="s">
+      <c r="BB1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BC1" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="BD1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BE1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BF1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BG1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BH1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BI1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BJ1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BK1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BL1" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BM1" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="BK1" s="16" t="s">
+      <c r="BN1" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="BL1" s="16" t="s">
+      <c r="BO1" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="BM1" s="16" t="s">
+      <c r="BP1" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="BN1" s="16" t="s">
+      <c r="BQ1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="BO1" s="16" t="s">
+      <c r="BR1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="BP1" s="16" t="s">
+      <c r="BS1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="BQ1" s="16" t="s">
+      <c r="BT1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="BR1" s="16" t="s">
+      <c r="BU1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="BS1" s="16" t="s">
+      <c r="BV1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="BT1" s="16" t="s">
+      <c r="BW1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="BU1" s="16" t="s">
+      <c r="BX1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="BV1" s="16" t="s">
+      <c r="BY1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="BW1" s="16" t="s">
+      <c r="BZ1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="BX1" s="16" t="s">
+      <c r="CA1" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="BY1" s="13" t="s">
+      <c r="CB1" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="BZ1" s="13" t="s">
+      <c r="CC1" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="CA1" s="13" t="s">
+      <c r="CD1" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="CB1" s="13" t="s">
+      <c r="CE1" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="CC1" s="13" t="s">
+      <c r="CF1" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="CD1" s="13" t="s">
+      <c r="CG1" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="CE1" s="13" t="s">
+      <c r="CH1" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="CF1" s="13" t="s">
+      <c r="CI1" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="CG1" s="13" t="s">
+      <c r="CJ1" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="CH1" s="13" t="s">
+      <c r="CK1" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="CI1" s="13" t="s">
+      <c r="CL1" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="CJ1" s="13" t="s">
+      <c r="CM1" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="CK1" s="13" t="s">
+      <c r="CN1" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="CL1" s="13" t="s">
+      <c r="CO1" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="CM1" s="13" t="s">
+      <c r="CP1" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="CN1" s="13" t="s">
+      <c r="CQ1" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="CO1" s="13" t="s">
+      <c r="CR1" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="CP1" s="13" t="s">
+      <c r="CS1" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="CQ1" s="13" t="s">
+      <c r="CT1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="CR1" s="13" t="s">
+      <c r="CU1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="CS1" s="13" t="s">
+      <c r="CV1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="CT1" s="13" t="s">
+      <c r="CW1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="CU1" s="13" t="s">
+      <c r="CX1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="CV1" s="13" t="s">
+      <c r="CY1" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="CW1" s="13" t="s">
+      <c r="CZ1" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="CX1" s="13" t="s">
+      <c r="DA1" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="CY1" s="13" t="s">
+      <c r="DB1" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="CZ1" s="13" t="s">
+      <c r="DC1" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="DA1" s="13" t="s">
+      <c r="DD1" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="DB1" s="13" t="s">
+      <c r="DE1" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="DC1" s="13" t="s">
+      <c r="DF1" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="DD1" s="13" t="s">
+      <c r="DG1" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="DE1" s="13" t="s">
+      <c r="DH1" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="DF1" s="13" t="s">
+      <c r="DI1" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="DG1" s="13" t="s">
+      <c r="DJ1" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="DH1" s="13" t="s">
+      <c r="DK1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="DI1" s="13" t="s">
+      <c r="DL1" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="DJ1" s="13" t="s">
+      <c r="DM1" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="DK1" s="13" t="s">
+      <c r="DN1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="DL1" s="13" t="s">
+      <c r="DO1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="DM1" s="13" t="s">
+      <c r="DP1" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="DN1" s="13" t="s">
+      <c r="DQ1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="DO1" s="13" t="s">
+      <c r="DR1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="DP1" s="13" t="s">
+      <c r="DS1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="DQ1" s="13" t="s">
+      <c r="DT1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="DR1" s="13" t="s">
+      <c r="DU1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="DS1" s="13" t="s">
+      <c r="DV1" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="DT1" s="13" t="s">
+      <c r="DW1" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="DU1" s="13" t="s">
+      <c r="DX1" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="DV1" s="13" t="s">
+      <c r="DY1" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="DW1" s="13" t="s">
+      <c r="DZ1" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="DX1" s="13" t="s">
+      <c r="EA1" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="DY1" s="13" t="s">
+      <c r="EB1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="DZ1" s="13" t="s">
+      <c r="EC1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="EA1" s="13" t="s">
+      <c r="ED1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="EB1" s="13" t="s">
+      <c r="EE1" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="EC1" s="13" t="s">
+      <c r="EF1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="ED1" s="13" t="s">
+      <c r="EG1" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="EE1" s="13" t="s">
+      <c r="EH1" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="EF1" s="13" t="s">
+      <c r="EI1" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="EG1" s="13" t="s">
+      <c r="EJ1" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="EH1" s="13" t="s">
+      <c r="EK1" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="EI1" s="13" t="s">
+      <c r="EL1" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="EJ1" s="13" t="s">
+      <c r="EM1" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="EK1" s="13" t="s">
+      <c r="EN1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="EL1" s="17" t="s">
+      <c r="EO1" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="EM1" s="17" t="s">
+      <c r="EP1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="EN1" s="17" t="s">
+      <c r="EQ1" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="EO1" s="17" t="s">
+      <c r="ER1" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="EP1" s="17" t="s">
+      <c r="ES1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="EQ1" s="17" t="s">
+      <c r="ET1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="ER1" s="17" t="s">
+      <c r="EU1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="ES1" s="17" t="s">
+      <c r="EV1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="ET1" s="17" t="s">
+      <c r="EW1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="EU1" s="17" t="s">
+      <c r="EX1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="EV1" s="17" t="s">
+      <c r="EY1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="EW1" s="17" t="s">
+      <c r="EZ1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="EX1" s="17" t="s">
+      <c r="FA1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="EY1" s="17" t="s">
+      <c r="FB1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="EZ1" s="17" t="s">
+      <c r="FC1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="FA1" s="17" t="s">
+      <c r="FD1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="FB1" s="17" t="s">
+      <c r="FE1" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="FC1" s="17" t="s">
+      <c r="FF1" s="17" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:159" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:162" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>38</v>
       </c>
@@ -2873,326 +2913,325 @@
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
       <c r="N2" s="29"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="14"/>
-      <c r="Y2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="21">
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="14"/>
+      <c r="X2" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="21">
         <v>1948</v>
       </c>
-      <c r="AA2" s="21" t="s">
+      <c r="AC2" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AB2" s="21">
+      <c r="AD2" s="21">
         <v>21</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AE2" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="21">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="21">
         <v>77</v>
       </c>
-      <c r="AF2" s="21" t="s">
+      <c r="AH2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" s="21" t="s">
+      <c r="AI2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="21" t="s">
+      <c r="AK2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AK2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="21" t="s">
+      <c r="AM2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AM2" s="21" t="s">
+      <c r="AO2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AP2" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="AO2" s="21" t="s">
+      <c r="AQ2" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="AP2" s="21" t="s">
+      <c r="AR2" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="AQ2" s="21" t="s">
+      <c r="AS2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AR2" s="21">
+      <c r="AT2" s="21">
         <v>28907</v>
       </c>
-      <c r="AS2" s="18" t="s">
+      <c r="AU2" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="AT2" s="18" t="s">
+      <c r="AV2" s="18" t="s">
         <v>295</v>
       </c>
-      <c r="AU2" s="19" t="s">
+      <c r="AW2" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="21">
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AX2" s="21">
+      <c r="AZ2" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AY2" s="21">
+      <c r="BA2" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AZ2" s="21">
+      <c r="BB2" s="21">
         <v>3015774089</v>
       </c>
-      <c r="BA2" s="21" t="s">
+      <c r="BC2" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="BD2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="BB2" s="21" t="s">
+      <c r="BE2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BC2" s="21" t="s">
+      <c r="BF2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BD2" s="21" t="s">
+      <c r="BG2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BE2" s="21" t="s">
+      <c r="BH2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BF2" s="21" t="s">
+      <c r="BI2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="BG2" s="21" t="s">
+      <c r="BJ2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BH2" s="21" t="s">
+      <c r="BK2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BI2" s="21" t="s">
+      <c r="BL2" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="BJ2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL2" s="21" t="s">
+      <c r="BM2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="BM2" s="21" t="s">
+      <c r="BP2" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="BN2" s="21" t="s">
+      <c r="BQ2" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="BO2" s="21" t="s">
+      <c r="BR2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BP2" s="21" t="s">
+      <c r="BS2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BQ2" s="21" t="s">
+      <c r="BT2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BR2" s="21" t="s">
+      <c r="BU2" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BS2" s="21" t="s">
+      <c r="BV2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BT2" s="21" t="s">
+      <c r="BW2" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BU2" s="21" t="s">
+      <c r="BX2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BV2" s="21" t="s">
+      <c r="BY2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BW2" s="21" t="s">
+      <c r="BZ2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BX2" s="21" t="s">
+      <c r="CA2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BY2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ2" s="21" t="s">
+      <c r="CB2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC2" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="CB2" s="21">
+      <c r="CE2" s="21">
         <v>91</v>
       </c>
-      <c r="CC2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD2" s="21" t="s">
+      <c r="CF2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG2" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="CH2" s="21" t="s">
+      <c r="CK2" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="CI2" s="37" t="s">
+      <c r="CL2" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CJ2" s="37" t="s">
+      <c r="CM2" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CK2" s="21" t="s">
+      <c r="CN2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CL2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ2" s="21" t="s">
+      <c r="CO2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT2" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CR2" s="21" t="s">
+      <c r="CU2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CS2" s="21" t="s">
+      <c r="CV2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CT2" s="21" t="s">
+      <c r="CW2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CU2" s="21" t="s">
+      <c r="CX2" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CV2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW2" s="21" t="s">
+      <c r="CY2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CX2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY2" s="21" t="s">
+      <c r="DA2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DB2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="CZ2" s="21" t="s">
+      <c r="DC2" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="DA2" s="21">
+      <c r="DD2" s="21">
         <v>1997</v>
       </c>
-      <c r="DC2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DD2" s="21" t="s">
+      <c r="DF2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DG2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="DE2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DF2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG2" s="21" t="s">
+      <c r="DH2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ2" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="DI2" s="21">
+      <c r="DL2" s="21">
         <v>101</v>
       </c>
-      <c r="DJ2" s="21" t="s">
+      <c r="DM2" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="DK2" s="21" t="s">
+      <c r="DN2" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DL2" s="21" t="s">
+      <c r="DO2" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="DM2" s="21" t="s">
+      <c r="DP2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="DN2" s="21">
+      <c r="DQ2" s="21">
         <v>1985</v>
       </c>
-      <c r="DP2" s="21" t="s">
+      <c r="DS2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="DQ2" s="21" t="s">
+      <c r="DT2" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="DR2" s="21" t="s">
+      <c r="DU2" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="DS2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT2" s="21" t="s">
+      <c r="DV2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW2" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DU2" s="21" t="s">
+      <c r="DX2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DV2" s="21" t="s">
+      <c r="DY2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="DX2" s="21" t="s">
+      <c r="EA2" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="DY2" s="21" t="s">
+      <c r="EB2" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DZ2" s="21" t="s">
+      <c r="EC2" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="EA2" s="21">
+      <c r="ED2" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EB2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC2" s="21" t="s">
+      <c r="EE2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF2" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="ED2" s="21" t="s">
+      <c r="EG2" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="EE2" s="21" t="s">
+      <c r="EH2" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EF2" s="21" t="s">
+      <c r="EI2" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EG2" s="21" t="s">
+      <c r="EJ2" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EH2" s="21" t="s">
+      <c r="EK2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EI2" s="21" t="s">
+      <c r="EL2" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EJ2" s="21" t="s">
+      <c r="EM2" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EK2" s="21" t="s">
+      <c r="EN2" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EL2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EM2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EN2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EO2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3220,26 +3259,35 @@
       <c r="EW2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EX2" s="26" t="s">
+      <c r="EX2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA2" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EY2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EZ2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="FA2" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="FB2" s="21" t="s">
         <v>0</v>
       </c>
       <c r="FC2" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="FD2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FE2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FF2" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:159" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:162" s="21" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
         <v>38</v>
       </c>
@@ -3261,260 +3309,259 @@
       <c r="L3" s="38"/>
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="14"/>
-      <c r="Y3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z3" s="21">
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="14"/>
+      <c r="X3" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB3" s="21">
         <v>1960</v>
       </c>
-      <c r="AA3" s="21" t="s">
+      <c r="AC3" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AB3" s="21">
+      <c r="AD3" s="21">
         <v>21</v>
       </c>
-      <c r="AC3" s="29" t="s">
+      <c r="AE3" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="AD3" s="22"/>
-      <c r="AE3" s="21">
+      <c r="AF3" s="22"/>
+      <c r="AG3" s="21">
         <v>65</v>
       </c>
-      <c r="AF3" s="21" t="s">
+      <c r="AH3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AG3" s="21" t="s">
+      <c r="AI3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AI3" s="21" t="s">
+      <c r="AK3" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="AK3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL3" s="21" t="s">
+      <c r="AM3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN3" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AM3" s="21" t="s">
+      <c r="AO3" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="AS3" s="18" t="s">
+      <c r="AU3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="AT3" s="18" t="s">
+      <c r="AV3" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="AU3" s="19" t="s">
+      <c r="AW3" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="21">
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="21">
         <v>3015774089</v>
-      </c>
-      <c r="AX3" s="21">
-        <v>3014524258</v>
-      </c>
-      <c r="AY3" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AZ3" s="21">
         <v>3014524258</v>
       </c>
-      <c r="BA3" s="21" t="s">
+      <c r="BA3" s="21">
+        <v>3015567865</v>
+      </c>
+      <c r="BB3" s="21">
+        <v>3014524258</v>
+      </c>
+      <c r="BC3" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="BD3" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="BB3" s="21" t="s">
+      <c r="BE3" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BC3" s="21" t="s">
+      <c r="BF3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BD3" s="21" t="s">
+      <c r="BG3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BE3" s="21" t="s">
+      <c r="BH3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="BF3" s="21" t="s">
+      <c r="BI3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="BG3" s="21" t="s">
+      <c r="BJ3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="BH3" s="21" t="s">
+      <c r="BK3" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BI3" s="21" t="s">
+      <c r="BL3" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="BJ3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BY3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ3" s="21" t="s">
+      <c r="BM3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="CA3" s="22" t="s">
+      <c r="CD3" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="CC3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD3" s="21" t="s">
+      <c r="CF3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="CH3" s="21" t="s">
+      <c r="CK3" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="CI3" s="37" t="s">
+      <c r="CL3" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CJ3" s="37" t="s">
+      <c r="CM3" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CK3" s="21" t="s">
+      <c r="CN3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="CL3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ3" s="21" t="s">
+      <c r="CO3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CR3" s="21" t="s">
+      <c r="CU3" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CS3" s="21" t="s">
+      <c r="CV3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CT3" s="21" t="s">
+      <c r="CW3" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CU3" s="21" t="s">
+      <c r="CX3" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CV3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW3" s="21" t="s">
+      <c r="CY3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="CX3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY3" s="21" t="s">
+      <c r="DA3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DB3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="DB3" s="21">
+      <c r="DE3" s="21">
         <v>100</v>
       </c>
-      <c r="DC3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DD3" s="21" t="s">
+      <c r="DF3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG3" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="DE3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DF3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG3" s="21" t="s">
+      <c r="DH3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="DH3" s="22" t="s">
+      <c r="DK3" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="DJ3" s="21" t="s">
+      <c r="DM3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="DK3" s="21" t="s">
+      <c r="DN3" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DL3" s="21" t="s">
+      <c r="DO3" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="DO3" s="21">
+      <c r="DR3" s="21">
         <v>102</v>
       </c>
-      <c r="DP3" s="21" t="s">
+      <c r="DS3" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="DQ3" s="21" t="s">
+      <c r="DT3" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="DR3" s="21" t="s">
+      <c r="DU3" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="DS3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT3" s="21" t="s">
+      <c r="DV3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DV3" s="21" t="s">
+      <c r="DY3" s="21" t="s">
         <v>495</v>
       </c>
-      <c r="DY3" s="21" t="s">
+      <c r="EB3" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DZ3" s="21" t="s">
+      <c r="EC3" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="EA3" s="21">
+      <c r="ED3" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EB3" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC3" s="21" t="s">
+      <c r="EE3" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF3" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="ED3" s="21" t="s">
+      <c r="EG3" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="EE3" s="21" t="s">
+      <c r="EH3" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EF3" s="21" t="s">
+      <c r="EI3" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EG3" s="21" t="s">
+      <c r="EJ3" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EH3" s="21" t="s">
+      <c r="EK3" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EI3" s="21" t="s">
+      <c r="EL3" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EJ3" s="21" t="s">
+      <c r="EM3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EK3" s="21" t="s">
+      <c r="EN3" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EL3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EM3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EN3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EO3" s="21" t="s">
         <v>0</v>
       </c>
@@ -3542,26 +3589,35 @@
       <c r="EW3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EX3" s="26" t="s">
+      <c r="EX3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA3" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EY3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EZ3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="FA3" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="FB3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="FC3" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="FD3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FE3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FF3" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:159" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:162" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
         <v>38</v>
       </c>
@@ -3574,234 +3630,231 @@
       <c r="D4" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="14"/>
-      <c r="Y4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z4" s="21">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="14"/>
+      <c r="X4" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB4" s="21">
         <v>1910</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="AC4" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AB4" s="21">
+      <c r="AD4" s="21">
         <v>21</v>
       </c>
-      <c r="AC4" s="29" t="s">
+      <c r="AE4" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="21">
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="21">
         <v>115</v>
       </c>
-      <c r="AF4" s="21" t="s">
+      <c r="AH4" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AG4" s="21" t="s">
+      <c r="AI4" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="AI4" s="21" t="s">
+      <c r="AK4" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="AK4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL4" s="21" t="s">
+      <c r="AM4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN4" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AM4" s="21" t="s">
+      <c r="AO4" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="AS4" s="19" t="s">
+      <c r="AU4" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="AT4" s="18" t="s">
+      <c r="AV4" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="AU4" s="19" t="s">
+      <c r="AW4" s="19" t="s">
         <v>479</v>
       </c>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="21">
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AX4" s="21">
+      <c r="AZ4" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AY4" s="21">
+      <c r="BA4" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AZ4" s="21">
+      <c r="BB4" s="21">
         <v>3015567865</v>
       </c>
-      <c r="BA4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB4" s="21" t="s">
+      <c r="BC4" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="BD4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BI4" s="21" t="s">
+      <c r="BL4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BJ4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BY4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="21" t="s">
-        <v>144</v>
+      <c r="BM4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB4" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="CC4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CF4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="CH4" s="21" t="s">
+      <c r="CK4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="CI4" s="37" t="s">
+      <c r="CL4" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CJ4" s="37" t="s">
+      <c r="CM4" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CK4" s="21" t="s">
+      <c r="CN4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CL4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ4" s="21" t="s">
+      <c r="CO4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CR4" s="21" t="s">
+      <c r="CU4" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CS4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CT4" s="21" t="s">
+      <c r="CV4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CW4" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CU4" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CV4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW4" s="21" t="s">
+      <c r="CX4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CY4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CX4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY4" s="21" t="s">
+      <c r="DA4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DB4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DC4" s="21" t="s">
+      <c r="DF4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DD4" s="21" t="s">
+      <c r="DG4" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="DE4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DF4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG4" s="21" t="s">
-        <v>144</v>
+      <c r="DH4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="DJ4" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="DM4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="DK4" s="21" t="s">
+      <c r="DN4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DL4" s="21" t="s">
+      <c r="DO4" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DP4" s="21" t="s">
+      <c r="DS4" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="DQ4" s="21" t="s">
+      <c r="DT4" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="DR4" s="21" t="s">
+      <c r="DU4" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="DS4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT4" s="21" t="s">
+      <c r="DV4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DU4" s="21" t="s">
+      <c r="DX4" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DV4" s="23" t="s">
+      <c r="DY4" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="DW4" s="23"/>
-      <c r="DY4" s="21" t="s">
+      <c r="DZ4" s="23"/>
+      <c r="EB4" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DZ4" s="21" t="s">
+      <c r="EC4" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="EA4" s="21">
+      <c r="ED4" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EB4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC4" s="21" t="s">
+      <c r="EE4" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF4" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="ED4" s="21" t="s">
+      <c r="EG4" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="EE4" s="21" t="s">
+      <c r="EH4" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EF4" s="21" t="s">
+      <c r="EI4" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EG4" s="21" t="s">
+      <c r="EJ4" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EH4" s="21" t="s">
+      <c r="EK4" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EI4" s="21" t="s">
+      <c r="EL4" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EJ4" s="21" t="s">
+      <c r="EM4" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EK4" s="21" t="s">
+      <c r="EN4" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EL4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EM4" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EN4" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EO4" s="21" t="s">
         <v>133</v>
       </c>
@@ -3829,24 +3882,33 @@
       <c r="EW4" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EX4" s="26"/>
+      <c r="EX4" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="EY4" s="21" t="s">
         <v>133</v>
       </c>
       <c r="EZ4" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="FA4" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="FA4" s="26"/>
       <c r="FB4" s="21" t="s">
         <v>133</v>
       </c>
       <c r="FC4" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="FD4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FE4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FF4" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="5" spans="1:159" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:162" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
@@ -3859,248 +3921,245 @@
       <c r="D5" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="14"/>
-      <c r="Y5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z5" s="21">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="14"/>
+      <c r="X5" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB5" s="21">
         <v>1925</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AC5" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="AD5" s="21">
         <v>21</v>
       </c>
-      <c r="AC5" s="29" t="s">
+      <c r="AE5" s="29" t="s">
         <v>423</v>
       </c>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="21">
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="21">
         <v>100</v>
       </c>
-      <c r="AF5" s="21" t="s">
+      <c r="AH5" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="AG5" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH5" s="21" t="s">
-        <v>320</v>
       </c>
       <c r="AI5" s="21" t="s">
         <v>178</v>
       </c>
       <c r="AJ5" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="AK5" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL5" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="AK5" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL5" s="21" t="s">
+      <c r="AM5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN5" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AM5" s="21" t="s">
+      <c r="AO5" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="AS5" s="19" t="s">
+      <c r="AU5" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AT5" s="19" t="s">
+      <c r="AV5" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="AU5" s="19" t="s">
+      <c r="AW5" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="21">
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AX5" s="21">
+      <c r="AZ5" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AY5" s="21">
+      <c r="BA5" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AZ5" s="21">
+      <c r="BB5" s="21">
         <v>3015567865</v>
       </c>
-      <c r="BA5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BJ5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK5" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BY5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="21" t="s">
-        <v>144</v>
+      <c r="BC5" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="BD5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB5" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="CC5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CF5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG5" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="CE5" s="21" t="s">
+      <c r="CH5" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="CH5" s="21" t="s">
+      <c r="CK5" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="CI5" s="37" t="s">
+      <c r="CL5" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CJ5" s="37" t="s">
+      <c r="CM5" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CK5" s="21" t="s">
+      <c r="CN5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CL5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ5" s="21" t="s">
+      <c r="CO5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CR5" s="21" t="s">
+      <c r="CU5" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CS5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CT5" s="21" t="s">
+      <c r="CV5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CW5" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CU5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CV5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW5" s="21" t="s">
+      <c r="CX5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CY5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="CX5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY5" s="21" t="s">
+      <c r="DA5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DC5" s="21" t="s">
+      <c r="DF5" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DD5" s="21" t="s">
+      <c r="DG5" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="DE5" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DF5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG5" s="21" t="s">
+      <c r="DH5" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="DH5" s="22" t="s">
+      <c r="DK5" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="DJ5" s="21" t="s">
+      <c r="DM5" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="DK5" s="21" t="s">
+      <c r="DN5" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="DL5" s="21" t="s">
+      <c r="DO5" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="DP5" s="21" t="s">
+      <c r="DS5" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="DQ5" s="21" t="s">
+      <c r="DT5" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="DR5" s="21" t="s">
+      <c r="DU5" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="DS5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT5" s="21" t="s">
+      <c r="DV5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW5" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DV5" s="21" t="s">
+      <c r="DY5" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="DW5" s="21" t="s">
+      <c r="DZ5" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="DX5" s="21" t="s">
+      <c r="EA5" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="DY5" s="21" t="s">
+      <c r="EB5" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="DZ5" s="21" t="s">
+      <c r="EC5" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="EA5" s="21">
+      <c r="ED5" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EB5" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC5" s="21" t="s">
+      <c r="EE5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF5" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="ED5" s="21" t="s">
+      <c r="EG5" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="EE5" s="21" t="s">
+      <c r="EH5" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EF5" s="21" t="s">
+      <c r="EI5" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EG5" s="21" t="s">
+      <c r="EJ5" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EH5" s="21" t="s">
+      <c r="EK5" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EI5" s="21" t="s">
+      <c r="EL5" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EJ5" s="21" t="s">
+      <c r="EM5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EK5" s="21" t="s">
+      <c r="EN5" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EL5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EM5" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EN5" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="EO5" s="21" t="s">
         <v>144</v>
       </c>
@@ -4128,24 +4187,33 @@
       <c r="EW5" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EX5" s="26"/>
+      <c r="EX5" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="EY5" s="21" t="s">
         <v>144</v>
       </c>
       <c r="EZ5" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="FA5" s="21" t="s">
-        <v>144</v>
-      </c>
+      <c r="FA5" s="26"/>
       <c r="FB5" s="21" t="s">
         <v>144</v>
       </c>
       <c r="FC5" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="FD5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="FE5" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="FF5" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="6" spans="1:159" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:162" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>38</v>
       </c>
@@ -4158,198 +4226,195 @@
       <c r="D6" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="14"/>
-      <c r="Y6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z6" s="21">
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="14"/>
+      <c r="X6" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB6" s="21">
         <v>1950</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AC6" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AD6" s="21">
         <v>21</v>
       </c>
-      <c r="AC6" s="29" t="s">
+      <c r="AE6" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="21">
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="21">
         <v>75</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AH6" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AG6" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="AI6" s="21" t="s">
         <v>144</v>
       </c>
       <c r="AK6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AM6" s="21" t="s">
+      <c r="AO6" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="AS6" s="18" t="s">
+      <c r="AU6" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="AT6" s="21" t="s">
+      <c r="AV6" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="AU6" s="19" t="s">
+      <c r="AW6" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="AW6" s="21">
+      <c r="AY6" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AX6" s="21">
+      <c r="AZ6" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AY6" s="21">
+      <c r="BA6" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AZ6" s="21">
+      <c r="BB6" s="21">
         <v>3015774089</v>
       </c>
-      <c r="BA6" s="21" t="s">
+      <c r="BC6" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="BD6" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BB6" s="21" t="s">
+      <c r="BE6" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BI6" s="21" t="s">
+      <c r="BL6" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BJ6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BY6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CA6" s="24"/>
-      <c r="CC6" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CH6" s="21" t="s">
+      <c r="BM6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CD6" s="24"/>
+      <c r="CF6" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CK6" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="CI6" s="37" t="s">
+      <c r="CL6" s="37" t="s">
         <v>262</v>
-      </c>
-      <c r="CJ6" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CK6" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="CL6" s="21" t="s">
-        <v>144</v>
       </c>
       <c r="CM6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CQ6" s="21" t="s">
+      <c r="CN6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="CO6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CP6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CT6" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CV6" s="37" t="s">
+      <c r="CY6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CW6" s="37" t="s">
+      <c r="CZ6" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="CX6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="DC6" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="DE6" s="37" t="s">
-        <v>262</v>
+      <c r="DA6" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="DF6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DH6" s="24"/>
-      <c r="DJ6" s="37" t="s">
+      <c r="DH6" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DS6" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="DT6" s="21" t="s">
+      <c r="DI6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="DK6" s="24"/>
+      <c r="DM6" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="DV6" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="DW6" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DU6" s="21" t="s">
+      <c r="DX6" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="DV6" s="21" t="s">
+      <c r="DY6" s="21" t="s">
         <v>496</v>
       </c>
-      <c r="DX6" s="21" t="s">
+      <c r="EA6" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="DY6" s="21" t="s">
+      <c r="EB6" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DZ6" s="21" t="s">
+      <c r="EC6" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="EA6" s="21">
+      <c r="ED6" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EB6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC6" s="21" t="s">
+      <c r="EE6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF6" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="ED6" s="21" t="s">
+      <c r="EG6" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="EE6" s="21" t="s">
+      <c r="EH6" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EF6" s="21" t="s">
+      <c r="EI6" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EG6" s="21" t="s">
+      <c r="EJ6" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EH6" s="21" t="s">
+      <c r="EK6" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EI6" s="21" t="s">
+      <c r="EL6" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EJ6" s="21" t="s">
+      <c r="EM6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EK6" s="21" t="s">
+      <c r="EN6" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EL6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EM6" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EN6" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EO6" s="21" t="s">
         <v>133</v>
       </c>
@@ -4377,24 +4442,33 @@
       <c r="EW6" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EX6" s="26"/>
+      <c r="EX6" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="EY6" s="21" t="s">
         <v>133</v>
       </c>
       <c r="EZ6" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="FA6" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="FA6" s="26"/>
       <c r="FB6" s="21" t="s">
         <v>133</v>
       </c>
       <c r="FC6" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="FD6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FE6" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FF6" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="7" spans="1:159" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:162" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
@@ -4407,208 +4481,205 @@
       <c r="D7" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="14"/>
-      <c r="Y7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z7" s="21">
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="14"/>
+      <c r="X7" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB7" s="21">
         <v>1940</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AC7" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AB7" s="21">
+      <c r="AD7" s="21">
         <v>21</v>
       </c>
-      <c r="AC7" s="29" t="s">
+      <c r="AE7" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="21">
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="21">
         <v>85</v>
       </c>
-      <c r="AF7" s="21" t="s">
+      <c r="AH7" s="21" t="s">
         <v>140</v>
-      </c>
-      <c r="AG7" s="21" t="s">
-        <v>165</v>
       </c>
       <c r="AI7" s="21" t="s">
         <v>165</v>
       </c>
       <c r="AK7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL7" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="AM7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN7" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AM7" s="21" t="s">
+      <c r="AO7" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="AS7" s="18" t="s">
+      <c r="AU7" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="AT7" s="18" t="s">
+      <c r="AV7" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="AU7" s="19" t="s">
+      <c r="AW7" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="21">
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="21">
         <v>3015774089</v>
-      </c>
-      <c r="AX7" s="21">
-        <v>3014524258</v>
-      </c>
-      <c r="AY7" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AZ7" s="21">
         <v>3014524258</v>
       </c>
-      <c r="BA7" s="21" t="s">
+      <c r="BA7" s="21">
+        <v>3015567865</v>
+      </c>
+      <c r="BB7" s="21">
+        <v>3014524258</v>
+      </c>
+      <c r="BC7" s="21" t="s">
+        <v>521</v>
+      </c>
+      <c r="BD7" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BB7" s="21" t="s">
+      <c r="BE7" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BI7" s="21" t="s">
+      <c r="BL7" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BJ7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BY7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CA7" s="24"/>
-      <c r="CC7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="21" t="s">
+      <c r="BM7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CD7" s="24"/>
+      <c r="CF7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="CE7" s="21" t="s">
+      <c r="CH7" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="CF7" s="21" t="s">
+      <c r="CI7" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="CG7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CH7" s="21" t="s">
+      <c r="CJ7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CK7" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="CI7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CJ7" s="21" t="s">
+      <c r="CL7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CM7" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="CK7" s="21" t="s">
+      <c r="CN7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="CL7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CN7" s="21" t="s">
+      <c r="CO7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CQ7" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="CQ7" s="21" t="s">
+      <c r="CT7" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CV7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CW7" s="37" t="s">
+      <c r="CY7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CZ7" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="CX7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DC7" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="DE7" s="37" t="s">
-        <v>262</v>
+      <c r="DA7" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="DF7" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DH7" s="24"/>
-      <c r="DJ7" s="37" t="s">
+      <c r="DH7" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DS7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DT7" s="21" t="s">
+      <c r="DI7" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="DK7" s="24"/>
+      <c r="DM7" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="DV7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DW7" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DU7" s="21" t="s">
+      <c r="DX7" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DV7" s="21" t="s">
+      <c r="DY7" s="21" t="s">
         <v>497</v>
       </c>
-      <c r="DY7" s="21" t="s">
+      <c r="EB7" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DZ7" s="21" t="s">
+      <c r="EC7" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="EA7" s="21">
+      <c r="ED7" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EB7" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC7" s="21" t="s">
+      <c r="EE7" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF7" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="ED7" s="21" t="s">
+      <c r="EG7" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="EE7" s="21" t="s">
+      <c r="EH7" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EF7" s="21" t="s">
+      <c r="EI7" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EG7" s="21" t="s">
+      <c r="EJ7" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EH7" s="21" t="s">
+      <c r="EK7" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EI7" s="21" t="s">
+      <c r="EL7" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EJ7" s="21" t="s">
+      <c r="EM7" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EK7" s="21" t="s">
+      <c r="EN7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EL7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EM7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EN7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EO7" s="21" t="s">
         <v>0</v>
       </c>
@@ -4636,26 +4707,35 @@
       <c r="EW7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EX7" s="26" t="s">
+      <c r="EX7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA7" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EY7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EZ7" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="FA7" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="FB7" s="21" t="s">
         <v>0</v>
       </c>
       <c r="FC7" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="FD7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FE7" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FF7" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:159" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:162" s="21" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>38</v>
       </c>
@@ -4668,211 +4748,208 @@
       <c r="D8" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="14"/>
-      <c r="Y8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z8" s="21">
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="14"/>
+      <c r="X8" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB8" s="21">
         <v>1930</v>
       </c>
-      <c r="AA8" s="21" t="s">
+      <c r="AC8" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AB8" s="21">
+      <c r="AD8" s="21">
         <v>21</v>
       </c>
-      <c r="AC8" s="29" t="s">
+      <c r="AE8" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="21">
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="21">
         <v>95</v>
       </c>
-      <c r="AF8" s="21" t="s">
+      <c r="AH8" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AG8" s="21" t="s">
+      <c r="AI8" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="AI8" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="AK8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN8" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AM8" s="21" t="s">
+      <c r="AO8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AN8" s="21" t="s">
+      <c r="AP8" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="AO8" s="21" t="s">
+      <c r="AQ8" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="AP8" s="21" t="s">
+      <c r="AR8" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="AQ8" s="21" t="s">
+      <c r="AS8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AR8" s="21">
+      <c r="AT8" s="21">
         <v>28907</v>
       </c>
-      <c r="AS8" s="18" t="s">
+      <c r="AU8" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="AT8" s="18" t="s">
+      <c r="AV8" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="AU8" s="19" t="s">
+      <c r="AW8" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="AV8" s="18"/>
-      <c r="AW8" s="21">
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AX8" s="21">
+      <c r="AZ8" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AY8" s="21">
+      <c r="BA8" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AZ8" s="21">
+      <c r="BB8" s="21">
         <v>3015567865</v>
       </c>
-      <c r="BA8" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB8" s="21" t="s">
+      <c r="BC8" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="BD8" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE8" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BI8" s="21" t="s">
+      <c r="BL8" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BJ8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BY8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CB8" s="24"/>
-      <c r="CC8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CD8" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CH8" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CI8" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CJ8" s="37" t="s">
+      <c r="BM8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CE8" s="24"/>
+      <c r="CF8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CG8" s="37" t="s">
         <v>262</v>
       </c>
       <c r="CK8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CL8" s="21" t="s">
-        <v>133</v>
+      <c r="CL8" s="37" t="s">
+        <v>262</v>
       </c>
       <c r="CM8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CQ8" s="21" t="s">
+      <c r="CN8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CO8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CP8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CT8" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CV8" s="37" t="s">
+      <c r="CY8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CW8" s="37" t="s">
+      <c r="CZ8" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="CX8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DC8" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="DE8" s="37" t="s">
-        <v>262</v>
+      <c r="DA8" s="21" t="s">
+        <v>133</v>
       </c>
       <c r="DF8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DH8" s="24"/>
-      <c r="DJ8" s="37" t="s">
+      <c r="DH8" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="DS8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DT8" s="21" t="s">
+      <c r="DI8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="DK8" s="24"/>
+      <c r="DM8" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="DV8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DW8" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="DV8" s="21" t="s">
+      <c r="DY8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="DX8" s="21" t="s">
+      <c r="EA8" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="DY8" s="21" t="s">
+      <c r="EB8" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DZ8" s="21" t="s">
+      <c r="EC8" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="EA8" s="21">
+      <c r="ED8" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EB8" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC8" s="21" t="s">
+      <c r="EE8" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="EF8" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="ED8" s="21" t="s">
+      <c r="EG8" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="EE8" s="21" t="s">
+      <c r="EH8" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EF8" s="21" t="s">
+      <c r="EI8" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EG8" s="21" t="s">
+      <c r="EJ8" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EH8" s="21" t="s">
+      <c r="EK8" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EI8" s="21" t="s">
+      <c r="EL8" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EJ8" s="21" t="s">
+      <c r="EM8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EK8" s="21" t="s">
+      <c r="EN8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EL8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EM8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EN8" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="EO8" s="21" t="s">
         <v>0</v>
       </c>
@@ -4900,26 +4977,35 @@
       <c r="EW8" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="EX8" s="26" t="s">
+      <c r="EX8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA8" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="EY8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EZ8" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="FA8" s="21" t="s">
-        <v>0</v>
-      </c>
       <c r="FB8" s="21" t="s">
         <v>0</v>
       </c>
       <c r="FC8" s="21" t="s">
         <v>0</v>
       </c>
+      <c r="FD8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FE8" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="FF8" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:159" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:162" s="21" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>38</v>
       </c>
@@ -4932,262 +5018,259 @@
       <c r="D9" s="21" t="s">
         <v>390</v>
       </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="14"/>
-      <c r="Y9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="21">
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="14"/>
+      <c r="X9" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="21">
         <v>1935</v>
       </c>
-      <c r="AA9" s="21" t="s">
+      <c r="AC9" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AB9" s="21">
+      <c r="AD9" s="21">
         <v>21</v>
       </c>
-      <c r="AC9" s="29" t="s">
+      <c r="AE9" s="29" t="s">
         <v>424</v>
       </c>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="21">
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="21">
         <v>90</v>
       </c>
-      <c r="AF9" s="21" t="s">
+      <c r="AH9" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AG9" s="21" t="s">
+      <c r="AI9" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="AI9" s="21" t="s">
+      <c r="AK9" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="AK9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="21" t="s">
+      <c r="AM9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AM9" s="21" t="s">
+      <c r="AO9" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="AS9" s="18" t="s">
+      <c r="AU9" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="AT9" s="18" t="s">
+      <c r="AV9" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="AU9" s="19" t="s">
+      <c r="AW9" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="21">
+      <c r="AX9" s="18"/>
+      <c r="AY9" s="21">
         <v>3015774089</v>
       </c>
-      <c r="AX9" s="21">
+      <c r="AZ9" s="21">
         <v>3014524258</v>
       </c>
-      <c r="AY9" s="21">
+      <c r="BA9" s="21">
         <v>3015567865</v>
       </c>
-      <c r="AZ9" s="21">
+      <c r="BB9" s="21">
         <v>3015567865</v>
       </c>
-      <c r="BA9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BJ9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="21" t="s">
-        <v>0</v>
+      <c r="BC9" s="21" t="s">
+        <v>522</v>
+      </c>
+      <c r="BD9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE9" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="BL9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO9" s="21" t="s">
         <v>500</v>
       </c>
-      <c r="BM9" s="21" t="s">
+      <c r="BP9" s="21" t="s">
         <v>502</v>
       </c>
-      <c r="BN9" s="21" t="s">
+      <c r="BQ9" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="BO9" s="21" t="s">
+      <c r="BR9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BP9" s="21" t="s">
+      <c r="BS9" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="BQ9" s="21" t="s">
+      <c r="BT9" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BR9" s="21" t="s">
+      <c r="BU9" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="BS9" s="21" t="s">
+      <c r="BV9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BT9" s="21" t="s">
+      <c r="BW9" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="BU9" s="21" t="s">
+      <c r="BX9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BV9" s="21" t="s">
+      <c r="BY9" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="BW9" s="21" t="s">
+      <c r="BZ9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BX9" s="21" t="s">
+      <c r="CA9" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="BY9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ9" s="21" t="s">
+      <c r="CB9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC9" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="CB9" s="21">
+      <c r="CE9" s="21">
         <v>119</v>
       </c>
-      <c r="CC9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CD9" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CH9" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CI9" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="CJ9" s="37" t="s">
+      <c r="CF9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CG9" s="37" t="s">
         <v>262</v>
       </c>
       <c r="CK9" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="CL9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ9" s="21" t="s">
+      <c r="CL9" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CM9" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CN9" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="CO9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT9" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CR9" s="21" t="s">
+      <c r="CU9" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CS9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CT9" s="21" t="s">
+      <c r="CV9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CW9" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CU9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CV9" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CW9" s="37" t="s">
+      <c r="CX9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CY9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CZ9" s="37" t="s">
         <v>414</v>
       </c>
-      <c r="CX9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY9" s="21" t="s">
+      <c r="DA9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="DB9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="DB9" s="21">
+      <c r="DE9" s="21">
         <v>102</v>
       </c>
-      <c r="DC9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DD9" s="21" t="s">
+      <c r="DF9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DG9" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="DE9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DF9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DH9" s="24"/>
-      <c r="DJ9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DS9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DT9" s="21" t="s">
+      <c r="DH9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DK9" s="24"/>
+      <c r="DM9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DV9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DW9" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DU9" s="21" t="s">
+      <c r="DX9" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="DV9" s="23" t="s">
+      <c r="DY9" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="DW9" s="23"/>
-      <c r="DY9" s="21" t="s">
+      <c r="DZ9" s="23"/>
+      <c r="EB9" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DZ9" s="21" t="s">
+      <c r="EC9" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="EA9" s="21">
+      <c r="ED9" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EB9" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC9" s="21" t="s">
+      <c r="EE9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF9" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="ED9" s="21" t="s">
+      <c r="EG9" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="EE9" s="21" t="s">
+      <c r="EH9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EF9" s="21" t="s">
+      <c r="EI9" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EG9" s="21" t="s">
+      <c r="EJ9" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EH9" s="21" t="s">
+      <c r="EK9" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EI9" s="21" t="s">
+      <c r="EL9" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EJ9" s="21" t="s">
+      <c r="EM9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EK9" s="21" t="s">
+      <c r="EN9" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EL9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EM9" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EN9" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EO9" s="21" t="s">
         <v>133</v>
       </c>
@@ -5215,24 +5298,33 @@
       <c r="EW9" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EX9" s="26"/>
+      <c r="EX9" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="EY9" s="21" t="s">
         <v>133</v>
       </c>
       <c r="EZ9" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="FA9" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="FA9" s="26"/>
       <c r="FB9" s="21" t="s">
         <v>133</v>
       </c>
       <c r="FC9" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="FD9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FE9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FF9" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="10" spans="1:159" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:162" s="39" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>130</v>
       </c>
@@ -5245,346 +5337,343 @@
       <c r="G10" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="39" t="s">
+      <c r="H10" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="39">
+        <v>28907</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="P10" s="39">
+        <v>3015774089</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>3014524258</v>
+      </c>
+      <c r="R10" s="39">
+        <v>3015567865</v>
+      </c>
+      <c r="S10" s="39">
+        <v>3015774089</v>
+      </c>
+      <c r="T10" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="S10" s="39" t="s">
+      <c r="U10" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="T10" s="39" t="s">
+      <c r="V10" s="39" t="s">
         <v>383</v>
       </c>
-      <c r="U10" s="39" t="s">
+      <c r="W10" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="V10" s="39" t="s">
+      <c r="X10" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="X10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="39">
+      <c r="Z10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="39">
         <v>1937</v>
       </c>
-      <c r="AA10" s="39" t="s">
+      <c r="AC10" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="AB10" s="39">
+      <c r="AD10" s="39">
         <v>21</v>
       </c>
-      <c r="AC10" s="40" t="s">
+      <c r="AE10" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="39">
+      <c r="AF10" s="41"/>
+      <c r="AG10" s="39">
         <v>88</v>
       </c>
-      <c r="AF10" s="39" t="s">
+      <c r="AH10" s="39" t="s">
         <v>20</v>
-      </c>
-      <c r="AG10" s="45" t="s">
-        <v>262</v>
       </c>
       <c r="AI10" s="45" t="s">
         <v>262</v>
       </c>
-      <c r="AK10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="39" t="s">
+      <c r="AK10" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="AM10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="AM10" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN10" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="AO10" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="AP10" s="39" t="s">
-        <v>195</v>
-      </c>
-      <c r="AQ10" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="AR10" s="39">
-        <v>28907</v>
-      </c>
-      <c r="AS10" s="43" t="s">
+      <c r="AU10" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="AT10" s="42" t="s">
+      <c r="AV10" s="42" t="s">
         <v>322</v>
       </c>
-      <c r="AU10" s="43" t="s">
+      <c r="AW10" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="AV10" s="43" t="s">
+      <c r="AX10" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="AW10" s="39">
-        <v>3015774089</v>
-      </c>
-      <c r="AX10" s="39">
-        <v>3014524258</v>
-      </c>
-      <c r="AY10" s="39">
-        <v>3015567865</v>
-      </c>
-      <c r="AZ10" s="39">
-        <v>3015774089</v>
-      </c>
-      <c r="BA10" s="39" t="s">
+      <c r="BC10" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="BD10" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="BB10" s="39" t="s">
+      <c r="BE10" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="BC10" s="39" t="s">
+      <c r="BF10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="BD10" s="39" t="s">
+      <c r="BG10" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="BE10" s="39" t="s">
+      <c r="BH10" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="BF10" s="39" t="s">
+      <c r="BI10" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="BG10" s="39" t="s">
+      <c r="BJ10" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="BH10" s="39" t="s">
+      <c r="BK10" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="BI10" s="39" t="s">
+      <c r="BL10" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="BJ10" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BL10" s="39" t="s">
+      <c r="BM10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="BM10" s="39" t="s">
+      <c r="BP10" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="BN10" s="39" t="s">
+      <c r="BQ10" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="BO10" s="39" t="s">
+      <c r="BR10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BP10" s="39" t="s">
+      <c r="BS10" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="BQ10" s="39" t="s">
+      <c r="BT10" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BR10" s="39" t="s">
+      <c r="BU10" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="BS10" s="39" t="s">
+      <c r="BV10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BT10" s="39" t="s">
+      <c r="BW10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="BU10" s="39" t="s">
+      <c r="BX10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BV10" s="39" t="s">
+      <c r="BY10" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="BW10" s="39" t="s">
+      <c r="BZ10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BX10" s="39" t="s">
+      <c r="CA10" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="BY10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ10" s="39" t="s">
+      <c r="CB10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="CA10" s="41" t="s">
+      <c r="CD10" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="CC10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD10" s="39" t="s">
+      <c r="CF10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG10" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="CH10" s="39" t="s">
+      <c r="CK10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="CI10" s="46" t="s">
+      <c r="CL10" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="CJ10" s="46" t="s">
+      <c r="CM10" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="CK10" s="39" t="s">
+      <c r="CN10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="CL10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ10" s="39" t="s">
+      <c r="CO10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT10" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="CR10" s="39" t="s">
+      <c r="CU10" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="CS10" s="39" t="s">
+      <c r="CV10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="CT10" s="39" t="s">
+      <c r="CW10" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="CU10" s="39" t="s">
+      <c r="CX10" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="CV10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW10" s="39" t="s">
+      <c r="CY10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ10" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="CX10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY10" s="39" t="s">
+      <c r="DA10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DB10" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="CZ10" s="39" t="s">
+      <c r="DC10" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="DA10" s="39">
+      <c r="DD10" s="39">
         <v>1997</v>
       </c>
-      <c r="DC10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="DD10" s="39" t="s">
+      <c r="DF10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DG10" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="DE10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="DF10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG10" s="39" t="s">
+      <c r="DH10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DI10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="DJ10" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="DI10" s="39">
+      <c r="DL10" s="39">
         <v>103</v>
       </c>
-      <c r="DJ10" s="39" t="s">
+      <c r="DM10" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="DK10" s="39" t="s">
+      <c r="DN10" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="DL10" s="39" t="s">
+      <c r="DO10" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="DM10" s="39" t="s">
+      <c r="DP10" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="DN10" s="39">
+      <c r="DQ10" s="39">
         <v>1985</v>
       </c>
-      <c r="DP10" s="39" t="s">
+      <c r="DS10" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="DQ10" s="39" t="s">
+      <c r="DT10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="DR10" s="39" t="s">
+      <c r="DU10" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="DS10" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="DT10" s="39" t="s">
+      <c r="DV10" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="DW10" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="DU10" s="39" t="s">
+      <c r="DX10" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="DV10" s="39" t="s">
+      <c r="DY10" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="DX10" s="39" t="s">
+      <c r="EA10" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="DY10" s="39" t="s">
+      <c r="EB10" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="DZ10" s="39" t="s">
+      <c r="EC10" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="EA10" s="39">
+      <c r="ED10" s="39">
         <v>3028976789</v>
       </c>
-      <c r="EB10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC10" s="39" t="s">
+      <c r="EE10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF10" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="ED10" s="39" t="s">
+      <c r="EG10" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="EE10" s="39" t="s">
+      <c r="EH10" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="EF10" s="39" t="s">
+      <c r="EI10" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="EG10" s="39" t="s">
+      <c r="EJ10" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="EH10" s="39" t="s">
+      <c r="EK10" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="EI10" s="39" t="s">
+      <c r="EL10" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="EJ10" s="39" t="s">
+      <c r="EM10" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="EK10" s="39" t="s">
+      <c r="EN10" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="EL10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EM10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EN10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="EO10" s="39" t="s">
         <v>0</v>
       </c>
@@ -5612,26 +5701,35 @@
       <c r="EW10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="EX10" s="44" t="s">
+      <c r="EX10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EY10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="EZ10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="FA10" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="EY10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="EZ10" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="FA10" s="39" t="s">
-        <v>0</v>
-      </c>
       <c r="FB10" s="39" t="s">
         <v>0</v>
       </c>
       <c r="FC10" s="39" t="s">
         <v>0</v>
       </c>
+      <c r="FD10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="FE10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="FF10" s="39" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:159" s="47" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:162" s="47" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
         <v>130</v>
       </c>
@@ -5644,258 +5742,255 @@
       <c r="G11" s="47" t="s">
         <v>396</v>
       </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="47" t="s">
+      <c r="L11" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="O11" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="P11" s="47">
+        <v>3015774089</v>
+      </c>
+      <c r="Q11" s="47">
+        <v>3014524258</v>
+      </c>
+      <c r="R11" s="47">
+        <v>3015567865</v>
+      </c>
+      <c r="S11" s="47">
+        <v>3014524258</v>
+      </c>
+      <c r="T11" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="S11" s="47" t="s">
+      <c r="U11" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="T11" s="47" t="s">
+      <c r="V11" s="47" t="s">
         <v>384</v>
       </c>
-      <c r="U11" s="47" t="s">
+      <c r="W11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="V11" s="47" t="s">
+      <c r="X11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="W11" s="47" t="s">
+      <c r="Y11" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="X11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z11" s="47">
+      <c r="Z11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB11" s="47">
         <v>1935</v>
       </c>
-      <c r="AA11" s="47" t="s">
+      <c r="AC11" s="47" t="s">
         <v>426</v>
       </c>
-      <c r="AB11" s="47">
+      <c r="AD11" s="47">
         <v>21</v>
       </c>
-      <c r="AC11" s="48" t="s">
+      <c r="AE11" s="48" t="s">
         <v>424</v>
       </c>
-      <c r="AD11" s="49"/>
-      <c r="AE11" s="47">
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="47">
         <v>90</v>
       </c>
-      <c r="AF11" s="47" t="s">
+      <c r="AH11" s="47" t="s">
         <v>140</v>
-      </c>
-      <c r="AG11" s="50" t="s">
-        <v>262</v>
       </c>
       <c r="AI11" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="AK11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL11" s="47" t="s">
+      <c r="AK11" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="AM11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN11" s="47" t="s">
         <v>414</v>
       </c>
-      <c r="AM11" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="AS11" s="51" t="s">
+      <c r="AU11" s="51" t="s">
         <v>323</v>
-      </c>
-      <c r="AT11" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="AU11" s="52" t="s">
-        <v>486</v>
       </c>
       <c r="AV11" s="52" t="s">
         <v>323</v>
       </c>
-      <c r="AW11" s="47">
-        <v>3015774089</v>
-      </c>
-      <c r="AX11" s="47">
-        <v>3014524258</v>
-      </c>
-      <c r="AY11" s="47">
-        <v>3015567865</v>
-      </c>
-      <c r="AZ11" s="47">
-        <v>3014524258</v>
-      </c>
-      <c r="BA11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="BB11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="BJ11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="BY11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="CA11" s="53"/>
+      <c r="AW11" s="52" t="s">
+        <v>486</v>
+      </c>
+      <c r="AX11" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="BC11" s="47" t="s">
+        <v>520</v>
+      </c>
+      <c r="BD11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="BE11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="BN11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="CB11" s="47" t="s">
+        <v>0</v>
+      </c>
       <c r="CC11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="CD11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="CD11" s="53"/>
+      <c r="CF11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG11" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="CH11" s="47" t="s">
+      <c r="CK11" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="CI11" s="46" t="s">
+      <c r="CL11" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="CJ11" s="46" t="s">
+      <c r="CM11" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="CK11" s="47" t="s">
+      <c r="CN11" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="CL11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="CQ11" s="47" t="s">
+      <c r="CO11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CT11" s="47" t="s">
         <v>411</v>
       </c>
-      <c r="CR11" s="47" t="s">
+      <c r="CU11" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="CS11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="CT11" s="47" t="s">
+      <c r="CV11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="CW11" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="CU11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="CV11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW11" s="47" t="s">
+      <c r="CX11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="CY11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ11" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="CX11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="CY11" s="47" t="s">
+      <c r="DA11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="DB11" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="DC11" s="47" t="s">
+      <c r="DF11" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="DD11" s="47" t="s">
+      <c r="DG11" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="DE11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="DF11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="DG11" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="DH11" s="53"/>
+      <c r="DH11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="DI11" s="47" t="s">
+        <v>0</v>
+      </c>
       <c r="DJ11" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="DK11" s="53"/>
+      <c r="DM11" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="DK11" s="47" t="s">
+      <c r="DN11" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="DL11" s="47" t="s">
+      <c r="DO11" s="47" t="s">
         <v>168</v>
       </c>
-      <c r="DP11" s="47" t="s">
+      <c r="DS11" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="DQ11" s="47" t="s">
+      <c r="DT11" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="DR11" s="47" t="s">
+      <c r="DU11" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="DS11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="DT11" s="47" t="s">
+      <c r="DV11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="DW11" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="DU11" s="47" t="s">
+      <c r="DX11" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="DV11" s="47" t="s">
+      <c r="DY11" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="DY11" s="47" t="s">
+      <c r="EB11" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="DZ11" s="47" t="s">
+      <c r="EC11" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="EA11" s="47">
+      <c r="ED11" s="47">
         <v>3028976789</v>
       </c>
-      <c r="EB11" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC11" s="47" t="s">
+      <c r="EE11" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF11" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="ED11" s="47" t="s">
+      <c r="EG11" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="EE11" s="47" t="s">
+      <c r="EH11" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="EF11" s="47" t="s">
+      <c r="EI11" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="EG11" s="47" t="s">
+      <c r="EJ11" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="EH11" s="47" t="s">
+      <c r="EK11" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="EI11" s="47" t="s">
+      <c r="EL11" s="47" t="s">
         <v>427</v>
       </c>
-      <c r="EJ11" s="47" t="s">
+      <c r="EM11" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="EK11" s="47" t="s">
+      <c r="EN11" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="EL11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="EM11" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="EN11" s="47" t="s">
-        <v>133</v>
-      </c>
       <c r="EO11" s="47" t="s">
         <v>133</v>
       </c>
@@ -5923,24 +6018,33 @@
       <c r="EW11" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="EX11" s="54"/>
+      <c r="EX11" s="47" t="s">
+        <v>133</v>
+      </c>
       <c r="EY11" s="47" t="s">
         <v>133</v>
       </c>
       <c r="EZ11" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="FA11" s="47" t="s">
-        <v>133</v>
-      </c>
+      <c r="FA11" s="54"/>
       <c r="FB11" s="47" t="s">
         <v>133</v>
       </c>
       <c r="FC11" s="47" t="s">
         <v>133</v>
       </c>
+      <c r="FD11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="FE11" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="FF11" s="47" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="12" spans="1:159" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:162" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>130</v>
       </c>
@@ -5953,161 +6057,156 @@
       <c r="G12" s="21" t="s">
         <v>399</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="21" t="s">
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="U12" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="V12" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="W12" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="X12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z12" s="21">
+      <c r="Z12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB12" s="21">
         <v>1930</v>
       </c>
-      <c r="AA12" s="21" t="s">
+      <c r="AC12" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AB12" s="21">
+      <c r="AD12" s="21">
         <v>21</v>
       </c>
-      <c r="AC12" s="29" t="s">
+      <c r="AE12" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="21" t="s">
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AK12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL12" s="21" t="s">
+      <c r="AM12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN12" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AM12" s="21" t="s">
+      <c r="AO12" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="AS12" s="19" t="s">
+      <c r="AU12" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="AT12" s="19" t="s">
+      <c r="AV12" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="21">
+      <c r="AW12" s="52" t="s">
+        <v>514</v>
+      </c>
+      <c r="AX12" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="AY12" s="21">
         <v>3015774089</v>
-      </c>
-      <c r="AX12" s="21">
-        <v>3014524258</v>
-      </c>
-      <c r="AY12" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AZ12" s="21">
         <v>3014524258</v>
       </c>
-      <c r="BA12" s="21" t="s">
+      <c r="BA12" s="21">
+        <v>3015567865</v>
+      </c>
+      <c r="BB12" s="21">
+        <v>3014524258</v>
+      </c>
+      <c r="BD12" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="BB12" s="21" t="s">
+      <c r="BE12" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BI12" s="21" t="s">
+      <c r="BL12" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BK12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BY12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CC12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CL12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="CQ12" s="21" t="s">
+      <c r="BN12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CF12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CO12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CT12" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CX12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DH12" s="24"/>
-      <c r="DS12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="DT12" s="21" t="s">
+      <c r="DA12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DK12" s="24"/>
+      <c r="DV12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="DW12" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="DU12" s="21" t="s">
+      <c r="DX12" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="DV12" s="21" t="s">
+      <c r="DY12" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="DY12" s="21" t="s">
+      <c r="EB12" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="DZ12" s="21" t="s">
+      <c r="EC12" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="EA12" s="21">
+      <c r="ED12" s="21">
         <v>3028976789</v>
       </c>
-      <c r="EB12" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="EC12" s="21" t="s">
+      <c r="EE12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="EF12" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="ED12" s="21" t="s">
+      <c r="EG12" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="EE12" s="21" t="s">
+      <c r="EH12" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EF12" s="21" t="s">
+      <c r="EI12" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EG12" s="21" t="s">
+      <c r="EJ12" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EH12" s="21" t="s">
+      <c r="EK12" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EI12" s="21" t="s">
+      <c r="EL12" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EJ12" s="21" t="s">
+      <c r="EM12" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EK12" s="21" t="s">
+      <c r="EN12" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EL12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EM12" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="EN12" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="EO12" s="21" t="s">
         <v>133</v>
       </c>
@@ -6135,24 +6234,33 @@
       <c r="EW12" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="EX12" s="26"/>
+      <c r="EX12" s="21" t="s">
+        <v>133</v>
+      </c>
       <c r="EY12" s="21" t="s">
         <v>133</v>
       </c>
       <c r="EZ12" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="FA12" s="21" t="s">
-        <v>133</v>
-      </c>
+      <c r="FA12" s="26"/>
       <c r="FB12" s="21" t="s">
         <v>133</v>
       </c>
       <c r="FC12" s="21" t="s">
         <v>133</v>
       </c>
+      <c r="FD12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FE12" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="FF12" s="21" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="13" spans="1:159" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:162" s="21" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>130</v>
       </c>
@@ -6165,148 +6273,143 @@
       <c r="G13" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="21" t="s">
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="U13" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="T13" s="21" t="s">
+      <c r="V13" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="W13" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="X13" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y13" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z13" s="21">
+      <c r="Z13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB13" s="21">
         <v>1940</v>
       </c>
-      <c r="AA13" s="21" t="s">
+      <c r="AC13" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="AB13" s="21">
+      <c r="AD13" s="21">
         <v>21</v>
       </c>
-      <c r="AC13" s="29" t="s">
+      <c r="AE13" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="21" t="s">
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AK13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="21" t="s">
+      <c r="AM13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="AM13" s="21" t="s">
+      <c r="AO13" s="21" t="s">
         <v>380</v>
       </c>
-      <c r="AS13" s="19" t="s">
+      <c r="AU13" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="AT13" s="19" t="s">
+      <c r="AV13" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="AU13" s="19"/>
-      <c r="AV13" s="19"/>
-      <c r="AW13" s="21">
+      <c r="AW13" s="52" t="s">
+        <v>515</v>
+      </c>
+      <c r="AX13" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="AY13" s="21">
         <v>3015774089</v>
-      </c>
-      <c r="AX13" s="21">
-        <v>3014524258</v>
-      </c>
-      <c r="AY13" s="21">
-        <v>3015567865</v>
       </c>
       <c r="AZ13" s="21">
         <v>3014524258</v>
       </c>
-      <c r="BA13" s="21" t="s">
+      <c r="BA13" s="21">
+        <v>3015567865</v>
+      </c>
+      <c r="BB13" s="21">
+        <v>3014524258</v>
+      </c>
+      <c r="BD13" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="BB13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BI13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="BK13" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="BY13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="BZ13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="CQ13" s="21" t="s">
+      <c r="BE13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BL13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="BN13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="CB13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="CT13" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="CR13" s="21" t="s">
+      <c r="CU13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="CS13" s="21" t="s">
+      <c r="CV13" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="CT13" s="21" t="s">
+      <c r="CW13" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="CU13" s="21" t="s">
+      <c r="CX13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="CV13" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="CW13" s="21" t="s">
+      <c r="CY13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="CZ13" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="EC13" s="21" t="s">
+      <c r="EF13" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="ED13" s="21" t="s">
+      <c r="EG13" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="EE13" s="21" t="s">
+      <c r="EH13" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="EF13" s="21" t="s">
+      <c r="EI13" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="EG13" s="21" t="s">
+      <c r="EJ13" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="EH13" s="21" t="s">
+      <c r="EK13" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="EI13" s="21" t="s">
+      <c r="EL13" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="EJ13" s="21" t="s">
+      <c r="EM13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="EK13" s="21" t="s">
+      <c r="EN13" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="EL13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EM13" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="EN13" s="21" t="s">
-        <v>144</v>
-      </c>
       <c r="EO13" s="21" t="s">
         <v>144</v>
       </c>
@@ -6334,146 +6437,170 @@
       <c r="EW13" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="EX13" s="26"/>
+      <c r="EX13" s="21" t="s">
+        <v>144</v>
+      </c>
       <c r="EY13" s="21" t="s">
         <v>144</v>
       </c>
       <c r="EZ13" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="FA13" s="21" t="s">
-        <v>144</v>
-      </c>
+      <c r="FA13" s="26"/>
       <c r="FB13" s="21" t="s">
         <v>144</v>
       </c>
       <c r="FC13" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="FD13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="FE13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="FF13" s="21" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="14" spans="1:159" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="14"/>
-      <c r="U14" s="25" t="s">
+    <row r="14" spans="1:162" s="21" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="14"/>
+      <c r="W14" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="AB14" s="21">
+      <c r="X14" s="25"/>
+      <c r="AD14" s="21">
         <v>21</v>
       </c>
-      <c r="AS14" s="19" t="s">
+      <c r="AU14" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="AT14" s="19" t="s">
+      <c r="AV14" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="AU14" s="19"/>
-      <c r="AV14" s="19"/>
+      <c r="AW14" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="AX14" s="19" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="15" spans="1:159" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="14"/>
-      <c r="U15" s="21" t="s">
+    <row r="15" spans="1:162" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="14"/>
+      <c r="W15" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="AB15" s="21">
+      <c r="AD15" s="21">
         <v>21</v>
       </c>
-      <c r="AS15" s="19" t="s">
+      <c r="AU15" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="AT15" s="19" t="s">
+      <c r="AV15" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="AU15" s="19"/>
-      <c r="AV15" s="19"/>
+      <c r="AW15" s="19"/>
+      <c r="AX15" s="19"/>
     </row>
-    <row r="16" spans="1:159" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="14"/>
-      <c r="U16" s="21" t="s">
+    <row r="16" spans="1:162" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="14"/>
+      <c r="W16" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="AB16" s="21">
+      <c r="AD16" s="21">
         <v>21</v>
       </c>
-      <c r="AS16" s="19" t="s">
+      <c r="AU16" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="AT16" s="19" t="s">
+      <c r="AV16" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="19"/>
+      <c r="AW16" s="19"/>
+      <c r="AX16" s="19"/>
     </row>
-    <row r="17" spans="15:48" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="14"/>
-      <c r="U17" s="21" t="s">
+    <row r="17" spans="17:50" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="14"/>
+      <c r="W17" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="AS17" s="19" t="s">
+      <c r="AU17" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="AT17" s="19" t="s">
+      <c r="AV17" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
+      <c r="AW17" s="19"/>
+      <c r="AX17" s="19"/>
     </row>
-    <row r="18" spans="15:48" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="14"/>
+    <row r="18" spans="17:50" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:FC13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
+  <autoFilter ref="A1:FF13" xr:uid="{D6C03A80-53F5-C744-BC65-FAA91BD85774}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AS7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
-    <hyperlink ref="AS4" r:id="rId2" xr:uid="{54A26098-2C02-B14A-A8B8-E895ACEFE8FC}"/>
-    <hyperlink ref="AT4" r:id="rId3" xr:uid="{19B8EC6B-4DE1-EF45-9AC5-07A97297CA08}"/>
-    <hyperlink ref="AS2" r:id="rId4" xr:uid="{CE9060F8-46A2-8E4A-9049-D259F5FF8833}"/>
-    <hyperlink ref="AT2" r:id="rId5" xr:uid="{9F426852-B12C-F246-BBD4-2DFF4046F17B}"/>
-    <hyperlink ref="AT7" r:id="rId6" xr:uid="{F867FCEE-CDE3-774C-AA60-18F374257445}"/>
-    <hyperlink ref="AS8" r:id="rId7" xr:uid="{FF13954F-3772-2244-8624-0759DAAA195B}"/>
-    <hyperlink ref="AT8" r:id="rId8" xr:uid="{DEA58592-D611-1446-A2DF-45ED1084017D}"/>
-    <hyperlink ref="AS5" r:id="rId9" xr:uid="{AE8E2947-9665-444E-BB61-535EF103703A}"/>
-    <hyperlink ref="AT5" r:id="rId10" xr:uid="{03D22372-21FE-6647-9FB7-E611341DF12C}"/>
-    <hyperlink ref="AS6" r:id="rId11" xr:uid="{38E74D40-B9B2-9F4F-A95C-07E96ED19969}"/>
-    <hyperlink ref="AS13" r:id="rId12" xr:uid="{A84CFFC5-66D9-2E4D-9EAF-A805310521D0}"/>
-    <hyperlink ref="AS12" r:id="rId13" xr:uid="{EE58DF3D-4E06-D242-A11C-C73725F63244}"/>
-    <hyperlink ref="AS9" r:id="rId14" xr:uid="{9561474B-13C0-5C45-A0AF-651803129C22}"/>
-    <hyperlink ref="AT9" r:id="rId15" xr:uid="{A1121A3E-E434-0D46-8060-8CC9554A173E}"/>
-    <hyperlink ref="AV10" r:id="rId16" xr:uid="{74DEEA39-9EE3-DA40-986A-18AB27D7AF3D}"/>
-    <hyperlink ref="AT10" r:id="rId17" xr:uid="{10D6E031-35FA-1A41-812A-AC8A67918A79}"/>
-    <hyperlink ref="AS11" r:id="rId18" xr:uid="{E72B4306-86EB-094D-A7D7-3CE674C9E99B}"/>
-    <hyperlink ref="AT11" r:id="rId19" xr:uid="{BBD42CF8-45B8-BC4C-8616-E5054108E74E}"/>
-    <hyperlink ref="AT12" r:id="rId20" xr:uid="{CB1028F2-6BEB-9845-BBBF-2CCF7E196D7E}"/>
-    <hyperlink ref="AT13" r:id="rId21" xr:uid="{38A05DA8-5083-B64C-9BB7-7515D994A102}"/>
-    <hyperlink ref="AS14:AS17" r:id="rId22" display="charmsparticipant12@yopmail.com" xr:uid="{F7B2D757-0C7A-4D43-8200-C0254FB3451B}"/>
-    <hyperlink ref="AS14" r:id="rId23" xr:uid="{00D2EC9C-C0B0-A94F-A0A4-8DCEB003125B}"/>
-    <hyperlink ref="AS15" r:id="rId24" xr:uid="{4B08829F-C727-1F4D-8585-8623FDC25445}"/>
-    <hyperlink ref="AS16" r:id="rId25" xr:uid="{D67C22F6-0FF5-2A43-9F6B-E465DA043CCB}"/>
-    <hyperlink ref="AS17" r:id="rId26" xr:uid="{39CD3A02-5AC2-A349-A912-CB63C565E8B1}"/>
-    <hyperlink ref="AT14:AT17" r:id="rId27" display="charmsparticipant12@yopmail.com" xr:uid="{0D113990-F28B-4045-82B3-3B329AB1A52B}"/>
-    <hyperlink ref="AU2" r:id="rId28" xr:uid="{E22D24ED-7C96-1446-A5F8-21D1507C6179}"/>
-    <hyperlink ref="AU3" r:id="rId29" xr:uid="{70C65664-4427-354A-B785-E0B132A43F5C}"/>
-    <hyperlink ref="AU4" r:id="rId30" xr:uid="{CC02BCBB-3BDC-CE48-A7EB-DEE29B97C95A}"/>
-    <hyperlink ref="AU5:AU11" r:id="rId31" display="sj.fanconitester3@yopmail.com" xr:uid="{E1A1E55B-77EC-F549-BF2B-EE817EA7E8DB}"/>
-    <hyperlink ref="AU5" r:id="rId32" xr:uid="{3BFA334B-C797-5844-9469-BDCBE15B724A}"/>
-    <hyperlink ref="AU6" r:id="rId33" xr:uid="{A23BBEA4-5507-924C-9662-585110B0F717}"/>
-    <hyperlink ref="AU7" r:id="rId34" xr:uid="{41B062F1-F9CB-704F-818B-85592F6D9883}"/>
-    <hyperlink ref="AU8" r:id="rId35" xr:uid="{7C53923E-E953-094F-A49D-C82B1F6B95B8}"/>
-    <hyperlink ref="AU9" r:id="rId36" xr:uid="{DDC7D204-E39A-FC48-A4E1-997987E166A4}"/>
-    <hyperlink ref="AU10" r:id="rId37" xr:uid="{0AF75C1A-C67C-FB4B-AE7C-3961DA7F4B14}"/>
-    <hyperlink ref="AU11" r:id="rId38" xr:uid="{8ACA7222-D208-AD4D-8034-E244E11A98B6}"/>
-    <hyperlink ref="AS10" r:id="rId39" xr:uid="{289B06F2-9A86-3847-B5A3-0A3F844F7476}"/>
-    <hyperlink ref="AV11" r:id="rId40" xr:uid="{61E7E9C0-9075-1940-B5D8-4DC1910A82BB}"/>
+    <hyperlink ref="AU7" r:id="rId1" xr:uid="{CC8E0D0F-8C4A-1647-BD51-330F10CD9EE7}"/>
+    <hyperlink ref="AU4" r:id="rId2" xr:uid="{54A26098-2C02-B14A-A8B8-E895ACEFE8FC}"/>
+    <hyperlink ref="AV4" r:id="rId3" xr:uid="{19B8EC6B-4DE1-EF45-9AC5-07A97297CA08}"/>
+    <hyperlink ref="AU2" r:id="rId4" xr:uid="{CE9060F8-46A2-8E4A-9049-D259F5FF8833}"/>
+    <hyperlink ref="AV2" r:id="rId5" xr:uid="{9F426852-B12C-F246-BBD4-2DFF4046F17B}"/>
+    <hyperlink ref="AV7" r:id="rId6" xr:uid="{F867FCEE-CDE3-774C-AA60-18F374257445}"/>
+    <hyperlink ref="AU8" r:id="rId7" xr:uid="{FF13954F-3772-2244-8624-0759DAAA195B}"/>
+    <hyperlink ref="AV8" r:id="rId8" xr:uid="{DEA58592-D611-1446-A2DF-45ED1084017D}"/>
+    <hyperlink ref="AU5" r:id="rId9" xr:uid="{AE8E2947-9665-444E-BB61-535EF103703A}"/>
+    <hyperlink ref="AV5" r:id="rId10" xr:uid="{03D22372-21FE-6647-9FB7-E611341DF12C}"/>
+    <hyperlink ref="AU6" r:id="rId11" xr:uid="{38E74D40-B9B2-9F4F-A95C-07E96ED19969}"/>
+    <hyperlink ref="AU13" r:id="rId12" xr:uid="{A84CFFC5-66D9-2E4D-9EAF-A805310521D0}"/>
+    <hyperlink ref="AU12" r:id="rId13" xr:uid="{EE58DF3D-4E06-D242-A11C-C73725F63244}"/>
+    <hyperlink ref="AU9" r:id="rId14" xr:uid="{9561474B-13C0-5C45-A0AF-651803129C22}"/>
+    <hyperlink ref="AV9" r:id="rId15" xr:uid="{A1121A3E-E434-0D46-8060-8CC9554A173E}"/>
+    <hyperlink ref="AX10" r:id="rId16" xr:uid="{74DEEA39-9EE3-DA40-986A-18AB27D7AF3D}"/>
+    <hyperlink ref="AV10" r:id="rId17" xr:uid="{10D6E031-35FA-1A41-812A-AC8A67918A79}"/>
+    <hyperlink ref="AU11" r:id="rId18" xr:uid="{E72B4306-86EB-094D-A7D7-3CE674C9E99B}"/>
+    <hyperlink ref="AV11" r:id="rId19" xr:uid="{BBD42CF8-45B8-BC4C-8616-E5054108E74E}"/>
+    <hyperlink ref="AV12" r:id="rId20" xr:uid="{CB1028F2-6BEB-9845-BBBF-2CCF7E196D7E}"/>
+    <hyperlink ref="AV13" r:id="rId21" xr:uid="{38A05DA8-5083-B64C-9BB7-7515D994A102}"/>
+    <hyperlink ref="AU14:AU17" r:id="rId22" display="charmsparticipant12@yopmail.com" xr:uid="{F7B2D757-0C7A-4D43-8200-C0254FB3451B}"/>
+    <hyperlink ref="AU14" r:id="rId23" xr:uid="{00D2EC9C-C0B0-A94F-A0A4-8DCEB003125B}"/>
+    <hyperlink ref="AU15" r:id="rId24" xr:uid="{4B08829F-C727-1F4D-8585-8623FDC25445}"/>
+    <hyperlink ref="AU16" r:id="rId25" xr:uid="{D67C22F6-0FF5-2A43-9F6B-E465DA043CCB}"/>
+    <hyperlink ref="AU17" r:id="rId26" xr:uid="{39CD3A02-5AC2-A349-A912-CB63C565E8B1}"/>
+    <hyperlink ref="AV14:AV17" r:id="rId27" display="charmsparticipant12@yopmail.com" xr:uid="{0D113990-F28B-4045-82B3-3B329AB1A52B}"/>
+    <hyperlink ref="AW2" r:id="rId28" xr:uid="{E22D24ED-7C96-1446-A5F8-21D1507C6179}"/>
+    <hyperlink ref="AW3" r:id="rId29" xr:uid="{70C65664-4427-354A-B785-E0B132A43F5C}"/>
+    <hyperlink ref="AW4" r:id="rId30" xr:uid="{CC02BCBB-3BDC-CE48-A7EB-DEE29B97C95A}"/>
+    <hyperlink ref="AW5:AW11" r:id="rId31" display="sj.fanconitester3@yopmail.com" xr:uid="{E1A1E55B-77EC-F549-BF2B-EE817EA7E8DB}"/>
+    <hyperlink ref="AW5" r:id="rId32" xr:uid="{3BFA334B-C797-5844-9469-BDCBE15B724A}"/>
+    <hyperlink ref="AW6" r:id="rId33" xr:uid="{A23BBEA4-5507-924C-9662-585110B0F717}"/>
+    <hyperlink ref="AW7" r:id="rId34" xr:uid="{41B062F1-F9CB-704F-818B-85592F6D9883}"/>
+    <hyperlink ref="AW8" r:id="rId35" xr:uid="{7C53923E-E953-094F-A49D-C82B1F6B95B8}"/>
+    <hyperlink ref="AW9" r:id="rId36" xr:uid="{DDC7D204-E39A-FC48-A4E1-997987E166A4}"/>
+    <hyperlink ref="AW10" r:id="rId37" xr:uid="{0AF75C1A-C67C-FB4B-AE7C-3961DA7F4B14}"/>
+    <hyperlink ref="AW11" r:id="rId38" xr:uid="{8ACA7222-D208-AD4D-8034-E244E11A98B6}"/>
+    <hyperlink ref="AU10" r:id="rId39" xr:uid="{289B06F2-9A86-3847-B5A3-0A3F844F7476}"/>
+    <hyperlink ref="AX11" r:id="rId40" xr:uid="{61E7E9C0-9075-1940-B5D8-4DC1910A82BB}"/>
+    <hyperlink ref="N10" r:id="rId41" xr:uid="{6B757628-38FA-A74D-BEAF-AC227B76C0DD}"/>
+    <hyperlink ref="N11" r:id="rId42" xr:uid="{139C2B48-C96F-594E-8F24-64E3A1CDE0A6}"/>
+    <hyperlink ref="O10" r:id="rId43" xr:uid="{1CC67461-0C24-F541-A9B9-C18278C7CA31}"/>
+    <hyperlink ref="O11" r:id="rId44" xr:uid="{7EF86EC7-90B3-714D-9796-1142B5BF7FD7}"/>
+    <hyperlink ref="AW12:AW13" r:id="rId45" display="sj.fanconitester3@yopmail.com" xr:uid="{52C1A450-7825-4141-99CF-80B71E48167F}"/>
+    <hyperlink ref="AW14" r:id="rId46" xr:uid="{2EE9C2DB-90F8-A243-9CA7-E09833D0BC28}"/>
+    <hyperlink ref="AW12" r:id="rId47" xr:uid="{0C35432C-0F78-1643-A4BD-BDE1C61D4469}"/>
+    <hyperlink ref="AW13" r:id="rId48" xr:uid="{5F01EED2-8F5D-4A4C-91D9-BDCD7F7F53E1}"/>
+    <hyperlink ref="AX12" r:id="rId49" xr:uid="{FEFAF783-FFCC-6348-BF87-D00D1CF1E990}"/>
+    <hyperlink ref="AX13" r:id="rId50" xr:uid="{27164563-C3D8-C349-8FCE-769EAFD2DEC2}"/>
+    <hyperlink ref="AX14" r:id="rId51" display="charmsparticipant12@yopmail.com" xr:uid="{C30F73B2-1C62-AC43-8042-64AE8ED15561}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C209F2-CDDC-0448-AE83-0A584A69343B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8086E2E-760D-8C4D-B1E4-C46221692874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="500" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
@@ -2330,9 +2330,9 @@
   </sheetPr>
   <dimension ref="A1:FF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="113" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AY10" sqref="AY10:BB11"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="113" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BB11" sqref="BB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5437,6 +5437,18 @@
       <c r="AX10" s="43" t="s">
         <v>322</v>
       </c>
+      <c r="AY10" s="21">
+        <v>3015774089</v>
+      </c>
+      <c r="AZ10" s="21">
+        <v>3014524258</v>
+      </c>
+      <c r="BA10" s="21">
+        <v>3015567865</v>
+      </c>
+      <c r="BB10" s="21">
+        <v>3015774089</v>
+      </c>
       <c r="BC10" s="39" t="s">
         <v>520</v>
       </c>
@@ -5829,6 +5841,18 @@
       </c>
       <c r="AX11" s="52" t="s">
         <v>323</v>
+      </c>
+      <c r="AY11" s="21">
+        <v>3015774089</v>
+      </c>
+      <c r="AZ11" s="21">
+        <v>3014524258</v>
+      </c>
+      <c r="BA11" s="21">
+        <v>3015567865</v>
+      </c>
+      <c r="BB11" s="21">
+        <v>3015774089</v>
       </c>
       <c r="BC11" s="47" t="s">
         <v>520</v>

--- a/src/test/java/CHARMS/resources/data.xlsx
+++ b/src/test/java/CHARMS/resources/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jains18/git/CBIIT-Test-Automation/CBIIT-Test-Automation/src/test/java/CHARMS/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8086E2E-760D-8C4D-B1E4-C46221692874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3E06B-92B6-C145-A6B5-48E9DAA560DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
+    <workbookView xWindow="10480" yWindow="500" windowWidth="30240" windowHeight="17640" xr2:uid="{B3E53782-D40D-CC47-BA00-27DFD8C445AF}"/>
   </bookViews>
   <sheets>
     <sheet name="FanconiScreener" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="523">
   <si>
     <t>Yes</t>
   </si>
@@ -2330,9 +2330,9 @@
   </sheetPr>
   <dimension ref="A1:FF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="113" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="113" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB11" sqref="BB11"/>
+      <selection pane="bottomLeft" activeCell="AO12" sqref="AO12:AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5425,6 +5425,24 @@
       <c r="AN10" s="39" t="s">
         <v>414</v>
       </c>
+      <c r="AO10" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP10" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ10" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR10" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT10" s="21">
+        <v>28907</v>
+      </c>
       <c r="AU10" s="43" t="s">
         <v>322</v>
       </c>
@@ -5829,6 +5847,9 @@
       </c>
       <c r="AN11" s="47" t="s">
         <v>414</v>
+      </c>
+      <c r="AO11" s="47" t="s">
+        <v>164</v>
       </c>
       <c r="AU11" s="51" t="s">
         <v>323</v>
